--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2C790-D04E-4EA3-984C-08DABC933EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF40114-3C3D-43CE-A49B-EAD409138D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{89EF3BF4-4FB7-4847-9095-9B3A50FD985B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" activeTab="1" xr2:uid="{89EF3BF4-4FB7-4847-9095-9B3A50FD985B}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,64 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,64 +691,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AED9EE-0796-4882-8353-14CDACCF39CB}">
   <dimension ref="B2:BB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AM13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BB34" sqref="BB34"/>
     </sheetView>
   </sheetViews>
@@ -1069,70 +1069,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" s="18" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="W2" s="30" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="W2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AB2" s="23" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AB2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AH2" s="23" t="s">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AH2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AM2" s="23" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AM2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AR2" s="23" t="s">
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AR2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AY2" s="23" t="s">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AY2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
     </row>
     <row r="3" spans="2:54" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -1189,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="32"/>
+      <c r="AC3" s="23"/>
       <c r="AD3" s="16" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1246,7 @@
         <f>LigaPrincipal!G3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="24">
         <v>150</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -1260,7 +1260,7 @@
         <f>LigaPrincipal!G9</f>
         <v>0</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="24">
         <v>150</v>
       </c>
       <c r="L4" s="13" t="s">
@@ -1274,7 +1274,7 @@
         <f>LigaPrincipal!G15</f>
         <v>0</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="24">
         <v>150</v>
       </c>
       <c r="Q4" s="13" t="s">
@@ -1292,7 +1292,7 @@
         <f>LigaPrincipal!H21</f>
         <v>0</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="24">
         <v>150</v>
       </c>
       <c r="W4" s="13" t="s">
@@ -1306,10 +1306,10 @@
         <f>LigaPrincipal!C3</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="27">
         <v>1600</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB4" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AC4" s="13" t="s">
@@ -1323,27 +1323,27 @@
         <f>LigaPrincipal!M3</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="27">
         <v>100</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="38">
         <v>1</v>
       </c>
       <c r="AI4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ4" s="19"/>
-      <c r="AK4" s="36">
+      <c r="AK4" s="27">
         <v>150</v>
       </c>
-      <c r="AM4" s="26">
+      <c r="AM4" s="38">
         <v>1</v>
       </c>
       <c r="AN4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO4" s="19"/>
-      <c r="AP4" s="36">
+      <c r="AP4" s="27">
         <v>150</v>
       </c>
       <c r="AR4" s="13" t="s">
@@ -1368,14 +1368,14 @@
         <f>LigaEliminatória!C28</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="26">
+      <c r="AY4" s="38">
         <v>1</v>
       </c>
       <c r="AZ4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA4" s="19"/>
-      <c r="BB4" s="36">
+      <c r="BB4" s="27">
         <v>300</v>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
         <f>LigaPrincipal!G4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="25">
         <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -1405,7 +1405,7 @@
         <f>LigaPrincipal!G10</f>
         <v>0</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="25">
         <v>100</v>
       </c>
       <c r="L5" s="14" t="s">
@@ -1419,7 +1419,7 @@
         <f>LigaPrincipal!G16</f>
         <v>0</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="25">
         <v>100</v>
       </c>
       <c r="Q5" s="14" t="s">
@@ -1437,7 +1437,7 @@
         <f>LigaPrincipal!H22</f>
         <v>0</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="25">
         <v>100</v>
       </c>
       <c r="W5" s="14" t="s">
@@ -1451,10 +1451,10 @@
         <f>LigaPrincipal!C4</f>
         <v>1</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="25">
         <v>800</v>
       </c>
-      <c r="AB5" s="25"/>
+      <c r="AB5" s="44"/>
       <c r="AC5" s="15" t="s">
         <v>10</v>
       </c>
@@ -1466,23 +1466,23 @@
         <f>LigaPrincipal!M4</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="27"/>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ5" s="20"/>
-      <c r="AK5" s="34">
+      <c r="AK5" s="25">
         <v>50</v>
       </c>
-      <c r="AM5" s="27"/>
+      <c r="AM5" s="39"/>
       <c r="AN5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO5" s="20"/>
-      <c r="AP5" s="34">
+      <c r="AP5" s="25">
         <v>100</v>
       </c>
       <c r="AR5" s="14" t="s">
@@ -1507,12 +1507,12 @@
         <f>LigaEliminatória!C29</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="27"/>
+      <c r="AY5" s="39"/>
       <c r="AZ5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA5" s="20"/>
-      <c r="BB5" s="34">
+      <c r="BB5" s="25">
         <v>200</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <f>LigaPrincipal!G5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="26">
         <v>50</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -1542,7 +1542,7 @@
         <f>LigaPrincipal!G11</f>
         <v>0</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="26">
         <v>50</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -1556,7 +1556,7 @@
         <f>LigaPrincipal!G17</f>
         <v>0</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="26">
         <v>50</v>
       </c>
       <c r="Q6" s="15" t="s">
@@ -1574,7 +1574,7 @@
         <f>LigaPrincipal!H23</f>
         <v>0</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="26">
         <v>50</v>
       </c>
       <c r="W6" s="14" t="s">
@@ -1588,10 +1588,10 @@
         <f>LigaPrincipal!C5</f>
         <v>2</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="25">
         <v>600</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="43" t="s">
         <v>30</v>
       </c>
       <c r="AC6" s="13" t="s">
@@ -1605,23 +1605,23 @@
         <f>LigaPrincipal!M5</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="27">
         <v>100</v>
       </c>
-      <c r="AH6" s="28"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ6" s="21"/>
-      <c r="AK6" s="35">
+      <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="28"/>
+      <c r="AM6" s="40"/>
       <c r="AN6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO6" s="21"/>
-      <c r="AP6" s="35">
+      <c r="AP6" s="26">
         <v>50</v>
       </c>
       <c r="AR6" s="14" t="s">
@@ -1646,12 +1646,12 @@
         <f>LigaEliminatória!C30</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="28"/>
+      <c r="AY6" s="40"/>
       <c r="AZ6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA6" s="21"/>
-      <c r="BB6" s="35">
+      <c r="BB6" s="26">
         <v>100</v>
       </c>
     </row>
@@ -1667,10 +1667,10 @@
         <f>LigaPrincipal!C6</f>
         <v>3</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="25">
         <v>500</v>
       </c>
-      <c r="AB7" s="25"/>
+      <c r="AB7" s="44"/>
       <c r="AC7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1682,27 +1682,27 @@
         <f>LigaPrincipal!M6</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="35">
+      <c r="AF7" s="26">
         <v>50</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="38">
         <v>2</v>
       </c>
       <c r="AI7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="36">
+      <c r="AK7" s="27">
         <v>150</v>
       </c>
-      <c r="AM7" s="26">
+      <c r="AM7" s="38">
         <v>2</v>
       </c>
       <c r="AN7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="36">
+      <c r="AP7" s="27">
         <v>150</v>
       </c>
       <c r="AR7" s="14" t="s">
@@ -1727,22 +1727,22 @@
         <f>LigaEliminatória!C31</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="26">
+      <c r="AY7" s="38">
         <v>2</v>
       </c>
       <c r="AZ7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA7" s="19"/>
-      <c r="BB7" s="36">
+      <c r="BB7" s="27">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:54" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="17"/>
       <c r="W8" s="14" t="s">
         <v>16</v>
@@ -1755,10 +1755,10 @@
         <f>LigaPrincipal!C7</f>
         <v>4</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="25">
         <v>400</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="43" t="s">
         <v>31</v>
       </c>
       <c r="AC8" s="13" t="s">
@@ -1772,23 +1772,23 @@
         <f>LigaPrincipal!M7</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="36">
+      <c r="AF8" s="27">
         <v>100</v>
       </c>
-      <c r="AH8" s="27"/>
+      <c r="AH8" s="39"/>
       <c r="AI8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ8" s="20"/>
-      <c r="AK8" s="34">
+      <c r="AK8" s="25">
         <v>50</v>
       </c>
-      <c r="AM8" s="27"/>
+      <c r="AM8" s="39"/>
       <c r="AN8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO8" s="20"/>
-      <c r="AP8" s="34">
+      <c r="AP8" s="25">
         <v>100</v>
       </c>
       <c r="AR8" s="14" t="s">
@@ -1813,12 +1813,12 @@
         <f>LigaEliminatória!C32</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="27"/>
+      <c r="AY8" s="39"/>
       <c r="AZ8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA8" s="20"/>
-      <c r="BB8" s="34">
+      <c r="BB8" s="25">
         <v>200</v>
       </c>
     </row>
@@ -1839,10 +1839,10 @@
         <f>LigaPrincipal!C8</f>
         <v>5</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="25">
         <v>350</v>
       </c>
-      <c r="AB9" s="25"/>
+      <c r="AB9" s="44"/>
       <c r="AC9" s="15" t="s">
         <v>10</v>
       </c>
@@ -1854,23 +1854,23 @@
         <f>LigaPrincipal!M8</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="26">
         <v>50</v>
       </c>
-      <c r="AH9" s="28"/>
+      <c r="AH9" s="40"/>
       <c r="AI9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ9" s="21"/>
-      <c r="AK9" s="35">
+      <c r="AK9" s="26">
         <v>30</v>
       </c>
-      <c r="AM9" s="28"/>
+      <c r="AM9" s="40"/>
       <c r="AN9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO9" s="21"/>
-      <c r="AP9" s="35">
+      <c r="AP9" s="26">
         <v>50</v>
       </c>
       <c r="AR9" s="14" t="s">
@@ -1895,12 +1895,12 @@
         <f>LigaEliminatória!C33</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="28"/>
+      <c r="AY9" s="40"/>
       <c r="AZ9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA9" s="21"/>
-      <c r="BB9" s="35">
+      <c r="BB9" s="26">
         <v>100</v>
       </c>
     </row>
@@ -1921,10 +1921,10 @@
         <f>LigaPrincipal!C9</f>
         <v>6</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10" s="25">
         <v>300</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AC10" s="13" t="s">
@@ -1938,27 +1938,27 @@
         <f>LigaPrincipal!M9</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="36">
+      <c r="AF10" s="27">
         <v>100</v>
       </c>
-      <c r="AH10" s="26">
+      <c r="AH10" s="38">
         <v>3</v>
       </c>
       <c r="AI10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="36">
+      <c r="AK10" s="27">
         <v>150</v>
       </c>
-      <c r="AM10" s="26">
+      <c r="AM10" s="38">
         <v>3</v>
       </c>
       <c r="AN10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO10" s="19"/>
-      <c r="AP10" s="36">
+      <c r="AP10" s="27">
         <v>150</v>
       </c>
       <c r="AR10" s="14" t="s">
@@ -1983,14 +1983,14 @@
         <f>LigaEliminatória!C34</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="26">
+      <c r="AY10" s="38">
         <v>3</v>
       </c>
       <c r="AZ10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA10" s="19"/>
-      <c r="BB10" s="36">
+      <c r="BB10" s="27">
         <v>300</v>
       </c>
     </row>
@@ -2011,10 +2011,10 @@
         <f>LigaPrincipal!C10</f>
         <v>7</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="25">
         <v>250</v>
       </c>
-      <c r="AB11" s="25"/>
+      <c r="AB11" s="44"/>
       <c r="AC11" s="15" t="s">
         <v>10</v>
       </c>
@@ -2026,23 +2026,23 @@
         <f>LigaPrincipal!M10</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="35">
+      <c r="AF11" s="26">
         <v>50</v>
       </c>
-      <c r="AH11" s="27"/>
+      <c r="AH11" s="39"/>
       <c r="AI11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ11" s="20"/>
-      <c r="AK11" s="34">
+      <c r="AK11" s="25">
         <v>50</v>
       </c>
-      <c r="AM11" s="27"/>
+      <c r="AM11" s="39"/>
       <c r="AN11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO11" s="20"/>
-      <c r="AP11" s="34">
+      <c r="AP11" s="25">
         <v>100</v>
       </c>
       <c r="AR11" s="14" t="s">
@@ -2067,12 +2067,12 @@
         <f>LigaEliminatória!C35</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="27"/>
+      <c r="AY11" s="39"/>
       <c r="AZ11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA11" s="20"/>
-      <c r="BB11" s="34">
+      <c r="BB11" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2093,10 +2093,10 @@
         <f>LigaPrincipal!C11</f>
         <v>8</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="Z12" s="25">
         <v>200</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AB12" s="43" t="s">
         <v>33</v>
       </c>
       <c r="AC12" s="13" t="s">
@@ -2110,23 +2110,23 @@
         <f>LigaPrincipal!M11</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="36">
+      <c r="AF12" s="27">
         <v>100</v>
       </c>
-      <c r="AH12" s="28"/>
+      <c r="AH12" s="40"/>
       <c r="AI12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ12" s="21"/>
-      <c r="AK12" s="35">
+      <c r="AK12" s="26">
         <v>30</v>
       </c>
-      <c r="AM12" s="28"/>
+      <c r="AM12" s="40"/>
       <c r="AN12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO12" s="21"/>
-      <c r="AP12" s="35">
+      <c r="AP12" s="26">
         <v>50</v>
       </c>
       <c r="AR12" s="14" t="s">
@@ -2151,12 +2151,12 @@
         <f>LigaEliminatória!C36</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="28"/>
+      <c r="AY12" s="40"/>
       <c r="AZ12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA12" s="21"/>
-      <c r="BB12" s="35">
+      <c r="BB12" s="26">
         <v>100</v>
       </c>
     </row>
@@ -2177,10 +2177,10 @@
         <f>LigaPrincipal!C12</f>
         <v>9</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13" s="26">
         <v>150</v>
       </c>
-      <c r="AB13" s="25"/>
+      <c r="AB13" s="44"/>
       <c r="AC13" s="15" t="s">
         <v>10</v>
       </c>
@@ -2192,27 +2192,27 @@
         <f>LigaPrincipal!M12</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="35">
+      <c r="AF13" s="26">
         <v>50</v>
       </c>
-      <c r="AH13" s="26">
+      <c r="AH13" s="38">
         <v>4</v>
       </c>
       <c r="AI13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="36">
+      <c r="AK13" s="27">
         <v>150</v>
       </c>
-      <c r="AM13" s="26">
+      <c r="AM13" s="38">
         <v>4</v>
       </c>
       <c r="AN13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO13" s="19"/>
-      <c r="AP13" s="36">
+      <c r="AP13" s="27">
         <v>150</v>
       </c>
       <c r="AR13" s="14" t="s">
@@ -2237,24 +2237,24 @@
         <f>LigaEliminatória!C37</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="26">
+      <c r="AY13" s="38">
         <v>4</v>
       </c>
       <c r="AZ13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA13" s="19"/>
-      <c r="BB13" s="36">
+      <c r="BB13" s="27">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:54" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="17"/>
-      <c r="AB14" s="24" t="s">
+      <c r="AB14" s="43" t="s">
         <v>34</v>
       </c>
       <c r="AC14" s="13" t="s">
@@ -2268,23 +2268,23 @@
         <f>LigaPrincipal!M13</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="27">
         <v>100</v>
       </c>
-      <c r="AH14" s="27"/>
+      <c r="AH14" s="39"/>
       <c r="AI14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ14" s="20"/>
-      <c r="AK14" s="34">
+      <c r="AK14" s="25">
         <v>50</v>
       </c>
-      <c r="AM14" s="27"/>
+      <c r="AM14" s="39"/>
       <c r="AN14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO14" s="20"/>
-      <c r="AP14" s="34">
+      <c r="AP14" s="25">
         <v>100</v>
       </c>
       <c r="AR14" s="14" t="s">
@@ -2309,12 +2309,12 @@
         <f>LigaEliminatória!C38</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="27"/>
+      <c r="AY14" s="39"/>
       <c r="AZ14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA14" s="20"/>
-      <c r="BB14" s="34">
+      <c r="BB14" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="AB15" s="25"/>
+      <c r="AB15" s="44"/>
       <c r="AC15" s="15" t="s">
         <v>10</v>
       </c>
@@ -2336,23 +2336,23 @@
         <f>LigaPrincipal!M14</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="35">
+      <c r="AF15" s="26">
         <v>50</v>
       </c>
-      <c r="AH15" s="28"/>
+      <c r="AH15" s="40"/>
       <c r="AI15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ15" s="21"/>
-      <c r="AK15" s="35">
+      <c r="AK15" s="26">
         <v>30</v>
       </c>
-      <c r="AM15" s="28"/>
+      <c r="AM15" s="40"/>
       <c r="AN15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO15" s="21"/>
-      <c r="AP15" s="35">
+      <c r="AP15" s="26">
         <v>50</v>
       </c>
       <c r="AR15" s="14" t="s">
@@ -2377,12 +2377,12 @@
         <f>LigaEliminatória!C39</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="28"/>
+      <c r="AY15" s="40"/>
       <c r="AZ15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA15" s="21"/>
-      <c r="BB15" s="35">
+      <c r="BB15" s="26">
         <v>100</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="AB16" s="24" t="s">
+      <c r="AB16" s="43" t="s">
         <v>35</v>
       </c>
       <c r="AC16" s="13" t="s">
@@ -2406,27 +2406,27 @@
         <f>LigaPrincipal!M15</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="27">
         <v>100</v>
       </c>
-      <c r="AH16" s="26">
+      <c r="AH16" s="38">
         <v>5</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="36">
+      <c r="AK16" s="27">
         <v>150</v>
       </c>
-      <c r="AM16" s="26">
+      <c r="AM16" s="38">
         <v>5</v>
       </c>
       <c r="AN16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="36">
+      <c r="AP16" s="27">
         <v>150</v>
       </c>
       <c r="AR16" s="14" t="s">
@@ -2451,14 +2451,14 @@
         <f>LigaEliminatória!C40</f>
         <v>0</v>
       </c>
-      <c r="AY16" s="26">
+      <c r="AY16" s="38">
         <v>5</v>
       </c>
       <c r="AZ16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA16" s="19"/>
-      <c r="BB16" s="36">
+      <c r="BB16" s="27">
         <v>300</v>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="AB17" s="25"/>
+      <c r="AB17" s="44"/>
       <c r="AC17" s="15" t="s">
         <v>10</v>
       </c>
@@ -2480,23 +2480,23 @@
         <f>LigaPrincipal!M16</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="35">
+      <c r="AF17" s="26">
         <v>50</v>
       </c>
-      <c r="AH17" s="27"/>
+      <c r="AH17" s="39"/>
       <c r="AI17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ17" s="20"/>
-      <c r="AK17" s="34">
+      <c r="AK17" s="25">
         <v>50</v>
       </c>
-      <c r="AM17" s="27"/>
+      <c r="AM17" s="39"/>
       <c r="AN17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO17" s="20"/>
-      <c r="AP17" s="34">
+      <c r="AP17" s="25">
         <v>100</v>
       </c>
       <c r="AR17" s="14" t="s">
@@ -2521,12 +2521,12 @@
         <f>LigaEliminatória!C41</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="27"/>
+      <c r="AY17" s="39"/>
       <c r="AZ17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA17" s="20"/>
-      <c r="BB17" s="34">
+      <c r="BB17" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="AB18" s="24" t="s">
+      <c r="AB18" s="43" t="s">
         <v>36</v>
       </c>
       <c r="AC18" s="13" t="s">
@@ -2550,23 +2550,23 @@
         <f>LigaPrincipal!M17</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="27">
         <v>100</v>
       </c>
-      <c r="AH18" s="28"/>
+      <c r="AH18" s="40"/>
       <c r="AI18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ18" s="21"/>
-      <c r="AK18" s="35">
+      <c r="AK18" s="26">
         <v>30</v>
       </c>
-      <c r="AM18" s="28"/>
+      <c r="AM18" s="40"/>
       <c r="AN18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO18" s="21"/>
-      <c r="AP18" s="35">
+      <c r="AP18" s="26">
         <v>50</v>
       </c>
       <c r="AR18" s="14" t="s">
@@ -2591,12 +2591,12 @@
         <f>LigaEliminatória!C42</f>
         <v>0</v>
       </c>
-      <c r="AY18" s="28"/>
+      <c r="AY18" s="40"/>
       <c r="AZ18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA18" s="21"/>
-      <c r="BB18" s="35">
+      <c r="BB18" s="26">
         <v>100</v>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="AB19" s="25"/>
+      <c r="AB19" s="44"/>
       <c r="AC19" s="15" t="s">
         <v>10</v>
       </c>
@@ -2618,27 +2618,27 @@
         <f>LigaPrincipal!M18</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="35">
+      <c r="AF19" s="26">
         <v>50</v>
       </c>
-      <c r="AH19" s="26">
+      <c r="AH19" s="38">
         <v>6</v>
       </c>
       <c r="AI19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="36">
+      <c r="AK19" s="27">
         <v>150</v>
       </c>
-      <c r="AM19" s="26">
+      <c r="AM19" s="38">
         <v>6</v>
       </c>
       <c r="AN19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO19" s="19"/>
-      <c r="AP19" s="36">
+      <c r="AP19" s="27">
         <v>150</v>
       </c>
       <c r="AR19" s="14" t="s">
@@ -2663,37 +2663,37 @@
         <f>LigaEliminatória!C43</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="26">
+      <c r="AY19" s="38">
         <v>6</v>
       </c>
       <c r="AZ19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA19" s="19"/>
-      <c r="BB19" s="36">
+      <c r="BB19" s="27">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:54" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="AH20" s="27"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="AH20" s="39"/>
       <c r="AI20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ20" s="20"/>
-      <c r="AK20" s="34">
+      <c r="AK20" s="25">
         <v>50</v>
       </c>
-      <c r="AM20" s="27"/>
+      <c r="AM20" s="39"/>
       <c r="AN20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO20" s="20"/>
-      <c r="AP20" s="34">
+      <c r="AP20" s="25">
         <v>100</v>
       </c>
       <c r="AR20" s="14" t="s">
@@ -2718,12 +2718,12 @@
         <f>LigaEliminatória!C44</f>
         <v>0</v>
       </c>
-      <c r="AY20" s="27"/>
+      <c r="AY20" s="39"/>
       <c r="AZ20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA20" s="20"/>
-      <c r="BB20" s="34">
+      <c r="BB20" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2733,20 +2733,20 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="AH21" s="28"/>
+      <c r="AH21" s="40"/>
       <c r="AI21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ21" s="21"/>
-      <c r="AK21" s="35">
+      <c r="AK21" s="26">
         <v>30</v>
       </c>
-      <c r="AM21" s="28"/>
+      <c r="AM21" s="40"/>
       <c r="AN21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO21" s="21"/>
-      <c r="AP21" s="35">
+      <c r="AP21" s="26">
         <v>50</v>
       </c>
       <c r="AR21" s="14" t="s">
@@ -2771,12 +2771,12 @@
         <f>LigaEliminatória!C45</f>
         <v>0</v>
       </c>
-      <c r="AY21" s="28"/>
+      <c r="AY21" s="40"/>
       <c r="AZ21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA21" s="21"/>
-      <c r="BB21" s="35">
+      <c r="BB21" s="26">
         <v>100</v>
       </c>
     </row>
@@ -2786,24 +2786,24 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="AH22" s="26">
+      <c r="AH22" s="38">
         <v>7</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="36">
+      <c r="AK22" s="27">
         <v>150</v>
       </c>
-      <c r="AM22" s="26">
+      <c r="AM22" s="38">
         <v>7</v>
       </c>
       <c r="AN22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="36">
+      <c r="AP22" s="27">
         <v>150</v>
       </c>
       <c r="AR22" s="14" t="s">
@@ -2828,14 +2828,14 @@
         <f>LigaEliminatória!C46</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="26">
+      <c r="AY22" s="38">
         <v>7</v>
       </c>
       <c r="AZ22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="BA22" s="19"/>
-      <c r="BB22" s="36">
+      <c r="BB22" s="27">
         <v>300</v>
       </c>
     </row>
@@ -2845,20 +2845,20 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="AH23" s="27"/>
+      <c r="AH23" s="39"/>
       <c r="AI23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AJ23" s="20"/>
-      <c r="AK23" s="34">
+      <c r="AK23" s="25">
         <v>50</v>
       </c>
-      <c r="AM23" s="27"/>
+      <c r="AM23" s="39"/>
       <c r="AN23" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AO23" s="20"/>
-      <c r="AP23" s="34">
+      <c r="AP23" s="25">
         <v>100</v>
       </c>
       <c r="AR23" s="14" t="s">
@@ -2883,12 +2883,12 @@
         <f>LigaEliminatória!C47</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="27"/>
+      <c r="AY23" s="39"/>
       <c r="AZ23" s="14" t="s">
         <v>10</v>
       </c>
       <c r="BA23" s="20"/>
-      <c r="BB23" s="34">
+      <c r="BB23" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2898,20 +2898,20 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="AH24" s="28"/>
+      <c r="AH24" s="40"/>
       <c r="AI24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AJ24" s="21"/>
-      <c r="AK24" s="35">
+      <c r="AK24" s="26">
         <v>30</v>
       </c>
-      <c r="AM24" s="28"/>
+      <c r="AM24" s="40"/>
       <c r="AN24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="35">
+      <c r="AP24" s="26">
         <v>50</v>
       </c>
       <c r="AR24" s="14" t="s">
@@ -2936,12 +2936,12 @@
         <f>LigaEliminatória!C48</f>
         <v>0</v>
       </c>
-      <c r="AY24" s="28"/>
+      <c r="AY24" s="40"/>
       <c r="AZ24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="BA24" s="21"/>
-      <c r="BB24" s="35">
+      <c r="BB24" s="26">
         <v>100</v>
       </c>
     </row>
@@ -3042,22 +3042,22 @@
       </c>
     </row>
     <row r="30" spans="2:54" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR30" s="23" t="s">
+      <c r="AR30" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AS30" s="23"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
-      <c r="AV30" s="23"/>
-      <c r="AW30" s="23"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="34"/>
     </row>
     <row r="31" spans="2:54" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR31" s="4"/>
-      <c r="AS31" s="39" t="s">
+      <c r="AS31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="41"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="33"/>
       <c r="AV31" s="16" t="s">
         <v>13</v>
       </c>
@@ -3069,11 +3069,11 @@
       <c r="AR32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
       <c r="AV32" s="19"/>
-      <c r="AW32" s="43">
+      <c r="AW32" s="28">
         <v>1000</v>
       </c>
     </row>
@@ -3081,11 +3081,11 @@
       <c r="AR33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AS33" s="37"/>
-      <c r="AT33" s="37"/>
-      <c r="AU33" s="37"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
       <c r="AV33" s="20"/>
-      <c r="AW33" s="44">
+      <c r="AW33" s="29">
         <v>500</v>
       </c>
     </row>
@@ -3093,11 +3093,11 @@
       <c r="AR34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
       <c r="AV34" s="20"/>
-      <c r="AW34" s="44">
+      <c r="AW34" s="29">
         <v>300</v>
       </c>
     </row>
@@ -3105,11 +3105,11 @@
       <c r="AR35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
       <c r="AV35" s="20"/>
-      <c r="AW35" s="44">
+      <c r="AW35" s="29">
         <v>250</v>
       </c>
     </row>
@@ -3117,49 +3117,34 @@
       <c r="AR36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
       <c r="AV36" s="21"/>
-      <c r="AW36" s="45">
+      <c r="AW36" s="30">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AR30:AW30"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AY19:AY21"/>
-    <mergeCell ref="AY22:AY24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY4:AY6"/>
-    <mergeCell ref="AY7:AY9"/>
-    <mergeCell ref="AY10:AY12"/>
-    <mergeCell ref="AY13:AY15"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AM7:AM9"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="AH22:AH24"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AM7:AM9"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="AB12:AB13"/>
@@ -3169,13 +3154,28 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AY7:AY9"/>
+    <mergeCell ref="AY10:AY12"/>
+    <mergeCell ref="AY13:AY15"/>
+    <mergeCell ref="AY19:AY21"/>
+    <mergeCell ref="AY22:AY24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AY16:AY18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AR30:AW30"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AS32:AU32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3188,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13D8C0E-9475-4AA4-AFE6-5C960D3D023D}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3204,22 +3204,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3260,7 +3260,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="45" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="1">
@@ -3280,7 +3280,7 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="45" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="1">
@@ -3315,7 +3315,7 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="1">
         <v>2</v>
       </c>
@@ -3330,12 +3330,12 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="1">
@@ -3358,7 +3358,7 @@
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="1">
         <v>2</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="45" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="1">
@@ -3396,7 +3396,7 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="1">
         <v>2</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="45" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="1">
@@ -3431,18 +3431,18 @@
       <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="J13" s="31" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="J13" s="45" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="1">
@@ -3456,7 +3456,7 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="1">
         <v>2</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="45" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="1">
@@ -3476,7 +3476,7 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="1">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="45" t="s">
         <v>36</v>
       </c>
       <c r="K17" s="1">
@@ -3493,18 +3493,18 @@
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="31"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
@@ -3534,11 +3534,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -3548,6 +3543,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE2437-1FBD-4C2A-B4FD-CF198E013E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3ACF7-E67F-4B98-9A6C-AE70B5D63964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +495,16 @@
       <name val="Exo 2 Extra Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFDAD08"/>
+      <name val="Karmatic Arcade"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Karmatic Arcade"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -768,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,34 +867,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,10 +894,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,125 +1236,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB34" sqref="BB34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
     <col min="14" max="15" width="11.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="1" customWidth="1"/>
     <col min="19" max="21" width="11.42578125" style="1" customWidth="1"/>
     <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="5.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="1" customWidth="1"/>
     <col min="25" max="26" width="11.42578125" style="1" customWidth="1"/>
     <col min="27" max="27" width="2.85546875" style="1" customWidth="1"/>
     <col min="28" max="29" width="5.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="1" customWidth="1"/>
     <col min="31" max="32" width="11.42578125" style="1" customWidth="1"/>
     <col min="33" max="33" width="2.85546875" style="1" customWidth="1"/>
     <col min="34" max="35" width="5.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="1" customWidth="1"/>
     <col min="37" max="37" width="11.42578125" style="1" customWidth="1"/>
     <col min="38" max="38" width="2.85546875" style="1" customWidth="1"/>
     <col min="39" max="40" width="5.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="1" customWidth="1"/>
     <col min="42" max="42" width="11.42578125" style="1" customWidth="1"/>
     <col min="43" max="43" width="2.85546875" style="1" customWidth="1"/>
     <col min="44" max="44" width="5.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="1" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="1" customWidth="1"/>
     <col min="47" max="47" width="5.7109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="17.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="1" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="1" customWidth="1"/>
     <col min="50" max="50" width="2.85546875" style="1" customWidth="1"/>
     <col min="51" max="51" width="5.42578125" style="1" customWidth="1"/>
     <col min="52" max="52" width="4.28515625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="17.140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="1" customWidth="1"/>
     <col min="54" max="54" width="11.42578125" style="1" customWidth="1"/>
     <col min="55" max="55" width="9.140625" style="1" customWidth="1"/>
     <col min="56" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:54" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="G2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="L2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="Q2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="W2" s="38" t="s">
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="W2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AB2" s="30" t="s">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AB2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AH2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AM2" s="30" t="s">
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AM2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AR2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AY2" s="30" t="s">
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AY2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
     </row>
     <row r="3" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1515,7 +1531,7 @@
       <c r="Z4" s="22">
         <v>1600</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AB4" s="50" t="s">
         <v>16</v>
       </c>
       <c r="AC4" s="11" t="s">
@@ -1532,7 +1548,7 @@
       <c r="AF4" s="22">
         <v>100</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="45">
         <v>1</v>
       </c>
       <c r="AI4" s="11" t="s">
@@ -1542,7 +1558,7 @@
       <c r="AK4" s="22">
         <v>150</v>
       </c>
-      <c r="AM4" s="34">
+      <c r="AM4" s="45">
         <v>1</v>
       </c>
       <c r="AN4" s="11" t="s">
@@ -1574,7 +1590,7 @@
         <f>LigaEliminatória!C28</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="34">
+      <c r="AY4" s="45">
         <v>1</v>
       </c>
       <c r="AZ4" s="11" t="s">
@@ -1660,7 +1676,7 @@
       <c r="Z5" s="20">
         <v>800</v>
       </c>
-      <c r="AB5" s="33"/>
+      <c r="AB5" s="47"/>
       <c r="AC5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1691,7 @@
       <c r="AF5" s="21">
         <v>50</v>
       </c>
-      <c r="AH5" s="35"/>
+      <c r="AH5" s="46"/>
       <c r="AI5" s="12" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1699,7 @@
       <c r="AK5" s="20">
         <v>50</v>
       </c>
-      <c r="AM5" s="35"/>
+      <c r="AM5" s="46"/>
       <c r="AN5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1729,7 @@
         <f>LigaEliminatória!C29</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="35"/>
+      <c r="AY5" s="46"/>
       <c r="AZ5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1813,7 @@
       <c r="Z6" s="20">
         <v>600</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="50" t="s">
         <v>23</v>
       </c>
       <c r="AC6" s="11" t="s">
@@ -1814,7 +1830,7 @@
       <c r="AF6" s="22">
         <v>100</v>
       </c>
-      <c r="AH6" s="33"/>
+      <c r="AH6" s="47"/>
       <c r="AI6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1838,7 @@
       <c r="AK6" s="21">
         <v>30</v>
       </c>
-      <c r="AM6" s="33"/>
+      <c r="AM6" s="47"/>
       <c r="AN6" s="13" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1868,7 @@
         <f>LigaEliminatória!C30</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="33"/>
+      <c r="AY6" s="47"/>
       <c r="AZ6" s="13" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1892,7 @@
       <c r="Z7" s="20">
         <v>500</v>
       </c>
-      <c r="AB7" s="33"/>
+      <c r="AB7" s="47"/>
       <c r="AC7" s="13" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1907,7 @@
       <c r="AF7" s="21">
         <v>50</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="45">
         <v>2</v>
       </c>
       <c r="AI7" s="11" t="s">
@@ -1901,7 +1917,7 @@
       <c r="AK7" s="22">
         <v>150</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="45">
         <v>2</v>
       </c>
       <c r="AN7" s="11" t="s">
@@ -1933,7 +1949,7 @@
         <f>LigaEliminatória!C31</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="45">
         <v>2</v>
       </c>
       <c r="AZ7" s="11" t="s">
@@ -1945,10 +1961,10 @@
       </c>
     </row>
     <row r="8" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="15"/>
       <c r="W8" s="12" t="s">
         <v>28</v>
@@ -1964,7 +1980,7 @@
       <c r="Z8" s="20">
         <v>400</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="50" t="s">
         <v>29</v>
       </c>
       <c r="AC8" s="11" t="s">
@@ -1981,7 +1997,7 @@
       <c r="AF8" s="22">
         <v>100</v>
       </c>
-      <c r="AH8" s="35"/>
+      <c r="AH8" s="46"/>
       <c r="AI8" s="12" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +2005,7 @@
       <c r="AK8" s="20">
         <v>50</v>
       </c>
-      <c r="AM8" s="35"/>
+      <c r="AM8" s="46"/>
       <c r="AN8" s="12" t="s">
         <v>19</v>
       </c>
@@ -2019,7 +2035,7 @@
         <f>LigaEliminatória!C32</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="35"/>
+      <c r="AY8" s="46"/>
       <c r="AZ8" s="12" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +2064,7 @@
       <c r="Z9" s="20">
         <v>350</v>
       </c>
-      <c r="AB9" s="33"/>
+      <c r="AB9" s="47"/>
       <c r="AC9" s="13" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2079,7 @@
       <c r="AF9" s="21">
         <v>50</v>
       </c>
-      <c r="AH9" s="33"/>
+      <c r="AH9" s="47"/>
       <c r="AI9" s="13" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +2087,7 @@
       <c r="AK9" s="21">
         <v>30</v>
       </c>
-      <c r="AM9" s="33"/>
+      <c r="AM9" s="47"/>
       <c r="AN9" s="13" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2117,7 @@
         <f>LigaEliminatória!C33</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="33"/>
+      <c r="AY9" s="47"/>
       <c r="AZ9" s="13" t="s">
         <v>22</v>
       </c>
@@ -2130,7 +2146,7 @@
       <c r="Z10" s="20">
         <v>300</v>
       </c>
-      <c r="AB10" s="32" t="s">
+      <c r="AB10" s="50" t="s">
         <v>34</v>
       </c>
       <c r="AC10" s="11" t="s">
@@ -2147,7 +2163,7 @@
       <c r="AF10" s="22">
         <v>100</v>
       </c>
-      <c r="AH10" s="34">
+      <c r="AH10" s="45">
         <v>3</v>
       </c>
       <c r="AI10" s="11" t="s">
@@ -2157,7 +2173,7 @@
       <c r="AK10" s="22">
         <v>150</v>
       </c>
-      <c r="AM10" s="34">
+      <c r="AM10" s="45">
         <v>3</v>
       </c>
       <c r="AN10" s="11" t="s">
@@ -2189,7 +2205,7 @@
         <f>LigaEliminatória!C34</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="34">
+      <c r="AY10" s="45">
         <v>3</v>
       </c>
       <c r="AZ10" s="11" t="s">
@@ -2220,7 +2236,7 @@
       <c r="Z11" s="20">
         <v>250</v>
       </c>
-      <c r="AB11" s="33"/>
+      <c r="AB11" s="47"/>
       <c r="AC11" s="13" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2251,7 @@
       <c r="AF11" s="21">
         <v>50</v>
       </c>
-      <c r="AH11" s="35"/>
+      <c r="AH11" s="46"/>
       <c r="AI11" s="12" t="s">
         <v>20</v>
       </c>
@@ -2243,7 +2259,7 @@
       <c r="AK11" s="20">
         <v>50</v>
       </c>
-      <c r="AM11" s="35"/>
+      <c r="AM11" s="46"/>
       <c r="AN11" s="12" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2289,7 @@
         <f>LigaEliminatória!C35</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="35"/>
+      <c r="AY11" s="46"/>
       <c r="AZ11" s="12" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2318,7 @@
       <c r="Z12" s="20">
         <v>200</v>
       </c>
-      <c r="AB12" s="32" t="s">
+      <c r="AB12" s="50" t="s">
         <v>39</v>
       </c>
       <c r="AC12" s="11" t="s">
@@ -2319,7 +2335,7 @@
       <c r="AF12" s="22">
         <v>100</v>
       </c>
-      <c r="AH12" s="33"/>
+      <c r="AH12" s="47"/>
       <c r="AI12" s="13" t="s">
         <v>24</v>
       </c>
@@ -2327,7 +2343,7 @@
       <c r="AK12" s="21">
         <v>30</v>
       </c>
-      <c r="AM12" s="33"/>
+      <c r="AM12" s="47"/>
       <c r="AN12" s="13" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +2373,7 @@
         <f>LigaEliminatória!C36</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="33"/>
+      <c r="AY12" s="47"/>
       <c r="AZ12" s="13" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2402,7 @@
       <c r="Z13" s="21">
         <v>150</v>
       </c>
-      <c r="AB13" s="33"/>
+      <c r="AB13" s="47"/>
       <c r="AC13" s="13" t="s">
         <v>19</v>
       </c>
@@ -2401,7 +2417,7 @@
       <c r="AF13" s="21">
         <v>50</v>
       </c>
-      <c r="AH13" s="34">
+      <c r="AH13" s="45">
         <v>4</v>
       </c>
       <c r="AI13" s="11" t="s">
@@ -2411,7 +2427,7 @@
       <c r="AK13" s="22">
         <v>150</v>
       </c>
-      <c r="AM13" s="34">
+      <c r="AM13" s="45">
         <v>4</v>
       </c>
       <c r="AN13" s="11" t="s">
@@ -2443,7 +2459,7 @@
         <f>LigaEliminatória!C37</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="34">
+      <c r="AY13" s="45">
         <v>4</v>
       </c>
       <c r="AZ13" s="11" t="s">
@@ -2455,12 +2471,12 @@
       </c>
     </row>
     <row r="14" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="15"/>
-      <c r="AB14" s="32" t="s">
+      <c r="AB14" s="50" t="s">
         <v>43</v>
       </c>
       <c r="AC14" s="11" t="s">
@@ -2477,7 +2493,7 @@
       <c r="AF14" s="22">
         <v>100</v>
       </c>
-      <c r="AH14" s="35"/>
+      <c r="AH14" s="46"/>
       <c r="AI14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2501,7 @@
       <c r="AK14" s="20">
         <v>50</v>
       </c>
-      <c r="AM14" s="35"/>
+      <c r="AM14" s="46"/>
       <c r="AN14" s="12" t="s">
         <v>19</v>
       </c>
@@ -2515,7 +2531,7 @@
         <f>LigaEliminatória!C38</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="35"/>
+      <c r="AY14" s="46"/>
       <c r="AZ14" s="12" t="s">
         <v>19</v>
       </c>
@@ -2530,7 +2546,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="AB15" s="33"/>
+      <c r="AB15" s="47"/>
       <c r="AC15" s="13" t="s">
         <v>19</v>
       </c>
@@ -2545,7 +2561,7 @@
       <c r="AF15" s="21">
         <v>50</v>
       </c>
-      <c r="AH15" s="33"/>
+      <c r="AH15" s="47"/>
       <c r="AI15" s="13" t="s">
         <v>24</v>
       </c>
@@ -2553,7 +2569,7 @@
       <c r="AK15" s="21">
         <v>30</v>
       </c>
-      <c r="AM15" s="33"/>
+      <c r="AM15" s="47"/>
       <c r="AN15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2583,7 +2599,7 @@
         <f>LigaEliminatória!C39</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="33"/>
+      <c r="AY15" s="47"/>
       <c r="AZ15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2614,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="AB16" s="32" t="s">
+      <c r="AB16" s="50" t="s">
         <v>48</v>
       </c>
       <c r="AC16" s="11" t="s">
@@ -2615,7 +2631,7 @@
       <c r="AF16" s="22">
         <v>100</v>
       </c>
-      <c r="AH16" s="34">
+      <c r="AH16" s="45">
         <v>5</v>
       </c>
       <c r="AI16" s="11" t="s">
@@ -2625,7 +2641,7 @@
       <c r="AK16" s="22">
         <v>150</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="45">
         <v>5</v>
       </c>
       <c r="AN16" s="11" t="s">
@@ -2657,7 +2673,7 @@
         <f>LigaEliminatória!C40</f>
         <v>0</v>
       </c>
-      <c r="AY16" s="34">
+      <c r="AY16" s="45">
         <v>5</v>
       </c>
       <c r="AZ16" s="11" t="s">
@@ -2674,7 +2690,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="AB17" s="33"/>
+      <c r="AB17" s="47"/>
       <c r="AC17" s="13" t="s">
         <v>19</v>
       </c>
@@ -2689,7 +2705,7 @@
       <c r="AF17" s="21">
         <v>50</v>
       </c>
-      <c r="AH17" s="35"/>
+      <c r="AH17" s="46"/>
       <c r="AI17" s="12" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2713,7 @@
       <c r="AK17" s="20">
         <v>50</v>
       </c>
-      <c r="AM17" s="35"/>
+      <c r="AM17" s="46"/>
       <c r="AN17" s="12" t="s">
         <v>19</v>
       </c>
@@ -2727,7 +2743,7 @@
         <f>LigaEliminatória!C41</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="35"/>
+      <c r="AY17" s="46"/>
       <c r="AZ17" s="12" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2758,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="AB18" s="32" t="s">
+      <c r="AB18" s="50" t="s">
         <v>53</v>
       </c>
       <c r="AC18" s="11" t="s">
@@ -2759,7 +2775,7 @@
       <c r="AF18" s="22">
         <v>100</v>
       </c>
-      <c r="AH18" s="33"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="13" t="s">
         <v>24</v>
       </c>
@@ -2767,7 +2783,7 @@
       <c r="AK18" s="21">
         <v>30</v>
       </c>
-      <c r="AM18" s="33"/>
+      <c r="AM18" s="47"/>
       <c r="AN18" s="13" t="s">
         <v>22</v>
       </c>
@@ -2797,7 +2813,7 @@
         <f>LigaEliminatória!C42</f>
         <v>0</v>
       </c>
-      <c r="AY18" s="33"/>
+      <c r="AY18" s="47"/>
       <c r="AZ18" s="13" t="s">
         <v>22</v>
       </c>
@@ -2812,7 +2828,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="AB19" s="33"/>
+      <c r="AB19" s="47"/>
       <c r="AC19" s="13" t="s">
         <v>19</v>
       </c>
@@ -2827,7 +2843,7 @@
       <c r="AF19" s="21">
         <v>50</v>
       </c>
-      <c r="AH19" s="34">
+      <c r="AH19" s="45">
         <v>6</v>
       </c>
       <c r="AI19" s="11" t="s">
@@ -2837,7 +2853,7 @@
       <c r="AK19" s="22">
         <v>150</v>
       </c>
-      <c r="AM19" s="34">
+      <c r="AM19" s="45">
         <v>6</v>
       </c>
       <c r="AN19" s="11" t="s">
@@ -2869,7 +2885,7 @@
         <f>LigaEliminatória!C43</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="34">
+      <c r="AY19" s="45">
         <v>6</v>
       </c>
       <c r="AZ19" s="11" t="s">
@@ -2881,12 +2897,12 @@
       </c>
     </row>
     <row r="20" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="AH20" s="35"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="AH20" s="46"/>
       <c r="AI20" s="12" t="s">
         <v>20</v>
       </c>
@@ -2894,7 +2910,7 @@
       <c r="AK20" s="20">
         <v>50</v>
       </c>
-      <c r="AM20" s="35"/>
+      <c r="AM20" s="46"/>
       <c r="AN20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2924,7 +2940,7 @@
         <f>LigaEliminatória!C44</f>
         <v>0</v>
       </c>
-      <c r="AY20" s="35"/>
+      <c r="AY20" s="46"/>
       <c r="AZ20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2939,7 +2955,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="AH21" s="33"/>
+      <c r="AH21" s="47"/>
       <c r="AI21" s="13" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2963,7 @@
       <c r="AK21" s="21">
         <v>30</v>
       </c>
-      <c r="AM21" s="33"/>
+      <c r="AM21" s="47"/>
       <c r="AN21" s="13" t="s">
         <v>22</v>
       </c>
@@ -2977,7 +2993,7 @@
         <f>LigaEliminatória!C45</f>
         <v>0</v>
       </c>
-      <c r="AY21" s="33"/>
+      <c r="AY21" s="47"/>
       <c r="AZ21" s="13" t="s">
         <v>22</v>
       </c>
@@ -2992,7 +3008,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="AH22" s="34">
+      <c r="AH22" s="45">
         <v>7</v>
       </c>
       <c r="AI22" s="11" t="s">
@@ -3002,7 +3018,7 @@
       <c r="AK22" s="22">
         <v>150</v>
       </c>
-      <c r="AM22" s="34">
+      <c r="AM22" s="45">
         <v>7</v>
       </c>
       <c r="AN22" s="11" t="s">
@@ -3034,7 +3050,7 @@
         <f>LigaEliminatória!C46</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="34">
+      <c r="AY22" s="45">
         <v>7</v>
       </c>
       <c r="AZ22" s="11" t="s">
@@ -3051,7 +3067,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="AH23" s="35"/>
+      <c r="AH23" s="46"/>
       <c r="AI23" s="12" t="s">
         <v>20</v>
       </c>
@@ -3059,7 +3075,7 @@
       <c r="AK23" s="20">
         <v>50</v>
       </c>
-      <c r="AM23" s="35"/>
+      <c r="AM23" s="46"/>
       <c r="AN23" s="12" t="s">
         <v>19</v>
       </c>
@@ -3089,7 +3105,7 @@
         <f>LigaEliminatória!C47</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="35"/>
+      <c r="AY23" s="46"/>
       <c r="AZ23" s="12" t="s">
         <v>19</v>
       </c>
@@ -3104,7 +3120,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="AH24" s="33"/>
+      <c r="AH24" s="47"/>
       <c r="AI24" s="13" t="s">
         <v>24</v>
       </c>
@@ -3112,7 +3128,7 @@
       <c r="AK24" s="21">
         <v>30</v>
       </c>
-      <c r="AM24" s="33"/>
+      <c r="AM24" s="47"/>
       <c r="AN24" s="13" t="s">
         <v>22</v>
       </c>
@@ -3142,7 +3158,7 @@
         <f>LigaEliminatória!C48</f>
         <v>0</v>
       </c>
-      <c r="AY24" s="33"/>
+      <c r="AY24" s="47"/>
       <c r="AZ24" s="13" t="s">
         <v>22</v>
       </c>
@@ -3248,22 +3264,22 @@
       </c>
     </row>
     <row r="30" spans="2:54" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR30" s="30" t="s">
+      <c r="AR30" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
-      <c r="AW30" s="37"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="35"/>
     </row>
     <row r="31" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR31" s="2"/>
-      <c r="AS31" s="39" t="s">
+      <c r="AS31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="41"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="33"/>
       <c r="AV31" s="14" t="s">
         <v>11</v>
       </c>
@@ -3275,9 +3291,9 @@
       <c r="AR32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="50"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="44"/>
       <c r="AV32" s="28"/>
       <c r="AW32" s="23">
         <v>1000</v>
@@ -3287,9 +3303,9 @@
       <c r="AR33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="47"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="41"/>
       <c r="AV33" s="27"/>
       <c r="AW33" s="24">
         <v>500</v>
@@ -3299,9 +3315,9 @@
       <c r="AR34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="46"/>
-      <c r="AU34" s="47"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="41"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="24">
         <v>300</v>
@@ -3311,9 +3327,9 @@
       <c r="AR35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="47"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="41"/>
       <c r="AV35" s="27"/>
       <c r="AW35" s="24">
         <v>250</v>
@@ -3323,9 +3339,9 @@
       <c r="AR36" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="43"/>
-      <c r="AU36" s="44"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="38"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="25">
         <v>200</v>
@@ -3333,28 +3349,16 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AR30:AW30"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AY19:AY21"/>
-    <mergeCell ref="AY22:AY24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY4:AY6"/>
-    <mergeCell ref="AY7:AY9"/>
-    <mergeCell ref="AY10:AY12"/>
-    <mergeCell ref="AY13:AY15"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AM7:AM9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="AH19:AH21"/>
     <mergeCell ref="AH2:AK2"/>
@@ -3367,24 +3371,37 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AM7:AM9"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AY7:AY9"/>
+    <mergeCell ref="AY10:AY12"/>
+    <mergeCell ref="AY13:AY15"/>
+    <mergeCell ref="AY19:AY21"/>
+    <mergeCell ref="AY22:AY24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AY16:AY18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AR30:AW30"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AS32:AU32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3409,22 +3426,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="E1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="J1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="E1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="J1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
@@ -3471,7 +3488,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="29">
@@ -3494,10 +3511,10 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="52">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51"/>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52"/>
       <c r="K4" s="29">
         <v>2</v>
       </c>
@@ -3518,10 +3535,10 @@
       <c r="F5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="52">
-        <v>0</v>
-      </c>
-      <c r="J5" s="51" t="s">
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="29">
@@ -3538,7 +3555,7 @@
       <c r="C6" s="29">
         <v>0</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="29">
         <v>2</v>
       </c>
@@ -3553,12 +3570,12 @@
       <c r="C7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="J7" s="51" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="J7" s="52" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="29">
@@ -3581,7 +3598,7 @@
       <c r="G8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="29">
         <v>2</v>
       </c>
@@ -3599,7 +3616,7 @@
       <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="52" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="29">
@@ -3619,7 +3636,7 @@
       <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="29">
         <v>2</v>
       </c>
@@ -3637,7 +3654,7 @@
       <c r="E11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="52" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="29">
@@ -3654,18 +3671,18 @@
       <c r="C12" s="29">
         <v>0</v>
       </c>
-      <c r="J12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="J13" s="51" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="J13" s="52" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="29">
@@ -3679,7 +3696,7 @@
       <c r="G14" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="29">
         <v>2</v>
       </c>
@@ -3691,7 +3708,7 @@
       <c r="F15" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="52" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="29">
@@ -3705,7 +3722,7 @@
       <c r="F16" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="29">
         <v>2</v>
       </c>
@@ -3717,7 +3734,7 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="52" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="29">
@@ -3725,18 +3742,18 @@
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F20" s="29" t="s">
@@ -3766,11 +3783,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -3780,6 +3792,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3789,7 +3806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B52"/>
     </sheetView>
   </sheetViews>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -3550,23 +3550,23 @@
       </c>
       <c r="B3" s="52" t="inlineStr">
         <is>
-          <t>Brahma 07 FC</t>
+          <t>METAMORPHO</t>
         </is>
       </c>
       <c r="C3" s="52" t="n">
-        <v>0</v>
+        <v>3.050003051757812</v>
       </c>
       <c r="E3" s="52" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brahma 07 FC</t>
+          <t>APOCALIPSE1910</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.9500122070313</t>
         </is>
       </c>
       <c r="J3" s="52" t="inlineStr">
@@ -3584,23 +3584,23 @@
       </c>
       <c r="B4" s="52" t="inlineStr">
         <is>
-          <t>LiverpooI</t>
+          <t>APOCALIPSE1910</t>
         </is>
       </c>
       <c r="C4" s="52" t="n">
-        <v>0</v>
+        <v>10.95001220703125</v>
       </c>
       <c r="E4" s="52" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LiverpooI</t>
+          <t>$ANTO$</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.8900146484375</t>
         </is>
       </c>
       <c r="K4" s="52" t="n">
@@ -3613,23 +3613,23 @@
       </c>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>Renalare</t>
+          <t>$ANTO$</t>
         </is>
       </c>
       <c r="C5" s="52" t="n">
-        <v>0</v>
+        <v>11.8900146484375</v>
       </c>
       <c r="E5" s="52" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Renalare</t>
+          <t>Shibo F.C.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.6500244140625</t>
         </is>
       </c>
       <c r="J5" s="52" t="inlineStr">
@@ -3647,11 +3647,11 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>El Loko China</t>
+          <t>Shibo F.C.</t>
         </is>
       </c>
       <c r="C6" s="52" t="n">
-        <v>0</v>
+        <v>12.6500244140625</v>
       </c>
       <c r="K6" s="52" t="n">
         <v>2</v>
@@ -3663,11 +3663,11 @@
       </c>
       <c r="B7" s="52" t="inlineStr">
         <is>
-          <t>Fantasma Osasco fc</t>
+          <t>alhfao</t>
         </is>
       </c>
       <c r="C7" s="52" t="n">
-        <v>0</v>
+        <v>13.6500244140625</v>
       </c>
       <c r="E7" s="52" t="inlineStr">
         <is>
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B8" s="52" t="inlineStr">
         <is>
-          <t>LQueiroz Castelucas FC</t>
+          <t>Palestra 1000 Grau fc</t>
         </is>
       </c>
       <c r="C8" s="52" t="n">
-        <v>0</v>
+        <v>16.0899658203125</v>
       </c>
       <c r="F8" s="52" t="inlineStr">
         <is>
@@ -3715,11 +3715,11 @@
       </c>
       <c r="B9" s="52" t="inlineStr">
         <is>
-          <t>SCCP Quarta força</t>
+          <t>El Loko China</t>
         </is>
       </c>
       <c r="C9" s="52" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E9" s="52" t="n">
         <v>1</v>
@@ -3739,11 +3739,11 @@
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
-          <t>Los Angeles Stars FC</t>
+          <t>Pagangrizo’s team</t>
         </is>
       </c>
       <c r="C10" s="52" t="n">
-        <v>0</v>
+        <v>19.3499755859375</v>
       </c>
       <c r="E10" s="52" t="n">
         <v>2</v>
@@ -3758,11 +3758,11 @@
       </c>
       <c r="B11" s="52" t="inlineStr">
         <is>
-          <t>Renato 007 Exp 2021</t>
+          <t>Hrvatska Soccer F.C</t>
         </is>
       </c>
       <c r="C11" s="52" t="n">
-        <v>0</v>
+        <v>19.550048828125</v>
       </c>
       <c r="E11" s="52" t="n">
         <v>3</v>
@@ -3782,11 +3782,11 @@
       </c>
       <c r="B12" s="52" t="inlineStr">
         <is>
-          <t>Kattegat Vila Belmiro</t>
+          <t>F.C Trupingas</t>
         </is>
       </c>
       <c r="C12" s="52" t="n">
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="K12" s="52" t="n">
         <v>2</v>
@@ -3831,6 +3831,9 @@
           <t>Los Angeles Stars FC</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>82.62</v>
+      </c>
       <c r="J15" s="52" t="inlineStr">
         <is>
           <t>Nov</t>
@@ -3846,8 +3849,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CLECIO1976 F.C</t>
-        </is>
+          <t>METAMORPHO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>82.90000000000001</v>
       </c>
       <c r="K16" s="52" t="n">
         <v>2</v>
@@ -3859,8 +3865,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>E.C SIEMACO SP</t>
-        </is>
+          <t>DUFF F.D.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>83.02</v>
       </c>
       <c r="J17" s="52" t="inlineStr">
         <is>
@@ -3904,15 +3913,48 @@
       <c r="E21" s="52" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>METAMORPHO</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.050003051757812</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="E22" s="52" t="n">
         <v>2</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>APOCALIPSE1910</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.95001220703125</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" s="52" t="n">
         <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>$ANTO$</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>11.8900146484375</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3973,8 +4015,11 @@
       </c>
       <c r="B3" s="52" t="inlineStr">
         <is>
-          <t>LiverpooI</t>
-        </is>
+          <t>METAMORPHO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.050003051757812</v>
       </c>
     </row>
     <row r="4">
@@ -3983,8 +4028,11 @@
       </c>
       <c r="B4" s="52" t="inlineStr">
         <is>
-          <t>Fantasma Osasco fc</t>
-        </is>
+          <t>$ANTO$</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11.8900146484375</v>
       </c>
     </row>
     <row r="5">
@@ -3993,8 +4041,11 @@
       </c>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>Renato 007 Exp 2021</t>
-        </is>
+          <t>Shibo F.C.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12.6500244140625</v>
       </c>
     </row>
     <row r="6">
@@ -4003,8 +4054,11 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>CLECIO1976 F.C</t>
-        </is>
+          <t>Palestra 1000 Grau fc</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16.0899658203125</v>
       </c>
     </row>
     <row r="7">
@@ -4013,8 +4067,11 @@
       </c>
       <c r="B7" s="52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meus Ovos </t>
-        </is>
+          <t>Pagangrizo’s team</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19.3499755859375</v>
       </c>
     </row>
     <row r="8">
@@ -4023,8 +4080,11 @@
       </c>
       <c r="B8" s="52" t="inlineStr">
         <is>
-          <t>DUFF F.D.</t>
-        </is>
+          <t>SEP Campeoníssimo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20.949951171875</v>
       </c>
     </row>
     <row r="9">
@@ -4033,8 +4093,11 @@
       </c>
       <c r="B9" s="52" t="inlineStr">
         <is>
-          <t>E.C SIEMACO SP</t>
-        </is>
+          <t>LamucciSPFC</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21.25</v>
       </c>
     </row>
     <row r="10">
@@ -4043,8 +4106,11 @@
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
-          <t>RealXavier</t>
-        </is>
+          <t>São Paulo Edu Física</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>21.6500244140625</v>
       </c>
     </row>
     <row r="11">
@@ -4053,8 +4119,11 @@
       </c>
       <c r="B11" s="52" t="inlineStr">
         <is>
-          <t>THG.VILA.IZABEL</t>
-        </is>
+          <t>DUFF F.D.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22.5400390625</v>
       </c>
     </row>
     <row r="12">
@@ -4063,8 +4132,11 @@
       </c>
       <c r="B12" s="52" t="inlineStr">
         <is>
-          <t>PS4 Cartola com água 2021</t>
-        </is>
+          <t>Fantasma Osasco fc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22.6500244140625</v>
       </c>
     </row>
     <row r="13">
@@ -4073,8 +4145,11 @@
       </c>
       <c r="B13" s="52" t="inlineStr">
         <is>
-          <t>SC Karate Kid</t>
-        </is>
+          <t>Verdão 1000 grau FC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28.75</v>
       </c>
     </row>
     <row r="14">
@@ -4083,8 +4158,11 @@
       </c>
       <c r="B14" s="52" t="inlineStr">
         <is>
-          <t>Pagangrizo’s team</t>
-        </is>
+          <t>KAMIKA$E F.C</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>33.050048828125</v>
       </c>
     </row>
     <row r="15">
@@ -4093,8 +4171,11 @@
       </c>
       <c r="B15" s="52" t="inlineStr">
         <is>
-          <t>S.E. FINISH</t>
-        </is>
+          <t>LQueiroz FC</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>35.85009765625</v>
       </c>
     </row>
     <row r="16">
@@ -4103,8 +4184,11 @@
       </c>
       <c r="B16" s="52" t="inlineStr">
         <is>
-          <t>Porco Verde WA</t>
-        </is>
+          <t>$uicide $quad F.C</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36.25</v>
       </c>
     </row>
     <row r="17">
@@ -4113,8 +4197,11 @@
       </c>
       <c r="B17" s="52" t="inlineStr">
         <is>
-          <t>METAMORPHO</t>
-        </is>
+          <t>R.N.S FC</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37.050048828125</v>
       </c>
     </row>
     <row r="18">
@@ -4123,8 +4210,11 @@
       </c>
       <c r="B18" s="52" t="inlineStr">
         <is>
-          <t>R.N.S FC</t>
-        </is>
+          <t>LiverpooI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>38.35009765625</v>
       </c>
     </row>
     <row r="19">
@@ -4133,8 +4223,11 @@
       </c>
       <c r="B19" s="52" t="inlineStr">
         <is>
-          <t>Breeja F.C</t>
-        </is>
+          <t>MALMO FUTEBOL F.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>38.75</v>
       </c>
     </row>
     <row r="20">
@@ -4143,8 +4236,11 @@
       </c>
       <c r="B20" s="52" t="inlineStr">
         <is>
-          <t>Rei dos mares F.C</t>
-        </is>
+          <t>ROLETA RU$$A F.C</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>41.050048828125</v>
       </c>
     </row>
     <row r="21">
@@ -4153,8 +4249,11 @@
       </c>
       <c r="B21" s="52" t="inlineStr">
         <is>
-          <t>CHAPELETA10</t>
-        </is>
+          <t>THG.VILA.IZABEL</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>41.14990234375</v>
       </c>
     </row>
     <row r="22">
@@ -4163,8 +4262,11 @@
       </c>
       <c r="B22" s="52" t="inlineStr">
         <is>
-          <t>Tornadooo F.C</t>
-        </is>
+          <t>Bávaros Bier</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>41.35009765625</v>
       </c>
     </row>
     <row r="23">
@@ -4173,8 +4275,11 @@
       </c>
       <c r="B23" s="52" t="inlineStr">
         <is>
-          <t>TERUEG</t>
-        </is>
+          <t>REF $ELIMINATOR$</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>41.449951171875</v>
       </c>
     </row>
     <row r="24">
@@ -4183,8 +4288,11 @@
       </c>
       <c r="B24" s="52" t="inlineStr">
         <is>
-          <t>SCFVelasco2021</t>
-        </is>
+          <t>S.C. JUNIOR SIEMACO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>41.550048828125</v>
       </c>
     </row>
     <row r="25">
@@ -4193,8 +4301,11 @@
       </c>
       <c r="B25" s="52" t="inlineStr">
         <is>
-          <t>MEM- TRICOLOR</t>
-        </is>
+          <t>Tornad000</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>43.25</v>
       </c>
     </row>
     <row r="26">
@@ -4203,8 +4314,11 @@
       </c>
       <c r="B26" s="52" t="inlineStr">
         <is>
-          <t>Verdão 1000 grau FC</t>
-        </is>
+          <t>SCFVelasco2021</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>43.449951171875</v>
       </c>
     </row>
     <row r="27">
@@ -4213,8 +4327,11 @@
       </c>
       <c r="B27" s="52" t="inlineStr">
         <is>
-          <t>Brasilândia MSFC</t>
-        </is>
+          <t>MEM- TRICOLOR</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>43.550048828125</v>
       </c>
     </row>
     <row r="28">
@@ -4223,8 +4340,11 @@
       </c>
       <c r="B28" s="52" t="inlineStr">
         <is>
-          <t>Shibo F.C.</t>
-        </is>
+          <t>Rei dos mares F.C</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>43.85009765625</v>
       </c>
     </row>
     <row r="29">
@@ -4233,8 +4353,11 @@
       </c>
       <c r="B29" s="52" t="inlineStr">
         <is>
-          <t>ROLETA RU$$A F.C</t>
-        </is>
+          <t>Reinafcr</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>44.449951171875</v>
       </c>
     </row>
     <row r="30">
@@ -4243,8 +4366,11 @@
       </c>
       <c r="B30" s="52" t="inlineStr">
         <is>
-          <t>MCML Futebol Clube IBR</t>
-        </is>
+          <t>CLECIO1976 F.C</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>45.25</v>
       </c>
     </row>
     <row r="31">
@@ -4253,8 +4379,11 @@
       </c>
       <c r="B31" s="52" t="inlineStr">
         <is>
-          <t>AVANTI AZZURRA</t>
-        </is>
+          <t>E.C SIEMACO SP</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>45.550048828125</v>
       </c>
     </row>
     <row r="32">
@@ -4263,8 +4392,11 @@
       </c>
       <c r="B32" s="52" t="inlineStr">
         <is>
-          <t>DiasBons EC</t>
-        </is>
+          <t>Breeja F.C</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>45.949951171875</v>
       </c>
     </row>
     <row r="33">
@@ -4273,8 +4405,11 @@
       </c>
       <c r="B33" s="52" t="inlineStr">
         <is>
-          <t>L&amp;G Cabral</t>
-        </is>
+          <t xml:space="preserve">Meus Ovos </t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>47.35009765625</v>
       </c>
     </row>
     <row r="34">
@@ -4283,8 +4418,11 @@
       </c>
       <c r="B34" s="52" t="inlineStr">
         <is>
-          <t>Reinafcr</t>
-        </is>
+          <t>MCML Futebol Clube IBR</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>47.85009765625</v>
       </c>
     </row>
     <row r="35">
@@ -4293,8 +4431,11 @@
       </c>
       <c r="B35" s="52" t="inlineStr">
         <is>
-          <t>KAMIKA$E F.C</t>
-        </is>
+          <t>RealXavier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>49.030029296875</v>
       </c>
     </row>
     <row r="36">
@@ -4303,8 +4444,11 @@
       </c>
       <c r="B36" s="52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Holanda de Wakanda</t>
-        </is>
+          <t>Cata Cata 71</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>51.3701171875</v>
       </c>
     </row>
     <row r="37">
@@ -4313,8 +4457,11 @@
       </c>
       <c r="B37" s="52" t="inlineStr">
         <is>
-          <t>MALMO FUTEBOL F.</t>
-        </is>
+          <t xml:space="preserve">S.C. Brasilandia City </t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>51.389892578125</v>
       </c>
     </row>
     <row r="38">
@@ -4323,8 +4470,11 @@
       </c>
       <c r="B38" s="52" t="inlineStr">
         <is>
-          <t xml:space="preserve">S.C. Brasilandia City </t>
-        </is>
+          <t>PS4 Cartola com água 2021</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>51.530029296875</v>
       </c>
     </row>
     <row r="39">
@@ -4333,8 +4483,11 @@
       </c>
       <c r="B39" s="52" t="inlineStr">
         <is>
-          <t>S.C. JUNIOR SIEMACO</t>
-        </is>
+          <t>AVANTI AZZURRA</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>51.64990234375</v>
       </c>
     </row>
     <row r="40">
@@ -4343,8 +4496,11 @@
       </c>
       <c r="B40" s="52" t="inlineStr">
         <is>
-          <t>Bávaros Bier</t>
-        </is>
+          <t>Renato 007 Exp 2021</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>52.64990234375</v>
       </c>
     </row>
     <row r="41">
@@ -4353,8 +4509,11 @@
       </c>
       <c r="B41" s="52" t="inlineStr">
         <is>
-          <t>LamucciSPFC</t>
-        </is>
+          <t>Brasilândia MSFC</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>53.64990234375</v>
       </c>
     </row>
     <row r="42">
@@ -4363,8 +4522,11 @@
       </c>
       <c r="B42" s="52" t="inlineStr">
         <is>
-          <t>Palestra 1000 Grau fc</t>
-        </is>
+          <t>Brahma 07 FC</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>53.75</v>
       </c>
     </row>
     <row r="43">
@@ -4373,8 +4535,11 @@
       </c>
       <c r="B43" s="52" t="inlineStr">
         <is>
-          <t>$ANTO$</t>
-        </is>
+          <t>TERUEG</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>54.85009765625</v>
       </c>
     </row>
     <row r="44">
@@ -4383,8 +4548,11 @@
       </c>
       <c r="B44" s="52" t="inlineStr">
         <is>
-          <t>REF $ELIMINATOR$</t>
-        </is>
+          <t>Igor Fontes F.C.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>54.85009765625</v>
       </c>
     </row>
     <row r="45">
@@ -4393,64 +4561,102 @@
       </c>
       <c r="B45" s="52" t="inlineStr">
         <is>
-          <t>Igor Fontes F.C.</t>
-        </is>
+          <t>DiasBons EC</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>55.14990234375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="52" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="52" t="n">
-        <v>44</v>
+      <c r="B46" s="52" t="inlineStr">
+        <is>
+          <t>Porco Verde WA</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>59.2900390625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="52" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="52" t="n">
-        <v>45</v>
+      <c r="B47" s="52" t="inlineStr">
+        <is>
+          <t>KVRA-Z/O</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>59.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="52" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="52" t="n">
-        <v>46</v>
+      <c r="B48" s="52" t="inlineStr">
+        <is>
+          <t>CHAPELETA10</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>60.449951171875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="52" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="52" t="n">
-        <v>47</v>
+      <c r="B49" s="52" t="inlineStr">
+        <is>
+          <t>L&amp;G Cabral</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>60.449951171875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="52" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="52" t="n">
-        <v>48</v>
+      <c r="B50" s="52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Holanda de Wakanda</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>62.449951171875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="52" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="52" t="n">
-        <v>49</v>
+      <c r="B51" s="52" t="inlineStr">
+        <is>
+          <t>S.E. FINISH</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>71.85009765625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="52" t="n">
-        <v>50</v>
+      <c r="B52" s="52" t="inlineStr">
+        <is>
+          <t>SC Karate Kid</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>74.0498046875</v>
       </c>
     </row>
   </sheetData>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode-Projetos\automacao_ligaroletarussa2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484E1B6-B9C9-4FB8-B64B-FD9CDE1B9821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216424A-35F9-4F65-8AE1-8C2D4D5486F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,19 @@
     <sheet name="LigaEliminatória" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="141">
   <si>
     <t>Turno</t>
   </si>
@@ -273,175 +281,178 @@
     <t>E.C.O 82</t>
   </si>
   <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
     <t>SC Karate Kid</t>
   </si>
   <si>
+    <t>Cohab da madeira</t>
+  </si>
+  <si>
     <t>The wailers. pro</t>
   </si>
   <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>Cohab da madeira</t>
-  </si>
-  <si>
-    <t>C.A. ELSHOW</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
+    <t>Santa fé futebol e samba</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>ROLETA RU$$A F.C</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>RealXavier</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
   </si>
   <si>
     <t xml:space="preserve"> Holanda de Wakanda</t>
   </si>
   <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>C$</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
   </si>
   <si>
     <t>KVRA-Z/O</t>
   </si>
   <si>
-    <t>Porco Verde WA</t>
+    <t>SEP Campeoníssimo</t>
   </si>
   <si>
     <t>DiasBons EC</t>
   </si>
   <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>Reinafcr</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
     <t>TERUEG</t>
   </si>
   <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>RealXavier</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Reinafcr</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
+    <t>Palestra 1000 Grau fc</t>
   </si>
   <si>
     <t>MEM- TRICOLOR</t>
   </si>
   <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>ROLETA RU$$A F.C</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
     <t>Verdão 1000 grau FC</t>
   </si>
   <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
+    <t>HANDEVU FC</t>
   </si>
 </sst>
 </file>
@@ -797,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,12 +871,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,33 +889,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +939,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,52 +963,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3:AW28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1338,84 +1352,84 @@
     <col min="43" max="43" width="2.85546875" style="23" customWidth="1"/>
     <col min="44" max="44" width="5.7109375" style="23" customWidth="1"/>
     <col min="45" max="45" width="21.42578125" style="23" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="58" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="35" customWidth="1"/>
     <col min="47" max="47" width="5.7109375" style="23" customWidth="1"/>
     <col min="48" max="48" width="21.42578125" style="23" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" style="58" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" style="35" customWidth="1"/>
     <col min="50" max="50" width="2.85546875" style="23" customWidth="1"/>
     <col min="51" max="51" width="5.42578125" style="23" customWidth="1"/>
     <col min="52" max="52" width="4.28515625" style="23" customWidth="1"/>
     <col min="53" max="53" width="21.42578125" style="23" customWidth="1"/>
     <col min="54" max="54" width="11.42578125" style="23" customWidth="1"/>
-    <col min="55" max="57" width="9.140625" style="23" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="23"/>
+    <col min="55" max="58" width="9.140625" style="23" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:54" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:54" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="G2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="L2" s="29" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="L2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="Q2" s="29" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="Q2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="W2" s="35" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="W2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AB2" s="29" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AB2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AH2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AM2" s="29" t="s">
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AM2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AR2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AY2" s="29" t="s">
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AY2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
     </row>
     <row r="3" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1429,43 +1443,43 @@
         <v>12</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="1"/>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -1490,7 +1504,7 @@
       <c r="AK3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="AP3" s="7" t="s">
@@ -1500,17 +1514,17 @@
       <c r="AS3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AT3" s="57" t="s">
+      <c r="AT3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AW3" s="57" t="s">
+      <c r="AW3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BA3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="BB3" s="7" t="s">
@@ -1527,7 +1541,7 @@
       </c>
       <c r="D4" s="14">
         <f>LigaPrincipal!G3</f>
-        <v>82.18</v>
+        <v>141.0400390625</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -1535,11 +1549,11 @@
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="27">
         <f>LigaPrincipal!F9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="27">
         <f>LigaPrincipal!G9</f>
         <v>0</v>
       </c>
@@ -1549,13 +1563,13 @@
       <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="26" t="str">
+      <c r="M4" s="27" t="str">
         <f>LigaPrincipal!F15</f>
         <v>The wailers. pro</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="29">
         <f>LigaPrincipal!G15</f>
-        <v>133.43</v>
+        <v>152.65</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -1563,15 +1577,15 @@
       <c r="Q4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="26" t="str">
+      <c r="R4" s="27" t="str">
         <f>LigaPrincipal!F21</f>
         <v>E.C.O 82</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="29">
         <f>LigaPrincipal!G21</f>
         <v>82.18994140625</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="27">
         <f>LigaPrincipal!H21</f>
         <v>1</v>
       </c>
@@ -1581,83 +1595,83 @@
       <c r="W4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="26" t="str">
+      <c r="X4" s="27" t="str">
         <f>LigaPrincipal!B3</f>
         <v>E.C.O 82</v>
       </c>
-      <c r="Y4" s="51">
+      <c r="Y4" s="29">
         <f>LigaPrincipal!C3</f>
-        <v>82.18994140625</v>
+        <v>141.0400390625</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="63" t="s">
         <v>16</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="26" t="str">
+      <c r="AD4" s="27" t="str">
         <f>LigaPrincipal!L3</f>
         <v>E.C.O 82</v>
       </c>
-      <c r="AE4" s="51">
+      <c r="AE4" s="29">
         <f>LigaPrincipal!M3</f>
         <v>82.18994140625</v>
       </c>
-      <c r="AF4" s="54">
+      <c r="AF4" s="32">
         <v>100</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="58">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="26"/>
+      <c r="AJ4" s="27"/>
       <c r="AK4" s="19">
         <v>150</v>
       </c>
-      <c r="AM4" s="33">
+      <c r="AM4" s="58">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO4" s="26"/>
+      <c r="AO4" s="27"/>
       <c r="AP4" s="19">
         <v>150</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AS4" s="64" t="str">
+      <c r="AS4" s="41" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>SC Karate Kid</v>
-      </c>
-      <c r="AT4" s="51">
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="AT4" s="29">
         <f>LigaEliminatória!C3</f>
-        <v>74.0498046875</v>
+        <v>76.97998046875</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="64" t="str">
+      <c r="AV4" s="41" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>MEM- TRICOLOR</v>
-      </c>
-      <c r="AW4" s="51">
+        <v>KVRA-Z/O</v>
+      </c>
+      <c r="AW4" s="29">
         <f>LigaEliminatória!C28</f>
-        <v>43.550048828125</v>
-      </c>
-      <c r="AY4" s="33">
+        <v>49.3701171875</v>
+      </c>
+      <c r="AY4" s="58">
         <v>1</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="26"/>
+      <c r="BA4" s="27"/>
       <c r="BB4" s="19">
         <v>300</v>
       </c>
@@ -1668,11 +1682,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>SC Karate Kid</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="D5" s="14">
         <f>LigaPrincipal!G4</f>
-        <v>74.040000000000006</v>
+        <v>140.80029296875</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -1680,11 +1694,11 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <f>LigaPrincipal!F10</f>
         <v>0</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <f>LigaPrincipal!G10</f>
         <v>0</v>
       </c>
@@ -1694,13 +1708,13 @@
       <c r="L5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="25" t="str">
+      <c r="M5" s="26" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>SC Karate Kid</v>
-      </c>
-      <c r="N5" s="52">
+        <v>E.C.O 82</v>
+      </c>
+      <c r="N5" s="30">
         <f>LigaPrincipal!G16</f>
-        <v>120.73</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -1708,17 +1722,17 @@
       <c r="Q5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="25" t="str">
+      <c r="R5" s="26" t="str">
         <f>LigaPrincipal!F22</f>
-        <v>SC Karate Kid</v>
-      </c>
-      <c r="S5" s="52">
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="S5" s="30">
         <f>LigaPrincipal!G22</f>
-        <v>74.0498046875</v>
-      </c>
-      <c r="T5" s="25">
+        <v>76.97998046875</v>
+      </c>
+      <c r="T5" s="26">
         <f>LigaPrincipal!H22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="17">
         <v>100</v>
@@ -1726,75 +1740,75 @@
       <c r="W5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="25" t="str">
+      <c r="X5" s="26" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>SC Karate Kid</v>
-      </c>
-      <c r="Y5" s="52">
+        <v>S.E. FINISH</v>
+      </c>
+      <c r="Y5" s="30">
         <f>LigaPrincipal!C4</f>
-        <v>74.0498046875</v>
+        <v>140.80029296875</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="32"/>
+      <c r="AB5" s="60"/>
       <c r="AC5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="24" t="str">
+      <c r="AD5" s="25" t="str">
         <f>LigaPrincipal!L4</f>
         <v>SC Karate Kid</v>
       </c>
-      <c r="AE5" s="53">
+      <c r="AE5" s="31">
         <f>LigaPrincipal!M4</f>
         <v>74.0498046875</v>
       </c>
-      <c r="AF5" s="55">
+      <c r="AF5" s="33">
         <v>50</v>
       </c>
-      <c r="AH5" s="34"/>
+      <c r="AH5" s="59"/>
       <c r="AI5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="25"/>
+      <c r="AJ5" s="26"/>
       <c r="AK5" s="17">
         <v>50</v>
       </c>
-      <c r="AM5" s="34"/>
+      <c r="AM5" s="59"/>
       <c r="AN5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="25"/>
+      <c r="AO5" s="26"/>
       <c r="AP5" s="17">
         <v>100</v>
       </c>
       <c r="AR5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AS5" s="63" t="str">
+      <c r="AS5" s="40" t="str">
         <f>LigaEliminatória!B4</f>
         <v>S.E. FINISH</v>
       </c>
-      <c r="AT5" s="52">
+      <c r="AT5" s="30">
         <f>LigaEliminatória!C4</f>
-        <v>71.85009765625</v>
+        <v>68.9501953125</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AV5" s="63" t="str">
+      <c r="AV5" s="40" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>SCFVelasco2021</v>
-      </c>
-      <c r="AW5" s="52">
+        <v>SEP Campeoníssimo</v>
+      </c>
+      <c r="AW5" s="30">
         <f>LigaEliminatória!C29</f>
-        <v>43.449951171875</v>
-      </c>
-      <c r="AY5" s="34"/>
+        <v>49.10009765625</v>
+      </c>
+      <c r="AY5" s="59"/>
       <c r="AZ5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA5" s="25"/>
+      <c r="BA5" s="26"/>
       <c r="BB5" s="17">
         <v>200</v>
       </c>
@@ -1803,13 +1817,13 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C6" s="25" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>The wailers. pro</v>
-      </c>
-      <c r="D6" s="24">
+        <v>Cohab da madeira</v>
+      </c>
+      <c r="D6" s="25">
         <f>LigaPrincipal!G5</f>
-        <v>74.040000000000006</v>
+        <v>140.08984375</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -1817,11 +1831,11 @@
       <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="25">
         <f>LigaPrincipal!F11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="25">
         <f>LigaPrincipal!G11</f>
         <v>0</v>
       </c>
@@ -1831,13 +1845,13 @@
       <c r="L6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="24" t="str">
+      <c r="M6" s="25" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>E.C.O 82</v>
-      </c>
-      <c r="N6" s="53">
+        <v>SC Karate Kid</v>
+      </c>
+      <c r="N6" s="31">
         <f>LigaPrincipal!G17</f>
-        <v>118.72</v>
+        <v>134.1</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -1845,17 +1859,17 @@
       <c r="Q6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="24" t="str">
+      <c r="R6" s="25" t="str">
         <f>LigaPrincipal!F23</f>
-        <v>The wailers. pro</v>
-      </c>
-      <c r="S6" s="53">
+        <v>HANDEVU FC</v>
+      </c>
+      <c r="S6" s="31">
         <f>LigaPrincipal!G23</f>
-        <v>74.0498046875</v>
-      </c>
-      <c r="T6" s="24">
+        <v>75.33</v>
+      </c>
+      <c r="T6" s="25">
         <f>LigaPrincipal!H23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="18">
         <v>50</v>
@@ -1863,77 +1877,77 @@
       <c r="W6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="25" t="str">
+      <c r="X6" s="26" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>The wailers. pro</v>
-      </c>
-      <c r="Y6" s="52">
+        <v>Cohab da madeira</v>
+      </c>
+      <c r="Y6" s="30">
         <f>LigaPrincipal!C5</f>
-        <v>74.0498046875</v>
+        <v>140.08984375</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="63" t="s">
         <v>23</v>
       </c>
       <c r="AC6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="27" t="str">
         <f>LigaPrincipal!L5</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="26">
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="AE6" s="27">
         <f>LigaPrincipal!M5</f>
-        <v>0</v>
+        <v>76.98</v>
       </c>
       <c r="AF6" s="19">
         <v>100</v>
       </c>
-      <c r="AH6" s="32"/>
+      <c r="AH6" s="60"/>
       <c r="AI6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ6" s="24"/>
+      <c r="AJ6" s="25"/>
       <c r="AK6" s="18">
         <v>30</v>
       </c>
-      <c r="AM6" s="32"/>
+      <c r="AM6" s="60"/>
       <c r="AN6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO6" s="24"/>
+      <c r="AO6" s="25"/>
       <c r="AP6" s="18">
         <v>50</v>
       </c>
       <c r="AR6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AS6" s="63" t="str">
+      <c r="AS6" s="40" t="str">
         <f>LigaEliminatória!B5</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
-      </c>
-      <c r="AT6" s="52">
+        <v>Fantasma Osasco fc</v>
+      </c>
+      <c r="AT6" s="30">
         <f>LigaEliminatória!C5</f>
-        <v>62.449951171875</v>
+        <v>67.330078125</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AV6" s="63" t="str">
+      <c r="AV6" s="40" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>Tornad000</v>
-      </c>
-      <c r="AW6" s="52">
+        <v>DiasBons EC</v>
+      </c>
+      <c r="AW6" s="30">
         <f>LigaEliminatória!C30</f>
-        <v>43.25</v>
-      </c>
-      <c r="AY6" s="32"/>
+        <v>48.64990234375</v>
+      </c>
+      <c r="AY6" s="60"/>
       <c r="AZ6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA6" s="24"/>
+      <c r="BA6" s="25"/>
       <c r="BB6" s="18">
         <v>100</v>
       </c>
@@ -1942,165 +1956,165 @@
       <c r="W7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="25" t="str">
+      <c r="X7" s="26" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>S.E. FINISH</v>
-      </c>
-      <c r="Y7" s="52">
+        <v>The wailers. pro</v>
+      </c>
+      <c r="Y7" s="30">
         <f>LigaPrincipal!C6</f>
-        <v>71.85009765625</v>
+        <v>137.979736328125</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="32"/>
+      <c r="AB7" s="60"/>
       <c r="AC7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="25" t="str">
         <f>LigaPrincipal!L6</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="24">
+        <v>HANDEVU FC</v>
+      </c>
+      <c r="AE7" s="25">
         <f>LigaPrincipal!M6</f>
-        <v>0</v>
+        <v>75.33</v>
       </c>
       <c r="AF7" s="18">
         <v>50</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="58">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ7" s="26"/>
+      <c r="AJ7" s="27"/>
       <c r="AK7" s="19">
         <v>150</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AM7" s="58">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO7" s="26"/>
+      <c r="AO7" s="27"/>
       <c r="AP7" s="19">
         <v>150</v>
       </c>
       <c r="AR7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AS7" s="63" t="str">
+      <c r="AS7" s="40" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>CHAPELETA10</v>
-      </c>
-      <c r="AT7" s="52">
+        <v>Pagangrizo’s team</v>
+      </c>
+      <c r="AT7" s="30">
         <f>LigaEliminatória!C6</f>
-        <v>60.449951171875</v>
+        <v>65.4501953125</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AV7" s="63" t="str">
+      <c r="AV7" s="40" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>S.C. JUNIOR SIEMACO</v>
-      </c>
-      <c r="AW7" s="52">
+        <v>Renato 007 Exp 2021</v>
+      </c>
+      <c r="AW7" s="30">
         <f>LigaEliminatória!C31</f>
-        <v>41.550048828125</v>
-      </c>
-      <c r="AY7" s="33">
+        <v>48.449951171875</v>
+      </c>
+      <c r="AY7" s="58">
         <v>2</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA7" s="26"/>
+      <c r="BA7" s="27"/>
       <c r="BB7" s="19">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="25" t="str">
+      <c r="X8" s="26" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>Cohab da madeira</v>
-      </c>
-      <c r="Y8" s="52">
+        <v>Santa fé futebol e samba</v>
+      </c>
+      <c r="Y8" s="30">
         <f>LigaPrincipal!C7</f>
-        <v>71.259765625</v>
+        <v>129.18017578125</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="31" t="s">
+      <c r="AB8" s="63" t="s">
         <v>29</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AD8" s="27">
         <f>LigaPrincipal!L7</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="27">
         <f>LigaPrincipal!M7</f>
         <v>0</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="34"/>
+      <c r="AH8" s="59"/>
       <c r="AI8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ8" s="25"/>
+      <c r="AJ8" s="26"/>
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="34"/>
+      <c r="AM8" s="59"/>
       <c r="AN8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="25"/>
+      <c r="AO8" s="26"/>
       <c r="AP8" s="17">
         <v>100</v>
       </c>
       <c r="AR8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AS8" s="63" t="str">
+      <c r="AS8" s="40" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>L&amp;G Cabral</v>
-      </c>
-      <c r="AT8" s="52">
+        <v>Brasilândia MSFC</v>
+      </c>
+      <c r="AT8" s="30">
         <f>LigaEliminatória!C7</f>
-        <v>60.449951171875</v>
+        <v>64.830078125</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV8" s="63" t="str">
+      <c r="AV8" s="40" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>REF $ELIMINATOR$</v>
-      </c>
-      <c r="AW8" s="52">
+        <v>THG.VILA.IZABEL</v>
+      </c>
+      <c r="AW8" s="30">
         <f>LigaEliminatória!C32</f>
-        <v>41.449951171875</v>
-      </c>
-      <c r="AY8" s="34"/>
+        <v>48.030029296875</v>
+      </c>
+      <c r="AY8" s="59"/>
       <c r="AZ8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA8" s="25"/>
+      <c r="BA8" s="26"/>
       <c r="BB8" s="17">
         <v>200</v>
       </c>
@@ -2114,75 +2128,75 @@
       <c r="W9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="25" t="str">
+      <c r="X9" s="26" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>C.A. ELSHOW</v>
-      </c>
-      <c r="Y9" s="52">
+        <v>The wailers F.c Brasilanjah</v>
+      </c>
+      <c r="Y9" s="30">
         <f>LigaPrincipal!C8</f>
-        <v>64.5498046875</v>
+        <v>127</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="32"/>
+      <c r="AB9" s="60"/>
       <c r="AC9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="25">
         <f>LigaPrincipal!L8</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="25">
         <f>LigaPrincipal!M8</f>
         <v>0</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="32"/>
+      <c r="AH9" s="60"/>
       <c r="AI9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="24"/>
+      <c r="AJ9" s="25"/>
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="32"/>
+      <c r="AM9" s="60"/>
       <c r="AN9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO9" s="24"/>
+      <c r="AO9" s="25"/>
       <c r="AP9" s="18">
         <v>50</v>
       </c>
       <c r="AR9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AS9" s="63" t="str">
+      <c r="AS9" s="40" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>KVRA-Z/O</v>
-      </c>
-      <c r="AT9" s="52">
+        <v>Brahma 07 FC</v>
+      </c>
+      <c r="AT9" s="30">
         <f>LigaEliminatória!C8</f>
-        <v>59.75</v>
+        <v>63.949951171875</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AV9" s="63" t="str">
+      <c r="AV9" s="40" t="str">
         <f>LigaEliminatória!B33</f>
         <v>Bávaros Bier</v>
       </c>
-      <c r="AW9" s="52">
+      <c r="AW9" s="30">
         <f>LigaEliminatória!C33</f>
-        <v>41.35009765625</v>
-      </c>
-      <c r="AY9" s="32"/>
+        <v>47.030029296875</v>
+      </c>
+      <c r="AY9" s="60"/>
       <c r="AZ9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA9" s="24"/>
+      <c r="BA9" s="25"/>
       <c r="BB9" s="18">
         <v>100</v>
       </c>
@@ -2196,83 +2210,83 @@
       <c r="W10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="25" t="str">
+      <c r="X10" s="26" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>FUT ART SP</v>
-      </c>
-      <c r="Y10" s="52">
+        <v>SC Karate Kid</v>
+      </c>
+      <c r="Y10" s="30">
         <f>LigaPrincipal!C9</f>
-        <v>64.0498046875</v>
+        <v>124.94970703125</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="31" t="s">
+      <c r="AB10" s="63" t="s">
         <v>34</v>
       </c>
       <c r="AC10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="27">
         <f>LigaPrincipal!L9</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="27">
         <f>LigaPrincipal!M9</f>
         <v>0</v>
       </c>
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="58">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ10" s="26"/>
+      <c r="AJ10" s="27"/>
       <c r="AK10" s="19">
         <v>150</v>
       </c>
-      <c r="AM10" s="33">
+      <c r="AM10" s="58">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO10" s="26"/>
+      <c r="AO10" s="27"/>
       <c r="AP10" s="19">
         <v>150</v>
       </c>
       <c r="AR10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AS10" s="63" t="str">
+      <c r="AS10" s="40" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>Porco Verde WA</v>
-      </c>
-      <c r="AT10" s="52">
+        <v>CHAPELETA10</v>
+      </c>
+      <c r="AT10" s="30">
         <f>LigaEliminatória!C9</f>
-        <v>59.2900390625</v>
+        <v>61.949951171875</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AV10" s="63" t="str">
+      <c r="AV10" s="40" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>THG.VILA.IZABEL</v>
-      </c>
-      <c r="AW10" s="52">
+        <v>S.C. JUNIOR SIEMACO</v>
+      </c>
+      <c r="AW10" s="30">
         <f>LigaEliminatória!C34</f>
-        <v>41.14990234375</v>
-      </c>
-      <c r="AY10" s="33">
+        <v>46.669921875</v>
+      </c>
+      <c r="AY10" s="58">
         <v>3</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA10" s="26"/>
+      <c r="BA10" s="27"/>
       <c r="BB10" s="19">
         <v>300</v>
       </c>
@@ -2286,75 +2300,75 @@
       <c r="W11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="25" t="str">
+      <c r="X11" s="26" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>Mister Oliveira F.C</v>
-      </c>
-      <c r="Y11" s="52">
+        <v>02 de outubro</v>
+      </c>
+      <c r="Y11" s="30">
         <f>LigaPrincipal!C10</f>
-        <v>62.860107421875</v>
+        <v>123.7001953125</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="32"/>
+      <c r="AB11" s="60"/>
       <c r="AC11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="25">
         <f>LigaPrincipal!L10</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="25">
         <f>LigaPrincipal!M10</f>
         <v>0</v>
       </c>
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="34"/>
+      <c r="AH11" s="59"/>
       <c r="AI11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ11" s="25"/>
+      <c r="AJ11" s="26"/>
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="34"/>
+      <c r="AM11" s="59"/>
       <c r="AN11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO11" s="25"/>
+      <c r="AO11" s="26"/>
       <c r="AP11" s="17">
         <v>100</v>
       </c>
       <c r="AR11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AS11" s="63" t="str">
+      <c r="AS11" s="40" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>DiasBons EC</v>
-      </c>
-      <c r="AT11" s="52">
+        <v>L&amp;G Cabral</v>
+      </c>
+      <c r="AT11" s="30">
         <f>LigaEliminatória!C10</f>
-        <v>55.14990234375</v>
+        <v>61.949951171875</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AV11" s="63" t="str">
+      <c r="AV11" s="40" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>ROLETA RU$$A F.C</v>
-      </c>
-      <c r="AW11" s="52">
+        <v xml:space="preserve">Meus Ovos </v>
+      </c>
+      <c r="AW11" s="30">
         <f>LigaEliminatória!C35</f>
-        <v>41.050048828125</v>
-      </c>
-      <c r="AY11" s="34"/>
+        <v>45.25</v>
+      </c>
+      <c r="AY11" s="59"/>
       <c r="AZ11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA11" s="25"/>
+      <c r="BA11" s="26"/>
       <c r="BB11" s="17">
         <v>200</v>
       </c>
@@ -2368,77 +2382,77 @@
       <c r="W12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="25" t="str">
+      <c r="X12" s="26" t="str">
         <f>LigaPrincipal!B11</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
-      </c>
-      <c r="Y12" s="52">
+        <v>CHAPELETA10</v>
+      </c>
+      <c r="Y12" s="30">
         <f>LigaPrincipal!C11</f>
-        <v>62.449951171875</v>
+        <v>122.39990234375</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="31" t="s">
+      <c r="AB12" s="63" t="s">
         <v>39</v>
       </c>
       <c r="AC12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AD12" s="27">
         <f>LigaPrincipal!L11</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AE12" s="27">
         <f>LigaPrincipal!M11</f>
         <v>0</v>
       </c>
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="32"/>
+      <c r="AH12" s="60"/>
       <c r="AI12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ12" s="24"/>
+      <c r="AJ12" s="25"/>
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="32"/>
+      <c r="AM12" s="60"/>
       <c r="AN12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO12" s="24"/>
+      <c r="AO12" s="25"/>
       <c r="AP12" s="18">
         <v>50</v>
       </c>
       <c r="AR12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AS12" s="63" t="str">
+      <c r="AS12" s="40" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>TERUEG</v>
-      </c>
-      <c r="AT12" s="52">
+        <v>ROLETA RU$$A F.C</v>
+      </c>
+      <c r="AT12" s="30">
         <f>LigaEliminatória!C11</f>
-        <v>54.85009765625</v>
+        <v>59.64990234375</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AV12" s="63" t="str">
+      <c r="AV12" s="40" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>MALMO FUTEBOL F.</v>
-      </c>
-      <c r="AW12" s="52">
+        <v>REF $ELIMINATOR$</v>
+      </c>
+      <c r="AW12" s="30">
         <f>LigaEliminatória!C36</f>
-        <v>38.75</v>
-      </c>
-      <c r="AY12" s="32"/>
+        <v>45.1298828125</v>
+      </c>
+      <c r="AY12" s="60"/>
       <c r="AZ12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA12" s="24"/>
+      <c r="BA12" s="25"/>
       <c r="BB12" s="18">
         <v>100</v>
       </c>
@@ -2452,151 +2466,151 @@
       <c r="W13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="X13" s="24" t="str">
+      <c r="X13" s="25" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>CHAPELETA10</v>
-      </c>
-      <c r="Y13" s="53">
+        <v>L&amp;G Cabral</v>
+      </c>
+      <c r="Y13" s="31">
         <f>LigaPrincipal!C12</f>
-        <v>60.449951171875</v>
+        <v>122.39990234375</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="32"/>
+      <c r="AB13" s="60"/>
       <c r="AC13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="25">
         <f>LigaPrincipal!L12</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13" s="25">
         <f>LigaPrincipal!M12</f>
         <v>0</v>
       </c>
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="58">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ13" s="26"/>
+      <c r="AJ13" s="27"/>
       <c r="AK13" s="19">
         <v>150</v>
       </c>
-      <c r="AM13" s="33">
+      <c r="AM13" s="58">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO13" s="26"/>
+      <c r="AO13" s="27"/>
       <c r="AP13" s="19">
         <v>150</v>
       </c>
       <c r="AR13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AS13" s="63" t="str">
+      <c r="AS13" s="40" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>Igor Fontes F.C.</v>
-      </c>
-      <c r="AT13" s="52">
+        <v>$uicide $quad F.C</v>
+      </c>
+      <c r="AT13" s="30">
         <f>LigaEliminatória!C12</f>
-        <v>54.85009765625</v>
+        <v>59.64990234375</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AV13" s="63" t="str">
+      <c r="AV13" s="40" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>LiverpooI</v>
-      </c>
-      <c r="AW13" s="52">
+        <v>AVANTI AZZURRA</v>
+      </c>
+      <c r="AW13" s="30">
         <f>LigaEliminatória!C37</f>
-        <v>38.35009765625</v>
-      </c>
-      <c r="AY13" s="33">
+        <v>44.75</v>
+      </c>
+      <c r="AY13" s="58">
         <v>4</v>
       </c>
       <c r="AZ13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA13" s="26"/>
+      <c r="BA13" s="27"/>
       <c r="BB13" s="19">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="31" t="s">
+      <c r="AB14" s="63" t="s">
         <v>43</v>
       </c>
       <c r="AC14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD14" s="26">
+      <c r="AD14" s="27">
         <f>LigaPrincipal!L13</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AE14" s="27">
         <f>LigaPrincipal!M13</f>
         <v>0</v>
       </c>
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="34"/>
+      <c r="AH14" s="59"/>
       <c r="AI14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ14" s="25"/>
+      <c r="AJ14" s="26"/>
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="34"/>
+      <c r="AM14" s="59"/>
       <c r="AN14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO14" s="25"/>
+      <c r="AO14" s="26"/>
       <c r="AP14" s="17">
         <v>100</v>
       </c>
       <c r="AR14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AS14" s="63" t="str">
+      <c r="AS14" s="40" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>Brahma 07 FC</v>
-      </c>
-      <c r="AT14" s="52">
+        <v>RealXavier</v>
+      </c>
+      <c r="AT14" s="30">
         <f>LigaEliminatória!C13</f>
-        <v>53.75</v>
+        <v>59.610107421875</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AV14" s="63" t="str">
+      <c r="AV14" s="40" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>R.N.S FC</v>
-      </c>
-      <c r="AW14" s="52">
+        <v>Breeja F.C</v>
+      </c>
+      <c r="AW14" s="30">
         <f>LigaEliminatória!C38</f>
-        <v>37.050048828125</v>
-      </c>
-      <c r="AY14" s="34"/>
+        <v>43.14990234375</v>
+      </c>
+      <c r="AY14" s="59"/>
       <c r="AZ14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA14" s="25"/>
+      <c r="BA14" s="26"/>
       <c r="BB14" s="17">
         <v>200</v>
       </c>
@@ -2607,64 +2621,64 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="32"/>
+      <c r="AB15" s="60"/>
       <c r="AC15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD15" s="24">
+      <c r="AD15" s="25">
         <f>LigaPrincipal!L14</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="25">
         <f>LigaPrincipal!M14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="32"/>
+      <c r="AH15" s="60"/>
       <c r="AI15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ15" s="24"/>
+      <c r="AJ15" s="25"/>
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="32"/>
+      <c r="AM15" s="60"/>
       <c r="AN15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO15" s="24"/>
+      <c r="AO15" s="25"/>
       <c r="AP15" s="18">
         <v>50</v>
       </c>
       <c r="AR15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AS15" s="63" t="str">
+      <c r="AS15" s="40" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>Brasilândia MSFC</v>
-      </c>
-      <c r="AT15" s="52">
+        <v>MCML Futebol Clube IBR</v>
+      </c>
+      <c r="AT15" s="30">
         <f>LigaEliminatória!C14</f>
-        <v>53.64990234375</v>
+        <v>58.1298828125</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AV15" s="63" t="str">
+      <c r="AV15" s="40" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>$uicide $quad F.C</v>
-      </c>
-      <c r="AW15" s="52">
+        <v>Tornad000</v>
+      </c>
+      <c r="AW15" s="30">
         <f>LigaEliminatória!C39</f>
-        <v>36.25</v>
-      </c>
-      <c r="AY15" s="32"/>
+        <v>42.949951171875</v>
+      </c>
+      <c r="AY15" s="60"/>
       <c r="AZ15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA15" s="24"/>
+      <c r="BA15" s="25"/>
       <c r="BB15" s="18">
         <v>100</v>
       </c>
@@ -2675,72 +2689,72 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="31" t="s">
+      <c r="AB16" s="63" t="s">
         <v>48</v>
       </c>
       <c r="AC16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD16" s="26">
+      <c r="AD16" s="27">
         <f>LigaPrincipal!L15</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AE16" s="27">
         <f>LigaPrincipal!M15</f>
         <v>0</v>
       </c>
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="33">
+      <c r="AH16" s="58">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ16" s="26"/>
+      <c r="AJ16" s="27"/>
       <c r="AK16" s="19">
         <v>150</v>
       </c>
-      <c r="AM16" s="33">
+      <c r="AM16" s="58">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO16" s="26"/>
+      <c r="AO16" s="27"/>
       <c r="AP16" s="19">
         <v>150</v>
       </c>
       <c r="AR16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AS16" s="63" t="str">
+      <c r="AS16" s="40" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>Renato 007 Exp 2021</v>
-      </c>
-      <c r="AT16" s="52">
+        <v xml:space="preserve">S.C. Brasilandia City </v>
+      </c>
+      <c r="AT16" s="30">
         <f>LigaEliminatória!C15</f>
-        <v>52.64990234375</v>
+        <v>58.1298828125</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AV16" s="63" t="str">
+      <c r="AV16" s="40" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>LQueiroz FC</v>
-      </c>
-      <c r="AW16" s="52">
+        <v>$ANTO$</v>
+      </c>
+      <c r="AW16" s="30">
         <f>LigaEliminatória!C40</f>
-        <v>35.85009765625</v>
-      </c>
-      <c r="AY16" s="33">
+        <v>41.25</v>
+      </c>
+      <c r="AY16" s="58">
         <v>5</v>
       </c>
       <c r="AZ16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA16" s="26"/>
+      <c r="BA16" s="27"/>
       <c r="BB16" s="19">
         <v>300</v>
       </c>
@@ -2751,64 +2765,64 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="32"/>
+      <c r="AB17" s="60"/>
       <c r="AC17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD17" s="24">
+      <c r="AD17" s="25">
         <f>LigaPrincipal!L16</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17" s="25">
         <f>LigaPrincipal!M16</f>
         <v>0</v>
       </c>
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="34"/>
+      <c r="AH17" s="59"/>
       <c r="AI17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ17" s="25"/>
+      <c r="AJ17" s="26"/>
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="34"/>
+      <c r="AM17" s="59"/>
       <c r="AN17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO17" s="25"/>
+      <c r="AO17" s="26"/>
       <c r="AP17" s="17">
         <v>100</v>
       </c>
       <c r="AR17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AS17" s="63" t="str">
+      <c r="AS17" s="40" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>AVANTI AZZURRA</v>
-      </c>
-      <c r="AT17" s="52">
+        <v xml:space="preserve"> Holanda de Wakanda</v>
+      </c>
+      <c r="AT17" s="30">
         <f>LigaEliminatória!C16</f>
-        <v>51.64990234375</v>
+        <v>57.85009765625</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AV17" s="63" t="str">
+      <c r="AV17" s="40" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>KAMIKA$E F.C</v>
-      </c>
-      <c r="AW17" s="52">
+        <v>PS4 Cartola com água 2021</v>
+      </c>
+      <c r="AW17" s="30">
         <f>LigaEliminatória!C41</f>
-        <v>33.050048828125</v>
-      </c>
-      <c r="AY17" s="34"/>
+        <v>41.14990234375</v>
+      </c>
+      <c r="AY17" s="59"/>
       <c r="AZ17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA17" s="25"/>
+      <c r="BA17" s="26"/>
       <c r="BB17" s="17">
         <v>200</v>
       </c>
@@ -2819,66 +2833,66 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="31" t="s">
+      <c r="AB18" s="63" t="s">
         <v>53</v>
       </c>
       <c r="AC18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD18" s="26">
+      <c r="AD18" s="27">
         <f>LigaPrincipal!L17</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="26">
+      <c r="AE18" s="27">
         <f>LigaPrincipal!M17</f>
         <v>0</v>
       </c>
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="32"/>
+      <c r="AH18" s="60"/>
       <c r="AI18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ18" s="24"/>
+      <c r="AJ18" s="25"/>
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="32"/>
+      <c r="AM18" s="60"/>
       <c r="AN18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO18" s="24"/>
+      <c r="AO18" s="25"/>
       <c r="AP18" s="18">
         <v>50</v>
       </c>
       <c r="AR18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AS18" s="63" t="str">
+      <c r="AS18" s="40" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>PS4 Cartola com água 2021</v>
-      </c>
-      <c r="AT18" s="52">
+        <v>LQueiroz FC</v>
+      </c>
+      <c r="AT18" s="30">
         <f>LigaEliminatória!C17</f>
-        <v>51.530029296875</v>
+        <v>57.1298828125</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AV18" s="63" t="str">
+      <c r="AV18" s="40" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>Verdão 1000 grau FC</v>
-      </c>
-      <c r="AW18" s="52">
+        <v>MALMO FUTEBOL F.</v>
+      </c>
+      <c r="AW18" s="30">
         <f>LigaEliminatória!C42</f>
-        <v>28.75</v>
-      </c>
-      <c r="AY18" s="32"/>
+        <v>39.72998046875</v>
+      </c>
+      <c r="AY18" s="60"/>
       <c r="AZ18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA18" s="24"/>
+      <c r="BA18" s="25"/>
       <c r="BB18" s="18">
         <v>100</v>
       </c>
@@ -2889,123 +2903,123 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="56"/>
+      <c r="AB19" s="66"/>
       <c r="AC19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD19" s="24">
+      <c r="AD19" s="25">
         <f>LigaPrincipal!L18</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19" s="25">
         <f>LigaPrincipal!M18</f>
         <v>0</v>
       </c>
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="33">
+      <c r="AH19" s="58">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ19" s="26"/>
+      <c r="AJ19" s="27"/>
       <c r="AK19" s="19">
         <v>150</v>
       </c>
-      <c r="AM19" s="33">
+      <c r="AM19" s="58">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO19" s="26"/>
+      <c r="AO19" s="27"/>
       <c r="AP19" s="19">
         <v>150</v>
       </c>
       <c r="AR19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AS19" s="63" t="str">
+      <c r="AS19" s="40" t="str">
         <f>LigaEliminatória!B18</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
-      </c>
-      <c r="AT19" s="52">
+        <v>KAMIKA$E F.C</v>
+      </c>
+      <c r="AT19" s="30">
         <f>LigaEliminatória!C18</f>
-        <v>51.389892578125</v>
+        <v>56.27001953125</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AV19" s="63" t="str">
+      <c r="AV19" s="40" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>Fantasma Osasco fc</v>
-      </c>
-      <c r="AW19" s="52">
+        <v>METAMORPHO</v>
+      </c>
+      <c r="AW19" s="30">
         <f>LigaEliminatória!C43</f>
-        <v>22.6500244140625</v>
-      </c>
-      <c r="AY19" s="33">
+        <v>39.330078125</v>
+      </c>
+      <c r="AY19" s="58">
         <v>6</v>
       </c>
       <c r="AZ19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA19" s="26"/>
+      <c r="BA19" s="27"/>
       <c r="BB19" s="19">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="AH20" s="34"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="AH20" s="59"/>
       <c r="AI20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ20" s="25"/>
+      <c r="AJ20" s="26"/>
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="34"/>
+      <c r="AM20" s="59"/>
       <c r="AN20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO20" s="25"/>
+      <c r="AO20" s="26"/>
       <c r="AP20" s="17">
         <v>100</v>
       </c>
       <c r="AR20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="63" t="str">
+      <c r="AS20" s="40" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>Cata Cata 71</v>
-      </c>
-      <c r="AT20" s="52">
+        <v>R.N.S FC</v>
+      </c>
+      <c r="AT20" s="30">
         <f>LigaEliminatória!C19</f>
-        <v>51.3701171875</v>
+        <v>56.25</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AV20" s="63" t="str">
+      <c r="AV20" s="40" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>DUFF F.D.</v>
-      </c>
-      <c r="AW20" s="52">
+        <v>Igor Fontes F.C.</v>
+      </c>
+      <c r="AW20" s="30">
         <f>LigaEliminatória!C44</f>
-        <v>22.5400390625</v>
-      </c>
-      <c r="AY20" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="AY20" s="59"/>
       <c r="AZ20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA20" s="25"/>
+      <c r="BA20" s="26"/>
       <c r="BB20" s="17">
         <v>200</v>
       </c>
@@ -3016,49 +3030,49 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="32"/>
+      <c r="AH21" s="60"/>
       <c r="AI21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ21" s="24"/>
+      <c r="AJ21" s="25"/>
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="32"/>
+      <c r="AM21" s="60"/>
       <c r="AN21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO21" s="24"/>
+      <c r="AO21" s="25"/>
       <c r="AP21" s="18">
         <v>50</v>
       </c>
       <c r="AR21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AS21" s="63" t="str">
+      <c r="AS21" s="40" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>RealXavier</v>
-      </c>
-      <c r="AT21" s="52">
+        <v>Porco Verde WA</v>
+      </c>
+      <c r="AT21" s="30">
         <f>LigaEliminatória!C20</f>
-        <v>49.030029296875</v>
+        <v>56.10009765625</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AV21" s="63" t="str">
+      <c r="AV21" s="40" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>São Paulo Edu Física</v>
-      </c>
-      <c r="AW21" s="52">
+        <v>LiverpooI</v>
+      </c>
+      <c r="AW21" s="30">
         <f>LigaEliminatória!C45</f>
-        <v>21.6500244140625</v>
-      </c>
-      <c r="AY21" s="32"/>
+        <v>38.6298828125</v>
+      </c>
+      <c r="AY21" s="60"/>
       <c r="AZ21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA21" s="24"/>
+      <c r="BA21" s="25"/>
       <c r="BB21" s="18">
         <v>100</v>
       </c>
@@ -3069,55 +3083,55 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="33">
+      <c r="AH22" s="58">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ22" s="26"/>
+      <c r="AJ22" s="27"/>
       <c r="AK22" s="19">
         <v>150</v>
       </c>
-      <c r="AM22" s="33">
+      <c r="AM22" s="58">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AO22" s="26"/>
+      <c r="AO22" s="27"/>
       <c r="AP22" s="19">
         <v>150</v>
       </c>
       <c r="AR22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AS22" s="63" t="str">
+      <c r="AS22" s="40" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>MCML Futebol Clube IBR</v>
-      </c>
-      <c r="AT22" s="52">
+        <v>São Paulo Edu Física</v>
+      </c>
+      <c r="AT22" s="30">
         <f>LigaEliminatória!C21</f>
-        <v>47.85009765625</v>
+        <v>55.25</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AV22" s="63" t="str">
+      <c r="AV22" s="40" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>LamucciSPFC</v>
-      </c>
-      <c r="AW22" s="52">
+        <v>Reinafcr</v>
+      </c>
+      <c r="AW22" s="30">
         <f>LigaEliminatória!C46</f>
-        <v>21.25</v>
-      </c>
-      <c r="AY22" s="33">
+        <v>38.300048828125</v>
+      </c>
+      <c r="AY22" s="58">
         <v>7</v>
       </c>
       <c r="AZ22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BA22" s="26"/>
+      <c r="BA22" s="27"/>
       <c r="BB22" s="19">
         <v>300</v>
       </c>
@@ -3128,49 +3142,49 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="34"/>
+      <c r="AH23" s="59"/>
       <c r="AI23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ23" s="25"/>
+      <c r="AJ23" s="26"/>
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="34"/>
+      <c r="AM23" s="59"/>
       <c r="AN23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AO23" s="25"/>
+      <c r="AO23" s="26"/>
       <c r="AP23" s="17">
         <v>100</v>
       </c>
       <c r="AR23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AS23" s="63" t="str">
+      <c r="AS23" s="40" t="str">
         <f>LigaEliminatória!B22</f>
-        <v xml:space="preserve">Meus Ovos </v>
-      </c>
-      <c r="AT23" s="52">
+        <v>Shibo F.C.</v>
+      </c>
+      <c r="AT23" s="30">
         <f>LigaEliminatória!C22</f>
-        <v>47.35009765625</v>
+        <v>55.25</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AV23" s="63" t="str">
+      <c r="AV23" s="40" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>SEP Campeoníssimo</v>
-      </c>
-      <c r="AW23" s="52">
+        <v>CLECIO1976 F.C</v>
+      </c>
+      <c r="AW23" s="30">
         <f>LigaEliminatória!C47</f>
-        <v>20.949951171875</v>
-      </c>
-      <c r="AY23" s="34"/>
+        <v>37.429931640625</v>
+      </c>
+      <c r="AY23" s="59"/>
       <c r="AZ23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA23" s="25"/>
+      <c r="BA23" s="26"/>
       <c r="BB23" s="17">
         <v>200</v>
       </c>
@@ -3181,49 +3195,49 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="32"/>
+      <c r="AH24" s="66"/>
       <c r="AI24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ24" s="24"/>
+      <c r="AJ24" s="25"/>
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="32"/>
+      <c r="AM24" s="66"/>
       <c r="AN24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO24" s="24"/>
+      <c r="AO24" s="25"/>
       <c r="AP24" s="18">
         <v>50</v>
       </c>
       <c r="AR24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AS24" s="63" t="str">
+      <c r="AS24" s="40" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>Breeja F.C</v>
-      </c>
-      <c r="AT24" s="52">
+        <v>Rei dos mares F.C</v>
+      </c>
+      <c r="AT24" s="30">
         <f>LigaEliminatória!C23</f>
-        <v>45.949951171875</v>
+        <v>53.050048828125</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AV24" s="63" t="str">
+      <c r="AV24" s="40" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>Pagangrizo’s team</v>
-      </c>
-      <c r="AW24" s="52">
+        <v>E.C SIEMACO SP</v>
+      </c>
+      <c r="AW24" s="30">
         <f>LigaEliminatória!C48</f>
-        <v>19.3499755859375</v>
-      </c>
-      <c r="AY24" s="32"/>
+        <v>37.35009765625</v>
+      </c>
+      <c r="AY24" s="60"/>
       <c r="AZ24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BA24" s="24"/>
+      <c r="BA24" s="25"/>
       <c r="BB24" s="18">
         <v>100</v>
       </c>
@@ -3232,119 +3246,119 @@
       <c r="AR25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AS25" s="63" t="str">
+      <c r="AS25" s="40" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>E.C SIEMACO SP</v>
-      </c>
-      <c r="AT25" s="52">
+        <v>SCFVelasco2021</v>
+      </c>
+      <c r="AT25" s="30">
         <f>LigaEliminatória!C24</f>
-        <v>45.550048828125</v>
+        <v>52.22998046875</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AV25" s="63" t="str">
+      <c r="AV25" s="40" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>Palestra 1000 Grau fc</v>
-      </c>
-      <c r="AW25" s="52">
+        <v>TERUEG</v>
+      </c>
+      <c r="AW25" s="30">
         <f>LigaEliminatória!C49</f>
-        <v>16.0899658203125</v>
+        <v>36.070068359375</v>
       </c>
     </row>
     <row r="26" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AS26" s="63" t="str">
+      <c r="AS26" s="40" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>CLECIO1976 F.C</v>
-      </c>
-      <c r="AT26" s="52">
+        <v>LamucciSPFC</v>
+      </c>
+      <c r="AT26" s="30">
         <f>LigaEliminatória!C25</f>
-        <v>45.25</v>
+        <v>51.830078125</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AV26" s="63" t="str">
+      <c r="AV26" s="40" t="str">
         <f>LigaEliminatória!B50</f>
-        <v>Shibo F.C.</v>
-      </c>
-      <c r="AW26" s="52">
+        <v>Palestra 1000 Grau fc</v>
+      </c>
+      <c r="AW26" s="30">
         <f>LigaEliminatória!C50</f>
-        <v>12.6500244140625</v>
+        <v>29.469970703125</v>
       </c>
     </row>
     <row r="27" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS27" s="63" t="str">
+      <c r="AS27" s="40" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>Reinafcr</v>
-      </c>
-      <c r="AT27" s="52">
+        <v>SC Karate Kid</v>
+      </c>
+      <c r="AT27" s="30">
         <f>LigaEliminatória!C26</f>
-        <v>44.449951171875</v>
+        <v>50.89990234375</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AV27" s="63" t="str">
+      <c r="AV27" s="40" t="str">
         <f>LigaEliminatória!B51</f>
-        <v>$ANTO$</v>
-      </c>
-      <c r="AW27" s="52">
+        <v>MEM- TRICOLOR</v>
+      </c>
+      <c r="AW27" s="30">
         <f>LigaEliminatória!C51</f>
-        <v>11.8900146484375</v>
+        <v>27.0699462890625</v>
       </c>
     </row>
     <row r="28" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AS28" s="65" t="str">
+      <c r="AS28" s="42" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>Rei dos mares F.C</v>
-      </c>
-      <c r="AT28" s="53">
+        <v>Cata Cata 71</v>
+      </c>
+      <c r="AT28" s="31">
         <f>LigaEliminatória!C27</f>
-        <v>43.85009765625</v>
+        <v>50.85009765625</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AV28" s="65" t="str">
+      <c r="AV28" s="42" t="str">
         <f>LigaEliminatória!B52</f>
-        <v>METAMORPHO</v>
-      </c>
-      <c r="AW28" s="53">
+        <v>Verdão 1000 grau FC</v>
+      </c>
+      <c r="AW28" s="31">
         <f>LigaEliminatória!C52</f>
-        <v>3.0500030517578121</v>
+        <v>25.6500244140625</v>
       </c>
     </row>
     <row r="30" spans="2:54" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR30" s="29" t="s">
+      <c r="AR30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
-      <c r="AW30" s="37"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="48"/>
     </row>
     <row r="31" spans="2:54" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR31" s="1"/>
-      <c r="AS31" s="38" t="s">
+      <c r="AS31" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="40"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="45"/>
       <c r="AV31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AW31" s="59" t="s">
+      <c r="AW31" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3352,11 +3366,11 @@
       <c r="AR32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="60">
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="37">
         <v>1000</v>
       </c>
     </row>
@@ -3364,11 +3378,11 @@
       <c r="AR33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="61">
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="38">
         <v>500</v>
       </c>
     </row>
@@ -3376,11 +3390,11 @@
       <c r="AR34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="46"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="61">
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="54"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="38">
         <v>300</v>
       </c>
     </row>
@@ -3388,11 +3402,11 @@
       <c r="AR35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="25"/>
-      <c r="AW35" s="61">
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="53"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="38">
         <v>250</v>
       </c>
     </row>
@@ -3400,40 +3414,26 @@
       <c r="AR36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="43"/>
-      <c r="AV36" s="24"/>
-      <c r="AW36" s="62">
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="39">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AR30:AW30"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AY19:AY21"/>
-    <mergeCell ref="AY22:AY24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY4:AY6"/>
-    <mergeCell ref="AY7:AY9"/>
-    <mergeCell ref="AY10:AY12"/>
-    <mergeCell ref="AY13:AY15"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AM7:AM9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="AH19:AH21"/>
     <mergeCell ref="AH2:AK2"/>
@@ -3449,16 +3449,30 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AM7:AM9"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AY7:AY9"/>
+    <mergeCell ref="AY10:AY12"/>
+    <mergeCell ref="AY13:AY15"/>
+    <mergeCell ref="AY19:AY21"/>
+    <mergeCell ref="AY22:AY24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AY16:AY18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AR30:AW30"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AS32:AU32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3470,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,27 +3498,27 @@
     <col min="6" max="6" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="28" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="28" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="28"/>
+    <col min="10" max="13" width="9.140625" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -3540,7 +3554,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="20">
-        <v>82.18994140625</v>
+        <v>141.0400390625</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
@@ -3549,9 +3563,9 @@
         <v>82</v>
       </c>
       <c r="G3" s="21">
-        <v>82.18</v>
-      </c>
-      <c r="J3" s="50" t="s">
+        <v>141.0400390625</v>
+      </c>
+      <c r="J3" s="65" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="28">
@@ -3572,7 +3586,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="20">
-        <v>74.0498046875</v>
+        <v>140.80029296875</v>
       </c>
       <c r="E4" s="28">
         <v>2</v>
@@ -3581,14 +3595,14 @@
         <v>83</v>
       </c>
       <c r="G4" s="21">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="J4" s="50"/>
+        <v>140.80029296875</v>
+      </c>
+      <c r="J4" s="65"/>
       <c r="K4" s="28">
         <v>2</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" s="20">
         <v>74.0498046875</v>
@@ -3599,25 +3613,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="20">
-        <v>74.0498046875</v>
+        <v>140.08984375</v>
       </c>
       <c r="E5" s="28">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="21">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>140.08984375</v>
+      </c>
+      <c r="J5" s="65" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="28">
         <v>1</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="28">
+        <v>76.98</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3625,14 +3645,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="20">
-        <v>71.85009765625</v>
-      </c>
-      <c r="J6" s="50"/>
+        <v>137.979736328125</v>
+      </c>
+      <c r="J6" s="65"/>
       <c r="K6" s="28">
         <v>2</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="28">
+        <v>75.33</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3640,17 +3666,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="20">
-        <v>71.259765625</v>
-      </c>
-      <c r="E7" s="50" t="s">
+        <v>129.18017578125</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="J7" s="50" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="J7" s="65" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="28">
@@ -3662,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="20">
-        <v>64.5498046875</v>
+        <v>127</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>79</v>
@@ -3673,7 +3699,7 @@
       <c r="G8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="50"/>
+      <c r="J8" s="65"/>
       <c r="K8" s="28">
         <v>2</v>
       </c>
@@ -3683,15 +3709,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="20">
-        <v>64.0498046875</v>
+        <v>124.94970703125</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="65" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="28">
@@ -3706,12 +3732,12 @@
         <v>89</v>
       </c>
       <c r="C10" s="20">
-        <v>62.860107421875</v>
+        <v>123.7001953125</v>
       </c>
       <c r="E10" s="28">
         <v>2</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="28">
         <v>2</v>
       </c>
@@ -3724,12 +3750,12 @@
         <v>90</v>
       </c>
       <c r="C11" s="20">
-        <v>62.449951171875</v>
+        <v>122.39990234375</v>
       </c>
       <c r="E11" s="28">
         <v>3</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="65" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="28">
@@ -3744,20 +3770,20 @@
         <v>91</v>
       </c>
       <c r="C12" s="20">
-        <v>60.449951171875</v>
-      </c>
-      <c r="J12" s="50"/>
+        <v>122.39990234375</v>
+      </c>
+      <c r="J12" s="65"/>
       <c r="K12" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="J13" s="50" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="J13" s="65" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="28">
@@ -3771,7 +3797,7 @@
       <c r="G14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="28">
         <v>2</v>
       </c>
@@ -3781,12 +3807,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15" s="21">
-        <v>133.43</v>
-      </c>
-      <c r="J15" s="50" t="s">
+        <v>152.65</v>
+      </c>
+      <c r="J15" s="65" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="28">
@@ -3798,12 +3824,12 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="21">
-        <v>120.73</v>
-      </c>
-      <c r="J16" s="50"/>
+        <v>134.19999999999999</v>
+      </c>
+      <c r="J16" s="65"/>
       <c r="K16" s="28">
         <v>2</v>
       </c>
@@ -3813,12 +3839,12 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="21">
-        <v>118.72</v>
-      </c>
-      <c r="J17" s="50" t="s">
+        <v>134.1</v>
+      </c>
+      <c r="J17" s="65" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="28">
@@ -3826,18 +3852,18 @@
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="50"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F20" s="28" t="s">
@@ -3869,13 +3895,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G22" s="21">
-        <v>74.0498046875</v>
+        <v>76.97998046875</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
@@ -3883,22 +3909,17 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="G23" s="21">
-        <v>74.0498046875</v>
+        <v>75.33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -3908,6 +3929,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -3929,8 +3955,8 @@
     <col min="1" max="1" width="3" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="28"/>
+    <col min="4" max="5" width="9.140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C3" s="21">
-        <v>74.0498046875</v>
+        <v>76.97998046875</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="21">
-        <v>71.85009765625</v>
+        <v>68.9501953125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,10 +3994,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="21">
-        <v>62.449951171875</v>
+        <v>67.330078125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3979,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="21">
-        <v>60.449951171875</v>
+        <v>65.4501953125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,10 +4016,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" s="21">
-        <v>60.449951171875</v>
+        <v>64.830078125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4001,10 +4027,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="21">
-        <v>59.75</v>
+        <v>63.949951171875</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4012,10 +4038,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" s="21">
-        <v>59.2900390625</v>
+        <v>61.949951171875</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4023,10 +4049,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="21">
-        <v>55.14990234375</v>
+        <v>61.949951171875</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4034,10 +4060,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="21">
-        <v>54.85009765625</v>
+        <v>59.64990234375</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4045,10 +4071,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="21">
-        <v>54.85009765625</v>
+        <v>59.64990234375</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4056,10 +4082,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21">
-        <v>53.75</v>
+        <v>59.610107421875</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4067,10 +4093,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="21">
-        <v>53.64990234375</v>
+        <v>58.1298828125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,10 +4104,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="21">
-        <v>52.64990234375</v>
+        <v>58.1298828125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4089,10 +4115,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="21">
-        <v>51.64990234375</v>
+        <v>57.85009765625</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,10 +4126,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="21">
-        <v>51.530029296875</v>
+        <v>57.1298828125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4111,10 +4137,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="21">
-        <v>51.389892578125</v>
+        <v>56.27001953125</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,10 +4148,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="21">
-        <v>51.3701171875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4133,10 +4159,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="21">
-        <v>49.030029296875</v>
+        <v>56.10009765625</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,10 +4170,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" s="21">
-        <v>47.85009765625</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,10 +4181,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="21">
-        <v>47.35009765625</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,10 +4192,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="21">
-        <v>45.949951171875</v>
+        <v>53.050048828125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,10 +4203,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="21">
-        <v>45.550048828125</v>
+        <v>52.22998046875</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,10 +4214,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="21">
-        <v>45.25</v>
+        <v>51.830078125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,10 +4225,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C26" s="21">
-        <v>44.449951171875</v>
+        <v>50.89990234375</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4213,7 +4239,7 @@
         <v>114</v>
       </c>
       <c r="C27" s="21">
-        <v>43.85009765625</v>
+        <v>50.85009765625</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4224,7 +4250,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="21">
-        <v>43.550048828125</v>
+        <v>49.3701171875</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,7 +4261,7 @@
         <v>116</v>
       </c>
       <c r="C29" s="21">
-        <v>43.449951171875</v>
+        <v>49.10009765625</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4246,7 +4272,7 @@
         <v>117</v>
       </c>
       <c r="C30" s="21">
-        <v>43.25</v>
+        <v>48.64990234375</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,7 +4283,7 @@
         <v>118</v>
       </c>
       <c r="C31" s="21">
-        <v>41.550048828125</v>
+        <v>48.449951171875</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4268,7 +4294,7 @@
         <v>119</v>
       </c>
       <c r="C32" s="21">
-        <v>41.449951171875</v>
+        <v>48.030029296875</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4279,7 +4305,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="21">
-        <v>41.35009765625</v>
+        <v>47.030029296875</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4290,7 +4316,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="21">
-        <v>41.14990234375</v>
+        <v>46.669921875</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4301,7 +4327,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="21">
-        <v>41.050048828125</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4312,7 +4338,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="21">
-        <v>38.75</v>
+        <v>45.1298828125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4323,7 +4349,7 @@
         <v>124</v>
       </c>
       <c r="C37" s="21">
-        <v>38.35009765625</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4334,7 +4360,7 @@
         <v>125</v>
       </c>
       <c r="C38" s="21">
-        <v>37.050048828125</v>
+        <v>43.14990234375</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,7 +4371,7 @@
         <v>126</v>
       </c>
       <c r="C39" s="21">
-        <v>36.25</v>
+        <v>42.949951171875</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4356,7 +4382,7 @@
         <v>127</v>
       </c>
       <c r="C40" s="21">
-        <v>35.85009765625</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4367,7 +4393,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="21">
-        <v>33.050048828125</v>
+        <v>41.14990234375</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4378,7 +4404,7 @@
         <v>129</v>
       </c>
       <c r="C42" s="21">
-        <v>28.75</v>
+        <v>39.72998046875</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4415,7 @@
         <v>130</v>
       </c>
       <c r="C43" s="21">
-        <v>22.6500244140625</v>
+        <v>39.330078125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4400,7 +4426,7 @@
         <v>131</v>
       </c>
       <c r="C44" s="21">
-        <v>22.5400390625</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4411,7 +4437,7 @@
         <v>132</v>
       </c>
       <c r="C45" s="21">
-        <v>21.6500244140625</v>
+        <v>38.6298828125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,7 +4448,7 @@
         <v>133</v>
       </c>
       <c r="C46" s="21">
-        <v>21.25</v>
+        <v>38.300048828125</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4433,7 +4459,7 @@
         <v>134</v>
       </c>
       <c r="C47" s="21">
-        <v>20.949951171875</v>
+        <v>37.429931640625</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4444,7 +4470,7 @@
         <v>135</v>
       </c>
       <c r="C48" s="21">
-        <v>19.3499755859375</v>
+        <v>37.35009765625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4455,7 +4481,7 @@
         <v>136</v>
       </c>
       <c r="C49" s="21">
-        <v>16.0899658203125</v>
+        <v>36.070068359375</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4466,7 +4492,7 @@
         <v>137</v>
       </c>
       <c r="C50" s="21">
-        <v>12.6500244140625</v>
+        <v>29.469970703125</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4477,7 +4503,7 @@
         <v>138</v>
       </c>
       <c r="C51" s="21">
-        <v>11.8900146484375</v>
+        <v>27.0699462890625</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4488,7 +4514,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="21">
-        <v>3.0500030517578121</v>
+        <v>25.6500244140625</v>
       </c>
     </row>
   </sheetData>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A9DB2-165E-4DF1-B27D-19CB028B4F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C3A6A-B116-4A62-B91E-EC6E37A42C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,328 +441,328 @@
     <t>Pos</t>
   </si>
   <si>
+    <t>FisioT's</t>
+  </si>
+  <si>
+    <t>E.C.O 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
+    <t>C.A. ELSHOW</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
     <t>Cohab da madeira</t>
   </si>
   <si>
-    <t>E.C.O 82</t>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>DiasBons EC</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
   </si>
   <si>
     <t>Brahma 07 FC</t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>FisioT's</t>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>ROLETA RU$$A F.C</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>Reinafcr</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>MEM- TRICOLOR</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>RealXavier</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>Renalare</t>
   </si>
   <si>
     <t>LQueiroz Castelucas FC</t>
   </si>
   <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>Los Angeles Stars FC</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
     <t>The wailers F.c Brasilanjah</t>
   </si>
   <si>
+    <t>Maste fla</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
     <t>02 de outubro</t>
   </si>
   <si>
-    <t>RealXavier</t>
-  </si>
-  <si>
-    <t>C.A. ELSHOW</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>C$</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
+    <t>Santa fé futebol e samba</t>
   </si>
   <si>
     <t>Kattegat Vila Belmiro</t>
   </si>
   <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
-  </si>
-  <si>
-    <t>Reinafcr</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
-    <t>DiasBons EC</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>ROLETA RU$$A F.C</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>MEM- TRICOLOR</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
   </si>
   <si>
     <t>Maleví F.D.</t>
   </si>
   <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>Renalare</t>
+    <t>F.C Trupingas</t>
   </si>
   <si>
     <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>alhfao</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>Los Angeles Stars FC</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>Team Portogalo FC</t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
   </si>
 </sst>
 </file>
@@ -1220,15 +1220,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,56 +1232,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1623,87 +1623,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AR2" sqref="AR2:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="56" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="56" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="56" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="56" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="56" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="56" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="56" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="56" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="56" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="56" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="56" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="56" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="56" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="56" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="56" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="56" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="56" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="56" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="56" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="56" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="56" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="56" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="56" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="56" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="56" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="56" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="56" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="56" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="56" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="57" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="57" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="57" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="57" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="57" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="57" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="57" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="57" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="57" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="57" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="57" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="57" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="57" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="57" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="57" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="57" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="57" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="57" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="57" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="57" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="57" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="57" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="57" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="57" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="57" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="57" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="57" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="56" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="56" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="57" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="57" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="56" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="56" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="56" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="56" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="56" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="56" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="56" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="56" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="56" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="56" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="56" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="57" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="57" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="57" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="57" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="57" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="57" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="57" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="57" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="57" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="57" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="57" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="56" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="56" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="56" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="56" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="56" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="57" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="57" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="57" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="57" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="57" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="56" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="56" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="56" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="56" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="56" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="57" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="57" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="57" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="57" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="57" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="56" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="56" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="56" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="56" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="56" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="56" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="56" customWidth="1"/>
-    <col min="81" max="82" width="9.140625" style="56" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="56"/>
+    <col min="74" max="74" width="28.5703125" style="57" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="57" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="57" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="57" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="57" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="57" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="57" customWidth="1"/>
+    <col min="81" max="83" width="9.140625" style="57" customWidth="1"/>
+    <col min="84" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:80" s="59" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
-      <c r="W2" s="69" t="s">
+      <c r="W2" s="72" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="64"/>
@@ -1782,10 +1782,10 @@
       <c r="BN2" s="64"/>
       <c r="BO2" s="64"/>
       <c r="BP2" s="64"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="53"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="50"/>
       <c r="BU2" s="63"/>
       <c r="BV2" s="64"/>
       <c r="BW2" s="64"/>
@@ -1904,32 +1904,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="72" t="s">
+      <c r="BI3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="71"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="62"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="74" t="s">
+      <c r="BO3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="71"/>
-      <c r="BU3" s="75" t="s">
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="62"/>
+      <c r="BU3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="71"/>
-      <c r="CA3" s="70" t="s">
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="62"/>
+      <c r="CA3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="71"/>
+      <c r="CB3" s="62"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="C4" s="14" t="str">
         <f>LigaPrincipal!F3</f>
-        <v>Cohab da madeira</v>
-      </c>
-      <c r="D4" s="52">
+        <v>FisioT's</v>
+      </c>
+      <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>243.709716796875</v>
+        <v>303.160400390625</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>151.66</v>
+        <v>144.63</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -1979,15 +1979,15 @@
       </c>
       <c r="R4" s="38" t="str">
         <f>LigaPrincipal!F21</f>
-        <v>E.C.O 82</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="S4" s="22">
         <f>LigaPrincipal!G21</f>
-        <v>82.18994140625</v>
+        <v>92.60986328125</v>
       </c>
       <c r="T4" s="38">
         <f>LigaPrincipal!H21</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U4" s="16">
         <v>150</v>
@@ -1997,16 +1997,16 @@
       </c>
       <c r="X4" s="38" t="str">
         <f>LigaPrincipal!B3</f>
-        <v>Cohab da madeira</v>
+        <v>FisioT's</v>
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>243.709716796875</v>
+        <v>303.160400390625</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="73" t="s">
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2023,7 +2023,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="67">
+      <c r="AH4" s="69">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2033,7 +2033,7 @@
       <c r="AK4" s="19">
         <v>150</v>
       </c>
-      <c r="AM4" s="67">
+      <c r="AM4" s="69">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2048,22 +2048,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>69.7001953125</v>
+        <v>75.569999694824219</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>46.56005859375</v>
+        <v>43.169998168945313</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>20</v>
@@ -2073,7 +2073,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="67">
+      <c r="BD4" s="69">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2083,21 +2083,21 @@
       <c r="BG4" s="19">
         <v>300</v>
       </c>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="57" t="s">
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BM4" s="57" t="s">
+      <c r="BM4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BO4" s="55"/>
+      <c r="BO4" s="52"/>
       <c r="BP4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BS4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BU4" s="55"/>
+      <c r="BU4" s="52"/>
       <c r="BV4" s="12" t="s">
         <v>11</v>
       </c>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>Brahma 07 FC</v>
-      </c>
-      <c r="D5" s="52">
+        <v xml:space="preserve">S.C. Brasilandia City </v>
+      </c>
+      <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>240.639892578125</v>
+        <v>302.89990234375</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2143,11 +2143,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>135.56</v>
+        <v>138.72999999999999</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2157,15 +2157,15 @@
       </c>
       <c r="R5" s="37" t="str">
         <f>LigaPrincipal!F22</f>
-        <v>Brahma 07 FC</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="S5" s="23">
         <f>LigaPrincipal!G22</f>
-        <v>81.5</v>
+        <v>82.18994140625</v>
       </c>
       <c r="T5" s="37">
         <f>LigaPrincipal!H22</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="17">
         <v>100</v>
@@ -2175,16 +2175,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>Brahma 07 FC</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>240.639892578125</v>
+        <v>302.89990234375</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="66"/>
+      <c r="AB5" s="71"/>
       <c r="AC5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="68"/>
+      <c r="AH5" s="70"/>
       <c r="AI5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="AK5" s="17">
         <v>50</v>
       </c>
-      <c r="AM5" s="68"/>
+      <c r="AM5" s="70"/>
       <c r="AN5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2220,22 +2220,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>66.5</v>
+        <v>69.94000244140625</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>Porco Verde WA</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>46.5400390625</v>
+        <v>41.840000152587891</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>24</v>
@@ -2245,7 +2245,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="68"/>
+      <c r="BD5" s="70"/>
       <c r="BE5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2256,56 +2256,56 @@
       <c r="BI5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="58" t="str">
+      <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
-      </c>
-      <c r="BK5" s="54"/>
+        <v>Palestra 1000 Grau fc</v>
+      </c>
+      <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="BM5" s="58" t="str">
+      <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>Reinafcr</v>
-      </c>
-      <c r="BN5" s="54"/>
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="BP5" s="58" t="str">
+      <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>C.A. ELSHOW</v>
-      </c>
-      <c r="BQ5" s="54"/>
+        <v>Chelsea Ziiica FC</v>
+      </c>
+      <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="BS5" s="58" t="str">
+      <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>Bávaros Bier</v>
-      </c>
-      <c r="BT5" s="54"/>
+        <v>SC BAYER DE MULEKES</v>
+      </c>
+      <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="BV5" s="58" t="str">
+      <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>Kattegat Vila Belmiro</v>
-      </c>
-      <c r="BW5" s="54"/>
+        <v>SC Karate Kid</v>
+      </c>
+      <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="BY5" s="58" t="str">
+      <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="CB5" s="58" t="str">
+      <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Arloso FC</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>240.429931640625</v>
+        <v>293.10986328125</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2342,11 +2342,11 @@
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>S.E. FINISH</v>
+        <v>FisioT's</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>133.91</v>
+        <v>137.54</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2356,15 +2356,15 @@
       </c>
       <c r="R6" s="36" t="str">
         <f>LigaPrincipal!F23</f>
-        <v>DUFF F.D.</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="S6" s="24">
         <f>LigaPrincipal!G23</f>
-        <v>76.97998046875</v>
+        <v>81.5</v>
       </c>
       <c r="T6" s="36">
         <f>LigaPrincipal!H23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" s="18">
         <v>50</v>
@@ -2374,16 +2374,16 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>240.429931640625</v>
+        <v>293.10986328125</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="65" t="s">
+      <c r="AB6" s="73" t="s">
         <v>34</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2391,16 +2391,16 @@
       </c>
       <c r="AD6" s="38" t="str">
         <f>LigaPrincipal!L5</f>
-        <v>Hepta 17 FC</v>
+        <v>FisioT's</v>
       </c>
       <c r="AE6" s="38">
         <f>LigaPrincipal!M5</f>
-        <v>193.47</v>
+        <v>251.51</v>
       </c>
       <c r="AF6" s="19">
         <v>100</v>
       </c>
-      <c r="AH6" s="66"/>
+      <c r="AH6" s="71"/>
       <c r="AI6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="AK6" s="18">
         <v>30</v>
       </c>
-      <c r="AM6" s="66"/>
+      <c r="AM6" s="71"/>
       <c r="AN6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>Tornad000</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>59.85009765625</v>
+        <v>69.169998168945313</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>Bávaros Bier</v>
+        <v>TERUEG</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>46.5400390625</v>
+        <v>40.689998626708977</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>33</v>
@@ -2446,7 +2446,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="66"/>
+      <c r="BD6" s="71"/>
       <c r="BE6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2457,56 +2457,56 @@
       <c r="BI6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="BJ6" s="59" t="str">
+      <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>verdao29fc</v>
-      </c>
-      <c r="BK6" s="54"/>
+        <v>Esquaiella F.C</v>
+      </c>
+      <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="BM6" s="59" t="str">
+      <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>L&amp;G Cabral</v>
-      </c>
-      <c r="BN6" s="54"/>
+        <v>APOCALIPSE1910</v>
+      </c>
+      <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="BP6" s="59" t="str">
+      <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>FUT ART SP</v>
-      </c>
-      <c r="BQ6" s="54"/>
+        <v>Artefutt</v>
+      </c>
+      <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="BS6" s="59" t="str">
+      <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>Cohab da madeira</v>
-      </c>
-      <c r="BT6" s="54"/>
+        <v>kamicase2 fc</v>
+      </c>
+      <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="BV6" s="59" t="str">
+      <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>alhfao</v>
-      </c>
-      <c r="BW6" s="54"/>
+        <v>The wailers F.c Brasilanjah</v>
+      </c>
+      <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="BY6" s="59" t="str">
+      <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>The wailers. pro</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="CB6" s="59" t="str">
+      <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>kamicase2 fc</v>
+        <v>EC Samba Social</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2515,16 +2515,16 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>FisioT's</v>
+        <v>Medão Fc</v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>237.290283203125</v>
+        <v>292.61962890625</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="66"/>
+      <c r="AB7" s="71"/>
       <c r="AC7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="AE7" s="36">
         <f>LigaPrincipal!M6</f>
-        <v>189.04</v>
+        <v>251.51</v>
       </c>
       <c r="AF7" s="18">
         <v>50</v>
       </c>
-      <c r="AH7" s="67">
+      <c r="AH7" s="69">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -2549,7 +2549,7 @@
       <c r="AK7" s="19">
         <v>150</v>
       </c>
-      <c r="AM7" s="67">
+      <c r="AM7" s="69">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -2564,22 +2564,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>58.93994140625</v>
+        <v>68.610000610351563</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>R.N.S FC</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>46.25</v>
+        <v>40.590000152587891</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>43</v>
@@ -2589,7 +2589,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="67">
+      <c r="BD7" s="69">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -2602,79 +2602,79 @@
       <c r="BI7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ7" s="59" t="str">
+      <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>The wailers F.c Brasilanjah</v>
-      </c>
-      <c r="BK7" s="54"/>
+        <v xml:space="preserve">Meus Ovos </v>
+      </c>
+      <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="BM7" s="59" t="str">
+      <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>DiasBons EC</v>
-      </c>
-      <c r="BN7" s="54"/>
+        <v>alhfao</v>
+      </c>
+      <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="BP7" s="59" t="str">
+      <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>02 de outubro</v>
-      </c>
-      <c r="BQ7" s="54"/>
+        <v>Manollo F.C</v>
+      </c>
+      <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BS7" s="59" t="str">
+      <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>R.N.S FC</v>
-      </c>
-      <c r="BT7" s="54"/>
+        <v>S.C. JUNIOR SIEMACO</v>
+      </c>
+      <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="BV7" s="59" t="str">
+      <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>E.C.O 82</v>
-      </c>
-      <c r="BW7" s="54"/>
+        <v>Maste fla</v>
+      </c>
+      <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="59" t="str">
+      <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>Xo Corona</v>
+        <v>Mister Oliveira F.C</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="CB7" s="59" t="str">
+      <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>Shibo F.C.</v>
+        <v>The wailers. pro</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>236.5400390625</v>
+        <v>290.69970703125</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="73" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -2691,7 +2691,7 @@
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="68"/>
+      <c r="AH8" s="70"/>
       <c r="AI8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="68"/>
+      <c r="AM8" s="70"/>
       <c r="AN8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2712,22 +2712,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>Cata Cata 71</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>58.449951171875</v>
+        <v>64.319999694824219</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>MEM- TRICOLOR</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>45.43994140625</v>
+        <v>40.540000915527337</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>51</v>
@@ -2737,7 +2737,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="68"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2748,56 +2748,56 @@
       <c r="BI8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="BJ8" s="59" t="str">
+      <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>Hepta 17 FC</v>
-      </c>
-      <c r="BK8" s="54"/>
+        <v>Medão Fc</v>
+      </c>
+      <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BM8" s="59" t="str">
+      <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>RICKNATOR SQUAD</v>
-      </c>
-      <c r="BN8" s="54"/>
+        <v>Cata Cata 71</v>
+      </c>
+      <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BP8" s="59" t="str">
+      <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>MCML Futebol Clube IBR</v>
-      </c>
-      <c r="BQ8" s="54"/>
+        <v>ARENACORINTHIANSSS</v>
+      </c>
+      <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="BS8" s="59" t="str">
+      <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Forró Social Club</v>
-      </c>
-      <c r="BT8" s="54"/>
+        <v>SCFVelasco2021</v>
+      </c>
+      <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="BV8" s="59" t="str">
+      <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>LamucciSPFC</v>
-      </c>
-      <c r="BW8" s="54"/>
+        <v>Hrvatska Soccer F.C</v>
+      </c>
+      <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BY8" s="59" t="str">
+      <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>METAMORPHO</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="CB8" s="60" t="str">
+      <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>Mont City R.B.</v>
+        <v>KVRA-Z/O</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2811,16 +2811,16 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>02 de outubro</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>233.7802734375</v>
+        <v>289.519775390625</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="66"/>
+      <c r="AB9" s="71"/>
       <c r="AC9" s="11" t="s">
         <v>24</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="66"/>
+      <c r="AH9" s="71"/>
       <c r="AI9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="66"/>
+      <c r="AM9" s="71"/>
       <c r="AN9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2856,28 +2856,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>São Paulo Edu Física</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>58.340087890625</v>
+        <v>63.490001678466797</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>E.C SIEMACO SP</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>44.5</v>
+        <v>39.990001678466797</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="66"/>
+      <c r="BD9" s="71"/>
       <c r="BE9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2888,49 +2888,49 @@
       <c r="BI9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="BJ9" s="59" t="str">
+      <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>Esquaiella F.C</v>
-      </c>
-      <c r="BK9" s="54"/>
+        <v>Rei dos mares F.C</v>
+      </c>
+      <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BM9" s="59" t="str">
+      <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>KAMIKA$E F.C</v>
-      </c>
-      <c r="BN9" s="54"/>
+        <v>Rage Against Cloroquina</v>
+      </c>
+      <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="BP9" s="59" t="str">
+      <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>SCFVelasco2021</v>
-      </c>
-      <c r="BQ9" s="54"/>
+        <v>Zildane F.C</v>
+      </c>
+      <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="BS9" s="59" t="str">
+      <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>MEM- TRICOLOR</v>
-      </c>
-      <c r="BT9" s="54"/>
+        <v>Cohab da madeira</v>
+      </c>
+      <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="BV9" s="59" t="str">
+      <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>TERUEG</v>
-      </c>
-      <c r="BW9" s="54"/>
+        <v>$ANTO$</v>
+      </c>
+      <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="BY9" s="59" t="str">
+      <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>O Cartola II</v>
+        <v>02 de outubro</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2944,16 +2944,16 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>RealXavier</v>
+        <v>verdao29fc</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>232.199951171875</v>
+        <v>288.830078125</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="65" t="s">
+      <c r="AB10" s="73" t="s">
         <v>68</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -2970,7 +2970,7 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="67">
+      <c r="AH10" s="69">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -2980,7 +2980,7 @@
       <c r="AK10" s="19">
         <v>150</v>
       </c>
-      <c r="AM10" s="67">
+      <c r="AM10" s="69">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -2995,28 +2995,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>55.639892578125</v>
+        <v>62.869998931884773</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>$ANTO$</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>44.199951171875</v>
+        <v>39.650001525878913</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="67">
+      <c r="BD10" s="69">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3029,49 +3029,49 @@
       <c r="BI10" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="BJ10" s="59" t="str">
+      <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>Maleví F.D.</v>
-      </c>
-      <c r="BK10" s="54"/>
+        <v>Mont City R.B.</v>
+      </c>
+      <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="BM10" s="59" t="str">
+      <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>MALMO FUTEBOL F.</v>
-      </c>
-      <c r="BN10" s="54"/>
+        <v>Forró Social Club</v>
+      </c>
+      <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="BP10" s="59" t="str">
+      <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>ROLETA RU$$A F.C</v>
-      </c>
-      <c r="BQ10" s="54"/>
+        <v>Tornadooo F.C</v>
+      </c>
+      <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="BS10" s="59" t="str">
+      <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>Real Litoral FC</v>
-      </c>
-      <c r="BT10" s="54"/>
+        <v>SEP Campeoníssimo</v>
+      </c>
+      <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="BV10" s="59" t="str">
+      <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>SCCP Quarta força</v>
-      </c>
-      <c r="BW10" s="54"/>
+        <v>S.E. FINISH</v>
+      </c>
+      <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="BY10" s="59" t="str">
+      <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>Rei dos mares F.C</v>
+        <v>Igor Fontes F.C.</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3085,16 +3085,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>C.A. ELSHOW</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>231.23974609375</v>
+        <v>287.26025390625</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="66"/>
+      <c r="AB11" s="71"/>
       <c r="AC11" s="11" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="68"/>
+      <c r="AH11" s="70"/>
       <c r="AI11" s="10" t="s">
         <v>25</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="68"/>
+      <c r="AM11" s="70"/>
       <c r="AN11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3130,28 +3130,28 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>RealXavier</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>55.300048828125</v>
+        <v>62.869998931884773</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>KVRA-Z/O</v>
+        <v>RealXavier</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>44.0400390625</v>
+        <v>39.240001678466797</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="68"/>
+      <c r="BD11" s="70"/>
       <c r="BE11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3162,49 +3162,49 @@
       <c r="BI11" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="BJ11" s="59" t="str">
+      <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>REF$CAMPEÃO$</v>
-      </c>
-      <c r="BK11" s="54"/>
+        <v>HANDEVU FC</v>
+      </c>
+      <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="BM11" s="59" t="str">
+      <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>APOCALIPSE1910</v>
-      </c>
-      <c r="BN11" s="54"/>
+        <v>MCML Futebol Clube IBR</v>
+      </c>
+      <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="BP11" s="59" t="str">
+      <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>$uicide $quad F.C</v>
-      </c>
-      <c r="BQ11" s="54"/>
+        <v>Renato 007 Exp 2021</v>
+      </c>
+      <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="BS11" s="59" t="str">
+      <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>E.C SIEMACO SP</v>
-      </c>
-      <c r="BT11" s="54"/>
+        <v>Los Angeles Stars FC</v>
+      </c>
+      <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="BV11" s="59" t="str">
+      <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>THG VILA IZABEL FC</v>
-      </c>
-      <c r="BW11" s="54"/>
+        <v>Xo Corona</v>
+      </c>
+      <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="BY11" s="59" t="str">
+      <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>LiverpooI</v>
+        <v>Santa fé futebol e samba</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>S.E. FINISH</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>231.140380859375</v>
+        <v>285.77001953125</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="65" t="s">
+      <c r="AB12" s="73" t="s">
         <v>82</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3244,7 +3244,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="66"/>
+      <c r="AH12" s="71"/>
       <c r="AI12" s="11" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="66"/>
+      <c r="AM12" s="71"/>
       <c r="AN12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3265,28 +3265,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>Reinafcr</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>54.800048828125</v>
+        <v>57.990001678466797</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>SEP Campeoníssimo</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>43.739990234375</v>
+        <v>38.689998626708977</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="66"/>
+      <c r="BD12" s="71"/>
       <c r="BE12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3297,49 +3297,49 @@
       <c r="BI12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="BJ12" s="59" t="str">
+      <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>45 do 2!</v>
-      </c>
-      <c r="BK12" s="54"/>
+        <v>Fantasma Osasco fc</v>
+      </c>
+      <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="BM12" s="59" t="str">
+      <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Tornadooo F.C</v>
-      </c>
-      <c r="BN12" s="54"/>
+        <v>$uicide $quad F.C</v>
+      </c>
+      <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="BP12" s="59" t="str">
+      <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>Maste fla</v>
-      </c>
-      <c r="BQ12" s="54"/>
+        <v>Bayer de Favela Guarulhos</v>
+      </c>
+      <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="BS12" s="59" t="str">
+      <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>$ANTO$</v>
-      </c>
-      <c r="BT12" s="54"/>
+        <v>45 do 2!</v>
+      </c>
+      <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="BV12" s="59" t="str">
+      <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>Los Angeles Stars FC</v>
-      </c>
-      <c r="BW12" s="54"/>
+        <v>O Cartola II</v>
+      </c>
+      <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="BY12" s="59" t="str">
+      <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>CHAPELETA10</v>
+        <v>LamucciSPFC</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3353,16 +3353,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>verdao29fc</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>229.940185546875</v>
+        <v>285.429443359375</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="66"/>
+      <c r="AB13" s="71"/>
       <c r="AC13" s="11" t="s">
         <v>24</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="67">
+      <c r="AH13" s="69">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3387,7 +3387,7 @@
       <c r="AK13" s="19">
         <v>150</v>
       </c>
-      <c r="AM13" s="67">
+      <c r="AM13" s="69">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3402,28 +3402,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>L&amp;G Cabral</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>54.739990234375</v>
+        <v>57.970001220703118</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>LamucciSPFC</v>
+        <v>$ANTO$</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>42.139892578125</v>
+        <v>37.790000915527337</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="67">
+      <c r="BD13" s="69">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3436,58 +3436,58 @@
       <c r="BI13" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="BJ13" s="59" t="str">
+      <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>Hrvatska Soccer F.C</v>
-      </c>
-      <c r="BK13" s="54"/>
+        <v>Brasilândia MSFC</v>
+      </c>
+      <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="BM13" s="59" t="str">
+      <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>Pagangrizo’s team</v>
-      </c>
-      <c r="BN13" s="54"/>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
+      </c>
+      <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="BP13" s="59" t="str">
+      <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>ARENACORINTHIANSSS</v>
-      </c>
-      <c r="BQ13" s="54"/>
+        <v>L&amp;G Cabral</v>
+      </c>
+      <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="BS13" s="59" t="str">
+      <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>KVRA-Z/O</v>
-      </c>
-      <c r="BT13" s="54"/>
+        <v>É o bonde COM freio 2021 !</v>
+      </c>
+      <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="BV13" s="59" t="str">
+      <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>Bayer de Favela Guarulhos</v>
-      </c>
-      <c r="BW13" s="54"/>
+        <v>Arloso FC</v>
+      </c>
+      <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="BY13" s="59" t="str">
+      <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>Vocês tão Lascados</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="65" t="s">
+      <c r="AB14" s="73" t="s">
         <v>94</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3504,7 +3504,7 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="68"/>
+      <c r="AH14" s="70"/>
       <c r="AI14" s="10" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="68"/>
+      <c r="AM14" s="70"/>
       <c r="AN14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3525,28 +3525,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>DiasBons EC</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>54.639892578125</v>
+        <v>57.189998626708977</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>TERUEG</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>42</v>
+        <v>37.669998168945313</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="68"/>
+      <c r="BD14" s="70"/>
       <c r="BE14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3557,49 +3557,49 @@
       <c r="BI14" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="BJ14" s="59" t="str">
+      <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>S.C. JUNIOR SIEMACO</v>
-      </c>
-      <c r="BK14" s="54"/>
+        <v>Team Portogalo FC</v>
+      </c>
+      <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BM14" s="59" t="str">
+      <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>S.E. FINISH</v>
-      </c>
-      <c r="BN14" s="54"/>
+        <v>C.A. ELSHOW</v>
+      </c>
+      <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="BP14" s="59" t="str">
+      <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>Brasilândia MSFC</v>
-      </c>
-      <c r="BQ14" s="54"/>
+        <v>AVANTI AZZURRA</v>
+      </c>
+      <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="BS14" s="59" t="str">
+      <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>HANDEVU FC</v>
-      </c>
-      <c r="BT14" s="54"/>
+        <v>TERUEG</v>
+      </c>
+      <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BV14" s="59" t="str">
+      <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>Brahma 07 FC</v>
-      </c>
-      <c r="BW14" s="54"/>
+        <v>METAMORPHO</v>
+      </c>
+      <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="BY14" s="59" t="str">
+      <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>Team Portogalo FC</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3608,7 +3608,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="66"/>
+      <c r="AB15" s="71"/>
       <c r="AC15" s="11" t="s">
         <v>24</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="66"/>
+      <c r="AH15" s="71"/>
       <c r="AI15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="66"/>
+      <c r="AM15" s="71"/>
       <c r="AN15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3644,28 +3644,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>53.43994140625</v>
+        <v>55.090000152587891</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>Brahma 07 FC</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>41.43994140625</v>
+        <v>37.189998626708977</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="66"/>
+      <c r="BD15" s="71"/>
       <c r="BE15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3676,49 +3676,49 @@
       <c r="BI15" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="BJ15" s="59" t="str">
+      <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>Cata Cata 71</v>
-      </c>
-      <c r="BK15" s="54"/>
+        <v>E.C.O 82</v>
+      </c>
+      <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="BM15" s="59" t="str">
+      <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Renalare</v>
-      </c>
-      <c r="BN15" s="54"/>
+        <v>Pagangrizo’s team</v>
+      </c>
+      <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="BP15" s="59" t="str">
+      <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>Igor Fontes F.C.</v>
-      </c>
-      <c r="BQ15" s="54"/>
+        <v>MEM- TRICOLOR</v>
+      </c>
+      <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="BS15" s="59" t="str">
+      <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>El Loko China</v>
-      </c>
-      <c r="BT15" s="54"/>
+        <v>São Paulo Edu Física</v>
+      </c>
+      <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="BV15" s="59" t="str">
+      <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>SC Karate Kid</v>
-      </c>
-      <c r="BW15" s="54"/>
+        <v>Vocês tão Lascados</v>
+      </c>
+      <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="BY15" s="59" t="str">
+      <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>CLAN MORT</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="65" t="s">
+      <c r="AB16" s="73" t="s">
         <v>105</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -3744,7 +3744,7 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="67">
+      <c r="AH16" s="69">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -3754,7 +3754,7 @@
       <c r="AK16" s="19">
         <v>150</v>
       </c>
-      <c r="AM16" s="67">
+      <c r="AM16" s="69">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -3769,28 +3769,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>53.300048828125</v>
+        <v>54.790000915527337</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>SC Karate Kid</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>41.43994140625</v>
+        <v>36.790000915527337</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="67">
+      <c r="BD16" s="69">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -3803,49 +3803,49 @@
       <c r="BI16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="59" t="str">
+      <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>São Paulo Edu Física</v>
-      </c>
-      <c r="BK16" s="54"/>
+        <v>DiasBons EC</v>
+      </c>
+      <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BM16" s="59" t="str">
+      <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>EC Samba Social</v>
-      </c>
-      <c r="BN16" s="54"/>
+        <v>Reinafcr</v>
+      </c>
+      <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="BP16" s="59" t="str">
+      <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>showlimafc</v>
-      </c>
-      <c r="BQ16" s="54"/>
+        <v>El Loko China</v>
+      </c>
+      <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="BS16" s="59" t="str">
+      <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>SEP Campeoníssimo</v>
-      </c>
-      <c r="BT16" s="54"/>
+        <v>Hepta 17 FC</v>
+      </c>
+      <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="BV16" s="59" t="str">
+      <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>CLECIO1976 F.C</v>
-      </c>
-      <c r="BW16" s="54"/>
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="BY16" s="59" t="str">
+      <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Shibo F.C.</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="66"/>
+      <c r="AB17" s="71"/>
       <c r="AC17" s="11" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="68"/>
+      <c r="AH17" s="70"/>
       <c r="AI17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="68"/>
+      <c r="AM17" s="70"/>
       <c r="AN17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3890,28 +3890,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>52.5400390625</v>
+        <v>54.490001678466797</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>CLECIO1976 F.C</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>41.0400390625</v>
+        <v>36.709999084472663</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="68"/>
+      <c r="BD17" s="70"/>
       <c r="BE17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3922,49 +3922,49 @@
       <c r="BI17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="BJ17" s="59" t="str">
+      <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>FisioT's</v>
-      </c>
-      <c r="BK17" s="54"/>
+        <v>ROLETA RU$$A F.C</v>
+      </c>
+      <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="BM17" s="59" t="str">
+      <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>Medão Fc</v>
-      </c>
-      <c r="BN17" s="54"/>
+        <v>MALMO FUTEBOL F.</v>
+      </c>
+      <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="BP17" s="59" t="str">
+      <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>LQueiroz Castelucas FC</v>
-      </c>
-      <c r="BQ17" s="54"/>
+        <v>R.N.S FC</v>
+      </c>
+      <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="BS17" s="59" t="str">
+      <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>Santa fé futebol e samba</v>
-      </c>
-      <c r="BT17" s="54"/>
+        <v>Brahma 07 FC</v>
+      </c>
+      <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="BV17" s="59" t="str">
+      <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>SC BAYER DE MULEKES</v>
-      </c>
-      <c r="BW17" s="54"/>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="BY17" s="59" t="str">
+      <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>Manollo F.C</v>
+        <v>LiverpooI</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3973,7 +3973,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="65" t="s">
+      <c r="AB18" s="73" t="s">
         <v>116</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -3990,7 +3990,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="66"/>
+      <c r="AH18" s="71"/>
       <c r="AI18" s="11" t="s">
         <v>35</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="66"/>
+      <c r="AM18" s="71"/>
       <c r="AN18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4011,11 +4011,11 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>Pagangrizo’s team</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>52.340087890625</v>
+        <v>54.290000915527337</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>84</v>
@@ -4026,13 +4026,13 @@
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>40.0400390625</v>
+        <v>36.049999237060547</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="66"/>
+      <c r="BD18" s="71"/>
       <c r="BE18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4043,49 +4043,49 @@
       <c r="BI18" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="BJ18" s="59" t="str">
+      <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>É o bonde COM freio 2021 !</v>
-      </c>
-      <c r="BK18" s="54"/>
+        <v>KAMIKA$E F.C</v>
+      </c>
+      <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="BM18" s="59" t="str">
+      <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>DUFF F.D.</v>
-      </c>
-      <c r="BN18" s="54"/>
+        <v>verdao29fc</v>
+      </c>
+      <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="BP18" s="59" t="str">
+      <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>Palestra 1000 Grau fc</v>
-      </c>
-      <c r="BQ18" s="54"/>
+        <v>Renalare</v>
+      </c>
+      <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="BS18" s="59" t="str">
+      <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>CLAN MORT</v>
-      </c>
-      <c r="BT18" s="54"/>
+        <v>S. E. CURUPIRA</v>
+      </c>
+      <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="BV18" s="59" t="str">
+      <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
         <v>Breeja F.C</v>
       </c>
-      <c r="BW18" s="54"/>
+      <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="BY18" s="59" t="str">
+      <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>CHAPELETA10</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="66"/>
+      <c r="AB19" s="71"/>
       <c r="AC19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="67">
+      <c r="AH19" s="69">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4119,7 +4119,7 @@
       <c r="AK19" s="19">
         <v>150</v>
       </c>
-      <c r="AM19" s="67">
+      <c r="AM19" s="69">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4134,28 +4134,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>S.E. FINISH</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>52.0400390625</v>
+        <v>53.950000762939453</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>AVANTI AZZURRA</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>39.0400390625</v>
+        <v>34.990001678466797</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="67">
+      <c r="BD19" s="69">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4168,58 +4168,58 @@
       <c r="BI19" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="BJ19" s="59" t="str">
+      <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v xml:space="preserve">Meus Ovos </v>
-      </c>
-      <c r="BK19" s="54"/>
+        <v>SCCP Quarta força</v>
+      </c>
+      <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="BM19" s="59" t="str">
+      <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>Rage Against Cloroquina</v>
-      </c>
-      <c r="BN19" s="54"/>
+        <v>Bávaros Bier</v>
+      </c>
+      <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="BP19" s="59" t="str">
+      <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>MITTO100NI</v>
-      </c>
-      <c r="BQ19" s="54"/>
+        <v>LQueiroz Castelucas FC</v>
+      </c>
+      <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="BS19" s="59" t="str">
+      <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>F.C Trupingas</v>
-      </c>
-      <c r="BT19" s="54"/>
+        <v>RealXavier</v>
+      </c>
+      <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="BV19" s="59" t="str">
+      <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>Mister Oliveira F.C</v>
-      </c>
-      <c r="BW19" s="54"/>
+        <v>RICKNATOR SQUAD</v>
+      </c>
+      <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="BY19" s="59" t="str">
+      <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Artefutt</v>
+        <v>Maleví F.D.</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="AH20" s="70"/>
       <c r="AI20" s="10" t="s">
         <v>25</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="68"/>
+      <c r="AM20" s="70"/>
       <c r="AN20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4240,28 +4240,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>Tornad000</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>51.800048828125</v>
+        <v>53.389999389648438</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>METAMORPHO</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>38.419921875</v>
+        <v>33.840000152587891</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="68"/>
+      <c r="BD20" s="70"/>
       <c r="BE20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4272,49 +4272,49 @@
       <c r="BI20" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="BJ20" s="60" t="str">
+      <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>RealXavier</v>
-      </c>
-      <c r="BK20" s="54"/>
+        <v>FisioT's</v>
+      </c>
+      <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="BM20" s="60" t="str">
+      <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>S. E. CURUPIRA</v>
-      </c>
-      <c r="BN20" s="54"/>
+        <v>CLECIO1976 F.C</v>
+      </c>
+      <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="BP20" s="60" t="str">
+      <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>Porco Verde WA</v>
-      </c>
-      <c r="BQ20" s="54"/>
+        <v>E.C SIEMACO SP</v>
+      </c>
+      <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="BS20" s="60" t="str">
+      <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>Zildane F.C</v>
-      </c>
-      <c r="BT20" s="54"/>
+        <v>showlimafc</v>
+      </c>
+      <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="BV20" s="60" t="str">
+      <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>AVANTI AZZURRA</v>
-      </c>
-      <c r="BW20" s="54"/>
+        <v>MITTO100NI</v>
+      </c>
+      <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="BY20" s="60" t="str">
+      <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>F.C Trupingas</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4323,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="66"/>
+      <c r="AH21" s="71"/>
       <c r="AI21" s="11" t="s">
         <v>35</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="66"/>
+      <c r="AM21" s="71"/>
       <c r="AN21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4344,28 +4344,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>DUFF F.D.</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>51.06005859375</v>
+        <v>50.290000915527337</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>101</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>Rei dos mares F.C</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>37.43994140625</v>
+        <v>33.490001678466797</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="66"/>
+      <c r="BD21" s="71"/>
       <c r="BE21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4373,17 +4373,17 @@
       <c r="BG21" s="18">
         <v>100</v>
       </c>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BQ21" s="54"/>
-      <c r="BR21" s="54"/>
-      <c r="BS21" s="54"/>
-      <c r="BT21" s="54"/>
-      <c r="BW21" s="54"/>
-      <c r="BX21" s="54"/>
-      <c r="BY21" s="54"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
+      <c r="BN21" s="51"/>
+      <c r="BQ21" s="51"/>
+      <c r="BR21" s="51"/>
+      <c r="BS21" s="51"/>
+      <c r="BT21" s="51"/>
+      <c r="BW21" s="51"/>
+      <c r="BX21" s="51"/>
+      <c r="BY21" s="51"/>
     </row>
     <row r="22" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -4391,7 +4391,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="67">
+      <c r="AH22" s="69">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4401,7 +4401,7 @@
       <c r="AK22" s="19">
         <v>150</v>
       </c>
-      <c r="AM22" s="67">
+      <c r="AM22" s="69">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4416,28 +4416,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>49.719970703125</v>
+        <v>48.470001220703118</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>LiverpooI</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>36.139892578125</v>
+        <v>32.389999389648438</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="67">
+      <c r="BD22" s="69">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4447,17 +4447,17 @@
       <c r="BG22" s="19">
         <v>300</v>
       </c>
-      <c r="BK22" s="54"/>
-      <c r="BL22" s="54"/>
-      <c r="BM22" s="54"/>
-      <c r="BN22" s="54"/>
-      <c r="BQ22" s="54"/>
-      <c r="BR22" s="54"/>
-      <c r="BS22" s="54"/>
-      <c r="BT22" s="54"/>
-      <c r="BW22" s="54"/>
-      <c r="BX22" s="54"/>
-      <c r="BY22" s="54"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+      <c r="BN22" s="51"/>
+      <c r="BQ22" s="51"/>
+      <c r="BR22" s="51"/>
+      <c r="BS22" s="51"/>
+      <c r="BT22" s="51"/>
+      <c r="BW22" s="51"/>
+      <c r="BX22" s="51"/>
+      <c r="BY22" s="51"/>
     </row>
     <row r="23" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
@@ -4465,7 +4465,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="68"/>
+      <c r="AH23" s="70"/>
       <c r="AI23" s="10" t="s">
         <v>25</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="68"/>
+      <c r="AM23" s="70"/>
       <c r="AN23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4486,28 +4486,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>SCFVelasco2021</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>49.139892578125</v>
+        <v>48.189998626708977</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>112</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>CHAPELETA10</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>36</v>
+        <v>31.940000534057621</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="68"/>
+      <c r="BD23" s="70"/>
       <c r="BE23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4515,17 +4515,17 @@
       <c r="BG23" s="17">
         <v>200</v>
       </c>
-      <c r="BK23" s="54"/>
-      <c r="BL23" s="54"/>
-      <c r="BM23" s="54"/>
-      <c r="BN23" s="54"/>
-      <c r="BQ23" s="54"/>
-      <c r="BR23" s="54"/>
-      <c r="BS23" s="54"/>
-      <c r="BT23" s="54"/>
-      <c r="BW23" s="54"/>
-      <c r="BX23" s="54"/>
-      <c r="BY23" s="54"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+      <c r="BM23" s="51"/>
+      <c r="BN23" s="51"/>
+      <c r="BQ23" s="51"/>
+      <c r="BR23" s="51"/>
+      <c r="BS23" s="51"/>
+      <c r="BT23" s="51"/>
+      <c r="BW23" s="51"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
     </row>
     <row r="24" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
@@ -4533,7 +4533,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="66"/>
+      <c r="AH24" s="71"/>
       <c r="AI24" s="11" t="s">
         <v>35</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="66"/>
+      <c r="AM24" s="71"/>
       <c r="AN24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4554,28 +4554,28 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>48.840087890625</v>
+        <v>47.840000152587891</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AV24" s="32" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AW24" s="23">
         <f>LigaEliminatória!C48</f>
-        <v>34.89990234375</v>
+        <v>30.370000839233398</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="66"/>
+      <c r="BD24" s="71"/>
       <c r="BE24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4583,17 +4583,17 @@
       <c r="BG24" s="18">
         <v>100</v>
       </c>
-      <c r="BK24" s="54"/>
-      <c r="BL24" s="54"/>
-      <c r="BM24" s="54"/>
-      <c r="BN24" s="54"/>
-      <c r="BQ24" s="54"/>
-      <c r="BR24" s="54"/>
-      <c r="BS24" s="54"/>
-      <c r="BT24" s="54"/>
-      <c r="BW24" s="54"/>
-      <c r="BX24" s="54"/>
-      <c r="BY24" s="54"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+      <c r="BN24" s="51"/>
+      <c r="BQ24" s="51"/>
+      <c r="BR24" s="51"/>
+      <c r="BS24" s="51"/>
+      <c r="BT24" s="51"/>
+      <c r="BW24" s="51"/>
+      <c r="BX24" s="51"/>
+      <c r="BY24" s="51"/>
     </row>
     <row r="25" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR25" s="10" t="s">
@@ -4601,38 +4601,38 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>$uicide $quad F.C</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>48.840087890625</v>
+        <v>47.689998626708977</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="AV25" s="32" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>Fantasma Osasco fc</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AW25" s="23">
         <f>LigaEliminatória!C49</f>
-        <v>34.239990234375</v>
+        <v>30.190000534057621</v>
       </c>
       <c r="AY25" s="39"/>
       <c r="AZ25" s="39"/>
       <c r="BA25" s="39"/>
       <c r="BB25" s="39"/>
-      <c r="BK25" s="54"/>
-      <c r="BL25" s="54"/>
-      <c r="BM25" s="54"/>
-      <c r="BN25" s="54"/>
-      <c r="BQ25" s="54"/>
-      <c r="BR25" s="54"/>
-      <c r="BS25" s="54"/>
-      <c r="BT25" s="54"/>
-      <c r="BW25" s="54"/>
-      <c r="BX25" s="54"/>
-      <c r="BY25" s="54"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="51"/>
+      <c r="BN25" s="51"/>
+      <c r="BQ25" s="51"/>
+      <c r="BR25" s="51"/>
+      <c r="BS25" s="51"/>
+      <c r="BT25" s="51"/>
+      <c r="BW25" s="51"/>
+      <c r="BX25" s="51"/>
+      <c r="BY25" s="51"/>
     </row>
     <row r="26" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR26" s="10" t="s">
@@ -4640,38 +4640,38 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>Brasilândia MSFC</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>47.919921875</v>
+        <v>46.590000152587891</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>127</v>
       </c>
       <c r="AV26" s="32" t="str">
         <f>LigaEliminatória!B50</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AW26" s="23">
         <f>LigaEliminatória!C50</f>
-        <v>31.699951171875</v>
+        <v>29.690000534057621</v>
       </c>
       <c r="AY26" s="39"/>
       <c r="AZ26" s="39"/>
       <c r="BA26" s="39"/>
       <c r="BB26" s="39"/>
-      <c r="BK26" s="54"/>
-      <c r="BL26" s="54"/>
-      <c r="BM26" s="54"/>
-      <c r="BN26" s="54"/>
-      <c r="BQ26" s="54"/>
-      <c r="BR26" s="54"/>
-      <c r="BS26" s="54"/>
-      <c r="BT26" s="54"/>
-      <c r="BW26" s="54"/>
-      <c r="BX26" s="54"/>
-      <c r="BY26" s="54"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+      <c r="BN26" s="51"/>
+      <c r="BQ26" s="51"/>
+      <c r="BR26" s="51"/>
+      <c r="BS26" s="51"/>
+      <c r="BT26" s="51"/>
+      <c r="BW26" s="51"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
     </row>
     <row r="27" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR27" s="10" t="s">
@@ -4679,38 +4679,38 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>LQueiroz FC</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>46.949951171875</v>
+        <v>45.150001525878913</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="AV27" s="32" t="str">
         <f>LigaEliminatória!B51</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AW27" s="23">
         <f>LigaEliminatória!C51</f>
-        <v>25.8399658203125</v>
+        <v>22.190000534057621</v>
       </c>
       <c r="AY27" s="39"/>
       <c r="AZ27" s="39"/>
       <c r="BA27" s="39"/>
       <c r="BB27" s="39"/>
-      <c r="BK27" s="54"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="54"/>
-      <c r="BQ27" s="54"/>
-      <c r="BR27" s="54"/>
-      <c r="BS27" s="54"/>
-      <c r="BT27" s="54"/>
-      <c r="BW27" s="54"/>
-      <c r="BX27" s="54"/>
-      <c r="BY27" s="54"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
+      <c r="BN27" s="51"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
+      <c r="BT27" s="51"/>
+      <c r="BW27" s="51"/>
+      <c r="BX27" s="51"/>
+      <c r="BY27" s="51"/>
     </row>
     <row r="28" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR28" s="11" t="s">
@@ -4718,194 +4718,161 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>Igor Fontes F.C.</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>46.93994140625</v>
+        <v>43.770000457763672</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>39</v>
       </c>
       <c r="AV28" s="34" t="str">
         <f>LigaEliminatória!B52</f>
-        <v>Shibo F.C.</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW28" s="24">
         <f>LigaEliminatória!C52</f>
-        <v>22.1400146484375</v>
+        <v>17.090000152587891</v>
       </c>
       <c r="AY28" s="39"/>
       <c r="AZ28" s="39"/>
       <c r="BA28" s="39"/>
       <c r="BB28" s="39"/>
-      <c r="BK28" s="54"/>
-      <c r="BL28" s="54"/>
-      <c r="BM28" s="54"/>
-      <c r="BN28" s="54"/>
-      <c r="BQ28" s="54"/>
-      <c r="BR28" s="54"/>
-      <c r="BS28" s="54"/>
-      <c r="BT28" s="54"/>
-      <c r="BW28" s="54"/>
-      <c r="BX28" s="54"/>
-      <c r="BY28" s="54"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+      <c r="BM28" s="51"/>
+      <c r="BN28" s="51"/>
+      <c r="BQ28" s="51"/>
+      <c r="BR28" s="51"/>
+      <c r="BS28" s="51"/>
+      <c r="BT28" s="51"/>
+      <c r="BW28" s="51"/>
+      <c r="BX28" s="51"/>
+      <c r="BY28" s="51"/>
     </row>
     <row r="29" spans="2:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BK29" s="54"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BQ29" s="54"/>
-      <c r="BR29" s="54"/>
-      <c r="BS29" s="54"/>
-      <c r="BT29" s="54"/>
-      <c r="BW29" s="54"/>
-      <c r="BX29" s="54"/>
-      <c r="BY29" s="54"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
+      <c r="BQ29" s="51"/>
+      <c r="BR29" s="51"/>
+      <c r="BS29" s="51"/>
+      <c r="BT29" s="51"/>
+      <c r="BW29" s="51"/>
+      <c r="BX29" s="51"/>
+      <c r="BY29" s="51"/>
     </row>
     <row r="30" spans="2:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS30" s="39"/>
-      <c r="BK30" s="54"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-      <c r="BN30" s="54"/>
-      <c r="BQ30" s="54"/>
-      <c r="BR30" s="54"/>
-      <c r="BS30" s="54"/>
-      <c r="BT30" s="54"/>
-      <c r="BW30" s="54"/>
-      <c r="BX30" s="54"/>
-      <c r="BY30" s="54"/>
+      <c r="BK30" s="51"/>
+      <c r="BL30" s="51"/>
+      <c r="BM30" s="51"/>
+      <c r="BN30" s="51"/>
+      <c r="BQ30" s="51"/>
+      <c r="BR30" s="51"/>
+      <c r="BS30" s="51"/>
+      <c r="BT30" s="51"/>
+      <c r="BW30" s="51"/>
+      <c r="BX30" s="51"/>
+      <c r="BY30" s="51"/>
     </row>
     <row r="31" spans="2:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS31" s="41"/>
       <c r="AV31" s="42"/>
       <c r="AW31" s="43"/>
-      <c r="BK31" s="54"/>
-      <c r="BL31" s="54"/>
-      <c r="BM31" s="54"/>
-      <c r="BN31" s="54"/>
-      <c r="BQ31" s="54"/>
-      <c r="BR31" s="54"/>
-      <c r="BS31" s="54"/>
-      <c r="BT31" s="54"/>
-      <c r="BW31" s="54"/>
-      <c r="BX31" s="54"/>
-      <c r="BY31" s="54"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="51"/>
     </row>
     <row r="32" spans="2:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS32" s="41"/>
       <c r="AV32" s="42"/>
       <c r="AW32" s="43"/>
-      <c r="BK32" s="54"/>
-      <c r="BL32" s="54"/>
-      <c r="BM32" s="54"/>
-      <c r="BN32" s="54"/>
-      <c r="BQ32" s="54"/>
-      <c r="BR32" s="54"/>
-      <c r="BS32" s="54"/>
-      <c r="BT32" s="54"/>
-      <c r="BW32" s="54"/>
-      <c r="BX32" s="54"/>
-      <c r="BY32" s="54"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+      <c r="BN32" s="51"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BW32" s="51"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="51"/>
     </row>
     <row r="33" spans="45:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS33" s="41"/>
       <c r="AV33" s="42"/>
       <c r="AW33" s="43"/>
-      <c r="BK33" s="54"/>
-      <c r="BL33" s="54"/>
-      <c r="BM33" s="54"/>
-      <c r="BN33" s="54"/>
-      <c r="BQ33" s="54"/>
-      <c r="BR33" s="54"/>
-      <c r="BS33" s="54"/>
-      <c r="BT33" s="54"/>
-      <c r="BW33" s="54"/>
-      <c r="BX33" s="54"/>
-      <c r="BY33" s="54"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51"/>
+      <c r="BN33" s="51"/>
+      <c r="BQ33" s="51"/>
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51"/>
+      <c r="BT33" s="51"/>
+      <c r="BW33" s="51"/>
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="51"/>
     </row>
     <row r="34" spans="45:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS34" s="41"/>
       <c r="AV34" s="42"/>
       <c r="AW34" s="43"/>
-      <c r="BK34" s="54"/>
-      <c r="BL34" s="54"/>
-      <c r="BM34" s="54"/>
-      <c r="BN34" s="54"/>
-      <c r="BQ34" s="54"/>
-      <c r="BR34" s="54"/>
-      <c r="BS34" s="54"/>
-      <c r="BT34" s="54"/>
-      <c r="BW34" s="54"/>
-      <c r="BX34" s="54"/>
-      <c r="BY34" s="54"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+      <c r="BN34" s="51"/>
+      <c r="BQ34" s="51"/>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51"/>
+      <c r="BT34" s="51"/>
+      <c r="BW34" s="51"/>
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="51"/>
     </row>
     <row r="35" spans="45:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AS35" s="41"/>
       <c r="AV35" s="42"/>
       <c r="AW35" s="43"/>
-      <c r="BK35" s="54"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BQ35" s="54"/>
-      <c r="BR35" s="54"/>
-      <c r="BS35" s="54"/>
-      <c r="BT35" s="54"/>
-      <c r="BW35" s="54"/>
-      <c r="BX35" s="54"/>
-      <c r="BY35" s="54"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+      <c r="BM35" s="51"/>
+      <c r="BN35" s="51"/>
+      <c r="BQ35" s="51"/>
+      <c r="BR35" s="51"/>
+      <c r="BS35" s="51"/>
+      <c r="BT35" s="51"/>
+      <c r="BW35" s="51"/>
+      <c r="BX35" s="51"/>
+      <c r="BY35" s="51"/>
     </row>
     <row r="36" spans="45:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BK36" s="54"/>
-      <c r="BL36" s="54"/>
-      <c r="BM36" s="54"/>
-      <c r="BN36" s="54"/>
-      <c r="BQ36" s="54"/>
-      <c r="BR36" s="54"/>
-      <c r="BS36" s="54"/>
-      <c r="BT36" s="54"/>
-      <c r="BW36" s="54"/>
-      <c r="BX36" s="54"/>
-      <c r="BY36" s="54"/>
+      <c r="BK36" s="51"/>
+      <c r="BL36" s="51"/>
+      <c r="BM36" s="51"/>
+      <c r="BN36" s="51"/>
+      <c r="BQ36" s="51"/>
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="51"/>
+      <c r="BT36" s="51"/>
+      <c r="BW36" s="51"/>
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -4922,6 +4889,39 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4939,16 +4939,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="51" customWidth="1"/>
-    <col min="5" max="5" width="2" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="51" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="51" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="3" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="2" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="60" customWidth="1"/>
+    <col min="10" max="16" width="9.140625" style="60" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4970,57 +4970,57 @@
       <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="60" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="60" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="20">
-        <v>243.709716796875</v>
-      </c>
-      <c r="E3" s="51">
+        <v>303.160400390625</v>
+      </c>
+      <c r="E3" s="60">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="21">
-        <v>243.709716796875</v>
+        <v>303.160400390625</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="60">
         <v>1</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="60" t="s">
         <v>137</v>
       </c>
       <c r="M3" s="20">
@@ -5028,29 +5028,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="60" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="20">
-        <v>240.639892578125</v>
-      </c>
-      <c r="E4" s="51">
+        <v>302.89990234375</v>
+      </c>
+      <c r="E4" s="60">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>138</v>
       </c>
       <c r="G4" s="21">
-        <v>240.639892578125</v>
+        <v>302.89990234375</v>
       </c>
       <c r="J4" s="76"/>
-      <c r="K4" s="51">
+      <c r="K4" s="60">
         <v>2</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="60" t="s">
         <v>139</v>
       </c>
       <c r="M4" s="20">
@@ -5058,67 +5058,67 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="60" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="20">
-        <v>240.429931640625</v>
-      </c>
-      <c r="E5" s="51">
+        <v>293.10986328125</v>
+      </c>
+      <c r="E5" s="60">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="21">
-        <v>240.429931640625</v>
+        <v>293.10986328125</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="60">
         <v>1</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="51">
-        <v>193.47</v>
+      <c r="L5" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="60">
+        <v>251.51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="60">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>141</v>
+      <c r="B6" s="60" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="20">
-        <v>237.290283203125</v>
+        <v>292.61962890625</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="51">
+      <c r="K6" s="60">
         <v>2</v>
       </c>
-      <c r="L6" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M6" s="51">
-        <v>189.04</v>
+      <c r="L6" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="60">
+        <v>251.51</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>143</v>
+      <c r="B7" s="60" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="20">
-        <v>236.5400390625</v>
+        <v>290.69970703125</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>1</v>
@@ -5128,101 +5128,101 @@
       <c r="J7" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="60">
         <v>6</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>144</v>
+      <c r="B8" s="60" t="s">
+        <v>137</v>
       </c>
       <c r="C8" s="20">
-        <v>233.7802734375</v>
-      </c>
-      <c r="F8" s="51" t="s">
+        <v>289.519775390625</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="60" t="s">
         <v>134</v>
       </c>
       <c r="J8" s="76"/>
-      <c r="K8" s="51">
+      <c r="K8" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="60">
         <v>7</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="60" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="20">
-        <v>232.199951171875</v>
-      </c>
-      <c r="E9" s="51">
+        <v>288.830078125</v>
+      </c>
+      <c r="E9" s="60">
         <v>1</v>
       </c>
       <c r="J9" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="60">
         <v>8</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="60" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="20">
-        <v>231.23974609375</v>
-      </c>
-      <c r="E10" s="51">
+        <v>287.26025390625</v>
+      </c>
+      <c r="E10" s="60">
         <v>2</v>
       </c>
       <c r="J10" s="76"/>
-      <c r="K10" s="51">
+      <c r="K10" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="A11" s="60">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="60" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="20">
-        <v>231.140380859375</v>
-      </c>
-      <c r="E11" s="51">
+        <v>285.77001953125</v>
+      </c>
+      <c r="E11" s="60">
         <v>3</v>
       </c>
       <c r="J11" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="60" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="20">
-        <v>229.940185546875</v>
+        <v>285.429443359375</v>
       </c>
       <c r="J12" s="76"/>
-      <c r="K12" s="51">
+      <c r="K12" s="60">
         <v>2</v>
       </c>
     </row>
@@ -5235,74 +5235,74 @@
       <c r="J13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="60" t="s">
         <v>150</v>
       </c>
       <c r="J14" s="76"/>
-      <c r="K14" s="51">
+      <c r="K14" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="51">
+      <c r="E15" s="60">
         <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>151</v>
       </c>
       <c r="G15" s="21">
-        <v>151.66</v>
+        <v>144.63</v>
       </c>
       <c r="J15" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="51">
+      <c r="E16" s="60">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G16" s="21">
-        <v>135.56</v>
+        <v>138.72999999999999</v>
       </c>
       <c r="J16" s="76"/>
-      <c r="K16" s="51">
+      <c r="K16" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="51">
+      <c r="E17" s="60">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G17" s="21">
-        <v>133.91</v>
+        <v>137.54</v>
       </c>
       <c r="J17" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J18" s="76"/>
-      <c r="K18" s="51">
+      <c r="K18" s="60">
         <v>2</v>
       </c>
     </row>
@@ -5315,65 +5315,60 @@
       <c r="H19" s="76"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="51">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="21">
+        <v>92.60986328125</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="60">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="21">
         <v>82.18994140625</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="51">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="21">
-        <v>81.5</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-    </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="51">
+      <c r="E23" s="60">
         <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
       </c>
       <c r="G23" s="21">
-        <v>76.97998046875</v>
+        <v>81.5</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5383,6 +5378,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5401,15 +5401,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="51"/>
+    <col min="4" max="8" width="9.140625" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="60" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5417,553 +5417,553 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>140</v>
+      <c r="B3" s="60" t="s">
+        <v>154</v>
       </c>
       <c r="C3" s="21">
-        <v>69.7001953125</v>
+        <v>75.569999694824219</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>154</v>
+      <c r="B4" s="60" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="21">
-        <v>66.5</v>
+        <v>69.94000244140625</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>155</v>
+      <c r="B5" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="21">
-        <v>59.85009765625</v>
+        <v>69.169998168945313</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="60">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>156</v>
+      <c r="B6" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="C6" s="21">
-        <v>58.93994140625</v>
+        <v>68.610000610351563</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="60" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="21">
-        <v>58.449951171875</v>
+        <v>64.319999694824219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="60">
         <v>6</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="21">
+        <v>63.490001678466797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>7</v>
+      </c>
+      <c r="B9" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="21">
-        <v>58.340087890625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>7</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="21">
+        <v>62.869998931884773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>8</v>
+      </c>
+      <c r="B10" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="21">
-        <v>55.639892578125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>8</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>145</v>
-      </c>
       <c r="C10" s="21">
-        <v>55.300048828125</v>
+        <v>62.869998931884773</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="A11" s="60">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="60" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="21">
-        <v>54.800048828125</v>
+        <v>57.990001678466797</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="60" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="21">
-        <v>54.739990234375</v>
+        <v>57.970001220703118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="A13" s="60">
         <v>11</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="60" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="21">
-        <v>54.639892578125</v>
+        <v>57.189998626708977</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="60">
         <v>12</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="21">
+        <v>55.090000152587891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>13</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="21">
-        <v>53.43994140625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
-        <v>13</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="C15" s="21">
+        <v>54.790000915527337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>14</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="21">
-        <v>53.300048828125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
-        <v>14</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="C16" s="21">
+        <v>54.490001678466797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>15</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="21">
-        <v>52.5400390625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
-        <v>15</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="C17" s="21">
+        <v>54.290000915527337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>16</v>
+      </c>
+      <c r="B18" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="21">
-        <v>52.340087890625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <v>16</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>147</v>
-      </c>
       <c r="C18" s="21">
-        <v>52.0400390625</v>
+        <v>53.950000762939453</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="60">
         <v>17</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="60" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="21">
-        <v>51.800048828125</v>
+        <v>53.389999389648438</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="60">
         <v>18</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="21">
+        <v>50.290000915527337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>19</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="21">
+        <v>48.470001220703118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="60">
+        <v>20</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="21">
+        <v>48.189998626708977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="60">
+        <v>21</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="21">
+        <v>47.840000152587891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="60">
+        <v>22</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="21">
+        <v>47.689998626708977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="60">
+        <v>23</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="21">
+        <v>46.590000152587891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
+        <v>24</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="21">
+        <v>45.150001525878913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="60">
+        <v>25</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="21">
+        <v>43.770000457763672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="60">
+        <v>26</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="21">
+        <v>43.169998168945313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <v>27</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="21">
+        <v>41.840000152587891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <v>28</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="21">
+        <v>40.689998626708977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>29</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="21">
+        <v>40.590000152587891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="60">
+        <v>30</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="21">
+        <v>40.540000915527337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="60">
+        <v>31</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="21">
+        <v>39.990001678466797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="60">
+        <v>32</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="21">
-        <v>51.06005859375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
-        <v>19</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="21">
-        <v>49.719970703125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
-        <v>20</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="21">
-        <v>49.139892578125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
-        <v>21</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="21">
-        <v>48.840087890625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
-        <v>22</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="21">
-        <v>48.840087890625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
-        <v>23</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="21">
-        <v>47.919921875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
-        <v>24</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="21">
-        <v>46.949951171875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
-        <v>25</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="21">
-        <v>46.93994140625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
-        <v>26</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="21">
-        <v>46.56005859375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
-        <v>27</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="21">
-        <v>46.5400390625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
-        <v>28</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="21">
-        <v>46.5400390625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
-        <v>29</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="21">
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
-        <v>30</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="21">
-        <v>45.43994140625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
-        <v>31</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="21">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
-        <v>32</v>
-      </c>
-      <c r="B34" s="51" t="s">
+      <c r="C34" s="21">
+        <v>39.650001525878913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <v>33</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="21">
-        <v>44.199951171875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="51">
-        <v>33</v>
-      </c>
-      <c r="B35" s="51" t="s">
+      <c r="C35" s="21">
+        <v>39.240001678466797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="60">
+        <v>34</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="21">
+        <v>38.689998626708977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <v>35</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="21">
-        <v>44.0400390625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="51">
-        <v>34</v>
-      </c>
-      <c r="B36" s="51" t="s">
+      <c r="C37" s="21">
+        <v>37.790000915527337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="60">
+        <v>36</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="21">
-        <v>43.739990234375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="51">
-        <v>35</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="C38" s="21">
+        <v>37.669998168945313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="60">
+        <v>37</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="21">
-        <v>42.139892578125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="51">
-        <v>36</v>
-      </c>
-      <c r="B38" s="51" t="s">
+      <c r="C39" s="21">
+        <v>37.189998626708977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="60">
+        <v>38</v>
+      </c>
+      <c r="B40" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C40" s="21">
+        <v>36.790000915527337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="60">
+        <v>39</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="21">
+        <v>36.709999084472663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="60">
+        <v>40</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="21">
+        <v>36.049999237060547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="60">
+        <v>41</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="21">
+        <v>34.990001678466797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="60">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="51">
-        <v>37</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="21">
-        <v>41.43994140625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="51">
-        <v>38</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="21">
-        <v>41.43994140625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
-        <v>39</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="21">
-        <v>41.0400390625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
-        <v>40</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="21">
-        <v>40.0400390625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
-        <v>41</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="21">
-        <v>39.0400390625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="51">
-        <v>42</v>
-      </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="60" t="s">
         <v>189</v>
       </c>
       <c r="C44" s="21">
-        <v>38.419921875</v>
+        <v>33.840000152587891</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="51">
+      <c r="A45" s="60">
         <v>43</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="60" t="s">
         <v>190</v>
       </c>
       <c r="C45" s="21">
-        <v>37.43994140625</v>
+        <v>33.490001678466797</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="51">
+      <c r="A46" s="60">
         <v>44</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="60" t="s">
         <v>191</v>
       </c>
       <c r="C46" s="21">
-        <v>36.139892578125</v>
+        <v>32.389999389648438</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="51">
+      <c r="A47" s="60">
         <v>45</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="60" t="s">
         <v>192</v>
       </c>
       <c r="C47" s="21">
-        <v>36</v>
+        <v>31.940000534057621</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="51">
+      <c r="A48" s="60">
         <v>46</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="60" t="s">
         <v>193</v>
       </c>
       <c r="C48" s="21">
-        <v>34.89990234375</v>
+        <v>30.370000839233398</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="51">
+      <c r="A49" s="60">
         <v>47</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="60" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="21">
-        <v>34.239990234375</v>
+        <v>30.190000534057621</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="51">
+      <c r="A50" s="60">
         <v>48</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="60" t="s">
         <v>195</v>
       </c>
       <c r="C50" s="21">
-        <v>31.699951171875</v>
+        <v>29.690000534057621</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
+      <c r="A51" s="60">
         <v>49</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="60" t="s">
         <v>196</v>
       </c>
       <c r="C51" s="21">
-        <v>25.8399658203125</v>
+        <v>22.190000534057621</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="51">
+      <c r="A52" s="60">
         <v>50</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="60" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="21">
-        <v>22.1400146484375</v>
+        <v>17.090000152587891</v>
       </c>
     </row>
   </sheetData>
@@ -5981,377 +5981,377 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -6376,17 +6376,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -6396,52 +6396,52 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -6451,32 +6451,32 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C3A6A-B116-4A62-B91E-EC6E37A42C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20800CDE-AB0B-4A2A-B772-2B5D9B07F629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,202 +447,307 @@
     <t>E.C.O 82</t>
   </si>
   <si>
+    <t>Cohab da madeira</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
+    <t>C.A. ELSHOW</t>
+  </si>
+  <si>
+    <t>LQueiroz Castelucas FC</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>DiasBons EC</t>
+  </si>
+  <si>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t>MEM- TRICOLOR</t>
+  </si>
+  <si>
+    <t>Santa fé futebol e samba</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>RealXavier</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>Reinafcr</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>ROLETA RU$$A F.C</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">S.C. Brasilandia City </t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
-  </si>
-  <si>
-    <t>C.A. ELSHOW</t>
+    <t>Maste fla</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
   </si>
   <si>
     <t>Hepta 17 FC</t>
   </si>
   <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t>Cohab da madeira</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
   </si>
   <si>
     <t>Real Litoral FC</t>
   </si>
   <si>
-    <t>DiasBons EC</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>C$</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>ROLETA RU$$A F.C</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>Reinafcr</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>MEM- TRICOLOR</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>RealXavier</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>Team Portogalo FC</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
   </si>
   <si>
     <t>alhfao</t>
@@ -651,118 +756,13 @@
     <t>Rage Against Cloroquina</t>
   </si>
   <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>LQueiroz Castelucas FC</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
   </si>
   <si>
     <t>Los Angeles Stars FC</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,28 +1244,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,24 +1293,13 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,87 +1629,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AW28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AJ7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ27" sqref="AZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="57" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="57" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="57" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="57" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="57" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="57" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="57" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="57" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="57" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="57" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="57" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="57" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="57" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="57" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="57" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="57" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="57" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="57" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="57" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="57" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="57" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="57" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="57" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="57" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="57" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="57" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="57" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="57" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="57" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="57" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="59" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="59" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="59" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="59" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="59" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="59" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="59" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="59" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="59" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="59" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="59" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="59" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="59" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="59" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="59" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="59" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="59" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="59" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="59" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="59" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="59" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="59" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="59" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="59" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="59" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="59" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="59" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="59" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="59" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="57" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="57" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="59" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="59" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="57" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="57" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="57" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="57" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="57" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="57" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="57" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="57" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="57" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="57" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="57" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="59" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="59" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="59" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="59" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="59" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="59" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="59" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="59" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="59" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="59" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="59" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="57" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="57" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="57" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="57" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="57" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="59" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="59" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="59" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="59" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="59" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="57" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="57" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="57" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="57" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="57" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="59" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="59" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="59" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="59" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="59" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="57" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="57" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="57" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="57" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="57" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="57" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="57" customWidth="1"/>
-    <col min="81" max="83" width="9.140625" style="57" customWidth="1"/>
-    <col min="84" max="16384" width="9.140625" style="57"/>
+    <col min="74" max="74" width="28.5703125" style="59" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="59" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="59" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="59" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="59" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="59" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="59" customWidth="1"/>
+    <col min="81" max="84" width="9.140625" style="59" customWidth="1"/>
+    <col min="85" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="59" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:80" s="58" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1735,7 @@
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
-      <c r="W2" s="72" t="s">
+      <c r="W2" s="69" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="64"/>
@@ -1782,9 +1788,9 @@
       <c r="BN2" s="64"/>
       <c r="BO2" s="64"/>
       <c r="BP2" s="64"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
+      <c r="BQ2" s="57"/>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57"/>
       <c r="BT2" s="50"/>
       <c r="BU2" s="63"/>
       <c r="BV2" s="64"/>
@@ -1904,32 +1910,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="65" t="s">
+      <c r="BI3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="62"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="71"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BO3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="62"/>
-      <c r="BU3" s="68" t="s">
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="71"/>
+      <c r="BU3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="62"/>
-      <c r="CA3" s="61" t="s">
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="71"/>
+      <c r="CA3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="62"/>
+      <c r="CB3" s="71"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1941,7 +1947,7 @@
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>303.160400390625</v>
+        <v>394.200439453125</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -1969,7 +1975,7 @@
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>144.63</v>
+        <v>153.43</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -1979,15 +1985,15 @@
       </c>
       <c r="R4" s="38" t="str">
         <f>LigaPrincipal!F21</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="S4" s="22">
         <f>LigaPrincipal!G21</f>
-        <v>92.60986328125</v>
+        <v>106.080078125</v>
       </c>
       <c r="T4" s="38">
         <f>LigaPrincipal!H21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" s="16">
         <v>150</v>
@@ -2001,12 +2007,12 @@
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>303.160400390625</v>
+        <v>394.200439453125</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="65" t="s">
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2023,7 +2029,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="69">
+      <c r="AH4" s="67">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2033,7 +2039,7 @@
       <c r="AK4" s="19">
         <v>150</v>
       </c>
-      <c r="AM4" s="69">
+      <c r="AM4" s="67">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2048,22 +2054,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>75.569999694824219</v>
+        <v>80.94000244140625</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>SCFVelasco2021</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>43.169998168945313</v>
+        <v>62.240001678466797</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>20</v>
@@ -2073,7 +2079,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="69">
+      <c r="BD4" s="67">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2115,11 +2121,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>302.89990234375</v>
+        <v>383.0595703125</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2143,11 +2149,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>E.C.O 82</v>
+        <v>FisioT's</v>
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>138.72999999999999</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2157,15 +2163,15 @@
       </c>
       <c r="R5" s="37" t="str">
         <f>LigaPrincipal!F22</f>
-        <v>E.C.O 82</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="S5" s="23">
         <f>LigaPrincipal!G22</f>
-        <v>82.18994140625</v>
+        <v>101.83984375</v>
       </c>
       <c r="T5" s="37">
         <f>LigaPrincipal!H22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" s="17">
         <v>100</v>
@@ -2175,16 +2181,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>302.89990234375</v>
+        <v>383.0595703125</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="71"/>
+      <c r="AB5" s="66"/>
       <c r="AC5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2205,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="70"/>
+      <c r="AH5" s="68"/>
       <c r="AI5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2213,7 @@
       <c r="AK5" s="17">
         <v>50</v>
       </c>
-      <c r="AM5" s="70"/>
+      <c r="AM5" s="68"/>
       <c r="AN5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2220,22 +2226,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>Fantasma Osasco fc</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>69.94000244140625</v>
+        <v>77.339996337890625</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>TERUEG</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>41.840000152587891</v>
+        <v>62.119998931884773</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>24</v>
@@ -2245,7 +2251,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="70"/>
+      <c r="BD5" s="68"/>
       <c r="BE5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2264,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2266,7 +2272,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>Real Litoral FC</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2274,7 +2280,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2282,7 +2288,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2290,7 +2296,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>SC Karate Kid</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>Porco Verde WA</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>32</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>02 de outubro</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2318,7 +2324,7 @@
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>293.10986328125</v>
+        <v>369.5498046875</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2342,11 +2348,11 @@
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>FisioT's</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>137.54</v>
+        <v>142.57</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2356,15 +2362,15 @@
       </c>
       <c r="R6" s="36" t="str">
         <f>LigaPrincipal!F23</f>
-        <v>Brahma 07 FC</v>
+        <v>Santa fé futebol e samba</v>
       </c>
       <c r="S6" s="24">
         <f>LigaPrincipal!G23</f>
-        <v>81.5</v>
+        <v>101.52001953125</v>
       </c>
       <c r="T6" s="36">
         <f>LigaPrincipal!H23</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U6" s="18">
         <v>50</v>
@@ -2378,12 +2384,12 @@
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>293.10986328125</v>
+        <v>369.5498046875</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="73" t="s">
+      <c r="AB6" s="65" t="s">
         <v>34</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2400,7 +2406,7 @@
       <c r="AF6" s="19">
         <v>100</v>
       </c>
-      <c r="AH6" s="71"/>
+      <c r="AH6" s="66"/>
       <c r="AI6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2414,7 @@
       <c r="AK6" s="18">
         <v>30</v>
       </c>
-      <c r="AM6" s="71"/>
+      <c r="AM6" s="66"/>
       <c r="AN6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2421,22 +2427,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>Rei dos mares F.C</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>69.169998168945313</v>
+        <v>77.239997863769531</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>TERUEG</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>40.689998626708977</v>
+        <v>61.130001068115227</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>33</v>
@@ -2446,7 +2452,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="71"/>
+      <c r="BD6" s="66"/>
       <c r="BE6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2459,7 +2465,7 @@
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>Esquaiella F.C</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
@@ -2467,7 +2473,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>APOCALIPSE1910</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2475,7 +2481,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>Artefutt</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2483,7 +2489,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>kamicase2 fc</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2491,7 +2497,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2499,14 +2505,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>42</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>EC Samba Social</v>
+        <v>Los Angeles Stars FC</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2515,16 +2521,16 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>Medão Fc</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>292.61962890625</v>
+        <v>368.340087890625</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="71"/>
+      <c r="AB7" s="66"/>
       <c r="AC7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2539,7 +2545,7 @@
       <c r="AF7" s="18">
         <v>50</v>
       </c>
-      <c r="AH7" s="69">
+      <c r="AH7" s="67">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -2549,7 +2555,7 @@
       <c r="AK7" s="19">
         <v>150</v>
       </c>
-      <c r="AM7" s="69">
+      <c r="AM7" s="67">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -2564,22 +2570,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>68.610000610351563</v>
+        <v>76.94000244140625</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>São Paulo Edu Física</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>40.590000152587891</v>
+        <v>59.139999389648438</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>43</v>
@@ -2589,7 +2595,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="69">
+      <c r="BD7" s="67">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -2604,7 +2610,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Santa fé futebol e samba</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -2612,7 +2618,7 @@
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>alhfao</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
@@ -2620,7 +2626,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>Manollo F.C</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -2628,7 +2634,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Renalare</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -2636,7 +2642,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>Maste fla</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -2644,37 +2650,37 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>Mister Oliveira F.C</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>50</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>The wailers. pro</v>
+        <v>KVRA-Z/O</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>Cohab da madeira</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>290.69970703125</v>
+        <v>368.269775390625</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="73" t="s">
+      <c r="AB8" s="65" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -2691,7 +2697,7 @@
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="70"/>
+      <c r="AH8" s="68"/>
       <c r="AI8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2705,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="70"/>
+      <c r="AM8" s="68"/>
       <c r="AN8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2712,22 +2718,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>Brasilândia MSFC</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>64.319999694824219</v>
+        <v>76.839996337890625</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>SEP Campeoníssimo</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>40.540000915527337</v>
+        <v>58.540000915527337</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>51</v>
@@ -2737,7 +2743,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="70"/>
+      <c r="BD8" s="68"/>
       <c r="BE8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>Medão Fc</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
@@ -2758,7 +2764,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>Cata Cata 71</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -2766,7 +2772,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -2774,7 +2780,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>SCFVelasco2021</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -2782,7 +2788,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -2790,14 +2796,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>59</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>KVRA-Z/O</v>
+        <v>R.N.S FC</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2811,16 +2817,16 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>E.C.O 82</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>289.519775390625</v>
+        <v>365.669677734375</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="71"/>
+      <c r="AB9" s="66"/>
       <c r="AC9" s="11" t="s">
         <v>24</v>
       </c>
@@ -2835,7 +2841,7 @@
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="71"/>
+      <c r="AH9" s="66"/>
       <c r="AI9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2843,7 +2849,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="71"/>
+      <c r="AM9" s="66"/>
       <c r="AN9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2856,28 +2862,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>DiasBons EC</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>63.490001678466797</v>
+        <v>75.080001831054688</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>39.990001678466797</v>
+        <v>57.639999389648438</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="71"/>
+      <c r="BD9" s="66"/>
       <c r="BE9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2890,7 +2896,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>Rei dos mares F.C</v>
+        <v>Maste fla</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -2898,7 +2904,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>Rage Against Cloroquina</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -2906,7 +2912,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>Zildane F.C</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -2914,7 +2920,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>Cohab da madeira</v>
+        <v>El Loko China</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -2922,7 +2928,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>$ANTO$</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -2930,7 +2936,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>02 de outubro</v>
+        <v>CLAN MORT</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2944,16 +2950,16 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>verdao29fc</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>288.830078125</v>
+        <v>363.729736328125</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="73" t="s">
+      <c r="AB10" s="65" t="s">
         <v>68</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -2970,7 +2976,7 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="69">
+      <c r="AH10" s="67">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -2980,7 +2986,7 @@
       <c r="AK10" s="19">
         <v>150</v>
       </c>
-      <c r="AM10" s="69">
+      <c r="AM10" s="67">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -2995,28 +3001,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>62.869998931884773</v>
+        <v>73.239997863769531</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>Brahma 07 FC</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>39.650001525878913</v>
+        <v>57.439998626708977</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="69">
+      <c r="BD10" s="67">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3031,7 +3037,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>Mont City R.B.</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3039,7 +3045,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>Forró Social Club</v>
+        <v>RealXavier</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3047,7 +3053,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>Tornadooo F.C</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3055,7 +3061,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>SEP Campeoníssimo</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3063,7 +3069,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>S.E. FINISH</v>
+        <v>HANDEVU FC</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3071,7 +3077,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>Igor Fontes F.C.</v>
+        <v>SC Karate Kid</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3085,16 +3091,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>Cata Cata 71</v>
+        <v>Medão Fc</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>287.26025390625</v>
+        <v>363.65966796875</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="71"/>
+      <c r="AB11" s="66"/>
       <c r="AC11" s="11" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3115,7 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="70"/>
+      <c r="AH11" s="68"/>
       <c r="AI11" s="10" t="s">
         <v>25</v>
       </c>
@@ -3117,7 +3123,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="70"/>
+      <c r="AM11" s="68"/>
       <c r="AN11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3130,28 +3136,28 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>62.869998931884773</v>
+        <v>72.330001831054688</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>RealXavier</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>39.240001678466797</v>
+        <v>56.630001068115227</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="70"/>
+      <c r="BD11" s="68"/>
       <c r="BE11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3164,7 +3170,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>HANDEVU FC</v>
+        <v>FisioT's</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3172,7 +3178,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3180,7 +3186,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3188,7 +3194,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>Los Angeles Stars FC</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3196,7 +3202,7 @@
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>Xo Corona</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>Santa fé futebol e samba</v>
+        <v>FUT ART SP</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3218,16 +3224,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>Real Litoral FC</v>
+        <v>verdao29fc</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>285.77001953125</v>
+        <v>361.169921875</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="73" t="s">
+      <c r="AB12" s="65" t="s">
         <v>82</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3244,7 +3250,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="71"/>
+      <c r="AH12" s="66"/>
       <c r="AI12" s="11" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3258,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="71"/>
+      <c r="AM12" s="66"/>
       <c r="AN12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3265,28 +3271,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>RealXavier</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>57.990001678466797</v>
+        <v>71.919998168945313</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>SC Karate Kid</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>38.689998626708977</v>
+        <v>56.459999084472663</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="71"/>
+      <c r="BD12" s="66"/>
       <c r="BE12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3299,7 +3305,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>Fantasma Osasco fc</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3307,7 +3313,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>$uicide $quad F.C</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3315,7 +3321,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3323,7 +3329,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>45 do 2!</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3331,7 +3337,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>O Cartola II</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3339,7 +3345,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>LamucciSPFC</v>
+        <v>E.C.O 82</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3353,16 +3359,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>DiasBons EC</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>285.429443359375</v>
+        <v>360.85986328125</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="71"/>
+      <c r="AB13" s="66"/>
       <c r="AC13" s="11" t="s">
         <v>24</v>
       </c>
@@ -3377,7 +3383,7 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="69">
+      <c r="AH13" s="67">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3387,7 +3393,7 @@
       <c r="AK13" s="19">
         <v>150</v>
       </c>
-      <c r="AM13" s="69">
+      <c r="AM13" s="67">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3402,28 +3408,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>$uicide $quad F.C</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>57.970001220703118</v>
+        <v>71.639999389648438</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>$ANTO$</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>37.790000915527337</v>
+        <v>55.040000915527337</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="69">
+      <c r="BD13" s="67">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3438,7 +3444,7 @@
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>Brasilândia MSFC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
@@ -3446,7 +3452,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Reinafcr</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3454,7 +3460,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>L&amp;G Cabral</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3462,7 +3468,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>TERUEG</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3470,7 +3476,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>Arloso FC</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3478,16 +3484,16 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>Mister Oliveira F.C</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="73" t="s">
+      <c r="AB14" s="65" t="s">
         <v>94</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3504,7 +3510,7 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="70"/>
+      <c r="AH14" s="68"/>
       <c r="AI14" s="10" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3518,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="70"/>
+      <c r="AM14" s="68"/>
       <c r="AN14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3525,28 +3531,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>Pagangrizo’s team</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>57.189998626708977</v>
+        <v>71.379997253417969</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>S.E. FINISH</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>37.669998168945313</v>
+        <v>54.939998626708977</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="70"/>
+      <c r="BD14" s="68"/>
       <c r="BE14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3559,7 +3565,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>Team Portogalo FC</v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -3567,7 +3573,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>C.A. ELSHOW</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -3575,7 +3581,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>AVANTI AZZURRA</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -3583,7 +3589,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>TERUEG</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -3591,7 +3597,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>METAMORPHO</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -3599,7 +3605,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>S.E. FINISH</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3608,7 +3614,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="71"/>
+      <c r="AB15" s="66"/>
       <c r="AC15" s="11" t="s">
         <v>24</v>
       </c>
@@ -3623,7 +3629,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="71"/>
+      <c r="AH15" s="66"/>
       <c r="AI15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3631,7 +3637,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="71"/>
+      <c r="AM15" s="66"/>
       <c r="AN15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3644,28 +3650,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>Cata Cata 71</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>55.090000152587891</v>
+        <v>71.230003356933594</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>METAMORPHO</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>37.189998626708977</v>
+        <v>54.639999389648438</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="71"/>
+      <c r="BD15" s="66"/>
       <c r="BE15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3678,7 +3684,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>E.C.O 82</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -3686,7 +3692,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Pagangrizo’s team</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -3694,7 +3700,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>MEM- TRICOLOR</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -3702,7 +3708,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>São Paulo Edu Física</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -3710,7 +3716,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>Vocês tão Lascados</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -3718,7 +3724,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>CLAN MORT</v>
+        <v>Arloso FC</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3727,7 +3733,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="73" t="s">
+      <c r="AB16" s="65" t="s">
         <v>105</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -3744,7 +3750,7 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="69">
+      <c r="AH16" s="67">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -3754,7 +3760,7 @@
       <c r="AK16" s="19">
         <v>150</v>
       </c>
-      <c r="AM16" s="69">
+      <c r="AM16" s="67">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -3769,28 +3775,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>Reinafcr</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>54.790000915527337</v>
+        <v>71.040000915527344</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>36.790000915527337</v>
+        <v>53.439998626708977</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="69">
+      <c r="BD16" s="67">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -3805,7 +3811,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>DiasBons EC</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -3813,7 +3819,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>Reinafcr</v>
+        <v>LiverpooI</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -3821,7 +3827,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>El Loko China</v>
+        <v>Artefutt</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -3829,7 +3835,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>Hepta 17 FC</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -3837,7 +3843,7 @@
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>DUFF F.D.</v>
+        <v>showlimafc</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
@@ -3845,7 +3851,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>Shibo F.C.</v>
+        <v>alhfao</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3854,7 +3860,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="71"/>
+      <c r="AB17" s="66"/>
       <c r="AC17" s="11" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +3875,7 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="70"/>
+      <c r="AH17" s="68"/>
       <c r="AI17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3877,7 +3883,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="70"/>
+      <c r="AM17" s="68"/>
       <c r="AN17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3890,28 +3896,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>54.490001678466797</v>
+        <v>70.94000244140625</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>DUFF F.D.</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>36.709999084472663</v>
+        <v>53.439998626708977</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="70"/>
+      <c r="BD17" s="68"/>
       <c r="BE17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3924,7 +3930,7 @@
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
@@ -3932,7 +3938,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -3940,7 +3946,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>R.N.S FC</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -3948,7 +3954,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>Brahma 07 FC</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -3956,7 +3962,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>FUT ART SP</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -3964,7 +3970,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>LiverpooI</v>
+        <v>AVANTI AZZURRA</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3973,7 +3979,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="73" t="s">
+      <c r="AB18" s="65" t="s">
         <v>116</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -3990,7 +3996,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="71"/>
+      <c r="AH18" s="66"/>
       <c r="AI18" s="11" t="s">
         <v>35</v>
       </c>
@@ -3998,7 +4004,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="71"/>
+      <c r="AM18" s="66"/>
       <c r="AN18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4011,28 +4017,28 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>Bávaros Bier</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>54.290000915527337</v>
+        <v>70.080001831054688</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>Breeja F.C</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>36.049999237060547</v>
+        <v>52.639999389648438</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="71"/>
+      <c r="BD18" s="66"/>
       <c r="BE18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4045,7 +4051,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4053,7 +4059,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>verdao29fc</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4061,7 +4067,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>Renalare</v>
+        <v>Xo Corona</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4069,7 +4075,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>S. E. CURUPIRA</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4077,7 +4083,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>Breeja F.C</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4085,7 +4091,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>CHAPELETA10</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4094,7 +4100,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="71"/>
+      <c r="AB19" s="66"/>
       <c r="AC19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4109,7 +4115,7 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="69">
+      <c r="AH19" s="67">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4119,7 +4125,7 @@
       <c r="AK19" s="19">
         <v>150</v>
       </c>
-      <c r="AM19" s="69">
+      <c r="AM19" s="67">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4134,28 +4140,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>53.950000762939453</v>
+        <v>69.44000244140625</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>34.990001678466797</v>
+        <v>52.259998321533203</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="69">
+      <c r="BD19" s="67">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4170,7 +4176,7 @@
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>SCCP Quarta força</v>
+        <v>Mont City R.B.</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
@@ -4178,7 +4184,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>Bávaros Bier</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4186,7 +4192,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4194,7 +4200,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>RealXavier</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4202,7 +4208,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>Zildane F.C</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4210,16 +4216,16 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Maleví F.D.</v>
+        <v>Rage Against Cloroquina</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="AH20" s="70"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="AH20" s="68"/>
       <c r="AI20" s="10" t="s">
         <v>25</v>
       </c>
@@ -4227,7 +4233,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="70"/>
+      <c r="AM20" s="68"/>
       <c r="AN20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4240,28 +4246,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>Tornad000</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>53.389999389648438</v>
+        <v>69.44000244140625</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>Igor Fontes F.C.</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>33.840000152587891</v>
+        <v>52.080001831054688</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="70"/>
+      <c r="BD20" s="68"/>
       <c r="BE20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4280,7 @@
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>FisioT's</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
@@ -4282,7 +4288,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>CLECIO1976 F.C</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4290,7 +4296,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>E.C SIEMACO SP</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4298,7 +4304,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>showlimafc</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4306,7 +4312,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>MITTO100NI</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4314,7 +4320,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>F.C Trupingas</v>
+        <v>EC Samba Social</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4329,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="71"/>
+      <c r="AH21" s="66"/>
       <c r="AI21" s="11" t="s">
         <v>35</v>
       </c>
@@ -4331,7 +4337,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="71"/>
+      <c r="AM21" s="66"/>
       <c r="AN21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4344,28 +4350,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>50.290000915527337</v>
+        <v>69.239997863769531</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>101</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>LamucciSPFC</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>33.490001678466797</v>
+        <v>50.439998626708977</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="71"/>
+      <c r="BD21" s="66"/>
       <c r="BE21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="69">
+      <c r="AH22" s="67">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4401,7 +4407,7 @@
       <c r="AK22" s="19">
         <v>150</v>
       </c>
-      <c r="AM22" s="69">
+      <c r="AM22" s="67">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4416,28 +4422,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>48.470001220703118</v>
+        <v>68.139999389648438</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>LQueiroz FC</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>32.389999389648438</v>
+        <v>48.380001068115227</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="69">
+      <c r="BD22" s="67">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4465,7 +4471,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="70"/>
+      <c r="AH23" s="68"/>
       <c r="AI23" s="10" t="s">
         <v>25</v>
       </c>
@@ -4473,7 +4479,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="70"/>
+      <c r="AM23" s="68"/>
       <c r="AN23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4486,28 +4492,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>L&amp;G Cabral</v>
+        <v>$ANTO$</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>48.189998626708977</v>
+        <v>65.919998168945313</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>112</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>Porco Verde WA</v>
+        <v>Tornad000</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>31.940000534057621</v>
+        <v>48.139999389648438</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="70"/>
+      <c r="BD23" s="68"/>
       <c r="BE23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4533,7 +4539,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="71"/>
+      <c r="AH24" s="66"/>
       <c r="AI24" s="11" t="s">
         <v>35</v>
       </c>
@@ -4541,7 +4547,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="71"/>
+      <c r="AM24" s="66"/>
       <c r="AN24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4554,28 +4560,28 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>AVANTI AZZURRA</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>47.840000152587891</v>
+        <v>65.459999084472656</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AV24" s="32" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>Shibo F.C.</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW24" s="23">
         <f>LigaEliminatória!C48</f>
-        <v>30.370000839233398</v>
+        <v>45.830001831054688</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="71"/>
+      <c r="BD24" s="66"/>
       <c r="BE24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4601,22 +4607,22 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>47.689998626708977</v>
+        <v>64.139999389648438</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="AV25" s="32" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>LiverpooI</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AW25" s="23">
         <f>LigaEliminatória!C49</f>
-        <v>30.190000534057621</v>
+        <v>43.939998626708977</v>
       </c>
       <c r="AY25" s="39"/>
       <c r="AZ25" s="39"/>
@@ -4640,22 +4646,22 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>R.N.S FC</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>46.590000152587891</v>
+        <v>63.330001831054688</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>127</v>
       </c>
       <c r="AV26" s="32" t="str">
         <f>LigaEliminatória!B50</f>
-        <v>CHAPELETA10</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AW26" s="23">
         <f>LigaEliminatória!C50</f>
-        <v>29.690000534057621</v>
+        <v>42.840000152587891</v>
       </c>
       <c r="AY26" s="39"/>
       <c r="AZ26" s="39"/>
@@ -4683,18 +4689,18 @@
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>45.150001525878913</v>
+        <v>62.729999542236328</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="AV27" s="32" t="str">
         <f>LigaEliminatória!B51</f>
-        <v>Verdão 1000 grau FC</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="AW27" s="23">
         <f>LigaEliminatória!C51</f>
-        <v>22.190000534057621</v>
+        <v>42.029998779296882</v>
       </c>
       <c r="AY27" s="39"/>
       <c r="AZ27" s="39"/>
@@ -4718,22 +4724,22 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>43.770000457763672</v>
+        <v>62.479999542236328</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AV28" s="34" t="str">
+      <c r="AV28" s="77" t="str">
         <f>LigaEliminatória!B52</f>
-        <v>KVRA-Z/O</v>
-      </c>
-      <c r="AW28" s="24">
+        <v>R.N.S FC</v>
+      </c>
+      <c r="AW28" s="78">
         <f>LigaEliminatória!C52</f>
-        <v>17.090000152587891</v>
+        <v>32.82</v>
       </c>
       <c r="AY28" s="39"/>
       <c r="AZ28" s="39"/>
@@ -4873,6 +4879,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -4889,39 +4928,6 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4947,8 +4953,8 @@
     <col min="6" max="6" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="60" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="60" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="60" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="60"/>
+    <col min="10" max="17" width="9.140625" style="60" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,7 +5009,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="20">
-        <v>303.160400390625</v>
+        <v>394.200439453125</v>
       </c>
       <c r="E3" s="60">
         <v>1</v>
@@ -5012,7 +5018,7 @@
         <v>136</v>
       </c>
       <c r="G3" s="21">
-        <v>303.160400390625</v>
+        <v>394.200439453125</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>21</v>
@@ -5035,7 +5041,7 @@
         <v>138</v>
       </c>
       <c r="C4" s="20">
-        <v>302.89990234375</v>
+        <v>383.0595703125</v>
       </c>
       <c r="E4" s="60">
         <v>2</v>
@@ -5044,7 +5050,7 @@
         <v>138</v>
       </c>
       <c r="G4" s="21">
-        <v>302.89990234375</v>
+        <v>383.0595703125</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="60">
@@ -5065,7 +5071,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="20">
-        <v>293.10986328125</v>
+        <v>369.5498046875</v>
       </c>
       <c r="E5" s="60">
         <v>3</v>
@@ -5074,7 +5080,7 @@
         <v>140</v>
       </c>
       <c r="G5" s="21">
-        <v>293.10986328125</v>
+        <v>369.5498046875</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>34</v>
@@ -5094,17 +5100,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="20">
-        <v>292.61962890625</v>
+        <v>368.340087890625</v>
       </c>
       <c r="J6" s="76"/>
       <c r="K6" s="60">
         <v>2</v>
       </c>
       <c r="L6" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="60">
         <v>251.51</v>
@@ -5115,10 +5121,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="20">
-        <v>290.69970703125</v>
+        <v>368.269775390625</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>1</v>
@@ -5137,10 +5143,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C8" s="20">
-        <v>289.519775390625</v>
+        <v>365.669677734375</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>133</v>
@@ -5161,7 +5167,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="20">
-        <v>288.830078125</v>
+        <v>363.729736328125</v>
       </c>
       <c r="E9" s="60">
         <v>1</v>
@@ -5181,7 +5187,7 @@
         <v>146</v>
       </c>
       <c r="C10" s="20">
-        <v>287.26025390625</v>
+        <v>363.65966796875</v>
       </c>
       <c r="E10" s="60">
         <v>2</v>
@@ -5199,7 +5205,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="20">
-        <v>285.77001953125</v>
+        <v>361.169921875</v>
       </c>
       <c r="E11" s="60">
         <v>3</v>
@@ -5219,7 +5225,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="20">
-        <v>285.429443359375</v>
+        <v>360.85986328125</v>
       </c>
       <c r="J12" s="76"/>
       <c r="K12" s="60">
@@ -5259,7 +5265,7 @@
         <v>151</v>
       </c>
       <c r="G15" s="21">
-        <v>144.63</v>
+        <v>153.43</v>
       </c>
       <c r="J15" s="76" t="s">
         <v>105</v>
@@ -5273,10 +5279,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="21">
-        <v>138.72999999999999</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="J16" s="76"/>
       <c r="K16" s="60">
@@ -5288,10 +5294,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G17" s="21">
-        <v>137.54</v>
+        <v>142.57</v>
       </c>
       <c r="J17" s="76" t="s">
         <v>116</v>
@@ -5330,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="21">
-        <v>92.60986328125</v>
+        <v>106.080078125</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
@@ -5344,13 +5350,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G22" s="21">
-        <v>82.18994140625</v>
+        <v>101.83984375</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
@@ -5358,17 +5364,22 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="21">
-        <v>81.5</v>
+        <v>101.52001953125</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5378,11 +5389,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5395,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,8 +5410,8 @@
     <col min="1" max="1" width="3" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="60"/>
+    <col min="4" max="9" width="9.140625" style="60" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C3" s="21">
-        <v>75.569999694824219</v>
+        <v>80.94000244140625</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,10 +5438,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="21">
-        <v>69.94000244140625</v>
+        <v>77.339996337890625</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,10 +5449,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="21">
-        <v>69.169998168945313</v>
+        <v>77.239997863769531</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,10 +5460,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C6" s="21">
-        <v>68.610000610351563</v>
+        <v>76.94000244140625</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,10 +5471,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="21">
-        <v>64.319999694824219</v>
+        <v>76.839996337890625</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,10 +5482,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C8" s="21">
-        <v>63.490001678466797</v>
+        <v>75.080001831054688</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5487,10 +5493,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="21">
-        <v>62.869998931884773</v>
+        <v>73.239997863769531</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,10 +5504,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C10" s="21">
-        <v>62.869998931884773</v>
+        <v>72.330001831054688</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,10 +5515,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C11" s="21">
-        <v>57.990001678466797</v>
+        <v>71.919998168945313</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,10 +5526,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C12" s="21">
-        <v>57.970001220703118</v>
+        <v>71.639999389648438</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,10 +5537,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="21">
-        <v>57.189998626708977</v>
+        <v>71.379997253417969</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,10 +5548,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C14" s="21">
-        <v>55.090000152587891</v>
+        <v>71.230003356933594</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,10 +5559,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C15" s="21">
-        <v>54.790000915527337</v>
+        <v>71.040000915527344</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5564,10 +5570,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="21">
-        <v>54.490001678466797</v>
+        <v>70.94000244140625</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5575,10 +5581,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="21">
-        <v>54.290000915527337</v>
+        <v>70.080001831054688</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5586,10 +5592,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C18" s="21">
-        <v>53.950000762939453</v>
+        <v>69.44000244140625</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5600,7 +5606,7 @@
         <v>167</v>
       </c>
       <c r="C19" s="21">
-        <v>53.389999389648438</v>
+        <v>69.44000244140625</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5611,7 +5617,7 @@
         <v>168</v>
       </c>
       <c r="C20" s="21">
-        <v>50.290000915527337</v>
+        <v>69.239997863769531</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5619,10 +5625,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C21" s="21">
-        <v>48.470001220703118</v>
+        <v>68.139999389648438</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,10 +5636,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" s="21">
-        <v>48.189998626708977</v>
+        <v>65.919998168945313</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5641,10 +5647,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="21">
-        <v>47.840000152587891</v>
+        <v>65.459999084472656</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5652,10 +5658,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="21">
-        <v>47.689998626708977</v>
+        <v>64.139999389648438</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5663,10 +5669,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" s="21">
-        <v>46.590000152587891</v>
+        <v>63.330001831054688</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,10 +5680,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" s="21">
-        <v>45.150001525878913</v>
+        <v>62.729999542236328</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5685,10 +5691,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="21">
-        <v>43.770000457763672</v>
+        <v>62.479999542236328</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,10 +5702,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="21">
-        <v>43.169998168945313</v>
+        <v>62.240001678466797</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5707,10 +5713,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="21">
-        <v>41.840000152587891</v>
+        <v>62.119998931884773</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,10 +5724,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="21">
-        <v>40.689998626708977</v>
+        <v>61.130001068115227</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,10 +5735,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C31" s="21">
-        <v>40.590000152587891</v>
+        <v>59.139999389648438</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,10 +5746,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="21">
-        <v>40.540000915527337</v>
+        <v>58.540000915527337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,10 +5757,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="21">
-        <v>39.990001678466797</v>
+        <v>57.639999389648438</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5762,10 +5768,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C34" s="21">
-        <v>39.650001525878913</v>
+        <v>57.439998626708977</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,10 +5779,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C35" s="21">
-        <v>39.240001678466797</v>
+        <v>56.630001068115227</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5784,10 +5790,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C36" s="21">
-        <v>38.689998626708977</v>
+        <v>56.459999084472663</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5795,10 +5801,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C37" s="21">
-        <v>37.790000915527337</v>
+        <v>55.040000915527337</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,10 +5812,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C38" s="21">
-        <v>37.669998168945313</v>
+        <v>54.939998626708977</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,10 +5823,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" s="21">
-        <v>37.189998626708977</v>
+        <v>54.639999389648438</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,10 +5834,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C40" s="21">
-        <v>36.790000915527337</v>
+        <v>53.439998626708977</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,10 +5845,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C41" s="21">
-        <v>36.709999084472663</v>
+        <v>53.439998626708977</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,10 +5856,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C42" s="21">
-        <v>36.049999237060547</v>
+        <v>52.639999389648438</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,10 +5867,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C43" s="21">
-        <v>34.990001678466797</v>
+        <v>52.259998321533203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,10 +5878,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="21">
-        <v>33.840000152587891</v>
+        <v>52.080001831054688</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,10 +5889,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="C45" s="21">
-        <v>33.490001678466797</v>
+        <v>50.439998626708977</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,10 +5900,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C46" s="21">
-        <v>32.389999389648438</v>
+        <v>48.380001068115227</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5905,10 +5911,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C47" s="21">
-        <v>31.940000534057621</v>
+        <v>48.139999389648438</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,10 +5922,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C48" s="21">
-        <v>30.370000839233398</v>
+        <v>45.830001831054688</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,10 +5933,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C49" s="21">
-        <v>30.190000534057621</v>
+        <v>43.939998626708977</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,10 +5944,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C50" s="21">
-        <v>29.690000534057621</v>
+        <v>42.840000152587891</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,10 +5955,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C51" s="21">
-        <v>22.190000534057621</v>
+        <v>42.029998779296882</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5960,10 +5966,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C52" s="21">
-        <v>17.090000152587891</v>
+        <v>32.82</v>
       </c>
     </row>
   </sheetData>
@@ -5975,53 +5981,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -6031,42 +6037,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -6076,67 +6082,67 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -6146,227 +6152,227 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -6376,92 +6382,92 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -6471,12 +6477,12 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20800CDE-AB0B-4A2A-B772-2B5D9B07F629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D8E01-4E17-4B04-9683-2CCF73ECCBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,328 +441,328 @@
     <t>Pos</t>
   </si>
   <si>
+    <t>Cohab da madeira</t>
+  </si>
+  <si>
+    <t>E.C.O 82</t>
+  </si>
+  <si>
+    <t>LQueiroz Castelucas FC</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
+    <t>DiasBons EC</t>
+  </si>
+  <si>
     <t>FisioT's</t>
   </si>
   <si>
-    <t>E.C.O 82</t>
-  </si>
-  <si>
-    <t>Cohab da madeira</t>
-  </si>
-  <si>
-    <t>SC Karate Kid</t>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>L&amp;G Cabral</t>
   </si>
   <si>
     <t>C.A. ELSHOW</t>
   </si>
   <si>
-    <t>LQueiroz Castelucas FC</t>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t>MEM- TRICOLOR</t>
+  </si>
+  <si>
+    <t>Santa fé futebol e samba</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>ROLETA RU$$A F.C</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
   </si>
   <si>
     <t>S.C. Brasilandia City</t>
   </si>
   <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
-    <t>DiasBons EC</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>Reinafcr</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>RealXavier</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>Los Angeles Stars FC</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
   </si>
   <si>
     <t>Medão Fc</t>
   </si>
   <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
     <t>verdao29fc</t>
   </si>
   <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>C$</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
+  </si>
+  <si>
+    <t>Maste fla</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
   </si>
   <si>
     <t>Team Portogalo FC</t>
   </si>
   <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>MEM- TRICOLOR</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>RealXavier</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>Reinafcr</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>ROLETA RU$$A F.C</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
-  </si>
-  <si>
     <t>Arloso FC</t>
   </si>
   <si>
-    <t>alhfao</t>
-  </si>
-  <si>
     <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Los Angeles Stars FC</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,62 +1244,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AJ7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ27" sqref="AZ27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1705,101 +1711,101 @@
     <col min="78" max="78" width="2.7109375" style="59" customWidth="1"/>
     <col min="79" max="79" width="7.7109375" style="59" customWidth="1"/>
     <col min="80" max="80" width="28.5703125" style="59" customWidth="1"/>
-    <col min="81" max="84" width="9.140625" style="59" customWidth="1"/>
-    <col min="85" max="16384" width="9.140625" style="59"/>
+    <col min="81" max="85" width="9.140625" style="59" customWidth="1"/>
+    <col min="86" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="58" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+    <row r="2" spans="2:80" s="61" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="G2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="L2" s="63" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="L2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="Q2" s="63" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="Q2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="W2" s="69" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="W2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AB2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AH2" s="63" t="s">
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AH2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AM2" s="63" t="s">
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AM2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AR2" s="63" t="s">
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AR2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AY2" s="63" t="s">
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AY2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BD2" s="63" t="s">
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BD2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
       <c r="BT2" s="50"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="64"/>
-      <c r="BW2" s="64"/>
-      <c r="BX2" s="64"/>
-      <c r="BY2" s="64"/>
-      <c r="BZ2" s="64"/>
-      <c r="CA2" s="64"/>
-      <c r="CB2" s="64"/>
+      <c r="BU2" s="65"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CB2" s="66"/>
     </row>
     <row r="3" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1827,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>13</v>
@@ -1910,32 +1916,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="72" t="s">
+      <c r="BI3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="71"/>
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="64"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="74" t="s">
+      <c r="BO3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="71"/>
-      <c r="BU3" s="75" t="s">
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="64"/>
+      <c r="BU3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="71"/>
-      <c r="CA3" s="70" t="s">
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="64"/>
+      <c r="CA3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="71"/>
+      <c r="CB3" s="64"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1943,11 +1949,11 @@
       </c>
       <c r="C4" s="14" t="str">
         <f>LigaPrincipal!F3</f>
-        <v>FisioT's</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>394.200439453125</v>
+        <v>438.919677734375</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -1975,7 +1981,7 @@
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>153.43</v>
+        <v>151.47</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -2003,16 +2009,16 @@
       </c>
       <c r="X4" s="38" t="str">
         <f>LigaPrincipal!B3</f>
-        <v>FisioT's</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>394.200439453125</v>
+        <v>438.919677734375</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="75" t="s">
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2029,7 +2035,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="67">
+      <c r="AH4" s="71">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2037,9 +2043,9 @@
       </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM4" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="71">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2054,22 +2060,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>L&amp;G Cabral</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>80.94000244140625</v>
+        <v>82.589999999999989</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>Breeja F.C</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>62.240001678466797</v>
+        <v>49.81</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>20</v>
@@ -2079,7 +2085,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="67">
+      <c r="BD4" s="71">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2121,11 +2127,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>Cohab da madeira</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>383.0595703125</v>
+        <v>434.130126953125</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2153,7 +2159,7 @@
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>151.08000000000001</v>
+        <v>150.21</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2181,16 +2187,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>Cohab da madeira</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>383.0595703125</v>
+        <v>434.130126953125</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="66"/>
+      <c r="AB5" s="73"/>
       <c r="AC5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2205,7 +2211,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="68"/>
+      <c r="AH5" s="72"/>
       <c r="AI5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="AK5" s="17">
         <v>50</v>
       </c>
-      <c r="AM5" s="68"/>
+      <c r="AM5" s="72"/>
       <c r="AN5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2226,22 +2232,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>77.339996337890625</v>
+        <v>74.08</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>TERUEG</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>62.119998931884773</v>
+        <v>49.490000000000009</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>24</v>
@@ -2251,7 +2257,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="68"/>
+      <c r="BD5" s="72"/>
       <c r="BE5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2264,7 +2270,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2272,7 +2278,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>EC Samba Social</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2280,7 +2286,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>SCCP Quarta força</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2288,7 +2294,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>LamucciSPFC</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2296,7 +2302,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>$uicide $quad F.C</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>Real Litoral FC</v>
+        <v>verdao29fc</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>32</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>02 de outubro</v>
+        <v>Team Portogalo FC</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2320,11 +2326,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>C.A. ELSHOW</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>369.5498046875</v>
+        <v>433.079833984375</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>Team Portogalo FC</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>142.57</v>
+        <v>141.16999999999999</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2380,16 +2386,16 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>C.A. ELSHOW</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>369.5498046875</v>
+        <v>433.079833984375</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="65" t="s">
+      <c r="AB6" s="75" t="s">
         <v>34</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2397,16 +2403,16 @@
       </c>
       <c r="AD6" s="38" t="str">
         <f>LigaPrincipal!L5</f>
-        <v>FisioT's</v>
-      </c>
-      <c r="AE6" s="38">
+        <v>LQueiroz Castelucas FC</v>
+      </c>
+      <c r="AE6" s="22">
         <f>LigaPrincipal!M5</f>
-        <v>251.51</v>
+        <v>387.39</v>
       </c>
       <c r="AF6" s="19">
         <v>100</v>
       </c>
-      <c r="AH6" s="66"/>
+      <c r="AH6" s="73"/>
       <c r="AI6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2414,7 +2420,7 @@
       <c r="AK6" s="18">
         <v>30</v>
       </c>
-      <c r="AM6" s="66"/>
+      <c r="AM6" s="73"/>
       <c r="AN6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2427,22 +2433,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>Fantasma Osasco fc</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>77.239997863769531</v>
+        <v>68.279999999999987</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>61.130001068115227</v>
+        <v>49.26</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>33</v>
@@ -2452,7 +2458,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="66"/>
+      <c r="BD6" s="73"/>
       <c r="BE6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2465,7 +2471,7 @@
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Renalare</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
@@ -2473,7 +2479,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2481,7 +2487,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>$ANTO$</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2489,7 +2495,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>APOCALIPSE1910</v>
+        <v>Los Angeles Stars FC</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2497,7 +2503,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>45 do 2!</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>kamicase2 fc</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>42</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>Los Angeles Stars FC</v>
+        <v>RealXavier</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2521,31 +2527,31 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>FisioT's</v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>368.340087890625</v>
+        <v>432.88037109375</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="66"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AD7" s="36" t="str">
         <f>LigaPrincipal!L6</f>
-        <v>S.C. Brasilandia City</v>
-      </c>
-      <c r="AE7" s="36">
+        <v>FisioT's</v>
+      </c>
+      <c r="AE7" s="24">
         <f>LigaPrincipal!M6</f>
-        <v>251.51</v>
+        <v>381.23</v>
       </c>
       <c r="AF7" s="18">
         <v>50</v>
       </c>
-      <c r="AH7" s="67">
+      <c r="AH7" s="71">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -2553,9 +2559,9 @@
       </c>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM7" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="71">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -2570,22 +2576,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>76.94000244140625</v>
+        <v>66.86</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>Igor Fontes F.C.</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>59.139999389648438</v>
+        <v>48.79</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>43</v>
@@ -2595,7 +2601,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="67">
+      <c r="BD7" s="71">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -2610,7 +2616,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>Santa fé futebol e samba</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -2626,7 +2632,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -2634,7 +2640,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>Renalare</v>
+        <v>Reinafcr</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -2642,7 +2648,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>METAMORPHO</v>
+        <v>CLAN MORT</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -2650,37 +2656,37 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>DUFF F.D.</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>50</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>KVRA-Z/O</v>
+        <v>Arloso FC</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>L&amp;G Cabral</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>368.269775390625</v>
+        <v>428.0498046875</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="75" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -2690,14 +2696,14 @@
         <f>LigaPrincipal!L7</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AE8" s="22">
         <f>LigaPrincipal!M7</f>
         <v>0</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="68"/>
+      <c r="AH8" s="72"/>
       <c r="AI8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2711,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="68"/>
+      <c r="AM8" s="72"/>
       <c r="AN8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2718,22 +2724,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>MEM- TRICOLOR</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>76.839996337890625</v>
+        <v>64.31</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>58.540000915527337</v>
+        <v>48.76</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>51</v>
@@ -2743,7 +2749,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="68"/>
+      <c r="BD8" s="72"/>
       <c r="BE8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2756,7 +2762,7 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>alhfao</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
@@ -2764,7 +2770,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>F.C Trupingas</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -2772,7 +2778,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>Pagangrizo’s team</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -2780,7 +2786,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -2788,7 +2794,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>Rei dos mares F.C</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -2796,14 +2802,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>CHAPELETA10</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>59</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>R.N.S FC</v>
+        <v>Rage Against Cloroquina</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2817,16 +2823,16 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>DiasBons EC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>365.669677734375</v>
+        <v>425.94970703125</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="66"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="11" t="s">
         <v>24</v>
       </c>
@@ -2834,14 +2840,14 @@
         <f>LigaPrincipal!L8</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="36">
+      <c r="AE9" s="24">
         <f>LigaPrincipal!M8</f>
         <v>0</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="66"/>
+      <c r="AH9" s="73"/>
       <c r="AI9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2849,7 +2855,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="66"/>
+      <c r="AM9" s="73"/>
       <c r="AN9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2862,28 +2868,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>75.080001831054688</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>57.639999389648438</v>
+        <v>48.49</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="66"/>
+      <c r="BD9" s="73"/>
       <c r="BE9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2896,7 +2902,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>Maste fla</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -2904,7 +2910,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -2912,7 +2918,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>Cata Cata 71</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -2920,7 +2926,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>El Loko China</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -2928,7 +2934,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>MITTO100NI</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -2936,7 +2942,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>CLAN MORT</v>
+        <v>Tornadooo F.C</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2950,16 +2956,16 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>Brahma 07 FC</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>363.729736328125</v>
+        <v>425.499755859375</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="65" t="s">
+      <c r="AB10" s="75" t="s">
         <v>68</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -2969,14 +2975,14 @@
         <f>LigaPrincipal!L9</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="38">
+      <c r="AE10" s="22">
         <f>LigaPrincipal!M9</f>
         <v>0</v>
       </c>
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="67">
+      <c r="AH10" s="71">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -2984,9 +2990,9 @@
       </c>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM10" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="71">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -3001,28 +3007,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>73.239997863769531</v>
+        <v>61.390000000000008</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>LamucciSPFC</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>57.439998626708977</v>
+        <v>47.85</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="67">
+      <c r="BD10" s="71">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3037,7 +3043,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>Cohab da madeira</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3045,7 +3051,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>RealXavier</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3053,7 +3059,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3061,7 +3067,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3069,7 +3075,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>HANDEVU FC</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3077,7 +3083,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>SC Karate Kid</v>
+        <v>HANDEVU FC</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3091,16 +3097,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>Medão Fc</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>363.65966796875</v>
+        <v>418.809814453125</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="66"/>
+      <c r="AB11" s="73"/>
       <c r="AC11" s="11" t="s">
         <v>24</v>
       </c>
@@ -3108,14 +3114,14 @@
         <f>LigaPrincipal!L10</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="36">
+      <c r="AE11" s="24">
         <f>LigaPrincipal!M10</f>
         <v>0</v>
       </c>
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="68"/>
+      <c r="AH11" s="72"/>
       <c r="AI11" s="10" t="s">
         <v>25</v>
       </c>
@@ -3123,7 +3129,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="68"/>
+      <c r="AM11" s="72"/>
       <c r="AN11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3140,24 +3146,24 @@
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>72.330001831054688</v>
+        <v>61.06</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>Porco Verde WA</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>56.630001068115227</v>
+        <v>47.739999999999988</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="68"/>
+      <c r="BD11" s="72"/>
       <c r="BE11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3170,7 +3176,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>FisioT's</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3178,7 +3184,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>DiasBons EC</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3186,7 +3192,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>verdao29fc</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3194,7 +3200,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3202,7 +3208,7 @@
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>SEP Campeoníssimo</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
@@ -3210,7 +3216,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>FUT ART SP</v>
+        <v>El Loko China</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3224,16 +3230,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>verdao29fc</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>361.169921875</v>
+        <v>418.019775390625</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="65" t="s">
+      <c r="AB12" s="75" t="s">
         <v>82</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3243,14 +3249,14 @@
         <f>LigaPrincipal!L11</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="22">
         <f>LigaPrincipal!M11</f>
         <v>0</v>
       </c>
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="66"/>
+      <c r="AH12" s="73"/>
       <c r="AI12" s="11" t="s">
         <v>35</v>
       </c>
@@ -3258,7 +3264,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="66"/>
+      <c r="AM12" s="73"/>
       <c r="AN12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3271,28 +3277,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>RealXavier</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>71.919998168945313</v>
+        <v>58.86</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>São Paulo Edu Física</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>56.459999084472663</v>
+        <v>47.58</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="66"/>
+      <c r="BD12" s="73"/>
       <c r="BE12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3305,7 +3311,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3313,7 +3319,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Brasilândia MSFC</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3321,7 +3327,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>E.C SIEMACO SP</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3329,7 +3335,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>Hepta 17 FC</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3337,7 +3343,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>Igor Fontes F.C.</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3345,7 +3351,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>E.C.O 82</v>
+        <v>Santa fé futebol e samba</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3359,16 +3365,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>Brasilândia MSFC</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>360.85986328125</v>
+        <v>417.280029296875</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="66"/>
+      <c r="AB13" s="73"/>
       <c r="AC13" s="11" t="s">
         <v>24</v>
       </c>
@@ -3376,14 +3382,14 @@
         <f>LigaPrincipal!L12</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="36">
+      <c r="AE13" s="24">
         <f>LigaPrincipal!M12</f>
         <v>0</v>
       </c>
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="67">
+      <c r="AH13" s="71">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3391,9 +3397,9 @@
       </c>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM13" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="71">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3408,28 +3414,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>DiasBons EC</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>71.639999389648438</v>
+        <v>58.32</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>CHAPELETA10</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>55.040000915527337</v>
+        <v>47.19</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="67">
+      <c r="BD13" s="71">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3444,7 +3450,7 @@
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>L&amp;G Cabral</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
@@ -3452,7 +3458,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>Reinafcr</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3460,7 +3466,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>Breeja F.C</v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3468,7 +3474,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>TERUEG</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3476,7 +3482,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>Esquaiella F.C</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3484,16 +3490,16 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>Mister Oliveira F.C</v>
+        <v>Mont City R.B.</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="65" t="s">
+      <c r="AB14" s="75" t="s">
         <v>94</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3503,14 +3509,14 @@
         <f>LigaPrincipal!L13</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="38">
+      <c r="AE14" s="22">
         <f>LigaPrincipal!M13</f>
         <v>0</v>
       </c>
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="68"/>
+      <c r="AH14" s="72"/>
       <c r="AI14" s="10" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3524,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="68"/>
+      <c r="AM14" s="72"/>
       <c r="AN14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3531,28 +3537,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>71.379997253417969</v>
+        <v>57.760000000000012</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>$ANTO$</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>54.939998626708977</v>
+        <v>47.08</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="68"/>
+      <c r="BD14" s="72"/>
       <c r="BE14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3565,7 +3571,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>Maleví F.D.</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -3573,7 +3579,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>Brahma 07 FC</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -3581,7 +3587,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>Medão Fc</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -3589,7 +3595,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>O Cartola II</v>
+        <v>Artefutt</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -3597,7 +3603,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -3605,7 +3611,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>S.E. FINISH</v>
+        <v>Maste fla</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3620,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="66"/>
+      <c r="AB15" s="73"/>
       <c r="AC15" s="11" t="s">
         <v>24</v>
       </c>
@@ -3622,14 +3628,14 @@
         <f>LigaPrincipal!L14</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="36">
+      <c r="AE15" s="24">
         <f>LigaPrincipal!M14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="66"/>
+      <c r="AH15" s="73"/>
       <c r="AI15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3637,7 +3643,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="66"/>
+      <c r="AM15" s="73"/>
       <c r="AN15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3650,28 +3656,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>71.230003356933594</v>
+        <v>57.75</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>Shibo F.C.</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>54.639999389648438</v>
+        <v>46.59</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="66"/>
+      <c r="BD15" s="73"/>
       <c r="BE15" s="11" t="s">
         <v>33</v>
       </c>
@@ -3684,7 +3690,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -3692,7 +3698,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>SCFVelasco2021</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -3700,7 +3706,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>CLECIO1976 F.C</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -3708,7 +3714,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>Porco Verde WA</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -3716,7 +3722,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>Tornadooo F.C</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -3724,7 +3730,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>Arloso FC</v>
+        <v>FisioT's</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3733,7 +3739,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="65" t="s">
+      <c r="AB16" s="75" t="s">
         <v>105</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -3743,14 +3749,14 @@
         <f>LigaPrincipal!L15</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="38">
+      <c r="AE16" s="22">
         <f>LigaPrincipal!M15</f>
         <v>0</v>
       </c>
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="67">
+      <c r="AH16" s="71">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -3758,9 +3764,9 @@
       </c>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM16" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="71">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -3775,28 +3781,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>Brasilândia MSFC</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>71.040000915527344</v>
+        <v>55.290000000000013</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>53.439998626708977</v>
+        <v>45.81</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="67">
+      <c r="BD16" s="71">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -3811,7 +3817,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -3819,7 +3825,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>LiverpooI</v>
+        <v>Xo Corona</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -3827,7 +3833,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>Artefutt</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -3835,7 +3841,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>S. E. CURUPIRA</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -3851,7 +3857,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>alhfao</v>
+        <v>FUT ART SP</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3860,7 +3866,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="66"/>
+      <c r="AB17" s="73"/>
       <c r="AC17" s="11" t="s">
         <v>24</v>
       </c>
@@ -3868,14 +3874,14 @@
         <f>LigaPrincipal!L16</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="36">
+      <c r="AE17" s="24">
         <f>LigaPrincipal!M16</f>
         <v>0</v>
       </c>
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="68"/>
+      <c r="AH17" s="72"/>
       <c r="AI17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="68"/>
+      <c r="AM17" s="72"/>
       <c r="AN17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3896,28 +3902,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>Reinafcr</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>70.94000244140625</v>
+        <v>54.91</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>$uicide $quad F.C</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>53.439998626708977</v>
+        <v>45.46</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="68"/>
+      <c r="BD17" s="72"/>
       <c r="BE17" s="10" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +3936,7 @@
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>The wailers. pro</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
@@ -3938,7 +3944,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>Bávaros Bier</v>
+        <v>LiverpooI</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -3946,7 +3952,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -3954,7 +3960,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -3962,7 +3968,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -3970,7 +3976,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>AVANTI AZZURRA</v>
+        <v>TERUEG</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3979,7 +3985,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="65" t="s">
+      <c r="AB18" s="75" t="s">
         <v>116</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -3989,14 +3995,14 @@
         <f>LigaPrincipal!L17</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="38">
+      <c r="AE18" s="22">
         <f>LigaPrincipal!M17</f>
         <v>0</v>
       </c>
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="66"/>
+      <c r="AH18" s="73"/>
       <c r="AI18" s="11" t="s">
         <v>35</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="66"/>
+      <c r="AM18" s="73"/>
       <c r="AN18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4017,28 +4023,28 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>SCFVelasco2021</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>70.080001831054688</v>
+        <v>54.779999999999987</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>SEP Campeoníssimo</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>52.639999389648438</v>
+        <v>45.05</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="66"/>
+      <c r="BD18" s="73"/>
       <c r="BE18" s="11" t="s">
         <v>33</v>
       </c>
@@ -4051,7 +4057,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>Manollo F.C</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4059,7 +4065,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4067,7 +4073,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>Xo Corona</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4075,7 +4081,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>Shibo F.C.</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4083,7 +4089,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4091,7 +4097,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Cata Cata 71</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4100,7 +4106,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="66"/>
+      <c r="AB19" s="73"/>
       <c r="AC19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4108,14 +4114,14 @@
         <f>LigaPrincipal!L18</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="36">
+      <c r="AE19" s="24">
         <f>LigaPrincipal!M18</f>
         <v>0</v>
       </c>
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="67">
+      <c r="AH19" s="71">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4123,9 +4129,9 @@
       </c>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM19" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="71">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4140,28 +4146,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>Brahma 07 FC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>69.44000244140625</v>
+        <v>54.580000000000013</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>METAMORPHO</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>52.259998321533203</v>
+        <v>44.06</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="67">
+      <c r="BD19" s="71">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4176,7 +4182,7 @@
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>Mont City R.B.</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
@@ -4184,7 +4190,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4192,7 +4198,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4200,7 +4206,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>Vocês tão Lascados</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4208,7 +4214,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>Zildane F.C</v>
+        <v>Mister Oliveira F.C</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4216,16 +4222,16 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Rage Against Cloroquina</v>
+        <v>Zildane F.C</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="AH20" s="72"/>
       <c r="AI20" s="10" t="s">
         <v>25</v>
       </c>
@@ -4233,7 +4239,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="68"/>
+      <c r="AM20" s="72"/>
       <c r="AN20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4246,28 +4252,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>Bávaros Bier</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>69.44000244140625</v>
+        <v>53.95</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>Rei dos mares F.C</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>52.080001831054688</v>
+        <v>42.98</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="68"/>
+      <c r="BD20" s="72"/>
       <c r="BE20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4280,7 +4286,7 @@
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>Team Portogalo FC</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
@@ -4288,7 +4294,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>C.A. ELSHOW</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4296,7 +4302,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4304,7 +4310,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>KAMIKA$E F.C</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4312,7 +4318,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>São Paulo Edu Física</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4320,7 +4326,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>EC Samba Social</v>
+        <v>02 de outubro</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4329,7 +4335,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="66"/>
+      <c r="AH21" s="73"/>
       <c r="AI21" s="11" t="s">
         <v>35</v>
       </c>
@@ -4337,7 +4343,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="66"/>
+      <c r="AM21" s="73"/>
       <c r="AN21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4350,28 +4356,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>LiverpooI</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>69.239997863769531</v>
+        <v>53.949999999999989</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>101</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>SC Karate Kid</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>50.439998626708977</v>
+        <v>42.55</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="66"/>
+      <c r="BD21" s="73"/>
       <c r="BE21" s="11" t="s">
         <v>33</v>
       </c>
@@ -4397,7 +4403,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="67">
+      <c r="AH22" s="71">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4405,9 +4411,9 @@
       </c>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="19">
-        <v>150</v>
-      </c>
-      <c r="AM22" s="67">
+        <v>100</v>
+      </c>
+      <c r="AM22" s="71">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4422,28 +4428,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>68.139999389648438</v>
+        <v>53.86</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>DUFF F.D.</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>48.380001068115227</v>
+        <v>41.35</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="67">
+      <c r="BD22" s="71">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4471,7 +4477,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="68"/>
+      <c r="AH23" s="72"/>
       <c r="AI23" s="10" t="s">
         <v>25</v>
       </c>
@@ -4479,7 +4485,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="68"/>
+      <c r="AM23" s="72"/>
       <c r="AN23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4492,28 +4498,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>$ANTO$</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>65.919998168945313</v>
+        <v>51.98</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>112</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>Tornad000</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>48.139999389648438</v>
+        <v>41.28</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="68"/>
+      <c r="BD23" s="72"/>
       <c r="BE23" s="10" t="s">
         <v>24</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="66"/>
+      <c r="AH24" s="73"/>
       <c r="AI24" s="11" t="s">
         <v>35</v>
       </c>
@@ -4547,7 +4553,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="66"/>
+      <c r="AM24" s="73"/>
       <c r="AN24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4560,28 +4566,28 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>65.459999084472656</v>
+        <v>51.480000000000011</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AV24" s="32" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>KVRA-Z/O</v>
+        <v>TERUEG</v>
       </c>
       <c r="AW24" s="23">
         <f>LigaEliminatória!C48</f>
-        <v>45.830001831054688</v>
+        <v>35.359999999999992</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="66"/>
+      <c r="BD24" s="73"/>
       <c r="BE24" s="11" t="s">
         <v>33</v>
       </c>
@@ -4607,22 +4613,22 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>Pagangrizo’s team</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>64.139999389648438</v>
+        <v>51.159999999999989</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="AV25" s="32" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>S.E. FINISH</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AW25" s="23">
         <f>LigaEliminatória!C49</f>
-        <v>43.939998626708977</v>
+        <v>35.19</v>
       </c>
       <c r="AY25" s="39"/>
       <c r="AZ25" s="39"/>
@@ -4646,22 +4652,22 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>Cata Cata 71</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>63.330001831054688</v>
+        <v>51.11</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>127</v>
       </c>
       <c r="AV26" s="32" t="str">
         <f>LigaEliminatória!B50</f>
-        <v>AVANTI AZZURRA</v>
+        <v>Tornad000</v>
       </c>
       <c r="AW26" s="23">
         <f>LigaEliminatória!C50</f>
-        <v>42.840000152587891</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="AY26" s="39"/>
       <c r="AZ26" s="39"/>
@@ -4685,22 +4691,22 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>E.C SIEMACO SP</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>62.729999542236328</v>
+        <v>51.09</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AV27" s="32" t="str">
+      <c r="AV27" s="79" t="str">
         <f>LigaEliminatória!B51</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
-      </c>
-      <c r="AW27" s="23">
+        <v>RealXavier</v>
+      </c>
+      <c r="AW27" s="80">
         <f>LigaEliminatória!C51</f>
-        <v>42.029998779296882</v>
+        <v>30.55</v>
       </c>
       <c r="AY27" s="39"/>
       <c r="AZ27" s="39"/>
@@ -4724,20 +4730,20 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>LQueiroz FC</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>62.479999542236328</v>
+        <v>50.06</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AV28" s="77" t="str">
+      <c r="AV28" s="57" t="str">
         <f>LigaEliminatória!B52</f>
         <v>R.N.S FC</v>
       </c>
-      <c r="AW28" s="78">
+      <c r="AW28" s="58">
         <f>LigaEliminatória!C52</f>
         <v>32.82</v>
       </c>
@@ -4879,39 +4885,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -4928,6 +4901,39 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4940,93 +4946,93 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="2" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="60" customWidth="1"/>
-    <col min="10" max="17" width="9.140625" style="60" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="3" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="2" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="62" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="62" customWidth="1"/>
+    <col min="10" max="18" width="9.140625" style="62" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="E1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="J1" s="76" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="J1" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="20">
-        <v>394.200439453125</v>
-      </c>
-      <c r="E3" s="60">
+        <v>438.919677734375</v>
+      </c>
+      <c r="E3" s="62">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="21">
-        <v>394.200439453125</v>
-      </c>
-      <c r="J3" s="76" t="s">
+        <v>438.919677734375</v>
+      </c>
+      <c r="J3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="62">
         <v>1</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="62" t="s">
         <v>137</v>
       </c>
       <c r="M3" s="20">
@@ -5034,29 +5040,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="20">
-        <v>383.0595703125</v>
-      </c>
-      <c r="E4" s="60">
+        <v>434.130126953125</v>
+      </c>
+      <c r="E4" s="62">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>138</v>
       </c>
       <c r="G4" s="21">
-        <v>383.0595703125</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="60">
+        <v>434.130126953125</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="62">
         <v>2</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="62" t="s">
         <v>139</v>
       </c>
       <c r="M4" s="20">
@@ -5064,279 +5070,279 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="A5" s="62">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="62" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="20">
-        <v>369.5498046875</v>
-      </c>
-      <c r="E5" s="60">
+        <v>433.079833984375</v>
+      </c>
+      <c r="E5" s="62">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="21">
-        <v>369.5498046875</v>
-      </c>
-      <c r="J5" s="76" t="s">
+        <v>433.079833984375</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="62">
         <v>1</v>
       </c>
-      <c r="L5" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="60">
-        <v>251.51</v>
+      <c r="L5" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="62">
+        <v>387.39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="62">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="20">
-        <v>368.340087890625</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="60">
+        <v>432.88037109375</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="62">
         <v>2</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="62">
+        <v>381.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="60">
-        <v>251.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
-        <v>5</v>
-      </c>
-      <c r="B7" s="60" t="s">
+      <c r="C7" s="20">
+        <v>428.0498046875</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="J7" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="20">
-        <v>368.269775390625</v>
-      </c>
-      <c r="E7" s="76" t="s">
+      <c r="C8" s="20">
+        <v>425.94970703125</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="20">
+        <v>425.499755859375</v>
+      </c>
+      <c r="E9" s="62">
         <v>1</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="J7" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="60">
+      <c r="J9" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="62">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
-        <v>6</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="20">
-        <v>365.669677734375</v>
-      </c>
-      <c r="F8" s="60" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="20">
+        <v>418.809814453125</v>
+      </c>
+      <c r="E10" s="62">
+        <v>2</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="K10" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="20">
+        <v>418.019775390625</v>
+      </c>
+      <c r="E11" s="62">
+        <v>3</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="20">
+        <v>417.280029296875</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="J13" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="78"/>
+      <c r="K14" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="62">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="21">
+        <v>151.47</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="62">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="21">
+        <v>150.21</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="62">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="21">
+        <v>141.16999999999999</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="78"/>
+      <c r="K18" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
-        <v>7</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="20">
-        <v>363.729736328125</v>
-      </c>
-      <c r="E9" s="60">
+      <c r="H20" s="62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="62">
         <v>1</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>8</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="20">
-        <v>363.65966796875</v>
-      </c>
-      <c r="E10" s="60">
-        <v>2</v>
-      </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>9</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="20">
-        <v>361.169921875</v>
-      </c>
-      <c r="E11" s="60">
-        <v>3</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
-        <v>10</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="20">
-        <v>360.85986328125</v>
-      </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="J13" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="60">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F21" t="s">
         <v>151</v>
-      </c>
-      <c r="G15" s="21">
-        <v>153.43</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="60">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="21">
-        <v>151.08000000000001</v>
-      </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="60">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="21">
-        <v>142.57</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="76"/>
-      <c r="K18" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="60">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
       </c>
       <c r="G21" s="21">
         <v>106.080078125</v>
@@ -5346,11 +5352,11 @@
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="60">
+      <c r="E22" s="62">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="21">
         <v>101.83984375</v>
@@ -5360,11 +5366,11 @@
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="60">
+      <c r="E23" s="62">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23" s="21">
         <v>101.52001953125</v>
@@ -5375,11 +5381,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5389,6 +5390,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5402,20 +5408,20 @@
   <dimension ref="A2:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="60" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="60"/>
+    <col min="4" max="10" width="9.140625" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5423,549 +5429,549 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="21">
+        <v>82.589999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="21">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="21">
+        <v>68.279999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>4</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="21">
+        <v>66.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="21">
+        <v>64.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="21">
+        <v>64.209999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="21">
+        <v>61.390000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="21">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="21">
+        <v>58.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="21">
+        <v>58.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>11</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="21">
+        <v>57.760000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>12</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="21">
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>13</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="21">
+        <v>55.290000000000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
+        <v>14</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="21">
+        <v>54.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
+        <v>15</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="21">
+        <v>54.779999999999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
+        <v>16</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="21">
-        <v>80.94000244140625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="21">
-        <v>77.339996337890625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
-        <v>3</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="21">
-        <v>77.239997863769531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
-        <v>4</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="21">
-        <v>76.94000244140625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
-        <v>5</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="21">
-        <v>76.839996337890625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
-        <v>6</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="21">
-        <v>75.080001831054688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
-        <v>7</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="21">
-        <v>73.239997863769531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>8</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="21">
-        <v>72.330001831054688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>9</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="21">
-        <v>71.919998168945313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
-        <v>10</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="21">
-        <v>71.639999389648438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
-        <v>11</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="21">
-        <v>71.379997253417969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
-        <v>12</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="21">
-        <v>71.230003356933594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
-        <v>13</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="21">
-        <v>71.040000915527344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>14</v>
-      </c>
-      <c r="B16" s="60" t="s">
+      <c r="C18" s="21">
+        <v>54.580000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
+        <v>17</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="21">
-        <v>70.94000244140625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
-        <v>15</v>
-      </c>
-      <c r="B17" s="60" t="s">
+      <c r="C19" s="21">
+        <v>53.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>18</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="21">
+        <v>53.949999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
+        <v>19</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="21">
-        <v>70.080001831054688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
-        <v>16</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="21">
-        <v>69.44000244140625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
-        <v>17</v>
-      </c>
-      <c r="B19" s="60" t="s">
+      <c r="C21" s="21">
+        <v>53.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
+        <v>20</v>
+      </c>
+      <c r="B22" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="21">
-        <v>69.44000244140625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
-        <v>18</v>
-      </c>
-      <c r="B20" s="60" t="s">
+      <c r="C22" s="21">
+        <v>51.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
+        <v>21</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="21">
-        <v>69.239997863769531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
-        <v>19</v>
-      </c>
-      <c r="B21" s="60" t="s">
+      <c r="C23" s="21">
+        <v>51.480000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>22</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="21">
-        <v>68.139999389648438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
-        <v>20</v>
-      </c>
-      <c r="B22" s="60" t="s">
+      <c r="C24" s="21">
+        <v>51.159999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
+        <v>23</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="21">
-        <v>65.919998168945313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
-        <v>21</v>
-      </c>
-      <c r="B23" s="60" t="s">
+      <c r="C25" s="21">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>24</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="21">
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
+        <v>25</v>
+      </c>
+      <c r="B27" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="21">
-        <v>65.459999084472656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
-        <v>22</v>
-      </c>
-      <c r="B24" s="60" t="s">
+      <c r="C27" s="21">
+        <v>50.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <v>26</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="21">
-        <v>64.139999389648438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
-        <v>23</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="C28" s="21">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>27</v>
+      </c>
+      <c r="B29" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="21">
-        <v>63.330001831054688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
-        <v>24</v>
-      </c>
-      <c r="B26" s="60" t="s">
+      <c r="C29" s="21">
+        <v>49.490000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
+        <v>28</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="21">
-        <v>62.729999542236328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
-        <v>25</v>
-      </c>
-      <c r="B27" s="60" t="s">
+      <c r="C30" s="21">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
+        <v>29</v>
+      </c>
+      <c r="B31" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="21">
-        <v>62.479999542236328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="60">
-        <v>26</v>
-      </c>
-      <c r="B28" s="60" t="s">
+      <c r="C31" s="21">
+        <v>48.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
+        <v>30</v>
+      </c>
+      <c r="B32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="21">
-        <v>62.240001678466797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
-        <v>27</v>
-      </c>
-      <c r="B29" s="60" t="s">
+      <c r="C32" s="21">
+        <v>48.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
+        <v>31</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="21">
+        <v>48.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
+        <v>32</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="21">
-        <v>62.119998931884773</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
-        <v>28</v>
-      </c>
-      <c r="B30" s="60" t="s">
+      <c r="C34" s="21">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
+        <v>33</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="21">
-        <v>61.130001068115227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
-        <v>29</v>
-      </c>
-      <c r="B31" s="60" t="s">
+      <c r="C35" s="21">
+        <v>47.739999999999988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
+        <v>34</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="21">
-        <v>59.139999389648438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
-        <v>30</v>
-      </c>
-      <c r="B32" s="60" t="s">
+      <c r="C36" s="21">
+        <v>47.58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
+        <v>35</v>
+      </c>
+      <c r="B37" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="21">
-        <v>58.540000915527337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="60">
-        <v>31</v>
-      </c>
-      <c r="B33" s="60" t="s">
+      <c r="C37" s="21">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
+        <v>36</v>
+      </c>
+      <c r="B38" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="21">
-        <v>57.639999389648438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="60">
-        <v>32</v>
-      </c>
-      <c r="B34" s="60" t="s">
+      <c r="C38" s="21">
+        <v>47.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
+        <v>37</v>
+      </c>
+      <c r="B39" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="21">
-        <v>57.439998626708977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="60">
-        <v>33</v>
-      </c>
-      <c r="B35" s="60" t="s">
+      <c r="C39" s="21">
+        <v>46.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
+        <v>38</v>
+      </c>
+      <c r="B40" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="21">
-        <v>56.630001068115227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="60">
-        <v>34</v>
-      </c>
-      <c r="B36" s="60" t="s">
+      <c r="C40" s="21">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>39</v>
+      </c>
+      <c r="B41" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="21">
-        <v>56.459999084472663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="60">
-        <v>35</v>
-      </c>
-      <c r="B37" s="60" t="s">
+      <c r="C41" s="21">
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
+        <v>40</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="21">
-        <v>55.040000915527337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="60">
-        <v>36</v>
-      </c>
-      <c r="B38" s="60" t="s">
+      <c r="C42" s="21">
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
+        <v>41</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="21">
-        <v>54.939998626708977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="60">
-        <v>37</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="C43" s="21">
+        <v>44.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
+        <v>42</v>
+      </c>
+      <c r="B44" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="21">
-        <v>54.639999389648438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="60">
-        <v>38</v>
-      </c>
-      <c r="B40" s="60" t="s">
+      <c r="C44" s="21">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
+        <v>43</v>
+      </c>
+      <c r="B45" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="21">
-        <v>53.439998626708977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="60">
-        <v>39</v>
-      </c>
-      <c r="B41" s="60" t="s">
+      <c r="C45" s="21">
+        <v>42.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
+        <v>44</v>
+      </c>
+      <c r="B46" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="21">
-        <v>53.439998626708977</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="60">
-        <v>40</v>
-      </c>
-      <c r="B42" s="60" t="s">
+      <c r="C46" s="21">
+        <v>41.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
+        <v>45</v>
+      </c>
+      <c r="B47" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="21">
-        <v>52.639999389648438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="60">
-        <v>41</v>
-      </c>
-      <c r="B43" s="60" t="s">
+      <c r="C47" s="21">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>46</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="21">
-        <v>52.259998321533203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="60">
-        <v>42</v>
-      </c>
-      <c r="B44" s="60" t="s">
+      <c r="C48" s="21">
+        <v>35.359999999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
+        <v>47</v>
+      </c>
+      <c r="B49" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="21">
-        <v>52.080001831054688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="60">
-        <v>43</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="21">
-        <v>50.439998626708977</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="60">
-        <v>44</v>
-      </c>
-      <c r="B46" s="60" t="s">
+      <c r="C49" s="21">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
+        <v>48</v>
+      </c>
+      <c r="B50" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="21">
-        <v>48.380001068115227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="60">
-        <v>45</v>
-      </c>
-      <c r="B47" s="60" t="s">
+      <c r="C50" s="21">
+        <v>33.380000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
+        <v>49</v>
+      </c>
+      <c r="B51" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="21">
-        <v>48.139999389648438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="60">
-        <v>46</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="21">
-        <v>45.830001831054688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="60">
-        <v>47</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="21">
-        <v>43.939998626708977</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="60">
-        <v>48</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="21">
-        <v>42.840000152587891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="60">
-        <v>49</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>199</v>
-      </c>
       <c r="C51" s="21">
-        <v>42.029998779296882</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="60">
+      <c r="A52" s="62">
         <v>50</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="62" t="s">
         <v>195</v>
       </c>
       <c r="C52" s="21">
@@ -5987,372 +5993,372 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -6372,117 +6378,117 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D8E01-4E17-4B04-9683-2CCF73ECCBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0803AC-BD4C-4B41-BA58-1883B96CA224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
     <sheet name="LigaPrincipal" sheetId="2" r:id="rId2"/>
     <sheet name="LigaEliminatória" sheetId="3" r:id="rId3"/>
     <sheet name="MataMataLiga" sheetId="4" r:id="rId4"/>
+    <sheet name="MataMataC02" sheetId="5" r:id="rId5"/>
+    <sheet name="MataMataC02 (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="MataMataC02-Tabela" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="279">
   <si>
     <t>Turno</t>
   </si>
@@ -51,7 +54,7 @@
     <t>Mensal</t>
   </si>
   <si>
-    <t>Mata-Mata</t>
+    <t>Mata-Mata da Liga</t>
   </si>
   <si>
     <t>Mata-Mata Avulso</t>
@@ -75,6 +78,9 @@
     <t>R$</t>
   </si>
   <si>
+    <t>C$</t>
+  </si>
+  <si>
     <t>Rodada</t>
   </si>
   <si>
@@ -102,6 +108,12 @@
     <t>A</t>
   </si>
   <si>
+    <t>Reinafcr</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube</t>
+  </si>
+  <si>
     <t>26º</t>
   </si>
   <si>
@@ -111,6 +123,12 @@
     <t>B</t>
   </si>
   <si>
+    <t>ROLETA RU$$A F.C</t>
+  </si>
+  <si>
+    <t>DiasBons EC</t>
+  </si>
+  <si>
     <t>27º</t>
   </si>
   <si>
@@ -141,6 +159,12 @@
     <t>C</t>
   </si>
   <si>
+    <t>MEM- TRICOLOR</t>
+  </si>
+  <si>
+    <t>RealXavier</t>
+  </si>
+  <si>
     <t>28º</t>
   </si>
   <si>
@@ -441,335 +465,419 @@
     <t>Pos</t>
   </si>
   <si>
+    <t>C.A. ELSHOW</t>
+  </si>
+  <si>
+    <t>E.C.O 82</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>C.A. ALSHOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>Meus Ovos</t>
+  </si>
+  <si>
+    <t>FisioT's</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
     <t>Cohab da madeira</t>
   </si>
   <si>
-    <t>E.C.O 82</t>
-  </si>
-  <si>
     <t>LQueiroz Castelucas FC</t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
-  </si>
-  <si>
-    <t>DiasBons EC</t>
-  </si>
-  <si>
-    <t>FisioT's</t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
-    <t>C.A. ELSHOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
   </si>
   <si>
     <t>Brahma 07 FC</t>
   </si>
   <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>C$</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
+  </si>
+  <si>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
   </si>
   <si>
     <t>RICKNATOR SQUAD</t>
   </si>
   <si>
-    <t>MEM- TRICOLOR</t>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>Maste fla</t>
   </si>
   <si>
     <t>Santa fé futebol e samba</t>
   </si>
   <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>ROLETA RU$$A F.C</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>Reinafcr</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>RealXavier</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>Renalare</t>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Los Angeles Stars FC</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
   </si>
   <si>
     <t>kamicase2 fc</t>
   </si>
   <si>
-    <t>alhfao</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>Los Angeles Stars FC</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
     <t>Mister Oliveira F.C</t>
   </si>
   <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Team Portogalo FC</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>Rage Against Cloroquina</t>
+    <t>RICARDO ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno S. Vieira </t>
+  </si>
+  <si>
+    <t>Igor do Vigor</t>
+  </si>
+  <si>
+    <t>Aramaki</t>
+  </si>
+  <si>
+    <t>Márcio Fontes</t>
+  </si>
+  <si>
+    <t>thiago leal de assis</t>
+  </si>
+  <si>
+    <t>vinicius silva</t>
+  </si>
+  <si>
+    <t>Braine Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Silva </t>
+  </si>
+  <si>
+    <t>Daniel Aquino</t>
+  </si>
+  <si>
+    <t>Jé de Oliveira</t>
+  </si>
+  <si>
+    <t>Nilson Dias</t>
+  </si>
+  <si>
+    <t>oseias teixeira</t>
+  </si>
+  <si>
+    <t>iago F</t>
+  </si>
+  <si>
+    <t>Cleber A</t>
+  </si>
+  <si>
+    <t>Gustavo Colares</t>
+  </si>
+  <si>
+    <t>Julius Azevedo</t>
+  </si>
+  <si>
+    <t>Jefferson Pinheiro</t>
+  </si>
+  <si>
+    <t>Thomaz</t>
+  </si>
+  <si>
+    <t>alf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Henrique </t>
+  </si>
+  <si>
+    <t>Clecio</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Tiago Lima</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>KAUE</t>
+  </si>
+  <si>
+    <t>Fabio Massini</t>
+  </si>
+  <si>
+    <t>T.w</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Arley</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +952,44 @@
       <name val="Exo 2 Extra Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Exo 2 Extra Bold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Exo 2 Medium"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Exo 2 Medium"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Exo 2 Medium"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -901,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1072,11 +1218,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,6 +1612,35 @@
     <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,19 +1650,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,31 +1675,49 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,177 +2046,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3:AW28"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="59" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="59" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="59" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="59" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="59" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="59" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="59" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="59" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="59" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="59" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="59" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="59" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="59" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="59" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="59" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="59" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="59" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="59" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="59" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="59" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="59" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="59" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="59" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="59" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="59" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="59" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="59" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="59" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="59" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="65" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="65" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="65" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="65" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="65" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="65" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="65" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="65" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="65" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="65" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="65" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="65" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="65" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="65" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="65" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="65" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="65" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="65" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="65" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="65" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="65" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="65" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="65" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="65" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="65" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="65" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="65" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="65" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="65" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="65" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="59" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="59" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="65" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="65" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="59" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="59" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="59" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="59" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="59" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="59" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="59" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="59" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="59" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="59" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="59" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="65" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="65" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="65" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="65" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="65" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="65" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="65" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="65" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="65" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="65" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="65" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="59" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="59" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="59" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="59" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="59" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="65" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="65" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="65" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="65" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="65" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="59" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="59" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="59" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="59" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="59" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="65" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="65" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="65" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="65" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="65" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="59" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="59" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="59" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="59" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="59" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="59" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="59" customWidth="1"/>
-    <col min="81" max="85" width="9.140625" style="59" customWidth="1"/>
-    <col min="86" max="16384" width="9.140625" style="59"/>
+    <col min="74" max="74" width="28.5703125" style="65" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="65" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="65" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="65" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="65" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="65" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="65" customWidth="1"/>
+    <col min="81" max="89" width="9.140625" style="65" customWidth="1"/>
+    <col min="90" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="61" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="2:80" s="64" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="G2" s="65" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="G2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="L2" s="65" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="L2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="Q2" s="65" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="Q2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="W2" s="74" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="W2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AB2" s="65" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AB2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AH2" s="65" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AH2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AM2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AR2" s="65" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AR2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AY2" s="65" t="s">
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AY2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BD2" s="65" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BD2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="66"/>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
       <c r="BT2" s="50"/>
-      <c r="BU2" s="65"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
     </row>
     <row r="3" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1833,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>13</v>
@@ -1846,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>13</v>
@@ -1911,55 +2322,55 @@
         <v>13</v>
       </c>
       <c r="BF3" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="64"/>
+      <c r="BI3" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="79"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68"/>
-      <c r="BR3" s="68"/>
-      <c r="BS3" s="64"/>
-      <c r="BU3" s="70" t="s">
+      <c r="BO3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="68"/>
-      <c r="BY3" s="64"/>
-      <c r="CA3" s="63" t="s">
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="79"/>
+      <c r="BU3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="CB3" s="64"/>
+      <c r="BV3" s="81"/>
+      <c r="BW3" s="81"/>
+      <c r="BX3" s="81"/>
+      <c r="BY3" s="79"/>
+      <c r="CA3" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB3" s="79"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>LigaPrincipal!F3</f>
-        <v>Cohab da madeira</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>438.919677734375</v>
+        <v>546.709716796875</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="38">
         <f>LigaPrincipal!F9</f>
@@ -1973,56 +2384,56 @@
         <v>150</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="38" t="str">
         <f>LigaPrincipal!F15</f>
-        <v>The wailers. pro</v>
+        <v>FisioT's</v>
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>151.47</v>
+        <v>154.16</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="38" t="str">
         <f>LigaPrincipal!F21</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="S4" s="22">
         <f>LigaPrincipal!G21</f>
-        <v>106.080078125</v>
+        <v>121.2099609375</v>
       </c>
       <c r="T4" s="38">
         <f>LigaPrincipal!H21</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U4" s="16">
         <v>150</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X4" s="38" t="str">
         <f>LigaPrincipal!B3</f>
-        <v>Cohab da madeira</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>438.919677734375</v>
+        <v>546.709716796875</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="75" t="s">
+      <c r="AB4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="AD4" s="38" t="str">
         <f>LigaPrincipal!L3</f>
@@ -2035,61 +2446,65 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="71">
+      <c r="AH4" s="75">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="19">
+        <v>23</v>
+      </c>
+      <c r="AJ4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="25">
         <v>100</v>
       </c>
-      <c r="AM4" s="71">
+      <c r="AM4" s="75">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="19">
+        <v>21</v>
+      </c>
+      <c r="AO4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="25">
         <v>150</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>MEM- TRICOLOR</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>82.589999999999989</v>
+        <v>91.3</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>Porco Verde WA</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>49.81</v>
+        <v>66.75</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="71">
+      <c r="BD4" s="75">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF4" s="38"/>
       <c r="BG4" s="19">
@@ -2123,21 +2538,21 @@
     </row>
     <row r="5" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>434.130126953125</v>
+        <v>516.44970703125</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="37">
         <f>LigaPrincipal!F10</f>
@@ -2151,54 +2566,54 @@
         <v>100</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M5" s="37" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>FisioT's</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>150.21</v>
+        <v>153.43</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R5" s="37" t="str">
         <f>LigaPrincipal!F22</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="S5" s="23">
         <f>LigaPrincipal!G22</f>
-        <v>101.83984375</v>
+        <v>107.5</v>
       </c>
       <c r="T5" s="37">
         <f>LigaPrincipal!H22</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U5" s="17">
         <v>100</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>434.130126953125</v>
+        <v>516.44970703125</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="73"/>
+      <c r="AB5" s="74"/>
       <c r="AC5" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="36" t="str">
         <f>LigaPrincipal!L4</f>
@@ -2211,132 +2626,136 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="72"/>
+      <c r="AH5" s="76"/>
       <c r="AI5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="17">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="61">
         <v>50</v>
       </c>
-      <c r="AM5" s="72"/>
+      <c r="AM5" s="76"/>
       <c r="AN5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="17">
+        <v>27</v>
+      </c>
+      <c r="AO5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP5" s="61">
         <v>100</v>
       </c>
       <c r="AR5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>CHAPELETA10</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>74.08</v>
+        <v>91.2</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>49.490000000000009</v>
+        <v>66.06</v>
       </c>
       <c r="AY5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ5" s="37"/>
       <c r="BA5" s="37"/>
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="72"/>
+      <c r="BD5" s="76"/>
       <c r="BE5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF5" s="37"/>
       <c r="BG5" s="17">
         <v>200</v>
       </c>
       <c r="BI5" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>MEM- TRICOLOR</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>EC Samba Social</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>E.C.O 82</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>verdao29fc</v>
+        <v>45 do 2!</v>
       </c>
       <c r="CA5" s="45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Team Portogalo FC</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>DiasBons EC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>433.079833984375</v>
+        <v>516.349609375</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H6" s="36">
         <f>LigaPrincipal!F11</f>
@@ -2350,347 +2769,351 @@
         <v>50</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>DiasBons EC</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>141.16999999999999</v>
+        <v>146.36000000000001</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R6" s="36" t="str">
         <f>LigaPrincipal!F23</f>
-        <v>Santa fé futebol e samba</v>
+        <v>Artefutt</v>
       </c>
       <c r="S6" s="24">
         <f>LigaPrincipal!G23</f>
-        <v>101.52001953125</v>
+        <v>107.39990234375</v>
       </c>
       <c r="T6" s="36">
         <f>LigaPrincipal!H23</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U6" s="18">
         <v>50</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>DiasBons EC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>433.079833984375</v>
+        <v>516.349609375</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="75" t="s">
-        <v>34</v>
+      <c r="AB6" s="73" t="s">
+        <v>39</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD6" s="38" t="str">
         <f>LigaPrincipal!L5</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>C.A. ALSHOW</v>
       </c>
       <c r="AE6" s="22">
         <f>LigaPrincipal!M5</f>
-        <v>387.39</v>
-      </c>
-      <c r="AF6" s="19">
+        <v>482.16</v>
+      </c>
+      <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="73"/>
+      <c r="AH6" s="74"/>
       <c r="AI6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="18">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="73"/>
+      <c r="AM6" s="74"/>
       <c r="AN6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="18">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP6" s="26">
         <v>50</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>68.279999999999987</v>
+        <v>85.6</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>Pagangrizo’s team</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>49.26</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="AY6" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AZ6" s="37"/>
       <c r="BA6" s="37"/>
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="73"/>
+      <c r="BD6" s="74"/>
       <c r="BE6" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF6" s="36"/>
       <c r="BG6" s="18">
         <v>100</v>
       </c>
       <c r="BI6" s="46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>Renalare</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>SCCP Quarta força</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>Los Angeles Stars FC</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>$ANTO$</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>DUFF F.D.</v>
+        <v>Arloso FC</v>
       </c>
       <c r="CA6" s="46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>RealXavier</v>
+        <v>kamicase2 fc</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W7" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>FisioT's</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>432.88037109375</v>
+        <v>512.369873046875</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="73"/>
+      <c r="AB7" s="74"/>
       <c r="AC7" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD7" s="36" t="str">
         <f>LigaPrincipal!L6</f>
-        <v>FisioT's</v>
+        <v>Meus Ovos</v>
       </c>
       <c r="AE7" s="24">
         <f>LigaPrincipal!M6</f>
-        <v>381.23</v>
-      </c>
-      <c r="AF7" s="18">
+        <v>465.02</v>
+      </c>
+      <c r="AF7" s="26">
         <v>50</v>
       </c>
-      <c r="AH7" s="71">
+      <c r="AH7" s="75">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="19">
         <v>100</v>
       </c>
-      <c r="AM7" s="71">
+      <c r="AM7" s="75">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" s="38"/>
       <c r="AP7" s="19">
         <v>150</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>LQueiroz FC</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>66.86</v>
+        <v>84.299999999999983</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>LamucciSPFC</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>48.79</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AY7" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AZ7" s="37"/>
       <c r="BA7" s="37"/>
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="71">
+      <c r="BD7" s="75">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF7" s="38"/>
       <c r="BG7" s="19">
         <v>300</v>
       </c>
       <c r="BI7" s="46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>kamicase2 fc</v>
+        <v>Artefutt</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>Forró Social Club</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>Reinafcr</v>
+        <v>EC Samba Social</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>CLAN MORT</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>Breeja F.C</v>
+        <v>Mont City R.B.</v>
       </c>
       <c r="CA7" s="46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>Arloso FC</v>
+        <v>TERUEG</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>Brasilândia MSFC</v>
+        <v>FisioT's</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>428.0498046875</v>
+        <v>506.84033203125</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="75" t="s">
-        <v>52</v>
+      <c r="AB8" s="73" t="s">
+        <v>59</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD8" s="38">
         <f>LigaPrincipal!L7</f>
@@ -2703,113 +3126,113 @@
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="72"/>
+      <c r="AH8" s="76"/>
       <c r="AI8" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ8" s="37"/>
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="72"/>
+      <c r="AM8" s="76"/>
       <c r="AN8" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO8" s="37"/>
       <c r="AP8" s="17">
         <v>100</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>DiasBons EC</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>64.31</v>
+        <v>83.3</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>KVRA-Z/O</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>48.76</v>
+        <v>63.8</v>
       </c>
       <c r="AY8" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AZ8" s="36"/>
       <c r="BA8" s="36"/>
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="72"/>
+      <c r="BD8" s="76"/>
       <c r="BE8" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF8" s="37"/>
       <c r="BG8" s="17">
         <v>200</v>
       </c>
       <c r="BI8" s="46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>alhfao</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>RealXavier</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Shibo F.C.</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>S.E. FINISH</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="CA8" s="47" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>Rage Against Cloroquina</v>
+        <v>Mister Oliveira F.C</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,22 +3242,22 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="W9" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>L&amp;G Cabral</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>425.94970703125</v>
+        <v>504.719970703125</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="73"/>
+      <c r="AB9" s="74"/>
       <c r="AC9" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="36">
         <f>LigaPrincipal!L8</f>
@@ -2847,102 +3270,102 @@
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="73"/>
+      <c r="AH9" s="74"/>
       <c r="AI9" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ9" s="36"/>
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="73"/>
+      <c r="AM9" s="74"/>
       <c r="AN9" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO9" s="36"/>
       <c r="AP9" s="18">
         <v>50</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>64.209999999999994</v>
+        <v>83.059999999999988</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>Brahma 07 FC</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>48.49</v>
+        <v>62.8</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="73"/>
+      <c r="BD9" s="74"/>
       <c r="BE9" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF9" s="36"/>
       <c r="BG9" s="18">
         <v>100</v>
       </c>
       <c r="BI9" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>CHAPELETA10</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>Hepta 17 FC</v>
+        <v>Reinafcr</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>O Cartola II</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>The wailers. pro</v>
+        <v>CLAN MORT</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>Tornadooo F.C</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2952,24 +3375,24 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="W10" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>C.A. ELSHOW</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>425.499755859375</v>
+        <v>503.419677734375</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="75" t="s">
-        <v>68</v>
+      <c r="AB10" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD10" s="38">
         <f>LigaPrincipal!L9</f>
@@ -2982,108 +3405,108 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="71">
+      <c r="AH10" s="75">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="19">
         <v>100</v>
       </c>
-      <c r="AM10" s="71">
+      <c r="AM10" s="75">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO10" s="38"/>
       <c r="AP10" s="19">
         <v>150</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>Brasilândia MSFC</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>61.390000000000008</v>
+        <v>82.899999999999991</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>$uicide $quad F.C</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>47.85</v>
+        <v>62.7</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="71">
+      <c r="BD10" s="75">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF10" s="38"/>
       <c r="BG10" s="19">
         <v>300</v>
       </c>
       <c r="BI10" s="46" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>R.N.S FC</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>APOCALIPSE1910</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>HANDEVU FC</v>
+        <v>The wailers. pro</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3093,22 +3516,22 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="W11" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>418.809814453125</v>
+        <v>503.030029296875</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="73"/>
+      <c r="AB11" s="74"/>
       <c r="AC11" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="36">
         <f>LigaPrincipal!L10</f>
@@ -3121,102 +3544,102 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="72"/>
+      <c r="AH11" s="76"/>
       <c r="AI11" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ11" s="37"/>
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="72"/>
+      <c r="AM11" s="76"/>
       <c r="AN11" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO11" s="37"/>
       <c r="AP11" s="17">
         <v>100</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>61.06</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>E.C SIEMACO SP</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>47.739999999999988</v>
+        <v>60.91</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="72"/>
+      <c r="BD11" s="76"/>
       <c r="BE11" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF11" s="37"/>
       <c r="BG11" s="17">
         <v>200</v>
       </c>
       <c r="BI11" s="46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>SEP Campeoníssimo</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>SC Karate Kid</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>Igor Fontes F.C.</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>Rei dos mares F.C</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>El Loko China</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,24 +3649,24 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="W12" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>Brahma 07 FC</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>418.019775390625</v>
+        <v>499.280029296875</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="75" t="s">
-        <v>82</v>
+      <c r="AB12" s="73" t="s">
+        <v>89</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD12" s="38">
         <f>LigaPrincipal!L11</f>
@@ -3256,102 +3679,102 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="73"/>
+      <c r="AH12" s="74"/>
       <c r="AI12" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ12" s="36"/>
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="73"/>
+      <c r="AM12" s="74"/>
       <c r="AN12" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO12" s="36"/>
       <c r="AP12" s="18">
         <v>50</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>CLECIO1976 F.C</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>58.86</v>
+        <v>77.3</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>Reinafcr</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>47.58</v>
+        <v>59.16</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="73"/>
+      <c r="BD12" s="74"/>
       <c r="BE12" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF12" s="36"/>
       <c r="BG12" s="18">
         <v>100</v>
       </c>
       <c r="BI12" s="46" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>HANDEVU FC</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>S. E. CURUPIRA</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>Pagangrizo’s team</v>
+        <v>El Loko China</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>Medão Fc</v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>Santa fé futebol e samba</v>
+        <v>Xo Corona</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3361,22 +3784,22 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="W13" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>417.280029296875</v>
+        <v>491.43994140625</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="73"/>
+      <c r="AB13" s="74"/>
       <c r="AC13" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD13" s="36">
         <f>LigaPrincipal!L12</f>
@@ -3389,39 +3812,39 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="71">
+      <c r="AH13" s="75">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="19">
         <v>100</v>
       </c>
-      <c r="AM13" s="71">
+      <c r="AM13" s="75">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO13" s="38"/>
       <c r="AP13" s="19">
         <v>150</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>Fantasma Osasco fc</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>58.32</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
@@ -3429,81 +3852,81 @@
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>47.19</v>
+        <v>58.3</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="71">
+      <c r="BD13" s="75">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF13" s="38"/>
       <c r="BG13" s="19">
         <v>300</v>
       </c>
       <c r="BI13" s="46" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>Real Litoral FC</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>Maleví F.D.</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>Esquaiella F.C</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>AVANTI AZZURRA</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>Mont City R.B.</v>
+        <v>FUT ART SP</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="75" t="s">
-        <v>94</v>
+      <c r="AB14" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD14" s="38">
         <f>LigaPrincipal!L13</f>
@@ -3516,102 +3939,102 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="72"/>
+      <c r="AH14" s="76"/>
       <c r="AI14" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ14" s="37"/>
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="72"/>
+      <c r="AM14" s="76"/>
       <c r="AN14" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO14" s="37"/>
       <c r="AP14" s="17">
         <v>100</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>57.760000000000012</v>
+        <v>77.009999999999991</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>$ANTO$</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>47.08</v>
+        <v>58.099999999999987</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="72"/>
+      <c r="BD14" s="76"/>
       <c r="BE14" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF14" s="37"/>
       <c r="BG14" s="17">
         <v>200</v>
       </c>
       <c r="BI14" s="46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>DiasBons EC</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>São Paulo Edu Física</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>Vocês tão Lascados</v>
+        <v>FisioT's</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>Artefutt</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>KAMIKA$E F.C</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>Maste fla</v>
+        <v>alhfao</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3620,9 +4043,9 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="73"/>
+      <c r="AB15" s="74"/>
       <c r="AC15" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="36">
         <f>LigaPrincipal!L14</f>
@@ -3635,90 +4058,90 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="73"/>
+      <c r="AH15" s="74"/>
       <c r="AI15" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ15" s="36"/>
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="73"/>
+      <c r="AM15" s="74"/>
       <c r="AN15" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO15" s="36"/>
       <c r="AP15" s="18">
         <v>50</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>57.75</v>
+        <v>76.899999999999991</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>Igor Fontes F.C.</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>46.59</v>
+        <v>55.8</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="73"/>
+      <c r="BD15" s="74"/>
       <c r="BE15" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF15" s="36"/>
       <c r="BG15" s="18">
         <v>100</v>
       </c>
       <c r="BI15" s="46" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Manollo F.C</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>C.A. ELSHOW</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>LamucciSPFC</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
@@ -3726,11 +4149,11 @@
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>FisioT's</v>
+        <v>LiverpooI</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3739,11 +4162,11 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="75" t="s">
-        <v>105</v>
+      <c r="AB16" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD16" s="38">
         <f>LigaPrincipal!L15</f>
@@ -3756,108 +4179,108 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="71">
+      <c r="AH16" s="75">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="19">
         <v>100</v>
       </c>
-      <c r="AM16" s="71">
+      <c r="AM16" s="75">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" s="38"/>
       <c r="AP16" s="19">
         <v>150</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>LiverpooI</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>55.290000000000013</v>
+        <v>75.899999999999991</v>
       </c>
       <c r="AU16" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>Rei dos mares F.C</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>45.81</v>
+        <v>54.7</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="71">
+      <c r="BD16" s="75">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF16" s="38"/>
       <c r="BG16" s="19">
         <v>300</v>
       </c>
       <c r="BI16" s="46" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>Brasilândia MSFC</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>Xo Corona</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>Cohab da madeira</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>KVRA-Z/O</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>showlimafc</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>FUT ART SP</v>
+        <v>R.N.S FC</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3866,9 +4289,9 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="73"/>
+      <c r="AB17" s="74"/>
       <c r="AC17" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD17" s="36">
         <f>LigaPrincipal!L16</f>
@@ -3881,102 +4304,102 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="72"/>
+      <c r="AH17" s="76"/>
       <c r="AI17" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ17" s="37"/>
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="72"/>
+      <c r="AM17" s="76"/>
       <c r="AN17" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO17" s="37"/>
       <c r="AP17" s="17">
         <v>100</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>54.91</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>AVANTI AZZURRA</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>45.46</v>
+        <v>52.41</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="72"/>
+      <c r="BD17" s="76"/>
       <c r="BE17" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF17" s="37"/>
       <c r="BG17" s="17">
         <v>200</v>
       </c>
       <c r="BI17" s="46" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>LiverpooI</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>Porco Verde WA</v>
+        <v>02 de outubro</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>TERUEG</v>
+        <v>DUFF F.D.</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,11 +4408,11 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="75" t="s">
-        <v>116</v>
+      <c r="AB18" s="73" t="s">
+        <v>123</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD18" s="38">
         <f>LigaPrincipal!L17</f>
@@ -4002,102 +4425,102 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="73"/>
+      <c r="AH18" s="74"/>
       <c r="AI18" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="73"/>
+      <c r="AM18" s="74"/>
       <c r="AN18" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO18" s="36"/>
       <c r="AP18" s="18">
         <v>50</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>São Paulo Edu Física</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>54.779999999999987</v>
+        <v>73.699999999999989</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>45.05</v>
+        <v>51.999999999999993</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="73"/>
+      <c r="BD18" s="74"/>
       <c r="BE18" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF18" s="36"/>
       <c r="BG18" s="18">
         <v>100</v>
       </c>
       <c r="BI18" s="46" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>showlimafc</v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>SCFVelasco2021</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>$uicide $quad F.C</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>METAMORPHO</v>
+        <v>Maste fla</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Cata Cata 71</v>
+        <v>Los Angeles Stars FC</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4106,9 +4529,9 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="73"/>
+      <c r="AB19" s="74"/>
       <c r="AC19" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD19" s="36">
         <f>LigaPrincipal!L18</f>
@@ -4121,104 +4544,104 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="71">
+      <c r="AH19" s="75">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="19">
         <v>100</v>
       </c>
-      <c r="AM19" s="71">
+      <c r="AM19" s="75">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO19" s="38"/>
       <c r="AP19" s="19">
         <v>150</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>L&amp;G Cabral</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>54.580000000000013</v>
+        <v>73.199999999999989</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>S.E. FINISH</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>44.06</v>
+        <v>47.3</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="71">
+      <c r="BD19" s="75">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF19" s="38"/>
       <c r="BG19" s="19">
         <v>300</v>
       </c>
       <c r="BI19" s="46" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>MITTO100NI</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>Rage Against Cloroquina</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>45 do 2!</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>Mister Oliveira F.C</v>
+        <v>Santa fé futebol e samba</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
@@ -4226,107 +4649,107 @@
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="AH20" s="72"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="AH20" s="76"/>
       <c r="AI20" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ20" s="37"/>
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="72"/>
+      <c r="AM20" s="76"/>
       <c r="AN20" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO20" s="37"/>
       <c r="AP20" s="17">
         <v>100</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>53.95</v>
+        <v>72.800000000000011</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>DUFF F.D.</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>42.98</v>
+        <v>47</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="72"/>
+      <c r="BD20" s="76"/>
       <c r="BE20" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF20" s="37"/>
       <c r="BG20" s="17">
         <v>200</v>
       </c>
       <c r="BI20" s="47" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>L&amp;G Cabral</v>
+        <v>Renalare</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>Brahma 07 FC</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>E.C SIEMACO SP</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>Bávaros Bier</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>02 de outubro</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4335,51 +4758,51 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="73"/>
+      <c r="AH21" s="74"/>
       <c r="AI21" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ21" s="36"/>
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="73"/>
+      <c r="AM21" s="74"/>
       <c r="AN21" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO21" s="36"/>
       <c r="AP21" s="18">
         <v>50</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>Tornad000</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>53.949999999999989</v>
+        <v>72.36</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>Bávaros Bier</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>42.55</v>
+        <v>46.81</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="73"/>
+      <c r="BD21" s="74"/>
       <c r="BE21" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF21" s="36"/>
       <c r="BG21" s="18">
@@ -4403,57 +4826,57 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="71">
+      <c r="AH22" s="75">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="19">
         <v>100</v>
       </c>
-      <c r="AM22" s="71">
+      <c r="AM22" s="75">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO22" s="38"/>
       <c r="AP22" s="19">
         <v>150</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>SEP Campeoníssimo</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>53.86</v>
+        <v>72.209999999999994</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>Breeja F.C</v>
+        <v>$ANTO$</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>41.35</v>
+        <v>46.05</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="71">
+      <c r="BD22" s="75">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="19">
@@ -4477,51 +4900,51 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="72"/>
+      <c r="AH23" s="76"/>
       <c r="AI23" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ23" s="37"/>
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="72"/>
+      <c r="AM23" s="76"/>
       <c r="AN23" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO23" s="37"/>
       <c r="AP23" s="17">
         <v>100</v>
       </c>
       <c r="AR23" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>51.98</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="AU23" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>41.28</v>
+        <v>45.010000000000012</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="72"/>
+      <c r="BD23" s="76"/>
       <c r="BE23" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BF23" s="37"/>
       <c r="BG23" s="17">
@@ -4545,51 +4968,51 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="73"/>
+      <c r="AH24" s="74"/>
       <c r="AI24" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ24" s="36"/>
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="73"/>
+      <c r="AM24" s="74"/>
       <c r="AN24" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AO24" s="36"/>
       <c r="AP24" s="18">
         <v>50</v>
       </c>
       <c r="AR24" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>51.480000000000011</v>
+        <v>71.11</v>
       </c>
       <c r="AU24" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AV24" s="32" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>TERUEG</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW24" s="23">
         <f>LigaEliminatória!C48</f>
-        <v>35.359999999999992</v>
+        <v>42.70000000000001</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="73"/>
+      <c r="BD24" s="74"/>
       <c r="BE24" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BF24" s="36"/>
       <c r="BG24" s="18">
@@ -4609,26 +5032,26 @@
     </row>
     <row r="25" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR25" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>SCFVelasco2021</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>51.159999999999989</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="AU25" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AV25" s="32" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>Cata Cata 71</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AW25" s="23">
         <f>LigaEliminatória!C49</f>
-        <v>35.19</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="AY25" s="39"/>
       <c r="AZ25" s="39"/>
@@ -4648,26 +5071,26 @@
     </row>
     <row r="26" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR26" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>S.C. Brasilandia City</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>51.11</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV26" s="32" t="str">
+        <v>134</v>
+      </c>
+      <c r="AV26" s="59" t="str">
         <f>LigaEliminatória!B50</f>
-        <v>Tornad000</v>
-      </c>
-      <c r="AW26" s="23">
+        <v>TERUEG</v>
+      </c>
+      <c r="AW26" s="60">
         <f>LigaEliminatória!C50</f>
-        <v>33.380000000000003</v>
+        <v>30.75</v>
       </c>
       <c r="AY26" s="39"/>
       <c r="AZ26" s="39"/>
@@ -4687,24 +5110,24 @@
     </row>
     <row r="27" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR27" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>SC Karate Kid</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>51.09</v>
+        <v>68.899999999999991</v>
       </c>
       <c r="AU27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV27" s="79" t="str">
+        <v>34</v>
+      </c>
+      <c r="AV27" s="59" t="str">
         <f>LigaEliminatória!B51</f>
         <v>RealXavier</v>
       </c>
-      <c r="AW27" s="80">
+      <c r="AW27" s="60">
         <f>LigaEliminatória!C51</f>
         <v>30.55</v>
       </c>
@@ -4726,18 +5149,18 @@
     </row>
     <row r="28" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR28" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>Shibo F.C.</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>50.06</v>
+        <v>66.809999999999988</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AV28" s="57" t="str">
         <f>LigaEliminatória!B52</f>
@@ -4885,6 +5308,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -4901,43 +5357,9 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <picture r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4946,441 +5368,446 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="2" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="62" customWidth="1"/>
-    <col min="10" max="18" width="9.140625" style="62" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="2" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
+    <col min="10" max="22" width="9.140625" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="E1" s="78" t="s">
+      <c r="A1" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="J1" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="J1" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="62" t="s">
+      <c r="B2" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="62" t="s">
-        <v>134</v>
+      <c r="M2" s="66" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>136</v>
+      <c r="B3" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="C3" s="20">
-        <v>438.919677734375</v>
-      </c>
-      <c r="E3" s="62">
+        <v>546.709716796875</v>
+      </c>
+      <c r="E3" s="66">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G3" s="21">
-        <v>438.919677734375</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="62">
+        <v>546.709716796875</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="66">
         <v>1</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>137</v>
+      <c r="L3" s="66" t="s">
+        <v>144</v>
       </c>
       <c r="M3" s="20">
         <v>82.18994140625</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>138</v>
+      <c r="B4" s="66" t="s">
+        <v>145</v>
       </c>
       <c r="C4" s="20">
-        <v>434.130126953125</v>
-      </c>
-      <c r="E4" s="62">
+        <v>516.44970703125</v>
+      </c>
+      <c r="E4" s="66">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G4" s="21">
-        <v>434.130126953125</v>
-      </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="62">
+        <v>516.44970703125</v>
+      </c>
+      <c r="J4" s="84"/>
+      <c r="K4" s="66">
         <v>2</v>
       </c>
-      <c r="L4" s="62" t="s">
-        <v>139</v>
+      <c r="L4" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="M4" s="20">
         <v>74.0498046875</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="20">
+        <v>516.349609375</v>
+      </c>
+      <c r="E5" s="66">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="21">
+        <v>516.349609375</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="66">
+        <v>1</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="66">
+        <v>482.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="20">
+        <v>512.369873046875</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="K6" s="66">
+        <v>2</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="66">
+        <v>465.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
+        <v>5</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="20">
+        <v>506.84033203125</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="J7" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="66">
+        <v>6</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="20">
+        <v>504.719970703125</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="20">
-        <v>433.079833984375</v>
-      </c>
-      <c r="E5" s="62">
+      <c r="G8" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="66">
+        <v>7</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="20">
+        <v>503.419677734375</v>
+      </c>
+      <c r="E9" s="66">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
+        <v>8</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="20">
+        <v>503.030029296875</v>
+      </c>
+      <c r="E10" s="66">
+        <v>2</v>
+      </c>
+      <c r="J10" s="84"/>
+      <c r="K10" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="66">
+        <v>9</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="20">
+        <v>499.280029296875</v>
+      </c>
+      <c r="E11" s="66">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J11" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="66">
+        <v>10</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="20">
+        <v>491.43994140625</v>
+      </c>
+      <c r="J12" s="84"/>
+      <c r="K12" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="J13" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="21">
-        <v>433.079833984375</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="62">
+      <c r="G14" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="84"/>
+      <c r="K14" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="66">
         <v>1</v>
       </c>
-      <c r="L5" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="62">
-        <v>387.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
-        <v>4</v>
-      </c>
-      <c r="B6" s="62" t="s">
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="21">
+        <v>154.16</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="66">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="21">
+        <v>153.43</v>
+      </c>
+      <c r="J16" s="84"/>
+      <c r="K16" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="66">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="21">
+        <v>146.36000000000001</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="84"/>
+      <c r="K18" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="20">
-        <v>432.88037109375</v>
-      </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="62">
+      <c r="H20" s="66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="66">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="21">
+        <v>121.2099609375</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="66">
         <v>2</v>
       </c>
-      <c r="L6" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="62">
-        <v>381.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
-        <v>5</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="20">
-        <v>428.0498046875</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="J7" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
-        <v>6</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="20">
-        <v>425.94970703125</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
-        <v>7</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="20">
-        <v>425.499755859375</v>
-      </c>
-      <c r="E9" s="62">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="21">
+        <v>107.5</v>
+      </c>
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="20">
-        <v>418.809814453125</v>
-      </c>
-      <c r="E10" s="62">
-        <v>2</v>
-      </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
-        <v>9</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="20">
-        <v>418.019775390625</v>
-      </c>
-      <c r="E11" s="62">
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="66">
         <v>3</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
-        <v>10</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="20">
-        <v>417.280029296875</v>
-      </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="J13" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="62">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="21">
-        <v>151.47</v>
-      </c>
-      <c r="J15" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="62">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="21">
-        <v>150.21</v>
-      </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="62">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="21">
-        <v>141.16999999999999</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="78"/>
-      <c r="K18" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="62">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="21">
-        <v>106.080078125</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="62">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="21">
-        <v>101.83984375</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="62">
-        <v>3</v>
-      </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G23" s="21">
-        <v>101.52001953125</v>
+        <v>107.39990234375</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5390,11 +5817,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5413,566 +5835,566 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="62"/>
+    <col min="4" max="14" width="9.140625" style="66" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>133</v>
+      <c r="B2" s="66" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>152</v>
+      <c r="B3" s="66" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="21">
-        <v>82.589999999999989</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>154</v>
+      <c r="B4" s="66" t="s">
+        <v>159</v>
       </c>
       <c r="C4" s="21">
-        <v>74.08</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="21">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="21">
-        <v>68.279999999999987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
-        <v>4</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>156</v>
-      </c>
       <c r="C6" s="21">
-        <v>66.86</v>
+        <v>84.299999999999983</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>140</v>
+      <c r="B7" s="66" t="s">
+        <v>163</v>
       </c>
       <c r="C7" s="21">
-        <v>64.31</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
+      <c r="A8" s="66">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>157</v>
+      <c r="B8" s="66" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="21">
-        <v>64.209999999999994</v>
+        <v>83.059999999999988</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>142</v>
+      <c r="B9" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="C9" s="21">
-        <v>61.390000000000008</v>
+        <v>82.899999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="A10" s="66">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>158</v>
+      <c r="B10" s="66" t="s">
+        <v>147</v>
       </c>
       <c r="C10" s="21">
-        <v>61.06</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>159</v>
+      <c r="B11" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="C11" s="21">
-        <v>58.86</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>160</v>
+      <c r="B12" s="66" t="s">
+        <v>149</v>
       </c>
       <c r="C12" s="21">
-        <v>58.32</v>
+        <v>77.260000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="66">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>161</v>
+      <c r="B13" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="C13" s="21">
-        <v>57.760000000000012</v>
+        <v>77.009999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="66">
         <v>12</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>162</v>
+      <c r="B14" s="66" t="s">
+        <v>168</v>
       </c>
       <c r="C14" s="21">
-        <v>57.75</v>
+        <v>76.899999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="66">
         <v>13</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>163</v>
+      <c r="B15" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="C15" s="21">
-        <v>55.290000000000013</v>
+        <v>75.899999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="66">
         <v>14</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="21">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="66">
+        <v>15</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="21">
+        <v>73.699999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="66">
+        <v>16</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="21">
+        <v>73.199999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
+        <v>17</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="21">
+        <v>72.800000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="66">
+        <v>18</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="21">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="66">
+        <v>19</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="21">
+        <v>72.209999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="66">
+        <v>20</v>
+      </c>
+      <c r="B22" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="21">
-        <v>54.91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
-        <v>15</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="21">
-        <v>54.779999999999987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
-        <v>16</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="21">
-        <v>54.580000000000013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
-        <v>17</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="21">
-        <v>53.95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
-        <v>18</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="21">
-        <v>53.949999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
-        <v>19</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="21">
-        <v>53.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
-        <v>20</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>167</v>
-      </c>
       <c r="C22" s="21">
-        <v>51.98</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="66">
         <v>21</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>168</v>
+      <c r="B23" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="C23" s="21">
-        <v>51.480000000000011</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="66">
         <v>22</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>169</v>
+      <c r="B24" s="66" t="s">
+        <v>177</v>
       </c>
       <c r="C24" s="21">
-        <v>51.159999999999989</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="66">
         <v>23</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>170</v>
+      <c r="B25" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="C25" s="21">
-        <v>51.11</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="66">
         <v>24</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>139</v>
+      <c r="B26" s="66" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="21">
-        <v>51.09</v>
+        <v>68.899999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="66">
         <v>25</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>171</v>
+      <c r="B27" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="C27" s="21">
-        <v>50.06</v>
+        <v>66.809999999999988</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="66">
         <v>26</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>172</v>
+      <c r="B28" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="C28" s="21">
-        <v>49.81</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="66">
         <v>27</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>173</v>
+      <c r="B29" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="C29" s="21">
-        <v>49.490000000000009</v>
+        <v>66.06</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="66">
         <v>28</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>174</v>
+      <c r="B30" s="66" t="s">
+        <v>181</v>
       </c>
       <c r="C30" s="21">
-        <v>49.26</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="A31" s="66">
         <v>29</v>
       </c>
-      <c r="B31" s="62" t="s">
-        <v>175</v>
+      <c r="B31" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="C31" s="21">
-        <v>48.79</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="62">
+      <c r="A32" s="66">
         <v>30</v>
       </c>
-      <c r="B32" s="62" t="s">
-        <v>176</v>
+      <c r="B32" s="66" t="s">
+        <v>183</v>
       </c>
       <c r="C32" s="21">
-        <v>48.76</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
+      <c r="A33" s="66">
         <v>31</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>146</v>
+      <c r="B33" s="66" t="s">
+        <v>184</v>
       </c>
       <c r="C33" s="21">
-        <v>48.49</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="66">
         <v>32</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>177</v>
+      <c r="B34" s="66" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="21">
-        <v>47.85</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
+      <c r="A35" s="66">
         <v>33</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>178</v>
+      <c r="B35" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="C35" s="21">
-        <v>47.739999999999988</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+      <c r="A36" s="66">
         <v>34</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>179</v>
+      <c r="B36" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C36" s="21">
-        <v>47.58</v>
+        <v>59.16</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="62">
+      <c r="A37" s="66">
         <v>35</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>180</v>
+      <c r="B37" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="C37" s="21">
-        <v>47.19</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="62">
+      <c r="A38" s="66">
         <v>36</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>181</v>
+      <c r="B38" s="66" t="s">
+        <v>187</v>
       </c>
       <c r="C38" s="21">
-        <v>47.08</v>
+        <v>58.099999999999987</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="62">
+      <c r="A39" s="66">
         <v>37</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>182</v>
+      <c r="B39" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="C39" s="21">
-        <v>46.59</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+      <c r="A40" s="66">
         <v>38</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>183</v>
+      <c r="B40" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="C40" s="21">
-        <v>45.81</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+      <c r="A41" s="66">
         <v>39</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>184</v>
+      <c r="B41" s="66" t="s">
+        <v>189</v>
       </c>
       <c r="C41" s="21">
-        <v>45.46</v>
+        <v>52.41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+      <c r="A42" s="66">
         <v>40</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>185</v>
+      <c r="B42" s="66" t="s">
+        <v>190</v>
       </c>
       <c r="C42" s="21">
-        <v>45.05</v>
+        <v>51.999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+      <c r="A43" s="66">
         <v>41</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>186</v>
+      <c r="B43" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="C43" s="21">
-        <v>44.06</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+      <c r="A44" s="66">
         <v>42</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>187</v>
+      <c r="B44" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="C44" s="21">
-        <v>42.98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="62">
+      <c r="A45" s="66">
         <v>43</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>188</v>
+      <c r="B45" s="66" t="s">
+        <v>193</v>
       </c>
       <c r="C45" s="21">
-        <v>42.55</v>
+        <v>46.81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
+      <c r="A46" s="66">
         <v>44</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>189</v>
+      <c r="B46" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="C46" s="21">
-        <v>41.35</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
+      <c r="A47" s="66">
         <v>45</v>
       </c>
-      <c r="B47" s="62" t="s">
-        <v>190</v>
+      <c r="B47" s="66" t="s">
+        <v>195</v>
       </c>
       <c r="C47" s="21">
-        <v>41.28</v>
+        <v>45.010000000000012</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="66">
         <v>46</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>191</v>
+      <c r="B48" s="66" t="s">
+        <v>196</v>
       </c>
       <c r="C48" s="21">
-        <v>35.359999999999992</v>
+        <v>42.70000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
+      <c r="A49" s="66">
         <v>47</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>192</v>
+      <c r="B49" s="66" t="s">
+        <v>197</v>
       </c>
       <c r="C49" s="21">
-        <v>35.19</v>
+        <v>39.159999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="66">
         <v>48</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>193</v>
+      <c r="B50" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="C50" s="21">
-        <v>33.380000000000003</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="66">
         <v>49</v>
       </c>
-      <c r="B51" s="62" t="s">
-        <v>194</v>
+      <c r="B51" s="66" t="s">
+        <v>42</v>
       </c>
       <c r="C51" s="21">
         <v>30.55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
+      <c r="A52" s="66">
         <v>50</v>
       </c>
-      <c r="B52" s="62" t="s">
-        <v>195</v>
+      <c r="B52" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="C52" s="21">
         <v>32.82</v>
@@ -5993,122 +6415,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -6118,380 +6540,2542 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>29070042</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1">
+        <v>55.599999999999987</v>
+      </c>
+      <c r="H1">
+        <v>60.099999999999987</v>
+      </c>
+      <c r="I1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1">
+        <v>25759796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>948932</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5">
+        <v>42.87</v>
+      </c>
+      <c r="H5">
+        <v>48.459999999999987</v>
+      </c>
+      <c r="I5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4510701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>46.05</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9">
+        <v>25381411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28375476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13">
+        <v>51.91</v>
+      </c>
+      <c r="H13">
+        <v>45.56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13">
+        <v>5069390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="H17">
+        <v>52.859999999999992</v>
+      </c>
+      <c r="I17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17">
+        <v>28889476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>123627</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21">
+        <v>58.1</v>
+      </c>
+      <c r="H21">
+        <v>42.70000000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21">
+        <v>339114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14033643</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>55.8</v>
+      </c>
+      <c r="H25">
+        <v>57.910000000000011</v>
+      </c>
+      <c r="I25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25">
+        <v>2249933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1678382</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>60.599999999999987</v>
+      </c>
+      <c r="H29">
+        <v>55.399999999999991</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29">
+        <v>14901500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>201412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>60.76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33">
+        <v>574153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3355621</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37">
+        <v>48.310000000000009</v>
+      </c>
+      <c r="H37">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="I37" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37">
+        <v>22924436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13994692</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41">
+        <v>43.81</v>
+      </c>
+      <c r="H41">
+        <v>61.7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41">
+        <v>874216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>302929</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45">
+        <v>45.01</v>
+      </c>
+      <c r="H45">
+        <v>52.41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>189</v>
+      </c>
+      <c r="M45">
+        <v>215331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>409114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49">
+        <v>58.060000000000009</v>
+      </c>
+      <c r="H49">
+        <v>43.499999999999993</v>
+      </c>
+      <c r="I49" t="s">
+        <v>199</v>
+      </c>
+      <c r="M49">
+        <v>3953761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>897722</v>
+      </c>
+      <c r="B53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53">
+        <v>56.610000000000007</v>
+      </c>
+      <c r="H53">
+        <v>44.010000000000012</v>
+      </c>
+      <c r="I53" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53">
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>273</v>
+      </c>
+      <c r="I55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28694260</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57">
+        <v>51.2</v>
+      </c>
+      <c r="H57">
+        <v>39.21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>243</v>
+      </c>
+      <c r="M57">
+        <v>1179844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>275</v>
+      </c>
+      <c r="I59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8775722</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61">
+        <v>46.81</v>
+      </c>
+      <c r="H61">
+        <v>50.150000000000013</v>
+      </c>
+      <c r="I61" t="s">
+        <v>235</v>
+      </c>
+      <c r="M61">
+        <v>2561719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5BA6B-7CF4-4A4F-9A31-F81950990D25}">
+  <dimension ref="A1:M63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>29070042</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1">
+        <v>55.599999999999987</v>
+      </c>
+      <c r="H1">
+        <v>60.099999999999987</v>
+      </c>
+      <c r="I1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1">
+        <v>25759796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>948932</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5">
+        <v>42.87</v>
+      </c>
+      <c r="H5">
+        <v>48.459999999999987</v>
+      </c>
+      <c r="I5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4510701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>46.05</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9">
+        <v>25381411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28375476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13">
+        <v>51.91</v>
+      </c>
+      <c r="H13">
+        <v>45.56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13">
+        <v>5069390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="H17">
+        <v>52.859999999999992</v>
+      </c>
+      <c r="I17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17">
+        <v>28889476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>123627</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21">
+        <v>58.1</v>
+      </c>
+      <c r="H21">
+        <v>42.70000000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21">
+        <v>339114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14033643</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>55.8</v>
+      </c>
+      <c r="H25">
+        <v>57.910000000000011</v>
+      </c>
+      <c r="I25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25">
+        <v>2249933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1678382</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>60.599999999999987</v>
+      </c>
+      <c r="H29">
+        <v>55.399999999999991</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29">
+        <v>14901500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>201412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>60.76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33">
+        <v>574153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3355621</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37">
+        <v>48.310000000000009</v>
+      </c>
+      <c r="H37">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="I37" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37">
+        <v>22924436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13994692</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41">
+        <v>43.81</v>
+      </c>
+      <c r="H41">
+        <v>61.7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41">
+        <v>874216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>302929</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45">
+        <v>45.01</v>
+      </c>
+      <c r="H45">
+        <v>52.41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>189</v>
+      </c>
+      <c r="M45">
+        <v>215331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>409114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49">
+        <v>58.060000000000009</v>
+      </c>
+      <c r="H49">
+        <v>43.499999999999993</v>
+      </c>
+      <c r="I49" t="s">
+        <v>199</v>
+      </c>
+      <c r="M49">
+        <v>3953761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>897722</v>
+      </c>
+      <c r="B53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53">
+        <v>56.610000000000007</v>
+      </c>
+      <c r="H53">
+        <v>44.010000000000012</v>
+      </c>
+      <c r="I53" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53">
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>273</v>
+      </c>
+      <c r="I55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28694260</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57">
+        <v>51.2</v>
+      </c>
+      <c r="H57">
+        <v>39.21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>243</v>
+      </c>
+      <c r="M57">
+        <v>1179844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>275</v>
+      </c>
+      <c r="I59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8775722</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61">
+        <v>46.81</v>
+      </c>
+      <c r="H61">
+        <v>50.150000000000013</v>
+      </c>
+      <c r="I61" t="s">
+        <v>235</v>
+      </c>
+      <c r="M61">
+        <v>2561719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="62" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="68" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="68" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="68" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="62" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="68" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="62" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="68" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85">
+        <f>MataMataC02!A1</f>
+        <v>29070042</v>
+      </c>
+      <c r="B1" s="87" t="str">
+        <f>MataMataC02!B1</f>
+        <v>RICKNATOR SQUAD</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="93">
+        <v>0</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="97">
+        <v>0</v>
+      </c>
+      <c r="I1" s="100" t="str">
+        <f>MataMataC02!I1</f>
+        <v>Medão Fc</v>
+      </c>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="85">
+        <f>MataMataC02!M1</f>
+        <v>25759796</v>
+      </c>
+      <c r="O1" s="85">
+        <f>MataMataC02!A33</f>
+        <v>201412</v>
+      </c>
+      <c r="P1" s="87" t="str">
+        <f>MataMataC02!B33</f>
+        <v>Los Angeles Stars FC</v>
+      </c>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="93">
+        <v>0</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="97">
+        <v>0</v>
+      </c>
+      <c r="W1" s="100" t="str">
+        <f>MataMataC02!I33</f>
+        <v>CLAN MORT</v>
+      </c>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="85">
+        <f>MataMataC02!M33</f>
+        <v>574153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="86"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="103" t="str">
+        <f>MataMataC02!B3</f>
+        <v>RICARDO ALVES</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="105" t="str">
+        <f>MataMataC02!I3</f>
+        <v xml:space="preserve">Wellington </v>
+      </c>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="106"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="103" t="str">
+        <f>MataMataC02!B35</f>
+        <v>Gustavo Colares</v>
+      </c>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="105" t="str">
+        <f>MataMataC02!I35</f>
+        <v>Julius Azevedo</v>
+      </c>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="106"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O4" s="67"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85">
+        <f>MataMataC02!A5</f>
+        <v>948932</v>
+      </c>
+      <c r="B5" s="87" t="str">
+        <f>MataMataC02!B5</f>
+        <v>Mont City R.B.</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="93">
+        <v>0</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="97">
+        <v>0</v>
+      </c>
+      <c r="I5" s="100" t="str">
+        <f>MataMataC02!I5</f>
+        <v>Vocês tão Lascados</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="85">
+        <f>MataMataC02!M5</f>
+        <v>13200</v>
+      </c>
+      <c r="O5" s="85">
+        <f>MataMataC02!A37</f>
+        <v>3355621</v>
+      </c>
+      <c r="P5" s="87" t="str">
+        <f>MataMataC02!B37</f>
+        <v>Maleví F.D.</v>
+      </c>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="93">
+        <v>0</v>
+      </c>
+      <c r="U5" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V5" s="97">
+        <v>0</v>
+      </c>
+      <c r="W5" s="100" t="str">
+        <f>MataMataC02!I37</f>
+        <v>Palestra 1000 Grau fc</v>
+      </c>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="85">
+        <f>MataMataC02!M37</f>
+        <v>22924436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="86"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="103" t="str">
+        <f>MataMataC02!B7</f>
+        <v xml:space="preserve">Bruno S. Vieira </v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="105" t="str">
+        <f>MataMataC02!I7</f>
+        <v>Igor do Vigor</v>
+      </c>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="106"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="103" t="str">
+        <f>MataMataC02!B39</f>
+        <v>Jefferson Pinheiro</v>
+      </c>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="105" t="str">
+        <f>MataMataC02!I39</f>
+        <v>Thomaz</v>
+      </c>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="106"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O8" s="67"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85">
+        <f>MataMataC02!A9</f>
+        <v>4510701</v>
+      </c>
+      <c r="B9" s="87" t="str">
+        <f>MataMataC02!B9</f>
+        <v>Xo Corona</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="93">
+        <v>0</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="97">
+        <v>0</v>
+      </c>
+      <c r="I9" s="100" t="str">
+        <f>MataMataC02!I9</f>
+        <v>$ANTO$</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="85">
+        <f>MataMataC02!M9</f>
+        <v>25381411</v>
+      </c>
+      <c r="O9" s="85">
+        <f>MataMataC02!A41</f>
+        <v>13994692</v>
+      </c>
+      <c r="P9" s="87" t="str">
+        <f>MataMataC02!B41</f>
+        <v>alhfao</v>
+      </c>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="93">
+        <v>0</v>
+      </c>
+      <c r="U9" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V9" s="97">
+        <v>0</v>
+      </c>
+      <c r="W9" s="100" t="str">
+        <f>MataMataC02!I41</f>
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="85">
+        <f>MataMataC02!M41</f>
+        <v>874216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="86"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="103" t="str">
+        <f>MataMataC02!B11</f>
+        <v>Aramaki</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="105" t="str">
+        <f>MataMataC02!I11</f>
+        <v>Márcio Fontes</v>
+      </c>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="106"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="103" t="str">
+        <f>MataMataC02!B43</f>
+        <v>alf</v>
+      </c>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="105" t="str">
+        <f>MataMataC02!I43</f>
+        <v xml:space="preserve">Marcelo Henrique </v>
+      </c>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="106"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O12" s="67"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85">
+        <f>MataMataC02!A13</f>
+        <v>28375476</v>
+      </c>
+      <c r="B13" s="87" t="str">
+        <f>MataMataC02!B13</f>
+        <v>The wailers. pro</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="93">
+        <v>0</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="97">
+        <v>0</v>
+      </c>
+      <c r="I13" s="100" t="str">
+        <f>MataMataC02!I13</f>
+        <v>Maste fla</v>
+      </c>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="85">
+        <f>MataMataC02!M13</f>
+        <v>5069390</v>
+      </c>
+      <c r="O13" s="85">
+        <f>MataMataC02!A45</f>
+        <v>302929</v>
+      </c>
+      <c r="P13" s="87" t="str">
+        <f>MataMataC02!B45</f>
+        <v>CLECIO1976 F.C</v>
+      </c>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="93">
+        <v>0</v>
+      </c>
+      <c r="U13" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V13" s="97">
+        <v>0</v>
+      </c>
+      <c r="W13" s="100" t="str">
+        <f>MataMataC02!I45</f>
+        <v>Renato 007 Exp 2021</v>
+      </c>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="85">
+        <f>MataMataC02!M45</f>
+        <v>215331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="107"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="86"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="103" t="str">
+        <f>MataMataC02!B15</f>
+        <v>thiago leal de assis</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="105" t="str">
+        <f>MataMataC02!I15</f>
+        <v>vinicius silva</v>
+      </c>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="106"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="103" t="str">
+        <f>MataMataC02!B47</f>
+        <v>Clecio</v>
+      </c>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="105" t="str">
+        <f>MataMataC02!I47</f>
+        <v>Renato</v>
+      </c>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="106"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="67"/>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85">
+        <f>MataMataC02!A17</f>
+        <v>22580</v>
+      </c>
+      <c r="B17" s="87" t="str">
+        <f>MataMataC02!B17</f>
+        <v>LiverpooI</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="93">
+        <v>0</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="97">
+        <v>0</v>
+      </c>
+      <c r="I17" s="100" t="str">
+        <f>MataMataC02!I17</f>
+        <v>Santa fé futebol e samba</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="85">
+        <f>MataMataC02!M17</f>
+        <v>28889476</v>
+      </c>
+      <c r="O17" s="85">
+        <f>MataMataC02!A49</f>
+        <v>409114</v>
+      </c>
+      <c r="P17" s="87" t="str">
+        <f>MataMataC02!B49</f>
+        <v>F.C Trupingas</v>
+      </c>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="93">
+        <v>0</v>
+      </c>
+      <c r="U17" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V17" s="97">
+        <v>0</v>
+      </c>
+      <c r="W17" s="100" t="str">
+        <f>MataMataC02!I49</f>
+        <v>R.N.S FC</v>
+      </c>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="85">
+        <f>MataMataC02!M49</f>
+        <v>3953761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="86"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="103" t="str">
+        <f>MataMataC02!B19</f>
+        <v>Braine Jr.</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="105" t="str">
+        <f>MataMataC02!I19</f>
+        <v xml:space="preserve">Patrick Silva </v>
+      </c>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="106"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="103" t="str">
+        <f>MataMataC02!B51</f>
+        <v>Tiago Lima</v>
+      </c>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="105" t="str">
+        <f>MataMataC02!I51</f>
+        <v>Roberto</v>
+      </c>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="106"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="67"/>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
+        <f>MataMataC02!A21</f>
+        <v>123627</v>
+      </c>
+      <c r="B21" s="87" t="str">
+        <f>MataMataC02!B21</f>
+        <v>São Paulo Edu Física</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="93">
+        <v>0</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="97">
+        <v>0</v>
+      </c>
+      <c r="I21" s="100" t="str">
+        <f>MataMataC02!I21</f>
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="85">
+        <f>MataMataC02!M21</f>
+        <v>339114</v>
+      </c>
+      <c r="O21" s="85">
+        <f>MataMataC02!A53</f>
+        <v>897722</v>
+      </c>
+      <c r="P21" s="87" t="str">
+        <f>MataMataC02!B53</f>
+        <v>REF$CAMPEÃO$</v>
+      </c>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="93">
+        <v>0</v>
+      </c>
+      <c r="U21" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V21" s="97">
+        <v>0</v>
+      </c>
+      <c r="W21" s="100" t="str">
+        <f>MataMataC02!I53</f>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="85">
+        <f>MataMataC02!M53</f>
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="107"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="86"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="103" t="str">
+        <f>MataMataC02!B23</f>
+        <v>Daniel Aquino</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="105" t="str">
+        <f>MataMataC02!I23</f>
+        <v>Jé de Oliveira</v>
+      </c>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="106"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="103" t="str">
+        <f>MataMataC02!B55</f>
+        <v>KAUE</v>
+      </c>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="105" t="str">
+        <f>MataMataC02!I55</f>
+        <v>Fabio Massini</v>
+      </c>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="106"/>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="67"/>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="85">
+        <f>MataMataC02!A25</f>
+        <v>14033643</v>
+      </c>
+      <c r="B25" s="87" t="str">
+        <f>MataMataC02!B25</f>
+        <v>DiasBons EC</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="93">
+        <v>0</v>
+      </c>
+      <c r="G25" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="97">
+        <v>0</v>
+      </c>
+      <c r="I25" s="100" t="str">
+        <f>MataMataC02!I25</f>
+        <v>E.C.O 82</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="85">
+        <f>MataMataC02!M25</f>
+        <v>2249933</v>
+      </c>
+      <c r="O25" s="85">
+        <f>MataMataC02!A57</f>
+        <v>28694260</v>
+      </c>
+      <c r="P25" s="87" t="str">
+        <f>MataMataC02!B57</f>
+        <v>The wailers F.c Brasilanjah</v>
+      </c>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="93">
+        <v>0</v>
+      </c>
+      <c r="U25" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V25" s="97">
+        <v>0</v>
+      </c>
+      <c r="W25" s="100" t="str">
+        <f>MataMataC02!I57</f>
+        <v>Zildane F.C</v>
+      </c>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="85">
+        <f>MataMataC02!M57</f>
+        <v>1179844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="107"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="86"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="103" t="str">
+        <f>MataMataC02!B27</f>
+        <v>Nilson Dias</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="105" t="str">
+        <f>MataMataC02!I27</f>
+        <v>oseias teixeira</v>
+      </c>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="106"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="103" t="str">
+        <f>MataMataC02!B59</f>
+        <v>T.w</v>
+      </c>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="105" t="str">
+        <f>MataMataC02!I59</f>
+        <v>Franklin</v>
+      </c>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="106"/>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="67"/>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85">
+        <f>MataMataC02!A29</f>
+        <v>1678382</v>
+      </c>
+      <c r="B29" s="87" t="str">
+        <f>MataMataC02!B29</f>
+        <v>verdao29fc</v>
+      </c>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="93">
+        <v>0</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="97">
+        <v>0</v>
+      </c>
+      <c r="I29" s="100" t="str">
+        <f>MataMataC02!I29</f>
+        <v>45 do 2!</v>
+      </c>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="85">
+        <f>MataMataC02!M29</f>
+        <v>14901500</v>
+      </c>
+      <c r="O29" s="85">
+        <f>MataMataC02!A61</f>
+        <v>8775722</v>
+      </c>
+      <c r="P29" s="87" t="str">
+        <f>MataMataC02!B61</f>
+        <v>Verdão 1000 grau FC</v>
+      </c>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="93">
+        <v>0</v>
+      </c>
+      <c r="U29" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V29" s="97">
+        <v>0</v>
+      </c>
+      <c r="W29" s="100" t="str">
+        <f>MataMataC02!I61</f>
+        <v>Arloso FC</v>
+      </c>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="85">
+        <f>MataMataC02!M61</f>
+        <v>2561719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="107"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="86"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="103" t="str">
+        <f>MataMataC02!B31</f>
+        <v>iago F</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="105" t="str">
+        <f>MataMataC02!I31</f>
+        <v>Cleber A</v>
+      </c>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="106"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="103" t="str">
+        <f>MataMataC02!B63</f>
+        <v>Thomaz</v>
+      </c>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="105" t="str">
+        <f>MataMataC02!I63</f>
+        <v>Arley</v>
+      </c>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="106"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:Z30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <picture r:id="rId1"/>
+</worksheet>
 </file>
--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0803AC-BD4C-4B41-BA58-1883B96CA224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339575E-972A-4E13-99EB-BD9B7C4DB4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="MataMataLiga" sheetId="4" r:id="rId4"/>
     <sheet name="MataMataC02" sheetId="5" r:id="rId5"/>
     <sheet name="MataMataC02 (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="MataMataC02-Tabela" sheetId="6" r:id="rId7"/>
+    <sheet name="MMC02-1fase" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="281">
   <si>
     <t>Turno</t>
   </si>
@@ -471,312 +471,312 @@
     <t>E.C.O 82</t>
   </si>
   <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>C.A. ALSHOW</t>
+  </si>
+  <si>
+    <t>FisioT's</t>
+  </si>
+  <si>
+    <t>Meus Ovos</t>
+  </si>
+  <si>
+    <t>Cohab da madeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
     <t>Brasilândia MSFC</t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
-    <t>C.A. ALSHOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
-  </si>
-  <si>
-    <t>Meus Ovos</t>
-  </si>
-  <si>
-    <t>FisioT's</t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>Cohab da madeira</t>
-  </si>
-  <si>
     <t>LQueiroz Castelucas FC</t>
   </si>
   <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
     <t>Patrimonio</t>
   </si>
   <si>
     <t>The wailers. pro</t>
   </si>
   <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
     <t>Porco Verde WA</t>
   </si>
   <si>
     <t>Artefutt</t>
   </si>
   <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
     <t>CHAPELETA10</t>
   </si>
   <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
     <t>MALMO FUTEBOL F.</t>
   </si>
   <si>
-    <t>Bávaros Bier</t>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
   </si>
   <si>
     <t>Breeja F.C</t>
   </si>
   <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
   </si>
   <si>
     <t>SCFVelasco2021</t>
   </si>
   <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
     <t>Pagangrizo’s team</t>
   </si>
   <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
     <t>$ANTO$</t>
   </si>
   <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
     <t>TERUEG</t>
   </si>
   <si>
     <t>R.N.S FC</t>
   </si>
   <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
     <t>O Cartola II</t>
   </si>
   <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
     <t>S. E. CURUPIRA</t>
   </si>
   <si>
-    <t>SC BAYER DE MULEKES</t>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
+  </si>
+  <si>
+    <t>EC Samba Social</t>
   </si>
   <si>
     <t>HANDEVU FC</t>
   </si>
   <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
+    <t>Maste fla</t>
+  </si>
+  <si>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
+  </si>
+  <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t>Santa fé futebol e samba</t>
   </si>
   <si>
     <t>Team Portogalo FC</t>
   </si>
   <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>alhfao</t>
-  </si>
-  <si>
     <t>Los Angeles Stars FC</t>
   </si>
   <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
-  </si>
-  <si>
     <t>RICARDO ALVES</t>
   </si>
   <si>
@@ -871,13 +871,19 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>OlympIgor de Marseille</t>
+  </si>
+  <si>
+    <t>ZinedIgor Zidane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +995,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1438,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,25 +1634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,21 +1643,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,50 +1670,72 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,87 +2063,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="65" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="65" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="65" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="65" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="65" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="65" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="65" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="65" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="65" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="65" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="65" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="65" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="65" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="65" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="65" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="65" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="65" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="65" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="65" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="65" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="65" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="65" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="65" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="65" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="65" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="65" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="65" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="65" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="65" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="63" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="63" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="63" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="63" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="63" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="63" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="63" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="63" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="63" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="63" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="63" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="63" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="63" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="63" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="63" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="63" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="63" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="63" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="63" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="63" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="63" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="63" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="63" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="63" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="63" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="63" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="65" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="65" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="63" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="63" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="65" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="65" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="65" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="65" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="65" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="65" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="65" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="65" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="65" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="65" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="65" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="63" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="63" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="63" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="63" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="63" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="63" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="63" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="63" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="63" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="63" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="63" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="65" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="65" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="65" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="65" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="65" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="63" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="63" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="63" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="63" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="63" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="65" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="65" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="65" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="65" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="65" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="63" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="63" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="63" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="63" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="63" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="65" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="65" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="65" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="65" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="65" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="65" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="65" customWidth="1"/>
-    <col min="81" max="89" width="9.140625" style="65" customWidth="1"/>
-    <col min="90" max="16384" width="9.140625" style="65"/>
+    <col min="74" max="74" width="28.5703125" style="63" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="63" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="63" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="63" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="63" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="63" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="63" customWidth="1"/>
+    <col min="81" max="90" width="9.140625" style="63" customWidth="1"/>
+    <col min="91" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="64" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:80" s="65" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2169,7 @@
       <c r="S2" s="72"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
-      <c r="W2" s="77" t="s">
+      <c r="W2" s="80" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="72"/>
@@ -2205,9 +2222,9 @@
       <c r="BN2" s="72"/>
       <c r="BO2" s="72"/>
       <c r="BP2" s="72"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
       <c r="BT2" s="50"/>
       <c r="BU2" s="71"/>
       <c r="BV2" s="72"/>
@@ -2327,32 +2344,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="80" t="s">
+      <c r="BI3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" s="81"/>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="79"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="70"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="82" t="s">
+      <c r="BO3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="BP3" s="81"/>
-      <c r="BQ3" s="81"/>
-      <c r="BR3" s="81"/>
-      <c r="BS3" s="79"/>
-      <c r="BU3" s="83" t="s">
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="70"/>
+      <c r="BU3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="81"/>
-      <c r="BW3" s="81"/>
-      <c r="BX3" s="81"/>
-      <c r="BY3" s="79"/>
-      <c r="CA3" s="78" t="s">
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="70"/>
+      <c r="CA3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="CB3" s="79"/>
+      <c r="CB3" s="70"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2364,7 +2381,7 @@
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>546.709716796875</v>
+        <v>607.329833984375</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -2392,7 +2409,7 @@
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>154.16</v>
+        <v>159.13</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -2424,12 +2441,12 @@
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>546.709716796875</v>
+        <v>607.329833984375</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="73" t="s">
+      <c r="AB4" s="81" t="s">
         <v>22</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2446,7 +2463,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="75">
+      <c r="AH4" s="77">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2458,7 +2475,7 @@
       <c r="AK4" s="25">
         <v>100</v>
       </c>
-      <c r="AM4" s="75">
+      <c r="AM4" s="77">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2475,22 +2492,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>CHAPELETA10</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>91.3</v>
+        <v>78.72</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>SC Karate Kid</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>66.75</v>
+        <v>57.47</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>21</v>
@@ -2500,7 +2517,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="75">
+      <c r="BD4" s="77">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2542,11 +2559,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>Brasilândia MSFC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>516.44970703125</v>
+        <v>589.359375</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2574,7 +2591,7 @@
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>153.43</v>
+        <v>156.13999999999999</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2602,16 +2619,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>Brasilândia MSFC</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>516.44970703125</v>
+        <v>589.359375</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="74"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2643,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="76"/>
+      <c r="AH5" s="78"/>
       <c r="AI5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2636,7 +2653,7 @@
       <c r="AK5" s="61">
         <v>50</v>
       </c>
-      <c r="AM5" s="76"/>
+      <c r="AM5" s="78"/>
       <c r="AN5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2651,22 +2668,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>Porco Verde WA</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>91.2</v>
+        <v>76.02</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>Pagangrizo’s team</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>66.06</v>
+        <v>56.539999999999992</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>27</v>
@@ -2676,7 +2693,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="76"/>
+      <c r="BD5" s="78"/>
       <c r="BE5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2689,7 +2706,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>C.A. ELSHOW</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2697,7 +2714,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>Brasilândia MSFC</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2705,7 +2722,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>MITTO100NI</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2713,7 +2730,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>TERUEG</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2721,7 +2738,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2729,14 +2746,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>45 do 2!</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>Brasilândia MSFC</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2745,11 +2762,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>L&amp;G Cabral</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>516.349609375</v>
+        <v>576.789794921875</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2773,11 +2790,11 @@
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>C.A. ELSHOW</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>146.36000000000001</v>
+        <v>150.59</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2805,16 +2822,16 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>L&amp;G Cabral</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>516.349609375</v>
+        <v>576.789794921875</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="73" t="s">
+      <c r="AB6" s="81" t="s">
         <v>39</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2831,7 +2848,7 @@
       <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="74"/>
+      <c r="AH6" s="79"/>
       <c r="AI6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2841,7 +2858,7 @@
       <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="74"/>
+      <c r="AM6" s="79"/>
       <c r="AN6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2856,22 +2873,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>85.6</v>
+        <v>73.019999999999982</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>LamucciSPFC</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>65.900000000000006</v>
+        <v>55.12</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>38</v>
@@ -2881,7 +2898,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="74"/>
+      <c r="BD6" s="79"/>
       <c r="BE6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2894,7 +2911,7 @@
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>Porco Verde WA</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
@@ -2902,7 +2919,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>Breeja F.C</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2910,7 +2927,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>SCFVelasco2021</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2918,7 +2935,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>Forró Social Club</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2926,7 +2943,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2934,14 +2951,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>Arloso FC</v>
+        <v>02 de outubro</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>kamicase2 fc</v>
+        <v>Team Portogalo FC</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2950,16 +2967,16 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>FisioT's</v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>512.369873046875</v>
+        <v>576.060546875</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="74"/>
+      <c r="AB7" s="79"/>
       <c r="AC7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2974,7 +2991,7 @@
       <c r="AF7" s="26">
         <v>50</v>
       </c>
-      <c r="AH7" s="75">
+      <c r="AH7" s="77">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -2984,7 +3001,7 @@
       <c r="AK7" s="19">
         <v>100</v>
       </c>
-      <c r="AM7" s="75">
+      <c r="AM7" s="77">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -2999,22 +3016,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>84.299999999999983</v>
+        <v>72.34</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>SEP Campeoníssimo</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>65.400000000000006</v>
+        <v>54.92</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>50</v>
@@ -3024,7 +3041,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="75">
+      <c r="BD7" s="77">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -3039,7 +3056,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>Artefutt</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -3047,7 +3064,7 @@
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>$uicide $quad F.C</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
@@ -3055,7 +3072,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -3063,7 +3080,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>EC Samba Social</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -3071,7 +3088,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>Medão Fc</v>
+        <v>Zildane F.C</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -3079,54 +3096,54 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>Mont City R.B.</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>57</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>TERUEG</v>
+        <v>Los Angeles Stars FC</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>FisioT's</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>506.84033203125</v>
+        <v>575.859619140625</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="73" t="s">
+      <c r="AB8" s="81" t="s">
         <v>59</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="38" t="str">
         <f>LigaPrincipal!L7</f>
-        <v>0</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AE8" s="22">
         <f>LigaPrincipal!M7</f>
-        <v>0</v>
+        <v>83.72</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="76"/>
+      <c r="AH8" s="78"/>
       <c r="AI8" s="10" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3151,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="76"/>
+      <c r="AM8" s="78"/>
       <c r="AN8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3147,22 +3164,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>Bávaros Bier</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>83.3</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>63.8</v>
+        <v>53.92</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>58</v>
@@ -3172,7 +3189,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="76"/>
+      <c r="BD8" s="78"/>
       <c r="BE8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3185,7 +3202,7 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>O Cartola II</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
@@ -3193,7 +3210,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>RealXavier</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -3201,7 +3218,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>AVANTI AZZURRA</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -3209,7 +3226,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -3217,7 +3234,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>Real Litoral FC</v>
+        <v>Renalare</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -3225,14 +3242,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>Vocês tão Lascados</v>
+        <v>EC Samba Social</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>66</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>Mister Oliveira F.C</v>
+        <v>$ANTO$</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3246,31 +3263,31 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>Manollo F.C</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>504.719970703125</v>
+        <v>575.16015625</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="74"/>
+      <c r="AB9" s="79"/>
       <c r="AC9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="36" t="str">
         <f>LigaPrincipal!L8</f>
-        <v>0</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AE9" s="24">
         <f>LigaPrincipal!M8</f>
-        <v>0</v>
+        <v>81.02</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="74"/>
+      <c r="AH9" s="79"/>
       <c r="AI9" s="11" t="s">
         <v>40</v>
       </c>
@@ -3278,7 +3295,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="74"/>
+      <c r="AM9" s="79"/>
       <c r="AN9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3291,28 +3308,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>Breeja F.C</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>83.059999999999988</v>
+        <v>68.009999999999991</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>62.8</v>
+        <v>53.519999999999989</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="74"/>
+      <c r="BD9" s="79"/>
       <c r="BE9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3325,7 +3342,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>S. E. CURUPIRA</v>
+        <v>LiverpooI</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -3333,7 +3350,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>Reinafcr</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -3341,7 +3358,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>Igor Fontes F.C.</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -3349,7 +3366,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -3357,7 +3374,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>CLAN MORT</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -3365,7 +3382,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>HANDEVU FC</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3379,16 +3396,16 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>Cohab da madeira</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>503.419677734375</v>
+        <v>565.5400390625</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="73" t="s">
+      <c r="AB10" s="81" t="s">
         <v>75</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -3405,7 +3422,7 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AH10" s="77">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -3415,7 +3432,7 @@
       <c r="AK10" s="19">
         <v>100</v>
       </c>
-      <c r="AM10" s="75">
+      <c r="AM10" s="77">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -3430,28 +3447,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>Rei dos mares F.C</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>82.899999999999991</v>
+        <v>67.929999999999993</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>62.7</v>
+        <v>53.239999999999988</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="75">
+      <c r="BD10" s="77">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3466,7 +3483,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>CHAPELETA10</v>
+        <v>CLAN MORT</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3474,7 +3491,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3482,7 +3499,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>LamucciSPFC</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3490,7 +3507,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>SC Karate Kid</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3498,7 +3515,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>verdao29fc</v>
+        <v>showlimafc</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3506,7 +3523,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>The wailers. pro</v>
+        <v>Maste fla</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3520,16 +3537,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>503.030029296875</v>
+        <v>563.520263671875</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="74"/>
+      <c r="AB11" s="79"/>
       <c r="AC11" s="11" t="s">
         <v>27</v>
       </c>
@@ -3544,7 +3561,7 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="76"/>
+      <c r="AH11" s="78"/>
       <c r="AI11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3552,7 +3569,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="76"/>
+      <c r="AM11" s="78"/>
       <c r="AN11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3565,28 +3582,28 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>L&amp;G Cabral</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>80.800000000000011</v>
+        <v>66.92</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>60.91</v>
+        <v>52.74</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="76"/>
+      <c r="BD11" s="78"/>
       <c r="BE11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3599,7 +3616,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3607,7 +3624,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>Rei dos mares F.C</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3615,7 +3632,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3623,7 +3640,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>Brahma 07 FC</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3639,7 +3656,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>Rage Against Cloroquina</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3653,16 +3670,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>499.280029296875</v>
+        <v>556.189697265625</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="73" t="s">
+      <c r="AB12" s="81" t="s">
         <v>89</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3679,7 +3696,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="74"/>
+      <c r="AH12" s="79"/>
       <c r="AI12" s="11" t="s">
         <v>40</v>
       </c>
@@ -3687,7 +3704,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="74"/>
+      <c r="AM12" s="79"/>
       <c r="AN12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3700,28 +3717,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>$uicide $quad F.C</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>77.3</v>
+        <v>66.62</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>MEM- TRICOLOR</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>59.16</v>
+        <v>52.720000000000013</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="74"/>
+      <c r="BD12" s="79"/>
       <c r="BE12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3734,7 +3751,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>HANDEVU FC</v>
+        <v>Artefutt</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3742,7 +3759,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3750,7 +3767,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>Hepta 17 FC</v>
+        <v>FUT ART SP</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3758,7 +3775,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>El Loko China</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3766,7 +3783,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>Maleví F.D.</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3774,7 +3791,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>Xo Corona</v>
+        <v>Arloso FC</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3788,16 +3805,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>491.43994140625</v>
+        <v>556.070068359375</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="74"/>
+      <c r="AB13" s="79"/>
       <c r="AC13" s="11" t="s">
         <v>27</v>
       </c>
@@ -3812,7 +3829,7 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="75">
+      <c r="AH13" s="77">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3822,7 +3839,7 @@
       <c r="AK13" s="19">
         <v>100</v>
       </c>
-      <c r="AM13" s="75">
+      <c r="AM13" s="77">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3837,28 +3854,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>77.260000000000005</v>
+        <v>64.72</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>METAMORPHO</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>58.3</v>
+        <v>52.02</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="75">
+      <c r="BD13" s="77">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3873,7 +3890,7 @@
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>APOCALIPSE1910</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
@@ -3881,7 +3898,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>FisioT's</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3889,7 +3906,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3897,7 +3914,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>METAMORPHO</v>
+        <v>El Loko China</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3905,7 +3922,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3913,16 +3930,16 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>FUT ART SP</v>
+        <v>E.C SIEMACO SP</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="73" t="s">
+      <c r="AB14" s="81" t="s">
         <v>101</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3939,7 +3956,7 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="76"/>
+      <c r="AH14" s="78"/>
       <c r="AI14" s="10" t="s">
         <v>28</v>
       </c>
@@ -3947,7 +3964,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="76"/>
+      <c r="AM14" s="78"/>
       <c r="AN14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3960,28 +3977,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>SCFVelasco2021</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>77.009999999999991</v>
+        <v>64.639999999999986</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>São Paulo Edu Física</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>58.099999999999987</v>
+        <v>51.919999999999987</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="76"/>
+      <c r="BD14" s="78"/>
       <c r="BE14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3994,7 +4011,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>KVRA-Z/O</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -4002,7 +4019,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -4010,7 +4027,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>FisioT's</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -4018,7 +4035,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>SEP Campeoníssimo</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -4026,7 +4043,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>São Paulo Edu Física</v>
+        <v>Mont City R.B.</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -4034,7 +4051,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>alhfao</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4060,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="74"/>
+      <c r="AB15" s="79"/>
       <c r="AC15" s="11" t="s">
         <v>27</v>
       </c>
@@ -4058,7 +4075,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="74"/>
+      <c r="AH15" s="79"/>
       <c r="AI15" s="11" t="s">
         <v>40</v>
       </c>
@@ -4066,7 +4083,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="74"/>
+      <c r="AM15" s="79"/>
       <c r="AN15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4079,28 +4096,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>KVRA-Z/O</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>76.899999999999991</v>
+        <v>62.61999999999999</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>DiasBons EC</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>55.8</v>
+        <v>48.41</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="74"/>
+      <c r="BD15" s="79"/>
       <c r="BE15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4113,7 +4130,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -4121,7 +4138,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Team Portogalo FC</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -4129,7 +4146,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>Cata Cata 71</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -4137,7 +4154,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>SCCP Quarta força</v>
+        <v>alhfao</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -4145,7 +4162,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>F.C Trupingas</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -4153,7 +4170,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>LiverpooI</v>
+        <v>Igor Fontes F.C.</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4162,7 +4179,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="73" t="s">
+      <c r="AB16" s="81" t="s">
         <v>112</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -4179,7 +4196,7 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="75">
+      <c r="AH16" s="77">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -4189,7 +4206,7 @@
       <c r="AK16" s="19">
         <v>100</v>
       </c>
-      <c r="AM16" s="75">
+      <c r="AM16" s="77">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -4204,28 +4221,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>Shibo F.C.</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>75.899999999999991</v>
+        <v>62.34</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>E.C SIEMACO SP</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>54.7</v>
+        <v>46.44</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="75">
+      <c r="BD16" s="77">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -4240,7 +4257,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>Manollo F.C</v>
+        <v>Mister Oliveira F.C</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -4248,7 +4265,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>S.E. FINISH</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -4256,7 +4273,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>Fantasma Osasco fc</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -4264,7 +4281,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>Xo Corona</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -4272,7 +4289,7 @@
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>$ANTO$</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
@@ -4280,7 +4297,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>R.N.S FC</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4289,7 +4306,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="74"/>
+      <c r="AB17" s="79"/>
       <c r="AC17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4304,7 +4321,7 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="76"/>
+      <c r="AH17" s="78"/>
       <c r="AI17" s="10" t="s">
         <v>28</v>
       </c>
@@ -4312,7 +4329,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="76"/>
+      <c r="AM17" s="78"/>
       <c r="AN17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4325,28 +4342,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>S.C. Brasilandia City</v>
+        <v>Tornad000</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>74.099999999999994</v>
+        <v>61.72</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>52.41</v>
+        <v>45.84</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="76"/>
+      <c r="BD17" s="78"/>
       <c r="BE17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4376,7 @@
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>Bávaros Bier</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
@@ -4367,7 +4384,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -4375,7 +4392,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>02 de outubro</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -4383,7 +4400,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>Cohab da madeira</v>
+        <v>Reinafcr</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -4391,7 +4408,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>E.C.O 82</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -4399,7 +4416,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>DUFF F.D.</v>
+        <v>Brahma 07 FC</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4408,7 +4425,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="73" t="s">
+      <c r="AB18" s="81" t="s">
         <v>123</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -4425,7 +4442,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="74"/>
+      <c r="AH18" s="79"/>
       <c r="AI18" s="11" t="s">
         <v>40</v>
       </c>
@@ -4433,7 +4450,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="74"/>
+      <c r="AM18" s="79"/>
       <c r="AN18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4446,28 +4463,28 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>73.699999999999989</v>
+        <v>61.639999999999993</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>91</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>Brahma 07 FC</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>51.999999999999993</v>
+        <v>45.34</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="74"/>
+      <c r="BD18" s="79"/>
       <c r="BE18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4480,7 +4497,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>Shibo F.C.</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4488,7 +4505,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>showlimafc</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4496,7 +4513,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>Pagangrizo’s team</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4504,7 +4521,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>E.C SIEMACO SP</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4512,7 +4529,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>Maste fla</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4520,7 +4537,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Los Angeles Stars FC</v>
+        <v>Pagangrizo’s team</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4546,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="74"/>
+      <c r="AB19" s="79"/>
       <c r="AC19" s="11" t="s">
         <v>27</v>
       </c>
@@ -4544,7 +4561,7 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="75">
+      <c r="AH19" s="77">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4554,7 +4571,7 @@
       <c r="AK19" s="19">
         <v>100</v>
       </c>
-      <c r="AM19" s="75">
+      <c r="AM19" s="77">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4569,28 +4586,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>S.E. FINISH</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>73.199999999999989</v>
+        <v>61.36</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>LQueiroz FC</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>47.3</v>
+        <v>44.34</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="75">
+      <c r="BD19" s="77">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4605,7 +4622,7 @@
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>L&amp;G Cabral</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
@@ -4613,7 +4630,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>KAMIKA$E F.C</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4621,7 +4638,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>Rage Against Cloroquina</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4629,7 +4646,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>Esquaiella F.C</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4637,7 +4654,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>Santa fé futebol e samba</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4645,16 +4662,16 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Zildane F.C</v>
+        <v>SCFVelasco2021</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="AH20" s="76"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="AH20" s="78"/>
       <c r="AI20" s="10" t="s">
         <v>28</v>
       </c>
@@ -4662,7 +4679,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="76"/>
+      <c r="AM20" s="78"/>
       <c r="AN20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4675,28 +4692,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>72.800000000000011</v>
+        <v>61.07</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>LiverpooI</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>47</v>
+        <v>42.639999999999993</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="76"/>
+      <c r="BD20" s="78"/>
       <c r="BE20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4709,7 +4726,7 @@
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>Tornadooo F.C</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
@@ -4717,7 +4734,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>Renalare</v>
+        <v>RealXavier</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4725,7 +4742,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4733,7 +4750,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4741,7 +4758,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>DiasBons EC</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4749,7 +4766,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>Santa fé futebol e samba</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4758,7 +4775,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="74"/>
+      <c r="AH21" s="79"/>
       <c r="AI21" s="11" t="s">
         <v>40</v>
       </c>
@@ -4766,7 +4783,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="74"/>
+      <c r="AM21" s="79"/>
       <c r="AN21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4779,28 +4796,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>Tornad000</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>72.36</v>
+        <v>60.94</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>108</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>46.81</v>
+        <v>41.84</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="74"/>
+      <c r="BD21" s="79"/>
       <c r="BE21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4826,7 +4843,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="75">
+      <c r="AH22" s="77">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4836,7 +4853,7 @@
       <c r="AK22" s="19">
         <v>100</v>
       </c>
-      <c r="AM22" s="75">
+      <c r="AM22" s="77">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4851,28 +4868,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>Cata Cata 71</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>72.209999999999994</v>
+        <v>60.72</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>114</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>$ANTO$</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>46.05</v>
+        <v>41.44</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="75">
+      <c r="BD22" s="77">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4900,7 +4917,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="76"/>
+      <c r="AH23" s="78"/>
       <c r="AI23" s="10" t="s">
         <v>28</v>
       </c>
@@ -4908,7 +4925,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="76"/>
+      <c r="AM23" s="78"/>
       <c r="AN23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4921,28 +4938,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>Brasilândia MSFC</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>72.099999999999994</v>
+        <v>60.34</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>45.010000000000012</v>
+        <v>38.739999999999988</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="76"/>
+      <c r="BD23" s="78"/>
       <c r="BE23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4968,7 +4985,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="74"/>
+      <c r="AH24" s="79"/>
       <c r="AI24" s="11" t="s">
         <v>40</v>
       </c>
@@ -4976,7 +4993,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="74"/>
+      <c r="AM24" s="79"/>
       <c r="AN24" s="11" t="s">
         <v>38</v>
       </c>
@@ -4989,28 +5006,28 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>71.11</v>
+        <v>60.34</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AV24" s="32" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>DUFF F.D.</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AW24" s="23">
         <f>LigaEliminatória!C48</f>
-        <v>42.70000000000001</v>
+        <v>34.74</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="74"/>
+      <c r="BD24" s="79"/>
       <c r="BE24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5036,22 +5053,22 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>KAMIKA$E F.C</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>71.099999999999994</v>
+        <v>59.42</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AV25" s="32" t="str">
+      <c r="AV25" s="59" t="str">
         <f>LigaEliminatória!B49</f>
-        <v>Palestra 1000 Grau fc</v>
-      </c>
-      <c r="AW25" s="23">
+        <v>$ANTO$</v>
+      </c>
+      <c r="AW25" s="60">
         <f>LigaEliminatória!C49</f>
-        <v>39.159999999999997</v>
+        <v>10.54</v>
       </c>
       <c r="AY25" s="39"/>
       <c r="AZ25" s="39"/>
@@ -5075,11 +5092,11 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>Igor Fontes F.C.</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>70.900000000000006</v>
+        <v>59.24</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>134</v>
@@ -5114,11 +5131,11 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>Reinafcr</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>68.899999999999991</v>
+        <v>59.02</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>34</v>
@@ -5157,7 +5174,7 @@
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>66.809999999999988</v>
+        <v>58.24</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>46</v>
@@ -5308,39 +5325,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -5357,9 +5341,43 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5367,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,8 +5399,8 @@
     <col min="6" max="6" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="66" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
-    <col min="10" max="22" width="9.140625" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="66"/>
+    <col min="10" max="23" width="9.140625" style="66" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5437,7 +5455,7 @@
         <v>143</v>
       </c>
       <c r="C3" s="20">
-        <v>546.709716796875</v>
+        <v>607.329833984375</v>
       </c>
       <c r="E3" s="66">
         <v>1</v>
@@ -5446,7 +5464,7 @@
         <v>143</v>
       </c>
       <c r="G3" s="21">
-        <v>546.709716796875</v>
+        <v>607.329833984375</v>
       </c>
       <c r="J3" s="84" t="s">
         <v>22</v>
@@ -5469,7 +5487,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="20">
-        <v>516.44970703125</v>
+        <v>589.359375</v>
       </c>
       <c r="E4" s="66">
         <v>2</v>
@@ -5478,7 +5496,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="21">
-        <v>516.44970703125</v>
+        <v>589.359375</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="66">
@@ -5499,7 +5517,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="20">
-        <v>516.349609375</v>
+        <v>576.789794921875</v>
       </c>
       <c r="E5" s="66">
         <v>3</v>
@@ -5508,7 +5526,7 @@
         <v>147</v>
       </c>
       <c r="G5" s="21">
-        <v>516.349609375</v>
+        <v>576.789794921875</v>
       </c>
       <c r="J5" s="84" t="s">
         <v>39</v>
@@ -5531,7 +5549,7 @@
         <v>149</v>
       </c>
       <c r="C6" s="20">
-        <v>512.369873046875</v>
+        <v>576.060546875</v>
       </c>
       <c r="J6" s="84"/>
       <c r="K6" s="66">
@@ -5552,7 +5570,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="20">
-        <v>506.84033203125</v>
+        <v>575.859619140625</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>1</v>
@@ -5565,6 +5583,12 @@
       <c r="K7" s="66">
         <v>1</v>
       </c>
+      <c r="L7" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="66">
+        <v>83.72</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="66">
@@ -5574,7 +5598,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="20">
-        <v>504.719970703125</v>
+        <v>575.16015625</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>140</v>
@@ -5586,6 +5610,12 @@
       <c r="K8" s="66">
         <v>2</v>
       </c>
+      <c r="L8" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="66">
+        <v>81.02</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
@@ -5595,7 +5625,7 @@
         <v>153</v>
       </c>
       <c r="C9" s="20">
-        <v>503.419677734375</v>
+        <v>565.5400390625</v>
       </c>
       <c r="E9" s="66">
         <v>1</v>
@@ -5615,7 +5645,7 @@
         <v>154</v>
       </c>
       <c r="C10" s="20">
-        <v>503.030029296875</v>
+        <v>563.520263671875</v>
       </c>
       <c r="E10" s="66">
         <v>2</v>
@@ -5633,7 +5663,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="20">
-        <v>499.280029296875</v>
+        <v>556.189697265625</v>
       </c>
       <c r="E11" s="66">
         <v>3</v>
@@ -5653,7 +5683,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="20">
-        <v>491.43994140625</v>
+        <v>556.070068359375</v>
       </c>
       <c r="J12" s="84"/>
       <c r="K12" s="66">
@@ -5690,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="21">
-        <v>154.16</v>
+        <v>159.13</v>
       </c>
       <c r="J15" s="84" t="s">
         <v>112</v>
@@ -5710,7 +5740,7 @@
         <v>158</v>
       </c>
       <c r="G16" s="21">
-        <v>153.43</v>
+        <v>156.13999999999999</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="66">
@@ -5722,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" s="21">
-        <v>146.36000000000001</v>
+        <v>150.59</v>
       </c>
       <c r="J17" s="84" t="s">
         <v>123</v>
@@ -5778,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="21">
         <v>107.5</v>
@@ -5792,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="21">
         <v>107.39990234375</v>
@@ -5803,11 +5833,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5817,6 +5842,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5838,8 +5868,8 @@
     <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" style="66" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="66"/>
+    <col min="4" max="15" width="9.140625" style="66" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="21">
-        <v>91.3</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5896,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C4" s="21">
-        <v>91.2</v>
+        <v>76.02</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5907,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="21">
-        <v>85.6</v>
+        <v>73.019999999999982</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +5918,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C6" s="21">
-        <v>84.299999999999983</v>
+        <v>72.34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +5929,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C7" s="21">
-        <v>83.3</v>
+        <v>68.010000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +5940,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="21">
-        <v>83.059999999999988</v>
+        <v>68.009999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5951,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="21">
-        <v>82.899999999999991</v>
+        <v>67.929999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,10 +5962,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C10" s="21">
-        <v>80.800000000000011</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,10 +5973,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C11" s="21">
-        <v>77.3</v>
+        <v>66.62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5954,10 +5984,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C12" s="21">
-        <v>77.260000000000005</v>
+        <v>64.72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5965,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C13" s="21">
-        <v>77.009999999999991</v>
+        <v>64.639999999999986</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,10 +6006,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C14" s="21">
-        <v>76.899999999999991</v>
+        <v>62.61999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,10 +6017,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="21">
-        <v>75.899999999999991</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +6028,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="21">
-        <v>74.099999999999994</v>
+        <v>61.72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6009,10 +6039,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C17" s="21">
-        <v>73.699999999999989</v>
+        <v>61.639999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,10 +6050,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="C18" s="21">
-        <v>73.199999999999989</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,10 +6061,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="21">
-        <v>72.800000000000011</v>
+        <v>61.07</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,10 +6072,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="21">
-        <v>72.36</v>
+        <v>60.94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6053,10 +6083,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C21" s="21">
-        <v>72.209999999999994</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6064,10 +6094,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C22" s="21">
-        <v>72.099999999999994</v>
+        <v>60.34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6075,10 +6105,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" s="21">
-        <v>71.11</v>
+        <v>60.34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6086,10 +6116,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C24" s="21">
-        <v>71.099999999999994</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6097,10 +6127,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C25" s="21">
-        <v>70.900000000000006</v>
+        <v>59.24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6108,10 +6138,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="C26" s="21">
-        <v>68.899999999999991</v>
+        <v>59.02</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,10 +6149,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="21">
-        <v>66.809999999999988</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6130,10 +6160,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C28" s="21">
-        <v>66.75</v>
+        <v>57.47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6141,10 +6171,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C29" s="21">
-        <v>66.06</v>
+        <v>56.539999999999992</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6152,10 +6182,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" s="21">
-        <v>65.900000000000006</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6163,10 +6193,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C31" s="21">
-        <v>65.400000000000006</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6174,10 +6204,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C32" s="21">
-        <v>63.8</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,10 +6215,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="21">
-        <v>62.8</v>
+        <v>53.519999999999989</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,10 +6226,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C34" s="21">
-        <v>62.7</v>
+        <v>53.239999999999988</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6207,10 +6237,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="C35" s="21">
-        <v>60.91</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6218,10 +6248,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="C36" s="21">
-        <v>59.16</v>
+        <v>52.720000000000013</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6229,10 +6259,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C37" s="21">
-        <v>58.3</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6240,10 +6270,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C38" s="21">
-        <v>58.099999999999987</v>
+        <v>51.919999999999987</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6251,10 +6281,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C39" s="21">
-        <v>55.8</v>
+        <v>48.41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6262,10 +6292,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C40" s="21">
-        <v>54.7</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6273,10 +6303,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C41" s="21">
-        <v>52.41</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,10 +6314,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C42" s="21">
-        <v>51.999999999999993</v>
+        <v>45.34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6295,10 +6325,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C43" s="21">
-        <v>47.3</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6306,10 +6336,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C44" s="21">
-        <v>47</v>
+        <v>42.639999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,10 +6347,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C45" s="21">
-        <v>46.81</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6328,10 +6358,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C46" s="21">
-        <v>46.05</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6339,10 +6369,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C47" s="21">
-        <v>45.010000000000012</v>
+        <v>38.739999999999988</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,10 +6380,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C48" s="21">
-        <v>42.70000000000001</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6361,10 +6391,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C49" s="21">
-        <v>39.159999999999997</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6372,7 +6402,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" s="21">
         <v>30.75</v>
@@ -6394,7 +6424,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C52" s="21">
         <v>32.82</v>
@@ -6415,42 +6445,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -6460,442 +6490,442 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -6905,12 +6935,12 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6920,10 +6950,252 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13200</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1">
+        <v>25759796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4510701</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5">
+        <v>28375476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>339114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14033643</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13">
+        <v>14901500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>574153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17">
+        <v>3355621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>874216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21">
+        <v>302929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>409114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25">
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28694260</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29">
+        <v>8775722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B15DA7-DD7A-4BBD-913B-CC2C6929A759}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,16 +7205,16 @@
         <v>29070042</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F1">
-        <v>55.599999999999987</v>
+        <v>41.12</v>
       </c>
       <c r="H1">
-        <v>60.099999999999987</v>
+        <v>66.139999999999986</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="M1">
         <v>25759796</v>
@@ -6961,16 +7233,16 @@
         <v>948932</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>42.87</v>
+        <v>48.47</v>
       </c>
       <c r="H5">
-        <v>48.459999999999987</v>
+        <v>55.34</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M5">
         <v>13200</v>
@@ -6989,16 +7261,16 @@
         <v>4510701</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>53.52</v>
       </c>
       <c r="H9">
-        <v>46.05</v>
+        <v>10.54</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M9">
         <v>25381411</v>
@@ -7020,13 +7292,13 @@
         <v>158</v>
       </c>
       <c r="F13">
-        <v>51.91</v>
+        <v>57.610000000000007</v>
       </c>
       <c r="H13">
-        <v>45.56</v>
+        <v>46.919999999999987</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M13">
         <v>5069390</v>
@@ -7045,16 +7317,16 @@
         <v>22580</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>73.02</v>
       </c>
       <c r="H17">
-        <v>52.859999999999992</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="M17">
         <v>28889476</v>
@@ -7073,16 +7345,16 @@
         <v>123627</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F21">
-        <v>58.1</v>
+        <v>45.34</v>
       </c>
       <c r="H21">
-        <v>42.70000000000001</v>
+        <v>57.470000000000013</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M21">
         <v>339114</v>
@@ -7104,10 +7376,10 @@
         <v>30</v>
       </c>
       <c r="F25">
-        <v>55.8</v>
+        <v>52.739999999999988</v>
       </c>
       <c r="H25">
-        <v>57.910000000000011</v>
+        <v>52.720000000000013</v>
       </c>
       <c r="I25" t="s">
         <v>144</v>
@@ -7129,16 +7401,16 @@
         <v>1678382</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F29">
-        <v>60.599999999999987</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="H29">
-        <v>55.399999999999991</v>
+        <v>68.64</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M29">
         <v>14901500</v>
@@ -7157,16 +7429,16 @@
         <v>201412</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F33">
-        <v>34</v>
+        <v>34.24</v>
       </c>
       <c r="H33">
-        <v>60.76</v>
+        <v>72.52</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M33">
         <v>574153</v>
@@ -7185,16 +7457,16 @@
         <v>3355621</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F37">
-        <v>48.310000000000009</v>
+        <v>64.37</v>
       </c>
       <c r="H37">
-        <v>39.159999999999997</v>
+        <v>51.92</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M37">
         <v>22924436</v>
@@ -7213,16 +7485,16 @@
         <v>13994692</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F41">
-        <v>43.81</v>
+        <v>53.539999999999992</v>
       </c>
       <c r="H41">
-        <v>61.7</v>
+        <v>66.02</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="M41">
         <v>874216</v>
@@ -7241,16 +7513,16 @@
         <v>302929</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F45">
-        <v>45.01</v>
+        <v>64.72</v>
       </c>
       <c r="H45">
-        <v>52.41</v>
+        <v>55.12</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M45">
         <v>215331</v>
@@ -7269,16 +7541,16 @@
         <v>409114</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F49">
-        <v>58.060000000000009</v>
+        <v>62.819999999999993</v>
       </c>
       <c r="H49">
-        <v>43.499999999999993</v>
+        <v>62.32</v>
       </c>
       <c r="I49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M49">
         <v>3953761</v>
@@ -7297,16 +7569,16 @@
         <v>897722</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F53">
-        <v>56.610000000000007</v>
+        <v>49.34</v>
       </c>
       <c r="H53">
-        <v>44.010000000000012</v>
+        <v>57.69</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M53">
         <v>5545590</v>
@@ -7325,16 +7597,16 @@
         <v>28694260</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="F57">
-        <v>51.2</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="H57">
-        <v>39.21</v>
+        <v>54.419999999999987</v>
       </c>
       <c r="I57" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="M57">
         <v>1179844</v>
@@ -7356,476 +7628,13 @@
         <v>193</v>
       </c>
       <c r="F61">
-        <v>46.81</v>
+        <v>44.34</v>
       </c>
       <c r="H61">
-        <v>50.150000000000013</v>
+        <v>43.419999999999987</v>
       </c>
       <c r="I61" t="s">
-        <v>235</v>
-      </c>
-      <c r="M61">
-        <v>2561719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5BA6B-7CF4-4A4F-9A31-F81950990D25}">
-  <dimension ref="A1:M63"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>29070042</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1">
-        <v>55.599999999999987</v>
-      </c>
-      <c r="H1">
-        <v>60.099999999999987</v>
-      </c>
-      <c r="I1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M1">
-        <v>25759796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>948932</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5">
-        <v>42.87</v>
-      </c>
-      <c r="H5">
-        <v>48.459999999999987</v>
-      </c>
-      <c r="I5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4510701</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>46.05</v>
-      </c>
-      <c r="I9" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9">
-        <v>25381411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28375476</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13">
-        <v>51.91</v>
-      </c>
-      <c r="H13">
-        <v>45.56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13">
-        <v>5069390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="I15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>22580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17">
-        <v>47</v>
-      </c>
-      <c r="H17">
-        <v>52.859999999999992</v>
-      </c>
-      <c r="I17" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17">
-        <v>28889476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>255</v>
-      </c>
-      <c r="I19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>123627</v>
-      </c>
-      <c r="B21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21">
-        <v>58.1</v>
-      </c>
-      <c r="H21">
-        <v>42.70000000000001</v>
-      </c>
-      <c r="I21" t="s">
-        <v>196</v>
-      </c>
-      <c r="M21">
-        <v>339114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14033643</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>55.8</v>
-      </c>
-      <c r="H25">
-        <v>57.910000000000011</v>
-      </c>
-      <c r="I25" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25">
-        <v>2249933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1678382</v>
-      </c>
-      <c r="B29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29">
-        <v>60.599999999999987</v>
-      </c>
-      <c r="H29">
-        <v>55.399999999999991</v>
-      </c>
-      <c r="I29" t="s">
-        <v>234</v>
-      </c>
-      <c r="M29">
-        <v>14901500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>261</v>
-      </c>
-      <c r="I31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>201412</v>
-      </c>
-      <c r="B33" t="s">
         <v>242</v>
-      </c>
-      <c r="F33">
-        <v>34</v>
-      </c>
-      <c r="H33">
-        <v>60.76</v>
-      </c>
-      <c r="I33" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33">
-        <v>574153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3355621</v>
-      </c>
-      <c r="B37" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37">
-        <v>48.310000000000009</v>
-      </c>
-      <c r="H37">
-        <v>39.159999999999997</v>
-      </c>
-      <c r="I37" t="s">
-        <v>197</v>
-      </c>
-      <c r="M37">
-        <v>22924436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>265</v>
-      </c>
-      <c r="I39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>13994692</v>
-      </c>
-      <c r="B41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41">
-        <v>43.81</v>
-      </c>
-      <c r="H41">
-        <v>61.7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>225</v>
-      </c>
-      <c r="M41">
-        <v>874216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>267</v>
-      </c>
-      <c r="I43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>302929</v>
-      </c>
-      <c r="B45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45">
-        <v>45.01</v>
-      </c>
-      <c r="H45">
-        <v>52.41</v>
-      </c>
-      <c r="I45" t="s">
-        <v>189</v>
-      </c>
-      <c r="M45">
-        <v>215331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>269</v>
-      </c>
-      <c r="I47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>409114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49">
-        <v>58.060000000000009</v>
-      </c>
-      <c r="H49">
-        <v>43.499999999999993</v>
-      </c>
-      <c r="I49" t="s">
-        <v>199</v>
-      </c>
-      <c r="M49">
-        <v>3953761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>271</v>
-      </c>
-      <c r="I51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>897722</v>
-      </c>
-      <c r="B53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53">
-        <v>56.610000000000007</v>
-      </c>
-      <c r="H53">
-        <v>44.010000000000012</v>
-      </c>
-      <c r="I53" t="s">
-        <v>240</v>
-      </c>
-      <c r="M53">
-        <v>5545590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>273</v>
-      </c>
-      <c r="I55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>28694260</v>
-      </c>
-      <c r="B57" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57">
-        <v>51.2</v>
-      </c>
-      <c r="H57">
-        <v>39.21</v>
-      </c>
-      <c r="I57" t="s">
-        <v>243</v>
-      </c>
-      <c r="M57">
-        <v>1179844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>8775722</v>
-      </c>
-      <c r="B61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61">
-        <v>46.81</v>
-      </c>
-      <c r="H61">
-        <v>50.150000000000013</v>
-      </c>
-      <c r="I61" t="s">
-        <v>235</v>
       </c>
       <c r="M61">
         <v>2561719</v>
@@ -7845,1130 +7654,1356 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="B17" sqref="B17:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="68" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="67" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="67" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="62" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="68" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="68" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="68" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="68" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="67" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="67" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="62" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="67" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" style="62" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" style="68" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="68"/>
+    <col min="23" max="26" width="9.140625" style="67" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="67" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="67" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85">
         <f>MataMataC02!A1</f>
-        <v>29070042</v>
-      </c>
-      <c r="B1" s="87" t="str">
+        <v>13200</v>
+      </c>
+      <c r="B1" s="89" t="str">
         <f>MataMataC02!B1</f>
-        <v>RICKNATOR SQUAD</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="93">
-        <v>0</v>
-      </c>
-      <c r="G1" s="96" t="s">
+        <v>OlympIgor de Marseille</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92">
+        <f>MataMataC02!F1</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="97">
-        <v>0</v>
-      </c>
-      <c r="I1" s="100" t="str">
+      <c r="H1" s="94">
+        <f>MataMataC02!H1</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="95" t="str">
         <f>MataMataC02!I1</f>
         <v>Medão Fc</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="101"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="96"/>
       <c r="M1" s="85">
         <f>MataMataC02!M1</f>
         <v>25759796</v>
       </c>
       <c r="O1" s="85">
         <f>MataMataC02!A33</f>
-        <v>201412</v>
-      </c>
-      <c r="P1" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P1" s="89">
         <f>MataMataC02!B33</f>
-        <v>Los Angeles Stars FC</v>
-      </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="93">
-        <v>0</v>
-      </c>
-      <c r="U1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92">
+        <f>MataMataC02!F33</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V1" s="97">
-        <v>0</v>
-      </c>
-      <c r="W1" s="100" t="str">
+      <c r="V1" s="94">
+        <f>MataMataC02!H33</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="95">
         <f>MataMataC02!I33</f>
-        <v>CLAN MORT</v>
-      </c>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="96"/>
       <c r="AA1" s="85">
         <f>MataMataC02!M33</f>
-        <v>574153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="87"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="str">
+      <c r="B3" s="104" t="str">
         <f>MataMataC02!B3</f>
-        <v>RICARDO ALVES</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="105" t="str">
+        <v>ZinedIgor Zidane</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="str">
         <f>MataMataC02!I3</f>
         <v xml:space="preserve">Wellington </v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="106"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="103" t="str">
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="109"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="104">
         <f>MataMataC02!B35</f>
-        <v>Gustavo Colares</v>
-      </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="108">
         <f>MataMataC02!I35</f>
-        <v>Julius Azevedo</v>
-      </c>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="109"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O4" s="67"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85">
         <f>MataMataC02!A5</f>
-        <v>948932</v>
-      </c>
-      <c r="B5" s="87" t="str">
+        <v>4510701</v>
+      </c>
+      <c r="B5" s="89" t="str">
         <f>MataMataC02!B5</f>
-        <v>Mont City R.B.</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="93">
-        <v>0</v>
-      </c>
-      <c r="G5" s="96" t="s">
+        <v>Xo Corona</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92">
+        <f>MataMataC02!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="97">
-        <v>0</v>
-      </c>
-      <c r="I5" s="100" t="str">
+      <c r="H5" s="94">
+        <f>MataMataC02!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="95" t="str">
         <f>MataMataC02!I5</f>
-        <v>Vocês tão Lascados</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="101"/>
+        <v>The wailers. pro</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="85">
         <f>MataMataC02!M5</f>
-        <v>13200</v>
+        <v>28375476</v>
       </c>
       <c r="O5" s="85">
         <f>MataMataC02!A37</f>
-        <v>3355621</v>
-      </c>
-      <c r="P5" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="89">
         <f>MataMataC02!B37</f>
-        <v>Maleví F.D.</v>
-      </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="93">
-        <v>0</v>
-      </c>
-      <c r="U5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="92">
+        <f>MataMataC02!F37</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V5" s="97">
-        <v>0</v>
-      </c>
-      <c r="W5" s="100" t="str">
+      <c r="V5" s="94">
+        <f>MataMataC02!H37</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="95">
         <f>MataMataC02!I37</f>
-        <v>Palestra 1000 Grau fc</v>
-      </c>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="96"/>
       <c r="AA5" s="85">
         <f>MataMataC02!M37</f>
-        <v>22924436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="86"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="87"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="103" t="str">
+      <c r="B7" s="104" t="str">
         <f>MataMataC02!B7</f>
-        <v xml:space="preserve">Bruno S. Vieira </v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="105" t="str">
+        <v>Aramaki</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108" t="str">
         <f>MataMataC02!I7</f>
-        <v>Igor do Vigor</v>
-      </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="106"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="103" t="str">
+        <v>thiago leal de assis</v>
+      </c>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="109"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="104">
         <f>MataMataC02!B39</f>
-        <v>Jefferson Pinheiro</v>
-      </c>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="108">
         <f>MataMataC02!I39</f>
-        <v>Thomaz</v>
-      </c>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O8" s="67"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85">
         <f>MataMataC02!A9</f>
-        <v>4510701</v>
-      </c>
-      <c r="B9" s="87" t="str">
+        <v>22580</v>
+      </c>
+      <c r="B9" s="89" t="str">
         <f>MataMataC02!B9</f>
-        <v>Xo Corona</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="93">
-        <v>0</v>
-      </c>
-      <c r="G9" s="96" t="s">
+        <v>LiverpooI</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92">
+        <f>MataMataC02!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="97">
-        <v>0</v>
-      </c>
-      <c r="I9" s="100" t="str">
+      <c r="H9" s="94">
+        <f>MataMataC02!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="95" t="str">
         <f>MataMataC02!I9</f>
-        <v>$ANTO$</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="101"/>
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="85">
         <f>MataMataC02!M9</f>
-        <v>25381411</v>
+        <v>339114</v>
       </c>
       <c r="O9" s="85">
         <f>MataMataC02!A41</f>
-        <v>13994692</v>
-      </c>
-      <c r="P9" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="89">
         <f>MataMataC02!B41</f>
-        <v>alhfao</v>
-      </c>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="93">
-        <v>0</v>
-      </c>
-      <c r="U9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="92">
+        <f>MataMataC02!F41</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V9" s="97">
-        <v>0</v>
-      </c>
-      <c r="W9" s="100" t="str">
+      <c r="V9" s="94">
+        <f>MataMataC02!H41</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="95">
         <f>MataMataC02!I41</f>
-        <v>Real Litoral FC</v>
-      </c>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="96"/>
       <c r="AA9" s="85">
         <f>MataMataC02!M41</f>
-        <v>874216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="86"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="87"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="104" t="str">
         <f>MataMataC02!B11</f>
-        <v>Aramaki</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="105" t="str">
+        <v>Braine Jr.</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108" t="str">
         <f>MataMataC02!I11</f>
-        <v>Márcio Fontes</v>
-      </c>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="106"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="103" t="str">
+        <v>Jé de Oliveira</v>
+      </c>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="109"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="104">
         <f>MataMataC02!B43</f>
-        <v>alf</v>
-      </c>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="108">
         <f>MataMataC02!I43</f>
-        <v xml:space="preserve">Marcelo Henrique </v>
-      </c>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O12" s="67"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85">
         <f>MataMataC02!A13</f>
-        <v>28375476</v>
-      </c>
-      <c r="B13" s="87" t="str">
+        <v>14033643</v>
+      </c>
+      <c r="B13" s="89" t="str">
         <f>MataMataC02!B13</f>
-        <v>The wailers. pro</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="93">
-        <v>0</v>
-      </c>
-      <c r="G13" s="96" t="s">
+        <v>DiasBons EC</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92">
+        <f>MataMataC02!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="97">
-        <v>0</v>
-      </c>
-      <c r="I13" s="100" t="str">
+      <c r="H13" s="94">
+        <f>MataMataC02!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="95" t="str">
         <f>MataMataC02!I13</f>
-        <v>Maste fla</v>
-      </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="101"/>
+        <v>45 do 2!</v>
+      </c>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="85">
         <f>MataMataC02!M13</f>
-        <v>5069390</v>
+        <v>14901500</v>
       </c>
       <c r="O13" s="85">
         <f>MataMataC02!A45</f>
-        <v>302929</v>
-      </c>
-      <c r="P13" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="89">
         <f>MataMataC02!B45</f>
-        <v>CLECIO1976 F.C</v>
-      </c>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="93">
-        <v>0</v>
-      </c>
-      <c r="U13" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="92">
+        <f>MataMataC02!F45</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V13" s="97">
-        <v>0</v>
-      </c>
-      <c r="W13" s="100" t="str">
+      <c r="V13" s="94">
+        <f>MataMataC02!H45</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="95">
         <f>MataMataC02!I45</f>
-        <v>Renato 007 Exp 2021</v>
-      </c>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="96"/>
       <c r="AA13" s="85">
         <f>MataMataC02!M45</f>
-        <v>215331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="86"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="87"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103" t="str">
+      <c r="B15" s="104" t="str">
         <f>MataMataC02!B15</f>
-        <v>thiago leal de assis</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="105" t="str">
+        <v>Nilson Dias</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108" t="str">
         <f>MataMataC02!I15</f>
-        <v>vinicius silva</v>
-      </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="106"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="103" t="str">
+        <v>Cleber A</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="109"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="104">
         <f>MataMataC02!B47</f>
-        <v>Clecio</v>
-      </c>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="108">
         <f>MataMataC02!I47</f>
-        <v>Renato</v>
-      </c>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="109"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O16" s="67"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85">
         <f>MataMataC02!A17</f>
-        <v>22580</v>
-      </c>
-      <c r="B17" s="87" t="str">
+        <v>574153</v>
+      </c>
+      <c r="B17" s="89" t="str">
         <f>MataMataC02!B17</f>
-        <v>LiverpooI</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="93">
-        <v>0</v>
-      </c>
-      <c r="G17" s="96" t="s">
+        <v>CLAN MORT</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="92">
+        <f>MataMataC02!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="97">
-        <v>0</v>
-      </c>
-      <c r="I17" s="100" t="str">
+      <c r="H17" s="94">
+        <f>MataMataC02!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="95" t="str">
         <f>MataMataC02!I17</f>
-        <v>Santa fé futebol e samba</v>
-      </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="101"/>
+        <v>Maleví F.D.</v>
+      </c>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="85">
         <f>MataMataC02!M17</f>
-        <v>28889476</v>
+        <v>3355621</v>
       </c>
       <c r="O17" s="85">
         <f>MataMataC02!A49</f>
-        <v>409114</v>
-      </c>
-      <c r="P17" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="89">
         <f>MataMataC02!B49</f>
-        <v>F.C Trupingas</v>
-      </c>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="93">
-        <v>0</v>
-      </c>
-      <c r="U17" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="92">
+        <f>MataMataC02!F49</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V17" s="97">
-        <v>0</v>
-      </c>
-      <c r="W17" s="100" t="str">
+      <c r="V17" s="94">
+        <f>MataMataC02!H49</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="95">
         <f>MataMataC02!I49</f>
-        <v>R.N.S FC</v>
-      </c>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="96"/>
       <c r="AA17" s="85">
         <f>MataMataC02!M49</f>
-        <v>3953761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="86"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="87"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="103" t="str">
+      <c r="B19" s="104" t="str">
         <f>MataMataC02!B19</f>
-        <v>Braine Jr.</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="105" t="str">
+        <v>Julius Azevedo</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108" t="str">
         <f>MataMataC02!I19</f>
-        <v xml:space="preserve">Patrick Silva </v>
-      </c>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="106"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="103" t="str">
+        <v>Jefferson Pinheiro</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="109"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="104">
         <f>MataMataC02!B51</f>
-        <v>Tiago Lima</v>
-      </c>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="108">
         <f>MataMataC02!I51</f>
-        <v>Roberto</v>
-      </c>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="109"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O20" s="67"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85">
         <f>MataMataC02!A21</f>
-        <v>123627</v>
-      </c>
-      <c r="B21" s="87" t="str">
+        <v>874216</v>
+      </c>
+      <c r="B21" s="89" t="str">
         <f>MataMataC02!B21</f>
-        <v>São Paulo Edu Física</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="93">
-        <v>0</v>
-      </c>
-      <c r="G21" s="96" t="s">
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92">
+        <f>MataMataC02!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="97">
-        <v>0</v>
-      </c>
-      <c r="I21" s="100" t="str">
+      <c r="H21" s="94">
+        <f>MataMataC02!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="95" t="str">
         <f>MataMataC02!I21</f>
-        <v>DUFF F.D.</v>
-      </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="101"/>
+        <v>CLECIO1976 F.C</v>
+      </c>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="85">
         <f>MataMataC02!M21</f>
-        <v>339114</v>
+        <v>302929</v>
       </c>
       <c r="O21" s="85">
         <f>MataMataC02!A53</f>
-        <v>897722</v>
-      </c>
-      <c r="P21" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21" s="89">
         <f>MataMataC02!B53</f>
-        <v>REF$CAMPEÃO$</v>
-      </c>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="93">
-        <v>0</v>
-      </c>
-      <c r="U21" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="92">
+        <f>MataMataC02!F53</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V21" s="97">
-        <v>0</v>
-      </c>
-      <c r="W21" s="100" t="str">
+      <c r="V21" s="94">
+        <f>MataMataC02!H53</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="95">
         <f>MataMataC02!I53</f>
-        <v>FUT ART SP</v>
-      </c>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="96"/>
       <c r="AA21" s="85">
         <f>MataMataC02!M53</f>
-        <v>5545590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="86"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="87"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="103" t="str">
+      <c r="B23" s="104" t="str">
         <f>MataMataC02!B23</f>
-        <v>Daniel Aquino</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="105" t="str">
+        <v xml:space="preserve">Marcelo Henrique </v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108" t="str">
         <f>MataMataC02!I23</f>
-        <v>Jé de Oliveira</v>
-      </c>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="106"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="103" t="str">
+        <v>Clecio</v>
+      </c>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="109"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="104">
         <f>MataMataC02!B55</f>
-        <v>KAUE</v>
-      </c>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="108">
         <f>MataMataC02!I55</f>
-        <v>Fabio Massini</v>
-      </c>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O24" s="67"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85">
         <f>MataMataC02!A25</f>
-        <v>14033643</v>
-      </c>
-      <c r="B25" s="87" t="str">
+        <v>409114</v>
+      </c>
+      <c r="B25" s="89" t="str">
         <f>MataMataC02!B25</f>
-        <v>DiasBons EC</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="93">
-        <v>0</v>
-      </c>
-      <c r="G25" s="96" t="s">
+        <v>F.C Trupingas</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92">
+        <f>MataMataC02!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H25" s="97">
-        <v>0</v>
-      </c>
-      <c r="I25" s="100" t="str">
+      <c r="H25" s="94">
+        <f>MataMataC02!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="95" t="str">
         <f>MataMataC02!I25</f>
-        <v>E.C.O 82</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="101"/>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="96"/>
       <c r="M25" s="85">
         <f>MataMataC02!M25</f>
-        <v>2249933</v>
+        <v>5545590</v>
       </c>
       <c r="O25" s="85">
         <f>MataMataC02!A57</f>
-        <v>28694260</v>
-      </c>
-      <c r="P25" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P25" s="89">
         <f>MataMataC02!B57</f>
-        <v>The wailers F.c Brasilanjah</v>
-      </c>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="93">
-        <v>0</v>
-      </c>
-      <c r="U25" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92">
+        <f>MataMataC02!F57</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V25" s="97">
-        <v>0</v>
-      </c>
-      <c r="W25" s="100" t="str">
+      <c r="V25" s="94">
+        <f>MataMataC02!H57</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="95">
         <f>MataMataC02!I57</f>
-        <v>Zildane F.C</v>
-      </c>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="96"/>
       <c r="AA25" s="85">
         <f>MataMataC02!M57</f>
-        <v>1179844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="86"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="87"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="103" t="str">
+      <c r="B27" s="104" t="str">
         <f>MataMataC02!B27</f>
-        <v>Nilson Dias</v>
-      </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="105" t="str">
+        <v>Tiago Lima</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108" t="str">
         <f>MataMataC02!I27</f>
-        <v>oseias teixeira</v>
-      </c>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="106"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="103" t="str">
+        <v>Fabio Massini</v>
+      </c>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="109"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="104">
         <f>MataMataC02!B59</f>
-        <v>T.w</v>
-      </c>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="108">
         <f>MataMataC02!I59</f>
-        <v>Franklin</v>
-      </c>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="109"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O28" s="67"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85">
         <f>MataMataC02!A29</f>
-        <v>1678382</v>
-      </c>
-      <c r="B29" s="87" t="str">
+        <v>28694260</v>
+      </c>
+      <c r="B29" s="89" t="str">
         <f>MataMataC02!B29</f>
-        <v>verdao29fc</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="93">
-        <v>0</v>
-      </c>
-      <c r="G29" s="96" t="s">
+        <v>The wailers F.c Brasilanjah</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92">
+        <f>MataMataC02!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H29" s="97">
-        <v>0</v>
-      </c>
-      <c r="I29" s="100" t="str">
+      <c r="H29" s="94">
+        <f>MataMataC02!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="95" t="str">
         <f>MataMataC02!I29</f>
-        <v>45 do 2!</v>
-      </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="101"/>
+        <v>Verdão 1000 grau FC</v>
+      </c>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="96"/>
       <c r="M29" s="85">
         <f>MataMataC02!M29</f>
-        <v>14901500</v>
+        <v>8775722</v>
       </c>
       <c r="O29" s="85">
         <f>MataMataC02!A61</f>
-        <v>8775722</v>
-      </c>
-      <c r="P29" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29" s="89">
         <f>MataMataC02!B61</f>
-        <v>Verdão 1000 grau FC</v>
-      </c>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="93">
-        <v>0</v>
-      </c>
-      <c r="U29" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="92">
+        <f>MataMataC02!F61</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="V29" s="97">
-        <v>0</v>
-      </c>
-      <c r="W29" s="100" t="str">
+      <c r="V29" s="94">
+        <f>MataMataC02!H61</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="95">
         <f>MataMataC02!I61</f>
-        <v>Arloso FC</v>
-      </c>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="96"/>
       <c r="AA29" s="85">
         <f>MataMataC02!M61</f>
-        <v>2561719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="86"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="87"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="103" t="str">
+      <c r="B31" s="104" t="str">
         <f>MataMataC02!B31</f>
-        <v>iago F</v>
-      </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="105" t="str">
+        <v>T.w</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108" t="str">
         <f>MataMataC02!I31</f>
-        <v>Cleber A</v>
-      </c>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="106"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="103" t="str">
+        <v>Thomaz</v>
+      </c>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="109"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="104">
         <f>MataMataC02!B63</f>
-        <v>Thomaz</v>
-      </c>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="105" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="108">
         <f>MataMataC02!I63</f>
-        <v>Arley</v>
-      </c>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="109"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:L22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:E30"/>
@@ -8993,89 +9028,49 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:S2"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:Z2"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:S14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:S30"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <picture r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339575E-972A-4E13-99EB-BD9B7C4DB4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A860E71-A353-4473-B643-8A49C2FC1174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,7 @@
     <sheet name="LigaEliminatória" sheetId="3" r:id="rId3"/>
     <sheet name="MataMataLiga" sheetId="4" r:id="rId4"/>
     <sheet name="MataMataC02" sheetId="5" r:id="rId5"/>
-    <sheet name="MataMataC02 (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="MMC02-1fase" sheetId="7" r:id="rId7"/>
+    <sheet name="MMC02-1fase" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="256">
   <si>
     <t>Turno</t>
   </si>
@@ -471,165 +470,168 @@
     <t>E.C.O 82</t>
   </si>
   <si>
+    <t>Cohab da madeira</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
     <t>L&amp;G Cabral</t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
+    <t>C.A. ALSHOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>Meus Ovos</t>
+  </si>
+  <si>
+    <t>LQueiroz Castelucas FC</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
   </si>
   <si>
     <t xml:space="preserve">Meus Ovos </t>
   </si>
   <si>
-    <t>C.A. ALSHOW</t>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
   </si>
   <si>
     <t>FisioT's</t>
   </si>
   <si>
-    <t>Meus Ovos</t>
-  </si>
-  <si>
-    <t>Cohab da madeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>Manollo F.C</t>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
   </si>
   <si>
     <t>MCML Futebol Clube IBR</t>
   </si>
   <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>LQueiroz Castelucas FC</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
   </si>
   <si>
     <t xml:space="preserve"> Holanda de Wakanda</t>
   </si>
   <si>
-    <t>Shibo F.C.</t>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
   </si>
   <si>
     <t>CLECIO1976 F.C</t>
   </si>
   <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
     <t>Igor Fontes F.C.</t>
   </si>
   <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
     <t>São Paulo Edu Física</t>
   </si>
   <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
     <t>$ANTO$</t>
   </si>
   <si>
@@ -639,251 +641,173 @@
     <t>R.N.S FC</t>
   </si>
   <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>Los Angeles Stars FC</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
     <t>ARENACORINTHIANSSS</t>
   </si>
   <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
     <t>APOCALIPSE1910</t>
   </si>
   <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
     <t>CLAN MORT</t>
   </si>
   <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>Santa fé futebol e samba</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
   </si>
   <si>
     <t>Mister Oliveira F.C</t>
   </si>
   <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>alhfao</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
     <t>Maste fla</t>
   </si>
   <si>
-    <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>Team Portogalo FC</t>
-  </si>
-  <si>
-    <t>Los Angeles Stars FC</t>
-  </si>
-  <si>
-    <t>RICARDO ALVES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wellington </t>
   </si>
   <si>
-    <t xml:space="preserve">Bruno S. Vieira </t>
-  </si>
-  <si>
-    <t>Igor do Vigor</t>
-  </si>
-  <si>
-    <t>Aramaki</t>
-  </si>
-  <si>
-    <t>Márcio Fontes</t>
-  </si>
-  <si>
     <t>thiago leal de assis</t>
   </si>
   <si>
-    <t>vinicius silva</t>
-  </si>
-  <si>
-    <t>Braine Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Silva </t>
-  </si>
-  <si>
-    <t>Daniel Aquino</t>
-  </si>
-  <si>
     <t>Jé de Oliveira</t>
   </si>
   <si>
     <t>Nilson Dias</t>
   </si>
   <si>
-    <t>oseias teixeira</t>
-  </si>
-  <si>
-    <t>iago F</t>
-  </si>
-  <si>
-    <t>Cleber A</t>
-  </si>
-  <si>
-    <t>Gustavo Colares</t>
-  </si>
-  <si>
-    <t>Julius Azevedo</t>
-  </si>
-  <si>
     <t>Jefferson Pinheiro</t>
   </si>
   <si>
-    <t>Thomaz</t>
-  </si>
-  <si>
-    <t>alf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcelo Henrique </t>
   </si>
   <si>
-    <t>Clecio</t>
-  </si>
-  <si>
-    <t>Renato</t>
-  </si>
-  <si>
-    <t>Tiago Lima</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>KAUE</t>
-  </si>
-  <si>
     <t>Fabio Massini</t>
   </si>
   <si>
     <t>T.w</t>
   </si>
   <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Arley</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>OlympIgor de Marseille</t>
-  </si>
-  <si>
-    <t>ZinedIgor Zidane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,12 +919,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1450,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,33 +1551,51 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,34 +1606,50 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1735,7 +1687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2064,176 +2015,176 @@
   <dimension ref="B2:CB36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AW28"/>
+      <selection activeCell="AR3" sqref="AR3:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="63" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="63" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="63" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="63" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="63" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="63" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="63" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="63" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="63" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="63" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="63" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="63" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="63" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="63" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="63" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="63" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="63" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="63" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="63" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="63" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="63" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="63" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="63" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="63" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="63" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="63" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="63" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="63" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="63" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="64" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="64" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="64" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="64" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="64" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="64" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="64" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="64" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="64" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="64" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="64" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="64" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="64" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="64" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="64" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="64" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="64" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="64" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="64" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="64" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="64" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="64" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="64" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="64" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="64" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="63" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="63" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="64" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="64" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="63" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="63" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="63" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="63" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="63" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="63" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="63" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="63" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="63" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="63" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="63" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="64" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="64" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="64" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="64" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="64" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="64" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="64" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="64" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="64" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="64" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="64" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="63" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="63" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="63" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="63" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="63" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="64" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="64" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="64" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="64" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="64" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="63" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="63" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="63" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="63" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="63" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="64" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="64" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="64" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="64" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="64" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="63" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="63" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="63" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="63" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="63" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="63" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="63" customWidth="1"/>
-    <col min="81" max="90" width="9.140625" style="63" customWidth="1"/>
-    <col min="91" max="16384" width="9.140625" style="63"/>
+    <col min="74" max="74" width="28.5703125" style="64" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="64" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="64" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="64" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="64" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="64" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="64" customWidth="1"/>
+    <col min="81" max="91" width="9.140625" style="64" customWidth="1"/>
+    <col min="92" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="65" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="G2" s="71" t="s">
+    <row r="2" spans="2:80" s="63" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="G2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="L2" s="71" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="L2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="Q2" s="71" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="Q2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="W2" s="80" t="s">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="W2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AB2" s="71" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AB2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AH2" s="71" t="s">
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AH2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AM2" s="71" t="s">
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AM2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AR2" s="71" t="s">
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AR2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AY2" s="71" t="s">
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AY2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BD2" s="71" t="s">
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BD2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="62"/>
       <c r="BT2" s="50"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
     </row>
     <row r="3" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -2344,32 +2295,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="73" t="s">
+      <c r="BI3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="70"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="80"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="75" t="s">
+      <c r="BO3" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="70"/>
-      <c r="BU3" s="76" t="s">
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="80"/>
+      <c r="BU3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="74"/>
-      <c r="BY3" s="70"/>
-      <c r="CA3" s="69" t="s">
+      <c r="BV3" s="82"/>
+      <c r="BW3" s="82"/>
+      <c r="BX3" s="82"/>
+      <c r="BY3" s="80"/>
+      <c r="CA3" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="CB3" s="70"/>
+      <c r="CB3" s="80"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2381,7 +2332,7 @@
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>607.329833984375</v>
+        <v>654.3798828125</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -2409,7 +2360,7 @@
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>159.13</v>
+        <v>158.44</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -2441,12 +2392,12 @@
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>607.329833984375</v>
+        <v>654.3798828125</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="81" t="s">
+      <c r="AB4" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2463,7 +2414,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="77">
+      <c r="AH4" s="76">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2475,7 +2426,7 @@
       <c r="AK4" s="25">
         <v>100</v>
       </c>
-      <c r="AM4" s="77">
+      <c r="AM4" s="76">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2492,22 +2443,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>S.C. Brasilandia City</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>78.72</v>
+        <v>81.319999999999993</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>DUFF F.D.</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>57.47</v>
+        <v>41.17</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>21</v>
@@ -2517,7 +2468,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="77">
+      <c r="BD4" s="76">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2559,11 +2510,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>L&amp;G Cabral</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>589.359375</v>
+        <v>638.07958984375</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2591,7 +2542,7 @@
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>156.13999999999999</v>
+        <v>155.59</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2619,16 +2570,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>L&amp;G Cabral</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>589.359375</v>
+        <v>638.07958984375</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="79"/>
+      <c r="AB5" s="75"/>
       <c r="AC5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2643,7 +2594,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="78"/>
+      <c r="AH5" s="77"/>
       <c r="AI5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2653,7 +2604,7 @@
       <c r="AK5" s="61">
         <v>50</v>
       </c>
-      <c r="AM5" s="78"/>
+      <c r="AM5" s="77"/>
       <c r="AN5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2668,22 +2619,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>CHAPELETA10</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>76.02</v>
+        <v>80.52</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>56.539999999999992</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>27</v>
@@ -2693,7 +2644,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="78"/>
+      <c r="BD5" s="77"/>
       <c r="BE5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2706,7 +2657,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2714,7 +2665,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2722,7 +2673,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Los Angeles Stars FC</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2730,7 +2681,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>TERUEG</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2738,7 +2689,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>Vocês tão Lascados</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2746,14 +2697,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>MITTO100NI</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Brasilândia MSFC</v>
+        <v>CLECIO1976 F.C</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2762,11 +2713,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>576.789794921875</v>
+        <v>637.9794921875</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2794,7 +2745,7 @@
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>150.59</v>
+        <v>155.35</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2822,16 +2773,16 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>576.789794921875</v>
+        <v>637.9794921875</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="81" t="s">
+      <c r="AB6" s="74" t="s">
         <v>39</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2848,7 +2799,7 @@
       <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="79"/>
+      <c r="AH6" s="75"/>
       <c r="AI6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2809,7 @@
       <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="79"/>
+      <c r="AM6" s="75"/>
       <c r="AN6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2873,22 +2824,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>LiverpooI</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>73.019999999999982</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>55.12</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>38</v>
@@ -2898,7 +2849,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="79"/>
+      <c r="BD6" s="75"/>
       <c r="BE6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2911,7 +2862,7 @@
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>CHAPELETA10</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
@@ -2919,7 +2870,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>Shibo F.C.</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2927,7 +2878,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>R.N.S FC</v>
+        <v>FUT ART SP</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2935,7 +2886,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>AVANTI AZZURRA</v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2943,7 +2894,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>Rei dos mares F.C</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2951,14 +2902,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>02 de outubro</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>Team Portogalo FC</v>
+        <v>São Paulo Edu Física</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,16 +2918,16 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v>FisioT's</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>576.060546875</v>
+        <v>630.7900390625</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="79"/>
+      <c r="AB7" s="75"/>
       <c r="AC7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2991,7 +2942,7 @@
       <c r="AF7" s="26">
         <v>50</v>
       </c>
-      <c r="AH7" s="77">
+      <c r="AH7" s="76">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -3001,7 +2952,7 @@
       <c r="AK7" s="19">
         <v>100</v>
       </c>
-      <c r="AM7" s="77">
+      <c r="AM7" s="76">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -3016,22 +2967,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>72.34</v>
+        <v>64.63000000000001</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>54.92</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>50</v>
@@ -3041,7 +2992,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="77">
+      <c r="BD7" s="76">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -3056,7 +3007,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -3064,7 +3015,7 @@
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>Medão Fc</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
@@ -3072,7 +3023,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>O Cartola II</v>
+        <v>alhfao</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -3080,7 +3031,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>SEP Campeoníssimo</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -3088,7 +3039,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>Zildane F.C</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -3096,37 +3047,37 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>Breeja F.C</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>57</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>Los Angeles Stars FC</v>
+        <v>Igor Fontes F.C.</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>Cohab da madeira</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>575.859619140625</v>
+        <v>628.320068359375</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="81" t="s">
+      <c r="AB8" s="74" t="s">
         <v>59</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -3134,16 +3085,16 @@
       </c>
       <c r="AD8" s="38" t="str">
         <f>LigaPrincipal!L7</f>
-        <v>S.C. Brasilandia City</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="AE8" s="22">
         <f>LigaPrincipal!M7</f>
-        <v>83.72</v>
+        <v>143.99</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="78"/>
+      <c r="AH8" s="77"/>
       <c r="AI8" s="10" t="s">
         <v>28</v>
       </c>
@@ -3151,7 +3102,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="78"/>
+      <c r="AM8" s="77"/>
       <c r="AN8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3164,22 +3115,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>L&amp;G Cabral</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>68.010000000000005</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>Porco Verde WA</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>53.92</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>58</v>
@@ -3189,7 +3140,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="78"/>
+      <c r="BD8" s="77"/>
       <c r="BE8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3202,7 +3153,7 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>APOCALIPSE1910</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
@@ -3210,7 +3161,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>Real Litoral FC</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -3218,7 +3169,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>SCCP Quarta força</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -3226,7 +3177,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Manollo F.C</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -3234,7 +3185,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>Renalare</v>
+        <v>HANDEVU FC</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -3242,14 +3193,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>EC Samba Social</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>66</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>$ANTO$</v>
+        <v>Maste fla</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3263,31 +3214,31 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>575.16015625</v>
+        <v>626.639892578125</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="79"/>
+      <c r="AB9" s="75"/>
       <c r="AC9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AD9" s="36" t="str">
         <f>LigaPrincipal!L8</f>
-        <v>CHAPELETA10</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AE9" s="24">
         <f>LigaPrincipal!M8</f>
-        <v>81.02</v>
+        <v>139.35</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="79"/>
+      <c r="AH9" s="75"/>
       <c r="AI9" s="11" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3246,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="79"/>
+      <c r="AM9" s="75"/>
       <c r="AN9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3308,28 +3259,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>68.009999999999991</v>
+        <v>62.95</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>LamucciSPFC</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>53.519999999999989</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="79"/>
+      <c r="BD9" s="75"/>
       <c r="BE9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3342,7 +3293,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>LiverpooI</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -3350,7 +3301,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>Rage Against Cloroquina</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -3358,7 +3309,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -3366,7 +3317,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>C.A. ELSHOW</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -3374,7 +3325,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>LamucciSPFC</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -3382,7 +3333,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>HANDEVU FC</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3400,12 +3351,12 @@
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>565.5400390625</v>
+        <v>623.39013671875</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="81" t="s">
+      <c r="AB10" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -3422,7 +3373,7 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="77">
+      <c r="AH10" s="76">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -3432,7 +3383,7 @@
       <c r="AK10" s="19">
         <v>100</v>
       </c>
-      <c r="AM10" s="77">
+      <c r="AM10" s="76">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -3447,28 +3398,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>S.E. FINISH</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>67.929999999999993</v>
+        <v>60.13</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>Reinafcr</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>53.239999999999988</v>
+        <v>35.97</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="77">
+      <c r="BD10" s="76">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3483,7 +3434,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>CLAN MORT</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3491,7 +3442,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3499,7 +3450,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Xo Corona</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3507,7 +3458,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3515,7 +3466,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>showlimafc</v>
+        <v>Renalare</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3523,7 +3474,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>Maste fla</v>
+        <v>APOCALIPSE1910</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3537,16 +3488,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>FisioT's</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>563.520263671875</v>
+        <v>618.6806640625</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="79"/>
+      <c r="AB11" s="75"/>
       <c r="AC11" s="11" t="s">
         <v>27</v>
       </c>
@@ -3561,7 +3512,7 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="78"/>
+      <c r="AH11" s="77"/>
       <c r="AI11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3569,7 +3520,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="78"/>
+      <c r="AM11" s="77"/>
       <c r="AN11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3582,28 +3533,28 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>Tornad000</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>66.92</v>
+        <v>58.750000000000007</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>DiasBons EC</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>52.74</v>
+        <v>35.35</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="78"/>
+      <c r="BD11" s="77"/>
       <c r="BE11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3616,7 +3567,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>02 de outubro</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3624,7 +3575,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>Bávaros Bier</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3632,7 +3583,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>Cata Cata 71</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3640,7 +3591,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3648,7 +3599,7 @@
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
@@ -3656,7 +3607,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>Rage Against Cloroquina</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3670,16 +3621,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>Brasilândia MSFC</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>556.189697265625</v>
+        <v>614.179443359375</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="81" t="s">
+      <c r="AB12" s="74" t="s">
         <v>89</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3696,7 +3647,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="79"/>
+      <c r="AH12" s="75"/>
       <c r="AI12" s="11" t="s">
         <v>40</v>
       </c>
@@ -3704,7 +3655,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="79"/>
+      <c r="AM12" s="75"/>
       <c r="AN12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3717,28 +3668,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>Shibo F.C.</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>66.62</v>
+        <v>57.28</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>SEP Campeoníssimo</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>52.720000000000013</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="79"/>
+      <c r="BD12" s="75"/>
       <c r="BE12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +3702,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>Artefutt</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3759,7 +3710,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Maleví F.D.</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3767,7 +3718,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>FUT ART SP</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3775,7 +3726,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>The wailers. pro</v>
+        <v>Zildane F.C</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3783,7 +3734,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3791,7 +3742,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>Arloso FC</v>
+        <v>KAMIKA$E F.C</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,16 +3756,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Medão Fc</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>556.070068359375</v>
+        <v>608.409912109375</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="79"/>
+      <c r="AB13" s="75"/>
       <c r="AC13" s="11" t="s">
         <v>27</v>
       </c>
@@ -3829,7 +3780,7 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="77">
+      <c r="AH13" s="76">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3839,7 +3790,7 @@
       <c r="AK13" s="19">
         <v>100</v>
       </c>
-      <c r="AM13" s="77">
+      <c r="AM13" s="76">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3854,28 +3805,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>CLECIO1976 F.C</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>64.72</v>
+        <v>55.12</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>Rei dos mares F.C</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>52.02</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="77">
+      <c r="BD13" s="76">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3890,7 +3841,7 @@
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
@@ -3898,7 +3849,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>FisioT's</v>
+        <v>TERUEG</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3906,7 +3857,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>KVRA-Z/O</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3914,7 +3865,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>El Loko China</v>
+        <v>LiverpooI</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3922,7 +3873,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>kamicase2 fc</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3930,16 +3881,16 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>E.C SIEMACO SP</v>
+        <v>RealXavier</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="81" t="s">
+      <c r="AB14" s="74" t="s">
         <v>101</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3956,7 +3907,7 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="78"/>
+      <c r="AH14" s="77"/>
       <c r="AI14" s="10" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +3915,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="78"/>
+      <c r="AM14" s="77"/>
       <c r="AN14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3977,28 +3928,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>Bávaros Bier</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>64.639999999999986</v>
+        <v>53.53</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>51.919999999999987</v>
+        <v>34.75</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="78"/>
+      <c r="BD14" s="77"/>
       <c r="BE14" s="10" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +3962,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>45 do 2!</v>
+        <v>Arloso FC</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -4019,7 +3970,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>Chelsea Ziiica FC</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -4027,7 +3978,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>verdao29fc</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -4035,7 +3986,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>Porco Verde WA</v>
+        <v>FisioT's</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -4043,7 +3994,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>Mont City R.B.</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -4051,7 +4002,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>CLAN MORT</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4060,7 +4011,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="79"/>
+      <c r="AB15" s="75"/>
       <c r="AC15" s="11" t="s">
         <v>27</v>
       </c>
@@ -4075,7 +4026,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="79"/>
+      <c r="AH15" s="75"/>
       <c r="AI15" s="11" t="s">
         <v>40</v>
       </c>
@@ -4083,7 +4034,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="79"/>
+      <c r="AM15" s="75"/>
       <c r="AN15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4096,28 +4047,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>SC Karate Kid</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>62.61999999999999</v>
+        <v>52.55</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>Breeja F.C</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>48.41</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="79"/>
+      <c r="BD15" s="75"/>
       <c r="BE15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4130,7 +4081,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>El Loko China</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -4138,7 +4089,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -4146,7 +4097,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>Tornadooo F.C</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -4154,7 +4105,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>alhfao</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -4162,7 +4113,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>Esquaiella F.C</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -4170,7 +4121,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>Igor Fontes F.C.</v>
+        <v>EC Samba Social</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4179,7 +4130,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="81" t="s">
+      <c r="AB16" s="74" t="s">
         <v>112</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -4196,7 +4147,7 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="77">
+      <c r="AH16" s="76">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -4206,7 +4157,7 @@
       <c r="AK16" s="19">
         <v>100</v>
       </c>
-      <c r="AM16" s="77">
+      <c r="AM16" s="76">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -4221,28 +4172,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>KAMIKA$E F.C</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>62.34</v>
+        <v>52.02</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>Igor Fontes F.C.</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>46.44</v>
+        <v>32.15</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="77">
+      <c r="BD16" s="76">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -4257,7 +4208,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>Mister Oliveira F.C</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -4265,7 +4216,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -4273,7 +4224,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -4281,7 +4232,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>Xo Corona</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -4289,7 +4240,7 @@
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
@@ -4297,7 +4248,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>Santa fé futebol e samba</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4306,7 +4257,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="79"/>
+      <c r="AB17" s="75"/>
       <c r="AC17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4321,7 +4272,7 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="78"/>
+      <c r="AH17" s="77"/>
       <c r="AI17" s="10" t="s">
         <v>28</v>
       </c>
@@ -4329,7 +4280,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="78"/>
+      <c r="AM17" s="77"/>
       <c r="AN17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4342,28 +4293,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>Tornad000</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>61.72</v>
+        <v>48.72</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>METAMORPHO</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>45.84</v>
+        <v>31.75</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="78"/>
+      <c r="BD17" s="77"/>
       <c r="BE17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4376,7 +4327,7 @@
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>L&amp;G Cabral</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
@@ -4384,7 +4335,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>F.C Trupingas</v>
+        <v>Artefutt</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -4392,7 +4343,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>$uicide $quad F.C</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -4400,7 +4351,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>Reinafcr</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -4408,7 +4359,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>Forró Social Club</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -4416,7 +4367,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>Brahma 07 FC</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4425,7 +4376,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="81" t="s">
+      <c r="AB18" s="74" t="s">
         <v>123</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -4442,7 +4393,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="79"/>
+      <c r="AH18" s="75"/>
       <c r="AI18" s="11" t="s">
         <v>40</v>
       </c>
@@ -4450,7 +4401,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="79"/>
+      <c r="AM18" s="75"/>
       <c r="AN18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4463,28 +4414,28 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>61.639999999999993</v>
+        <v>47.849999999999987</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>91</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>São Paulo Edu Física</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>45.34</v>
+        <v>30.25</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="79"/>
+      <c r="BD18" s="75"/>
       <c r="BE18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4497,7 +4448,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>S.E. FINISH</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4505,7 +4456,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>SC Karate Kid</v>
+        <v>showlimafc</v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4513,7 +4464,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4521,7 +4472,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>S. E. CURUPIRA</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4529,7 +4480,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4537,7 +4488,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Pagangrizo’s team</v>
+        <v>Reinafcr</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4546,7 +4497,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="79"/>
+      <c r="AB19" s="75"/>
       <c r="AC19" s="11" t="s">
         <v>27</v>
       </c>
@@ -4561,7 +4512,7 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="77">
+      <c r="AH19" s="76">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4571,7 +4522,7 @@
       <c r="AK19" s="19">
         <v>100</v>
       </c>
-      <c r="AM19" s="77">
+      <c r="AM19" s="76">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4586,28 +4537,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>MEM- TRICOLOR</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>61.36</v>
+        <v>46.25</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>44.34</v>
+        <v>30.15</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="77">
+      <c r="BD19" s="76">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4630,7 +4581,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>DUFF F.D.</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4638,7 +4589,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4646,7 +4597,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>DiasBons EC</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4654,7 +4605,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>METAMORPHO</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4662,16 +4613,16 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>SCFVelasco2021</v>
+        <v>Mont City R.B.</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="AH20" s="78"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="AH20" s="77"/>
       <c r="AI20" s="10" t="s">
         <v>28</v>
       </c>
@@ -4679,7 +4630,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="78"/>
+      <c r="AM20" s="77"/>
       <c r="AN20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4692,28 +4643,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>61.07</v>
+        <v>45.02</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>Brahma 07 FC</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>42.639999999999993</v>
+        <v>28.75</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="78"/>
+      <c r="BD20" s="77"/>
       <c r="BE20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4726,7 +4677,7 @@
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>Hepta 17 FC</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
@@ -4734,7 +4685,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>RealXavier</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4742,7 +4693,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4750,7 +4701,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>E.C.O 82</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4758,7 +4709,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>São Paulo Edu Física</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4766,7 +4717,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>Santa fé futebol e samba</v>
+        <v>Mister Oliveira F.C</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4775,7 +4726,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="79"/>
+      <c r="AH21" s="75"/>
       <c r="AI21" s="11" t="s">
         <v>40</v>
       </c>
@@ -4783,7 +4734,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="79"/>
+      <c r="AM21" s="75"/>
       <c r="AN21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4796,28 +4747,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>Cata Cata 71</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>60.94</v>
+        <v>45.02</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>108</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>E.C SIEMACO SP</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>41.84</v>
+        <v>26.73</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="79"/>
+      <c r="BD21" s="75"/>
       <c r="BE21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4843,7 +4794,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="77">
+      <c r="AH22" s="76">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4853,7 +4804,7 @@
       <c r="AK22" s="19">
         <v>100</v>
       </c>
-      <c r="AM22" s="77">
+      <c r="AM22" s="76">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4868,28 +4819,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>KVRA-Z/O</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>60.72</v>
+        <v>44.53</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>114</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>SCFVelasco2021</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>41.44</v>
+        <v>21.32</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="77">
+      <c r="BD22" s="76">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4917,7 +4868,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="78"/>
+      <c r="AH23" s="77"/>
       <c r="AI23" s="10" t="s">
         <v>28</v>
       </c>
@@ -4925,7 +4876,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="78"/>
+      <c r="AM23" s="77"/>
       <c r="AN23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4938,28 +4889,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>60.34</v>
+        <v>44.12</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AV23" s="32" t="str">
         <f>LigaEliminatória!B47</f>
-        <v>Pagangrizo’s team</v>
+        <v>Igor Fontes F.C.</v>
       </c>
       <c r="AW23" s="23">
         <f>LigaEliminatória!C47</f>
-        <v>38.739999999999988</v>
+        <v>20.73</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="78"/>
+      <c r="BD23" s="77"/>
       <c r="BE23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4985,7 +4936,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="79"/>
+      <c r="AH24" s="75"/>
       <c r="AI24" s="11" t="s">
         <v>40</v>
       </c>
@@ -4993,7 +4944,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="79"/>
+      <c r="AM24" s="75"/>
       <c r="AN24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5006,28 +4957,28 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>$uicide $quad F.C</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>60.34</v>
+        <v>44.05</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AV24" s="32" t="str">
+      <c r="AV24" s="59" t="str">
         <f>LigaEliminatória!B48</f>
-        <v>Brasilândia MSFC</v>
-      </c>
-      <c r="AW24" s="23">
+        <v>São Paulo Edu Física</v>
+      </c>
+      <c r="AW24" s="60">
         <f>LigaEliminatória!C48</f>
-        <v>34.74</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="79"/>
+      <c r="BD24" s="75"/>
       <c r="BE24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5053,11 +5004,11 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>59.42</v>
+        <v>42.87</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>130</v>
@@ -5092,11 +5043,11 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>59.24</v>
+        <v>42.52</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>134</v>
@@ -5131,11 +5082,11 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>LQueiroz FC</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>59.02</v>
+        <v>41.92</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>34</v>
@@ -5170,11 +5121,11 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>AVANTI AZZURRA</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>58.24</v>
+        <v>41.65</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>46</v>
@@ -5325,6 +5276,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -5341,39 +5325,6 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5385,94 +5336,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="2" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
-    <col min="10" max="23" width="9.140625" style="66" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="66"/>
+    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="2" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="65" customWidth="1"/>
+    <col min="10" max="24" width="9.140625" style="65" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="E1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="J1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="E1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="20">
-        <v>607.329833984375</v>
-      </c>
-      <c r="E3" s="66">
+        <v>654.3798828125</v>
+      </c>
+      <c r="E3" s="65">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="21">
-        <v>607.329833984375</v>
-      </c>
-      <c r="J3" s="84" t="s">
+        <v>654.3798828125</v>
+      </c>
+      <c r="J3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="65">
         <v>1</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="65" t="s">
         <v>144</v>
       </c>
       <c r="M3" s="20">
@@ -5480,29 +5431,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
+      <c r="A4" s="65">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="20">
-        <v>589.359375</v>
-      </c>
-      <c r="E4" s="66">
+        <v>638.07958984375</v>
+      </c>
+      <c r="E4" s="65">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="21">
-        <v>589.359375</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="66">
+        <v>638.07958984375</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="65">
         <v>2</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="65" t="s">
         <v>146</v>
       </c>
       <c r="M4" s="20">
@@ -5510,287 +5461,287 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
+      <c r="A5" s="65">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>147</v>
       </c>
       <c r="C5" s="20">
-        <v>576.789794921875</v>
-      </c>
-      <c r="E5" s="66">
+        <v>637.9794921875</v>
+      </c>
+      <c r="E5" s="65">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="21">
-        <v>576.789794921875</v>
-      </c>
-      <c r="J5" s="84" t="s">
+        <v>637.9794921875</v>
+      </c>
+      <c r="J5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="65">
         <v>1</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="65">
         <v>482.16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="20">
-        <v>576.060546875</v>
-      </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="66">
+        <v>630.7900390625</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="65">
         <v>2</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="65">
         <v>465.02</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="20">
-        <v>575.859619140625</v>
-      </c>
-      <c r="E7" s="84" t="s">
+        <v>628.320068359375</v>
+      </c>
+      <c r="E7" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="J7" s="84" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="J7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="65">
         <v>1</v>
       </c>
-      <c r="L7" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="66">
-        <v>83.72</v>
+      <c r="L7" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="65">
+        <v>143.99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="20">
+        <v>626.639892578125</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="85"/>
+      <c r="K8" s="65">
+        <v>2</v>
+      </c>
+      <c r="L8" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="20">
-        <v>575.16015625</v>
-      </c>
-      <c r="F8" s="66" t="s">
+      <c r="M8" s="65">
+        <v>139.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="20">
+        <v>623.39013671875</v>
+      </c>
+      <c r="E9" s="65">
+        <v>1</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="20">
+        <v>618.6806640625</v>
+      </c>
+      <c r="E10" s="65">
+        <v>2</v>
+      </c>
+      <c r="J10" s="85"/>
+      <c r="K10" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="20">
+        <v>614.179443359375</v>
+      </c>
+      <c r="E11" s="65">
+        <v>3</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="20">
+        <v>608.409912109375</v>
+      </c>
+      <c r="J12" s="85"/>
+      <c r="K12" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="J13" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G14" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="85"/>
+      <c r="K14" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="65">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="21">
+        <v>158.44</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="65">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="21">
+        <v>155.59</v>
+      </c>
+      <c r="J16" s="85"/>
+      <c r="K16" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="65">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="21">
+        <v>155.35</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="85"/>
+      <c r="K18" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="66">
-        <v>2</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="M8" s="66">
-        <v>81.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
-        <v>7</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="20">
-        <v>565.5400390625</v>
-      </c>
-      <c r="E9" s="66">
-        <v>1</v>
-      </c>
-      <c r="J9" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
-        <v>8</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="20">
-        <v>563.520263671875</v>
-      </c>
-      <c r="E10" s="66">
-        <v>2</v>
-      </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
-        <v>9</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="20">
-        <v>556.189697265625</v>
-      </c>
-      <c r="E11" s="66">
-        <v>3</v>
-      </c>
-      <c r="J11" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
-        <v>10</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="20">
-        <v>556.070068359375</v>
-      </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="J13" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="66">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="21">
-        <v>159.13</v>
-      </c>
-      <c r="J15" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="66">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="21">
-        <v>156.13999999999999</v>
-      </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="66">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="21">
-        <v>150.59</v>
-      </c>
-      <c r="J17" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="84"/>
-      <c r="K18" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="65" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -5804,11 +5755,11 @@
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="66">
+      <c r="E22" s="65">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G22" s="21">
         <v>107.5</v>
@@ -5818,11 +5769,11 @@
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="66">
+      <c r="E23" s="65">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="21">
         <v>107.39990234375</v>
@@ -5833,6 +5784,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5842,11 +5798,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5865,15 +5816,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="65" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="66" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="66"/>
+    <col min="4" max="16" width="9.140625" style="65" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5881,538 +5832,538 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="21">
+        <v>81.319999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="21">
+        <v>80.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="21">
+        <v>70.430000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="21">
+        <v>64.63000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="21">
+        <v>64.150000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="21">
+        <v>62.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="21">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="21">
+        <v>58.750000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="21">
+        <v>57.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="21">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="21">
+        <v>53.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="21">
+        <v>52.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="21">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="21">
+        <v>48.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="21">
+        <v>47.849999999999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="21">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="21">
+        <v>45.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="21">
+        <v>45.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="21">
+        <v>44.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="21">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="21">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="21">
+        <v>42.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="21">
+        <v>42.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="21">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="21">
+        <v>41.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="21">
+        <v>41.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="21">
+        <v>40.520000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c r="B30" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="21">
-        <v>78.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>2</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="21">
-        <v>76.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
-        <v>3</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="21">
-        <v>73.019999999999982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
-        <v>4</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="21">
-        <v>72.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
-        <v>5</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="21">
-        <v>68.010000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
-        <v>6</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="21">
-        <v>68.009999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
-        <v>7</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="21">
-        <v>67.929999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
-        <v>8</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="21">
-        <v>66.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
-        <v>9</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="21">
-        <v>66.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
-        <v>10</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="21">
-        <v>64.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
-        <v>11</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="21">
-        <v>64.639999999999986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
-        <v>12</v>
-      </c>
-      <c r="B14" s="66" t="s">
+      <c r="C30" s="21">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="21">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="21">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="21">
+        <v>36.630000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="21">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="21">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="21">
-        <v>62.61999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
-        <v>13</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="21">
-        <v>62.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
-        <v>14</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="21">
-        <v>61.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
-        <v>15</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="21">
-        <v>61.639999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
-        <v>16</v>
-      </c>
-      <c r="B18" s="66" t="s">
+      <c r="C36" s="21">
+        <v>35.159999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="21">
+        <v>35.020000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c r="B38" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21">
-        <v>61.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
-        <v>17</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="21">
-        <v>61.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
-        <v>18</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="21">
-        <v>60.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
-        <v>19</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="21">
-        <v>60.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="66">
-        <v>20</v>
-      </c>
-      <c r="B22" s="66" t="s">
+      <c r="C38" s="21">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="21">
+        <v>32.369999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c r="B40" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="21">
-        <v>60.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
-        <v>21</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="21">
-        <v>60.34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
-        <v>22</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="21">
-        <v>59.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
-        <v>23</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="21">
-        <v>59.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="C40" s="21">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="21">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="21">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="21">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="21">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c r="B45" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="21">
-        <v>59.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
-        <v>25</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="21">
-        <v>58.24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
-        <v>26</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="21">
-        <v>57.47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
-        <v>27</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="21">
-        <v>56.539999999999992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
-        <v>28</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="21">
-        <v>55.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="66">
-        <v>29</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="21">
-        <v>54.92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
-        <v>30</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="21">
-        <v>53.92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="66">
-        <v>31</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="21">
-        <v>53.519999999999989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="66">
-        <v>32</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="21">
-        <v>53.239999999999988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="66">
-        <v>33</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="21">
-        <v>52.74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="66">
-        <v>34</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="21">
-        <v>52.720000000000013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="66">
-        <v>35</v>
-      </c>
-      <c r="B37" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="21">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="66">
-        <v>36</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="21">
-        <v>51.919999999999987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="66">
-        <v>37</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="21">
-        <v>48.41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="66">
-        <v>38</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="21">
-        <v>46.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
-        <v>39</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="21">
-        <v>45.84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
-        <v>40</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="21">
-        <v>45.34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
-        <v>41</v>
-      </c>
-      <c r="B43" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="21">
-        <v>44.34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
-        <v>42</v>
-      </c>
-      <c r="B44" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="21">
-        <v>42.639999999999993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="66">
-        <v>43</v>
-      </c>
-      <c r="B45" s="66" t="s">
-        <v>195</v>
-      </c>
       <c r="C45" s="21">
-        <v>41.84</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="66">
+      <c r="A46" s="65">
         <v>44</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>196</v>
       </c>
       <c r="C46" s="21">
-        <v>41.44</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="65">
         <v>45</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="65" t="s">
         <v>197</v>
       </c>
       <c r="C47" s="21">
-        <v>38.739999999999988</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="66">
+      <c r="A48" s="65">
         <v>46</v>
       </c>
-      <c r="B48" s="66" t="s">
-        <v>155</v>
+      <c r="B48" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="C48" s="21">
-        <v>34.74</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
+      <c r="A49" s="65">
         <v>47</v>
       </c>
-      <c r="B49" s="66" t="s">
-        <v>198</v>
+      <c r="B49" s="65" t="s">
+        <v>199</v>
       </c>
       <c r="C49" s="21">
         <v>10.54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="66">
+      <c r="A50" s="65">
         <v>48</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>199</v>
+      <c r="B50" s="65" t="s">
+        <v>200</v>
       </c>
       <c r="C50" s="21">
         <v>30.75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
+      <c r="A51" s="65">
         <v>49</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="21">
@@ -6420,11 +6371,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
+      <c r="A52" s="65">
         <v>50</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>200</v>
+      <c r="B52" s="65" t="s">
+        <v>201</v>
       </c>
       <c r="C52" s="21">
         <v>32.82</v>
@@ -6445,47 +6396,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -6500,47 +6451,47 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -6550,67 +6501,67 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -6620,62 +6571,62 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -6685,162 +6636,162 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -6850,97 +6801,97 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6953,17 +6904,17 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>13200</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>279</v>
+        <v>25759796</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -6972,15 +6923,15 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="M1">
-        <v>25759796</v>
+        <v>28375476</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="112" t="s">
-        <v>280</v>
+      <c r="B3" t="s">
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>248</v>
@@ -6988,10 +6939,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4510701</v>
+        <v>339114</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7000,26 +6951,26 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>28375476</v>
+        <v>14033643</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22580</v>
+        <v>3355621</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7028,26 +6979,26 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M9">
-        <v>339114</v>
+        <v>874216</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14033643</v>
+        <v>5545590</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -7056,134 +7007,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M13">
-        <v>14901500</v>
+        <v>28694260</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>574153</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17">
-        <v>3355621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>874216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21">
-        <v>302929</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>409114</v>
-      </c>
-      <c r="B25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25">
-        <v>5545590</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>271</v>
-      </c>
-      <c r="I27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28694260</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29">
-        <v>8775722</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7191,612 +7030,149 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B15DA7-DD7A-4BBD-913B-CC2C6929A759}">
-  <dimension ref="A1:M63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>29070042</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1">
-        <v>41.12</v>
-      </c>
-      <c r="H1">
-        <v>66.139999999999986</v>
-      </c>
-      <c r="I1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1">
-        <v>25759796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>948932</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5">
-        <v>48.47</v>
-      </c>
-      <c r="H5">
-        <v>55.34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4510701</v>
-      </c>
-      <c r="B9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9">
-        <v>53.52</v>
-      </c>
-      <c r="H9">
-        <v>10.54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9">
-        <v>25381411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28375476</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13">
-        <v>57.610000000000007</v>
-      </c>
-      <c r="H13">
-        <v>46.919999999999987</v>
-      </c>
-      <c r="I13" t="s">
-        <v>240</v>
-      </c>
-      <c r="M13">
-        <v>5069390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="I15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>22580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17">
-        <v>73.02</v>
-      </c>
-      <c r="H17">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="I17" t="s">
-        <v>244</v>
-      </c>
-      <c r="M17">
-        <v>28889476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>255</v>
-      </c>
-      <c r="I19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>123627</v>
-      </c>
-      <c r="B21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21">
-        <v>45.34</v>
-      </c>
-      <c r="H21">
-        <v>57.470000000000013</v>
-      </c>
-      <c r="I21" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21">
-        <v>339114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14033643</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>52.739999999999988</v>
-      </c>
-      <c r="H25">
-        <v>52.720000000000013</v>
-      </c>
-      <c r="I25" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25">
-        <v>2249933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1678382</v>
-      </c>
-      <c r="B29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29">
-        <v>64.239999999999995</v>
-      </c>
-      <c r="H29">
-        <v>68.64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>205</v>
-      </c>
-      <c r="M29">
-        <v>14901500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>261</v>
-      </c>
-      <c r="I31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>201412</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33">
-        <v>34.24</v>
-      </c>
-      <c r="H33">
-        <v>72.52</v>
-      </c>
-      <c r="I33" t="s">
-        <v>203</v>
-      </c>
-      <c r="M33">
-        <v>574153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3355621</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37">
-        <v>64.37</v>
-      </c>
-      <c r="H37">
-        <v>51.92</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37">
-        <v>22924436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>265</v>
-      </c>
-      <c r="I39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>13994692</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41">
-        <v>53.539999999999992</v>
-      </c>
-      <c r="H41">
-        <v>66.02</v>
-      </c>
-      <c r="I41" t="s">
-        <v>159</v>
-      </c>
-      <c r="M41">
-        <v>874216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>267</v>
-      </c>
-      <c r="I43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>302929</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45">
-        <v>64.72</v>
-      </c>
-      <c r="H45">
-        <v>55.12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>183</v>
-      </c>
-      <c r="M45">
-        <v>215331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>269</v>
-      </c>
-      <c r="I47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>409114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-      <c r="F49">
-        <v>62.819999999999993</v>
-      </c>
-      <c r="H49">
-        <v>62.32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>200</v>
-      </c>
-      <c r="M49">
-        <v>3953761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>271</v>
-      </c>
-      <c r="I51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>897722</v>
-      </c>
-      <c r="B53" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53">
-        <v>49.34</v>
-      </c>
-      <c r="H53">
-        <v>57.69</v>
-      </c>
-      <c r="I53" t="s">
-        <v>218</v>
-      </c>
-      <c r="M53">
-        <v>5545590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>273</v>
-      </c>
-      <c r="I55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>28694260</v>
-      </c>
-      <c r="B57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="H57">
-        <v>54.419999999999987</v>
-      </c>
-      <c r="I57" t="s">
-        <v>227</v>
-      </c>
-      <c r="M57">
-        <v>1179844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>8775722</v>
-      </c>
-      <c r="B61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61">
-        <v>44.34</v>
-      </c>
-      <c r="H61">
-        <v>43.419999999999987</v>
-      </c>
-      <c r="I61" t="s">
-        <v>242</v>
-      </c>
-      <c r="M61">
-        <v>2561719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:L31"/>
+      <selection activeCell="B9" sqref="B9:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="68" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="62" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="67" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="67" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="67" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="67" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="62" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" style="67" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="62" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" style="67" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" style="67" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" style="67" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="17.140625" style="66" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="69" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="68" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="68" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="68" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="69" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="68" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" style="68" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85">
+      <c r="A1" s="86">
         <f>MataMataC02!A1</f>
-        <v>13200</v>
-      </c>
-      <c r="B1" s="89" t="str">
+        <v>25759796</v>
+      </c>
+      <c r="B1" s="109" t="str">
         <f>MataMataC02!B1</f>
-        <v>OlympIgor de Marseille</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92">
+        <v>Medão Fc</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112">
         <f>MataMataC02!F1</f>
         <v>0</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="94">
+      <c r="G1" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="114">
         <f>MataMataC02!H1</f>
         <v>0</v>
       </c>
-      <c r="I1" s="95" t="str">
+      <c r="I1" s="115" t="str">
         <f>MataMataC02!I1</f>
-        <v>Medão Fc</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="85">
+        <v>The wailers. pro</v>
+      </c>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="86">
         <f>MataMataC02!M1</f>
-        <v>25759796</v>
-      </c>
-      <c r="O1" s="85">
+        <v>28375476</v>
+      </c>
+      <c r="O1" s="86">
         <f>MataMataC02!A33</f>
         <v>0</v>
       </c>
-      <c r="P1" s="89">
+      <c r="P1" s="88">
         <f>MataMataC02!B33</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="94">
         <f>MataMataC02!F33</f>
         <v>0</v>
       </c>
-      <c r="U1" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V1" s="94">
+      <c r="U1" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="98">
         <f>MataMataC02!H33</f>
         <v>0</v>
       </c>
-      <c r="W1" s="95">
+      <c r="W1" s="101">
         <f>MataMataC02!I33</f>
         <v>0</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="85">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="86">
         <f>MataMataC02!M33</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="103"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="123"/>
       <c r="M2" s="87"/>
       <c r="O2" s="87"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
       <c r="Z2" s="103"/>
       <c r="AA2" s="87"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="124" t="str">
         <f>MataMataC02!B3</f>
-        <v>ZinedIgor Zidane</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108" t="str">
+        <v xml:space="preserve">Wellington </v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128" t="str">
         <f>MataMataC02!I3</f>
-        <v xml:space="preserve">Wellington </v>
-      </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="109"/>
-      <c r="O3" s="68"/>
+        <v>thiago leal de assis</v>
+      </c>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="129"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="104">
         <f>MataMataC02!B35</f>
         <v>0</v>
@@ -7804,157 +7180,146 @@
       <c r="Q3" s="105"/>
       <c r="R3" s="105"/>
       <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="108">
+      <c r="T3" s="96"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="106">
         <f>MataMataC02!I35</f>
         <v>0</v>
       </c>
       <c r="X3" s="105"/>
       <c r="Y3" s="105"/>
-      <c r="Z3" s="109"/>
+      <c r="Z3" s="107"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="O4" s="66"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="86">
         <f>MataMataC02!A5</f>
-        <v>4510701</v>
-      </c>
-      <c r="B5" s="89" t="str">
+        <v>339114</v>
+      </c>
+      <c r="B5" s="109" t="str">
         <f>MataMataC02!B5</f>
-        <v>Xo Corona</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92">
+        <v>DUFF F.D.</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112">
         <f>MataMataC02!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H5" s="94">
+      <c r="G5" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="114">
         <f>MataMataC02!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="95" t="str">
+      <c r="I5" s="115" t="str">
         <f>MataMataC02!I5</f>
-        <v>The wailers. pro</v>
-      </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="85">
+        <v>DiasBons EC</v>
+      </c>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="86">
         <f>MataMataC02!M5</f>
-        <v>28375476</v>
-      </c>
-      <c r="O5" s="85">
+        <v>14033643</v>
+      </c>
+      <c r="O5" s="86">
         <f>MataMataC02!A37</f>
         <v>0</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="88">
         <f>MataMataC02!B37</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="92">
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="94">
         <f>MataMataC02!F37</f>
         <v>0</v>
       </c>
-      <c r="U5" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V5" s="94">
+      <c r="U5" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V5" s="98">
         <f>MataMataC02!H37</f>
         <v>0</v>
       </c>
-      <c r="W5" s="95">
+      <c r="W5" s="101">
         <f>MataMataC02!I37</f>
         <v>0</v>
       </c>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="85">
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="86">
         <f>MataMataC02!M37</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="103"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="87"/>
       <c r="O6" s="87"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
       <c r="Z6" s="103"/>
       <c r="AA6" s="87"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="104" t="str">
+      <c r="B7" s="124" t="str">
         <f>MataMataC02!B7</f>
-        <v>Aramaki</v>
-      </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108" t="str">
+        <v>Jé de Oliveira</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128" t="str">
         <f>MataMataC02!I7</f>
-        <v>thiago leal de assis</v>
-      </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="109"/>
-      <c r="O7" s="68"/>
+        <v>Nilson Dias</v>
+      </c>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="129"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="104">
         <f>MataMataC02!B39</f>
         <v>0</v>
@@ -7962,157 +7327,146 @@
       <c r="Q7" s="105"/>
       <c r="R7" s="105"/>
       <c r="S7" s="105"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="108">
+      <c r="T7" s="96"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="106">
         <f>MataMataC02!I39</f>
         <v>0</v>
       </c>
       <c r="X7" s="105"/>
       <c r="Y7" s="105"/>
-      <c r="Z7" s="109"/>
+      <c r="Z7" s="107"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85">
+      <c r="A9" s="86">
         <f>MataMataC02!A9</f>
-        <v>22580</v>
-      </c>
-      <c r="B9" s="89" t="str">
+        <v>3355621</v>
+      </c>
+      <c r="B9" s="109" t="str">
         <f>MataMataC02!B9</f>
-        <v>LiverpooI</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92">
+        <v>Maleví F.D.</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112">
         <f>MataMataC02!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H9" s="94">
+      <c r="G9" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="114">
         <f>MataMataC02!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="95" t="str">
+      <c r="I9" s="115" t="str">
         <f>MataMataC02!I9</f>
-        <v>DUFF F.D.</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="85">
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="86">
         <f>MataMataC02!M9</f>
-        <v>339114</v>
-      </c>
-      <c r="O9" s="85">
+        <v>874216</v>
+      </c>
+      <c r="O9" s="86">
         <f>MataMataC02!A41</f>
         <v>0</v>
       </c>
-      <c r="P9" s="89">
+      <c r="P9" s="88">
         <f>MataMataC02!B41</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="92">
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="94">
         <f>MataMataC02!F41</f>
         <v>0</v>
       </c>
-      <c r="U9" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V9" s="94">
+      <c r="U9" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" s="98">
         <f>MataMataC02!H41</f>
         <v>0</v>
       </c>
-      <c r="W9" s="95">
+      <c r="W9" s="101">
         <f>MataMataC02!I41</f>
         <v>0</v>
       </c>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="85">
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="86">
         <f>MataMataC02!M41</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="103"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="87"/>
       <c r="O10" s="87"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
       <c r="Z10" s="103"/>
       <c r="AA10" s="87"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="104" t="str">
+      <c r="B11" s="124" t="str">
         <f>MataMataC02!B11</f>
-        <v>Braine Jr.</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108" t="str">
+        <v>Jefferson Pinheiro</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128" t="str">
         <f>MataMataC02!I11</f>
-        <v>Jé de Oliveira</v>
-      </c>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="109"/>
-      <c r="O11" s="68"/>
+        <v xml:space="preserve">Marcelo Henrique </v>
+      </c>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="129"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="104">
         <f>MataMataC02!B43</f>
         <v>0</v>
@@ -8120,157 +7474,146 @@
       <c r="Q11" s="105"/>
       <c r="R11" s="105"/>
       <c r="S11" s="105"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="108">
+      <c r="T11" s="96"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="106">
         <f>MataMataC02!I43</f>
         <v>0</v>
       </c>
       <c r="X11" s="105"/>
       <c r="Y11" s="105"/>
-      <c r="Z11" s="109"/>
+      <c r="Z11" s="107"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="O12" s="66"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85">
+      <c r="A13" s="86">
         <f>MataMataC02!A13</f>
-        <v>14033643</v>
-      </c>
-      <c r="B13" s="89" t="str">
+        <v>5545590</v>
+      </c>
+      <c r="B13" s="109" t="str">
         <f>MataMataC02!B13</f>
-        <v>DiasBons EC</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92">
+        <v>FUT ART SP</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112">
         <f>MataMataC02!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="94">
+      <c r="G13" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="114">
         <f>MataMataC02!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="95" t="str">
+      <c r="I13" s="115" t="str">
         <f>MataMataC02!I13</f>
-        <v>45 do 2!</v>
-      </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="85">
+        <v>The wailers F.c Brasilanjah</v>
+      </c>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="86">
         <f>MataMataC02!M13</f>
-        <v>14901500</v>
-      </c>
-      <c r="O13" s="85">
+        <v>28694260</v>
+      </c>
+      <c r="O13" s="86">
         <f>MataMataC02!A45</f>
         <v>0</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="88">
         <f>MataMataC02!B45</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="92">
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="94">
         <f>MataMataC02!F45</f>
         <v>0</v>
       </c>
-      <c r="U13" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V13" s="94">
+      <c r="U13" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V13" s="98">
         <f>MataMataC02!H45</f>
         <v>0</v>
       </c>
-      <c r="W13" s="95">
+      <c r="W13" s="101">
         <f>MataMataC02!I45</f>
         <v>0</v>
       </c>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="85">
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="86">
         <f>MataMataC02!M45</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="103"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="87"/>
       <c r="O14" s="87"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
       <c r="Z14" s="103"/>
       <c r="AA14" s="87"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104" t="str">
+      <c r="B15" s="124" t="str">
         <f>MataMataC02!B15</f>
-        <v>Nilson Dias</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108" t="str">
+        <v>Fabio Massini</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128" t="str">
         <f>MataMataC02!I15</f>
-        <v>Cleber A</v>
-      </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="109"/>
-      <c r="O15" s="68"/>
+        <v>T.w</v>
+      </c>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="129"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="104">
         <f>MataMataC02!B47</f>
         <v>0</v>
@@ -8278,157 +7621,146 @@
       <c r="Q15" s="105"/>
       <c r="R15" s="105"/>
       <c r="S15" s="105"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="108">
+      <c r="T15" s="96"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="106">
         <f>MataMataC02!I47</f>
         <v>0</v>
       </c>
       <c r="X15" s="105"/>
       <c r="Y15" s="105"/>
-      <c r="Z15" s="109"/>
+      <c r="Z15" s="107"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85">
+      <c r="A17" s="86">
         <f>MataMataC02!A17</f>
-        <v>574153</v>
-      </c>
-      <c r="B17" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="B17" s="109">
         <f>MataMataC02!B17</f>
-        <v>CLAN MORT</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92">
+        <v>0</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112">
         <f>MataMataC02!F17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="94">
+      <c r="G17" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="114">
         <f>MataMataC02!H17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="95" t="str">
+      <c r="I17" s="115">
         <f>MataMataC02!I17</f>
-        <v>Maleví F.D.</v>
-      </c>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="85">
+        <v>0</v>
+      </c>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="86">
         <f>MataMataC02!M17</f>
-        <v>3355621</v>
-      </c>
-      <c r="O17" s="85">
+        <v>0</v>
+      </c>
+      <c r="O17" s="86">
         <f>MataMataC02!A49</f>
         <v>0</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="88">
         <f>MataMataC02!B49</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="92">
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="94">
         <f>MataMataC02!F49</f>
         <v>0</v>
       </c>
-      <c r="U17" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V17" s="94">
+      <c r="U17" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" s="98">
         <f>MataMataC02!H49</f>
         <v>0</v>
       </c>
-      <c r="W17" s="95">
+      <c r="W17" s="101">
         <f>MataMataC02!I49</f>
         <v>0</v>
       </c>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="85">
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="86">
         <f>MataMataC02!M49</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="103"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="123"/>
       <c r="M18" s="87"/>
       <c r="O18" s="87"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
       <c r="Z18" s="103"/>
       <c r="AA18" s="87"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="104" t="str">
+      <c r="B19" s="124">
         <f>MataMataC02!B19</f>
-        <v>Julius Azevedo</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128">
         <f>MataMataC02!I19</f>
-        <v>Jefferson Pinheiro</v>
-      </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="109"/>
-      <c r="O19" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="129"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="104">
         <f>MataMataC02!B51</f>
         <v>0</v>
@@ -8436,157 +7768,146 @@
       <c r="Q19" s="105"/>
       <c r="R19" s="105"/>
       <c r="S19" s="105"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="108">
+      <c r="T19" s="96"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="106">
         <f>MataMataC02!I51</f>
         <v>0</v>
       </c>
       <c r="X19" s="105"/>
       <c r="Y19" s="105"/>
-      <c r="Z19" s="109"/>
+      <c r="Z19" s="107"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="O20" s="66"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85">
+      <c r="A21" s="86">
         <f>MataMataC02!A21</f>
-        <v>874216</v>
-      </c>
-      <c r="B21" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="B21" s="109">
         <f>MataMataC02!B21</f>
-        <v>Real Litoral FC</v>
-      </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92">
+        <v>0</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112">
         <f>MataMataC02!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" s="94">
+      <c r="G21" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="114">
         <f>MataMataC02!H21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="95" t="str">
+      <c r="I21" s="115">
         <f>MataMataC02!I21</f>
-        <v>CLECIO1976 F.C</v>
-      </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="85">
+        <v>0</v>
+      </c>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="86">
         <f>MataMataC02!M21</f>
-        <v>302929</v>
-      </c>
-      <c r="O21" s="85">
+        <v>0</v>
+      </c>
+      <c r="O21" s="86">
         <f>MataMataC02!A53</f>
         <v>0</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="88">
         <f>MataMataC02!B53</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="92">
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="94">
         <f>MataMataC02!F53</f>
         <v>0</v>
       </c>
-      <c r="U21" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V21" s="94">
+      <c r="U21" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V21" s="98">
         <f>MataMataC02!H53</f>
         <v>0</v>
       </c>
-      <c r="W21" s="95">
+      <c r="W21" s="101">
         <f>MataMataC02!I53</f>
         <v>0</v>
       </c>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="85">
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="86">
         <f>MataMataC02!M53</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="103"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="87"/>
       <c r="O22" s="87"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="103"/>
       <c r="AA22" s="87"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="104" t="str">
+      <c r="B23" s="124">
         <f>MataMataC02!B23</f>
-        <v xml:space="preserve">Marcelo Henrique </v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128">
         <f>MataMataC02!I23</f>
-        <v>Clecio</v>
-      </c>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="109"/>
-      <c r="O23" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="129"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="104">
         <f>MataMataC02!B55</f>
         <v>0</v>
@@ -8594,157 +7915,146 @@
       <c r="Q23" s="105"/>
       <c r="R23" s="105"/>
       <c r="S23" s="105"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="108">
+      <c r="T23" s="96"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="106">
         <f>MataMataC02!I55</f>
         <v>0</v>
       </c>
       <c r="X23" s="105"/>
       <c r="Y23" s="105"/>
-      <c r="Z23" s="109"/>
+      <c r="Z23" s="107"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85">
+      <c r="A25" s="86">
         <f>MataMataC02!A25</f>
-        <v>409114</v>
-      </c>
-      <c r="B25" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="B25" s="109">
         <f>MataMataC02!B25</f>
-        <v>F.C Trupingas</v>
-      </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92">
+        <v>0</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112">
         <f>MataMataC02!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H25" s="94">
+      <c r="G25" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="114">
         <f>MataMataC02!H25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="95" t="str">
+      <c r="I25" s="115">
         <f>MataMataC02!I25</f>
-        <v>FUT ART SP</v>
-      </c>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="85">
+        <v>0</v>
+      </c>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="86">
         <f>MataMataC02!M25</f>
-        <v>5545590</v>
-      </c>
-      <c r="O25" s="85">
+        <v>0</v>
+      </c>
+      <c r="O25" s="86">
         <f>MataMataC02!A57</f>
         <v>0</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="88">
         <f>MataMataC02!B57</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="92">
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="94">
         <f>MataMataC02!F57</f>
         <v>0</v>
       </c>
-      <c r="U25" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V25" s="94">
+      <c r="U25" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V25" s="98">
         <f>MataMataC02!H57</f>
         <v>0</v>
       </c>
-      <c r="W25" s="95">
+      <c r="W25" s="101">
         <f>MataMataC02!I57</f>
         <v>0</v>
       </c>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="85">
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="86">
         <f>MataMataC02!M57</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="103"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="123"/>
       <c r="M26" s="87"/>
       <c r="O26" s="87"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
       <c r="Z26" s="103"/>
       <c r="AA26" s="87"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="104" t="str">
+      <c r="B27" s="124">
         <f>MataMataC02!B27</f>
-        <v>Tiago Lima</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="128">
         <f>MataMataC02!I27</f>
-        <v>Fabio Massini</v>
-      </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="109"/>
-      <c r="O27" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="129"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="104">
         <f>MataMataC02!B59</f>
         <v>0</v>
@@ -8752,157 +8062,146 @@
       <c r="Q27" s="105"/>
       <c r="R27" s="105"/>
       <c r="S27" s="105"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="108">
+      <c r="T27" s="96"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="106">
         <f>MataMataC02!I59</f>
         <v>0</v>
       </c>
       <c r="X27" s="105"/>
       <c r="Y27" s="105"/>
-      <c r="Z27" s="109"/>
+      <c r="Z27" s="107"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="O28" s="66"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85">
+      <c r="A29" s="86">
         <f>MataMataC02!A29</f>
-        <v>28694260</v>
-      </c>
-      <c r="B29" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="B29" s="109">
         <f>MataMataC02!B29</f>
-        <v>The wailers F.c Brasilanjah</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92">
+        <v>0</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112">
         <f>MataMataC02!F29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="94">
+      <c r="G29" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="114">
         <f>MataMataC02!H29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="95" t="str">
+      <c r="I29" s="115">
         <f>MataMataC02!I29</f>
-        <v>Verdão 1000 grau FC</v>
-      </c>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="85">
+        <v>0</v>
+      </c>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="86">
         <f>MataMataC02!M29</f>
-        <v>8775722</v>
-      </c>
-      <c r="O29" s="85">
+        <v>0</v>
+      </c>
+      <c r="O29" s="86">
         <f>MataMataC02!A61</f>
         <v>0</v>
       </c>
-      <c r="P29" s="89">
+      <c r="P29" s="88">
         <f>MataMataC02!B61</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="92">
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="94">
         <f>MataMataC02!F61</f>
         <v>0</v>
       </c>
-      <c r="U29" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="V29" s="94">
+      <c r="U29" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V29" s="98">
         <f>MataMataC02!H61</f>
         <v>0</v>
       </c>
-      <c r="W29" s="95">
+      <c r="W29" s="101">
         <f>MataMataC02!I61</f>
         <v>0</v>
       </c>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="85">
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="86">
         <f>MataMataC02!M61</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="103"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="123"/>
       <c r="M30" s="87"/>
       <c r="O30" s="87"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
       <c r="Z30" s="103"/>
       <c r="AA30" s="87"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="104" t="str">
+      <c r="B31" s="124">
         <f>MataMataC02!B31</f>
-        <v>T.w</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128">
         <f>MataMataC02!I31</f>
-        <v>Thomaz</v>
-      </c>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="109"/>
-      <c r="O31" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="129"/>
+      <c r="O31" s="66"/>
       <c r="P31" s="104">
         <f>MataMataC02!B63</f>
         <v>0</v>
@@ -8910,76 +8209,84 @@
       <c r="Q31" s="105"/>
       <c r="R31" s="105"/>
       <c r="S31" s="105"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="108">
+      <c r="T31" s="96"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="106">
         <f>MataMataC02!I63</f>
         <v>0</v>
       </c>
       <c r="X31" s="105"/>
       <c r="Y31" s="105"/>
-      <c r="Z31" s="109"/>
+      <c r="Z31" s="107"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:S30"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:Z30"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:S14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="I31:L31"/>
@@ -9004,70 +8311,62 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="P21:S22"/>
     <mergeCell ref="T21:T23"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:L30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:L22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:Z30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A860E71-A353-4473-B643-8A49C2FC1174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2AEB3-C5B4-4644-86F4-A0314D879ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LigaEliminatória" sheetId="3" r:id="rId3"/>
     <sheet name="MataMataLiga" sheetId="4" r:id="rId4"/>
     <sheet name="MataMataC02" sheetId="5" r:id="rId5"/>
-    <sheet name="MMC02-1fase" sheetId="7" r:id="rId6"/>
+    <sheet name="MMC02-1fase" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="253">
   <si>
     <t>Turno</t>
   </si>
@@ -470,337 +470,328 @@
     <t>E.C.O 82</t>
   </si>
   <si>
+    <t>L&amp;G Cabral</t>
+  </si>
+  <si>
+    <t>SC Karate Kid</t>
+  </si>
+  <si>
     <t>Cohab da madeira</t>
   </si>
   <si>
-    <t>SC Karate Kid</t>
-  </si>
-  <si>
-    <t>L&amp;G Cabral</t>
-  </si>
-  <si>
     <t>C.A. ALSHOW</t>
   </si>
   <si>
+    <t xml:space="preserve">Meus Ovos </t>
+  </si>
+  <si>
+    <t>Meus Ovos</t>
+  </si>
+  <si>
+    <t>Manollo F.C</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
+    <t>LQueiroz Castelucas FC</t>
+  </si>
+  <si>
     <t xml:space="preserve">S.C. Brasilandia City </t>
   </si>
   <si>
-    <t>Meus Ovos</t>
-  </si>
-  <si>
-    <t>LQueiroz Castelucas FC</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Ovos </t>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>FisioT's</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
   </si>
   <si>
     <t>CHAPELETA10</t>
   </si>
   <si>
-    <t>Manollo F.C</t>
-  </si>
-  <si>
-    <t>FisioT's</t>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
   </si>
   <si>
     <t>Brahma 07 FC</t>
   </si>
   <si>
+    <t>KVRA-Z/O</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>Bayer de Favela Guarulhos</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>Hrvatska Soccer F.C</t>
+  </si>
+  <si>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
+    <t>MITTO100NI</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Vocês tão Lascados</t>
+  </si>
+  <si>
+    <t>Santa fé futebol e samba</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
+  </si>
+  <si>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
     <t>Medão Fc</t>
   </si>
   <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Esquaiella F.C</t>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Maste fla</t>
   </si>
   <si>
     <t>Arloso FC</t>
   </si>
   <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>Team Portogalo FC</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>Vocês tão Lascados</t>
-  </si>
-  <si>
-    <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>CLAN MORT</t>
+  </si>
+  <si>
+    <t>Mont City R.B.</t>
   </si>
   <si>
     <t>Los Angeles Stars FC</t>
   </si>
   <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>alhfao</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>Hrvatska Soccer F.C</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>Bayer de Favela Guarulhos</t>
-  </si>
-  <si>
-    <t>MITTO100NI</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>Santa fé futebol e samba</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>Mont City R.B.</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellington </t>
-  </si>
-  <si>
     <t>thiago leal de assis</t>
   </si>
   <si>
-    <t>Jé de Oliveira</t>
-  </si>
-  <si>
     <t>Nilson Dias</t>
   </si>
   <si>
-    <t>Jefferson Pinheiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcelo Henrique </t>
   </si>
   <si>
     <t>Fabio Massini</t>
   </si>
   <si>
-    <t>T.w</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>The Wailers F.c Brasilandiaaaa</t>
   </si>
 </sst>
 </file>
@@ -1551,51 +1542,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,26 +1580,56 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,21 +1638,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2014,87 +2005,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AR3" sqref="AR3:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="64" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="64" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="64" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="64" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="64" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="64" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="64" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="64" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="64" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="64" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="64" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="64" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="64" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="64" customWidth="1"/>
-    <col min="25" max="26" width="11.42578125" style="64" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" style="64" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="64" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="64" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="64" customWidth="1"/>
-    <col min="33" max="33" width="2.85546875" style="64" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="64" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="64" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="64" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" style="64" customWidth="1"/>
-    <col min="39" max="40" width="5.7109375" style="64" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" style="64" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="64" customWidth="1"/>
-    <col min="43" max="43" width="2.85546875" style="64" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="64" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="63" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="63" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="63" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="63" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="63" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="63" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="63" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="63" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="63" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="63" customWidth="1"/>
+    <col min="25" max="26" width="11.42578125" style="63" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="63" customWidth="1"/>
+    <col min="28" max="29" width="5.7109375" style="63" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="63" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="63" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" style="63" customWidth="1"/>
+    <col min="34" max="35" width="5.7109375" style="63" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="63" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="63" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="63" customWidth="1"/>
+    <col min="39" max="40" width="5.7109375" style="63" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" style="63" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="63" customWidth="1"/>
+    <col min="43" max="43" width="2.85546875" style="63" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="63" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" style="63" customWidth="1"/>
     <col min="46" max="46" width="11.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="64" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" style="64" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="63" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" style="63" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="40" customWidth="1"/>
-    <col min="50" max="50" width="2.85546875" style="64" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="64" customWidth="1"/>
-    <col min="52" max="52" width="38.5703125" style="64" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="64" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="64" customWidth="1"/>
-    <col min="55" max="55" width="2.85546875" style="64" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" style="64" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="64" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="64" customWidth="1"/>
-    <col min="59" max="59" width="11.42578125" style="64" customWidth="1"/>
-    <col min="60" max="60" width="2.85546875" style="64" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="63" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" style="63" customWidth="1"/>
+    <col min="52" max="52" width="38.5703125" style="63" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="63" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="63" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" style="63" customWidth="1"/>
+    <col min="56" max="56" width="5.42578125" style="63" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="63" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="63" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" style="63" customWidth="1"/>
+    <col min="60" max="60" width="2.85546875" style="63" customWidth="1"/>
     <col min="61" max="61" width="7.7109375" style="48" customWidth="1"/>
-    <col min="62" max="62" width="28.5703125" style="64" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" style="64" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="64" customWidth="1"/>
-    <col min="65" max="65" width="28.5703125" style="64" customWidth="1"/>
-    <col min="66" max="66" width="2.85546875" style="64" customWidth="1"/>
+    <col min="62" max="62" width="28.5703125" style="63" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" style="63" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="63" customWidth="1"/>
+    <col min="65" max="65" width="28.5703125" style="63" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" style="63" customWidth="1"/>
     <col min="67" max="67" width="7.7109375" style="48" customWidth="1"/>
-    <col min="68" max="68" width="28.5703125" style="64" customWidth="1"/>
-    <col min="69" max="69" width="2.85546875" style="64" customWidth="1"/>
-    <col min="70" max="70" width="5.7109375" style="64" customWidth="1"/>
-    <col min="71" max="71" width="28.5703125" style="64" customWidth="1"/>
-    <col min="72" max="72" width="2.85546875" style="64" customWidth="1"/>
+    <col min="68" max="68" width="28.5703125" style="63" customWidth="1"/>
+    <col min="69" max="69" width="2.85546875" style="63" customWidth="1"/>
+    <col min="70" max="70" width="5.7109375" style="63" customWidth="1"/>
+    <col min="71" max="71" width="28.5703125" style="63" customWidth="1"/>
+    <col min="72" max="72" width="2.85546875" style="63" customWidth="1"/>
     <col min="73" max="73" width="7.7109375" style="48" customWidth="1"/>
-    <col min="74" max="74" width="28.5703125" style="64" customWidth="1"/>
-    <col min="75" max="75" width="2.85546875" style="64" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="64" customWidth="1"/>
-    <col min="77" max="77" width="28.5703125" style="64" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" style="64" customWidth="1"/>
-    <col min="79" max="79" width="7.7109375" style="64" customWidth="1"/>
-    <col min="80" max="80" width="28.5703125" style="64" customWidth="1"/>
-    <col min="81" max="91" width="9.140625" style="64" customWidth="1"/>
-    <col min="92" max="16384" width="9.140625" style="64"/>
+    <col min="74" max="74" width="28.5703125" style="63" customWidth="1"/>
+    <col min="75" max="75" width="2.85546875" style="63" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="63" customWidth="1"/>
+    <col min="77" max="77" width="28.5703125" style="63" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" style="63" customWidth="1"/>
+    <col min="79" max="79" width="7.7109375" style="63" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" style="63" customWidth="1"/>
+    <col min="81" max="92" width="9.140625" style="63" customWidth="1"/>
+    <col min="93" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="63" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:80" s="65" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2111,7 @@
       <c r="S2" s="73"/>
       <c r="T2" s="73"/>
       <c r="U2" s="73"/>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="81" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="73"/>
@@ -2173,9 +2164,9 @@
       <c r="BN2" s="73"/>
       <c r="BO2" s="73"/>
       <c r="BP2" s="73"/>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
       <c r="BT2" s="50"/>
       <c r="BU2" s="72"/>
       <c r="BV2" s="73"/>
@@ -2295,32 +2286,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="81" t="s">
+      <c r="BI3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="80"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="71"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="83" t="s">
+      <c r="BO3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="80"/>
-      <c r="BU3" s="84" t="s">
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="71"/>
+      <c r="BU3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="82"/>
-      <c r="BW3" s="82"/>
-      <c r="BX3" s="82"/>
-      <c r="BY3" s="80"/>
-      <c r="CA3" s="79" t="s">
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="75"/>
+      <c r="BY3" s="71"/>
+      <c r="CA3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="CB3" s="80"/>
+      <c r="CB3" s="71"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2332,7 +2323,7 @@
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>654.3798828125</v>
+        <v>723.52978515625</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -2356,11 +2347,11 @@
       </c>
       <c r="M4" s="38" t="str">
         <f>LigaPrincipal!F15</f>
-        <v>FisioT's</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>158.44</v>
+        <v>162.65</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -2392,12 +2383,12 @@
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>654.3798828125</v>
+        <v>723.52978515625</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AB4" s="82" t="s">
         <v>22</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2414,7 +2405,7 @@
       <c r="AF4" s="25">
         <v>100</v>
       </c>
-      <c r="AH4" s="76">
+      <c r="AH4" s="78">
         <v>1</v>
       </c>
       <c r="AI4" s="9" t="s">
@@ -2426,7 +2417,7 @@
       <c r="AK4" s="25">
         <v>100</v>
       </c>
-      <c r="AM4" s="76">
+      <c r="AM4" s="78">
         <v>1</v>
       </c>
       <c r="AN4" s="9" t="s">
@@ -2443,22 +2434,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>Brahma 07 FC</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>81.319999999999993</v>
+        <v>89.53</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>Breeja F.C</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>41.17</v>
+        <v>58.55</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>21</v>
@@ -2468,7 +2459,7 @@
       <c r="BB4" s="29">
         <v>1000</v>
       </c>
-      <c r="BD4" s="76">
+      <c r="BD4" s="78">
         <v>1</v>
       </c>
       <c r="BE4" s="9" t="s">
@@ -2510,11 +2501,11 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>LigaPrincipal!F4</f>
-        <v>Cohab da madeira</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>638.07958984375</v>
+        <v>707.609375</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2538,11 +2529,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>The wailers. pro</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>155.59</v>
+        <v>161.83000000000001</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2570,16 +2561,16 @@
       </c>
       <c r="X5" s="37" t="str">
         <f>LigaPrincipal!B4</f>
-        <v>Cohab da madeira</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>638.07958984375</v>
+        <v>707.609375</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="75"/>
+      <c r="AB5" s="80"/>
       <c r="AC5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2594,7 +2585,7 @@
       <c r="AF5" s="26">
         <v>50</v>
       </c>
-      <c r="AH5" s="77"/>
+      <c r="AH5" s="79"/>
       <c r="AI5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2604,7 +2595,7 @@
       <c r="AK5" s="61">
         <v>50</v>
       </c>
-      <c r="AM5" s="77"/>
+      <c r="AM5" s="79"/>
       <c r="AN5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2619,22 +2610,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>Pagangrizo’s team</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>80.52</v>
+        <v>82.85</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>LiverpooI</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>40.520000000000003</v>
+        <v>57.23</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>27</v>
@@ -2644,7 +2635,7 @@
       <c r="BB5" s="30">
         <v>500</v>
       </c>
-      <c r="BD5" s="77"/>
+      <c r="BD5" s="79"/>
       <c r="BE5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2657,7 +2648,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>Brahma 07 FC</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2665,7 +2656,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>Mister Oliveira F.C</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2673,7 +2664,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>Los Angeles Stars FC</v>
+        <v>EC Samba Social</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2681,7 +2672,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>Shibo F.C.</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2689,7 +2680,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2697,14 +2688,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>FisioT's</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>CLECIO1976 F.C</v>
+        <v>Igor Fontes F.C.</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2713,11 +2704,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>L&amp;G Cabral</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>637.9794921875</v>
+        <v>700.78955078125</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2741,11 +2732,11 @@
       </c>
       <c r="M6" s="36" t="str">
         <f>LigaPrincipal!F17</f>
-        <v>Real Litoral FC</v>
+        <v>FisioT's</v>
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>155.35</v>
+        <v>161.6</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2773,16 +2764,16 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>L&amp;G Cabral</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>637.9794921875</v>
+        <v>700.78955078125</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="74" t="s">
+      <c r="AB6" s="82" t="s">
         <v>39</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2799,7 +2790,7 @@
       <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="75"/>
+      <c r="AH6" s="80"/>
       <c r="AI6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2809,7 +2800,7 @@
       <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="75"/>
+      <c r="AM6" s="80"/>
       <c r="AN6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2824,22 +2815,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>E.C SIEMACO SP</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>70.430000000000007</v>
+        <v>80.750000000000014</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>Porco Verde WA</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>40.119999999999997</v>
+        <v>56.830000000000013</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>38</v>
@@ -2849,7 +2840,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="75"/>
+      <c r="BD6" s="80"/>
       <c r="BE6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2870,7 +2861,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>Cata Cata 71</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2878,7 +2869,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>FUT ART SP</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2886,7 +2877,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>Maleví F.D.</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2894,7 +2885,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>MITTO100NI</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2902,14 +2893,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>São Paulo Edu Física</v>
+        <v>CLAN MORT</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,16 +2909,16 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>630.7900390625</v>
+        <v>698.169677734375</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="75"/>
+      <c r="AB7" s="80"/>
       <c r="AC7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2942,7 +2933,7 @@
       <c r="AF7" s="26">
         <v>50</v>
       </c>
-      <c r="AH7" s="76">
+      <c r="AH7" s="78">
         <v>2</v>
       </c>
       <c r="AI7" s="9" t="s">
@@ -2952,7 +2943,7 @@
       <c r="AK7" s="19">
         <v>100</v>
       </c>
-      <c r="AM7" s="76">
+      <c r="AM7" s="78">
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
@@ -2971,18 +2962,18 @@
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>64.63000000000001</v>
+        <v>74.83</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>Brasilândia MSFC</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>39.520000000000003</v>
+        <v>56.23</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>50</v>
@@ -2992,7 +2983,7 @@
       <c r="BB7" s="30">
         <v>250</v>
       </c>
-      <c r="BD7" s="76">
+      <c r="BD7" s="78">
         <v>2</v>
       </c>
       <c r="BE7" s="9" t="s">
@@ -3007,7 +2998,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -3015,7 +3006,7 @@
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>E.C.O 82</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
@@ -3023,7 +3014,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>alhfao</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -3031,7 +3022,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>S.E. FINISH</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -3039,7 +3030,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>verdao29fc</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -3047,37 +3038,37 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>$uicide $quad F.C</v>
+        <v>LiverpooI</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>57</v>
       </c>
       <c r="CB7" s="55" t="str">
         <f>MataMataLiga!A99</f>
-        <v>Igor Fontes F.C.</v>
+        <v>Mont City R.B.</v>
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>628.320068359375</v>
+        <v>693.7099609375</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AB8" s="82" t="s">
         <v>59</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -3085,16 +3076,16 @@
       </c>
       <c r="AD8" s="38" t="str">
         <f>LigaPrincipal!L7</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>The Wailers F.c Brasilandiaaaa</v>
       </c>
       <c r="AE8" s="22">
         <f>LigaPrincipal!M7</f>
-        <v>143.99</v>
+        <v>220.39</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
       </c>
-      <c r="AH8" s="77"/>
+      <c r="AH8" s="79"/>
       <c r="AI8" s="10" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3093,7 @@
       <c r="AK8" s="17">
         <v>50</v>
       </c>
-      <c r="AM8" s="77"/>
+      <c r="AM8" s="79"/>
       <c r="AN8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3115,22 +3106,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>LQueiroz FC</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>64.150000000000006</v>
+        <v>74.61999999999999</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>36.950000000000003</v>
+        <v>55.850000000000009</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>58</v>
@@ -3140,7 +3131,7 @@
       <c r="BB8" s="31">
         <v>200</v>
       </c>
-      <c r="BD8" s="77"/>
+      <c r="BD8" s="79"/>
       <c r="BE8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3152,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>Vocês tão Lascados</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -3169,7 +3160,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -3177,7 +3168,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>Artefutt</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -3185,7 +3176,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>HANDEVU FC</v>
+        <v>Maleví F.D.</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -3193,14 +3184,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>KVRA-Z/O</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>66</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>Maste fla</v>
+        <v>Los Angeles Stars FC</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3214,31 +3205,31 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>626.639892578125</v>
+        <v>688.370361328125</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="75"/>
+      <c r="AB9" s="80"/>
       <c r="AC9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AD9" s="36" t="str">
         <f>LigaPrincipal!L8</f>
-        <v>S.C. Brasilandia City</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="AE9" s="24">
         <f>LigaPrincipal!M8</f>
-        <v>139.35</v>
+        <v>218.67</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="75"/>
+      <c r="AH9" s="80"/>
       <c r="AI9" s="11" t="s">
         <v>40</v>
       </c>
@@ -3246,7 +3237,7 @@
       <c r="AK9" s="18">
         <v>30</v>
       </c>
-      <c r="AM9" s="75"/>
+      <c r="AM9" s="80"/>
       <c r="AN9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3259,28 +3250,28 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>62.95</v>
+        <v>73.22</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>METAMORPHO</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>36.630000000000003</v>
+        <v>55.350000000000009</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="75"/>
+      <c r="BD9" s="80"/>
       <c r="BE9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3284,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>E.C SIEMACO SP</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -3301,7 +3292,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>Rage Against Cloroquina</v>
+        <v>FUT ART SP</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -3309,7 +3300,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>Forró Social Club</v>
+        <v>TERUEG</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -3317,7 +3308,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>DiasBons EC</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -3325,7 +3316,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>METAMORPHO</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -3333,7 +3324,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3347,16 +3338,16 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>Manollo F.C</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>623.39013671875</v>
+        <v>684.8701171875</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="74" t="s">
+      <c r="AB10" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -3373,7 +3364,7 @@
       <c r="AF10" s="19">
         <v>100</v>
       </c>
-      <c r="AH10" s="76">
+      <c r="AH10" s="78">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -3383,7 +3374,7 @@
       <c r="AK10" s="19">
         <v>100</v>
       </c>
-      <c r="AM10" s="76">
+      <c r="AM10" s="78">
         <v>3</v>
       </c>
       <c r="AN10" s="9" t="s">
@@ -3398,28 +3389,28 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>SEP Campeoníssimo</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>60.13</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>35.97</v>
+        <v>52.53</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
-      <c r="BD10" s="76">
+      <c r="BD10" s="78">
         <v>3</v>
       </c>
       <c r="BE10" s="9" t="s">
@@ -3434,7 +3425,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3442,7 +3433,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>Manollo F.C</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3450,7 +3441,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>Xo Corona</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3458,7 +3449,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>Brasilândia MSFC</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3466,7 +3457,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>Renalare</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3474,7 +3465,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>APOCALIPSE1910</v>
+        <v>Rage Against Cloroquina</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3488,16 +3479,16 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v>FisioT's</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>618.6806640625</v>
+        <v>678.719970703125</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="75"/>
+      <c r="AB11" s="80"/>
       <c r="AC11" s="11" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3503,7 @@
       <c r="AF11" s="18">
         <v>50</v>
       </c>
-      <c r="AH11" s="77"/>
+      <c r="AH11" s="79"/>
       <c r="AI11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3520,7 +3511,7 @@
       <c r="AK11" s="17">
         <v>50</v>
       </c>
-      <c r="AM11" s="77"/>
+      <c r="AM11" s="79"/>
       <c r="AN11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3533,28 +3524,28 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>Tornad000</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>58.750000000000007</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>Bávaros Bier</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>35.35</v>
+        <v>51.95</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="39"/>
       <c r="BB11" s="39"/>
-      <c r="BD11" s="77"/>
+      <c r="BD11" s="79"/>
       <c r="BE11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3567,7 +3558,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>02 de outubro</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3575,7 +3566,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v>LamucciSPFC</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3583,7 +3574,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>L&amp;G Cabral</v>
+        <v>02 de outubro</v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3591,7 +3582,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3599,7 +3590,7 @@
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
@@ -3607,7 +3598,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>Brahma 07 FC</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,16 +3612,16 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>Brahma 07 FC</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>614.179443359375</v>
+        <v>677.239990234375</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="74" t="s">
+      <c r="AB12" s="82" t="s">
         <v>89</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3647,7 +3638,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="75"/>
+      <c r="AH12" s="80"/>
       <c r="AI12" s="11" t="s">
         <v>40</v>
       </c>
@@ -3655,7 +3646,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="75"/>
+      <c r="AM12" s="80"/>
       <c r="AN12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3668,28 +3659,28 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>Cata Cata 71</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>57.28</v>
+        <v>69.830000000000013</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="AV12" s="32" t="str">
         <f>LigaEliminatória!B36</f>
-        <v>SC Karate Kid</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>35.159999999999997</v>
+        <v>51.930000000000007</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="75"/>
+      <c r="BD12" s="80"/>
       <c r="BE12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3702,7 +3693,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>Esquaiella F.C</v>
+        <v>Breeja F.C</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3710,7 +3701,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Zildane F.C</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3718,7 +3709,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>DUFF F.D.</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3726,7 +3717,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>Zildane F.C</v>
+        <v>showlimafc</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3734,7 +3725,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3742,7 +3733,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>KAMIKA$E F.C</v>
+        <v>DUFF F.D.</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3756,16 +3747,16 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>Medão Fc</v>
+        <v>FisioT's</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>608.409912109375</v>
+        <v>674.91064453125</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="75"/>
+      <c r="AB13" s="80"/>
       <c r="AC13" s="11" t="s">
         <v>27</v>
       </c>
@@ -3780,7 +3771,7 @@
       <c r="AF13" s="18">
         <v>50</v>
       </c>
-      <c r="AH13" s="76">
+      <c r="AH13" s="78">
         <v>4</v>
       </c>
       <c r="AI13" s="9" t="s">
@@ -3790,7 +3781,7 @@
       <c r="AK13" s="19">
         <v>100</v>
       </c>
-      <c r="AM13" s="76">
+      <c r="AM13" s="78">
         <v>4</v>
       </c>
       <c r="AN13" s="9" t="s">
@@ -3805,28 +3796,28 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>LamucciSPFC</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>55.12</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>35.020000000000003</v>
+        <v>50.429999999999993</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="39"/>
       <c r="BB13" s="39"/>
-      <c r="BD13" s="76">
+      <c r="BD13" s="78">
         <v>4</v>
       </c>
       <c r="BE13" s="9" t="s">
@@ -3849,7 +3840,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>TERUEG</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3857,7 +3848,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>Breeja F.C</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3865,7 +3856,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>LiverpooI</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3873,7 +3864,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>Bávaros Bier</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3881,16 +3872,16 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>RealXavier</v>
+        <v>El Loko China</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="74" t="s">
+      <c r="AB14" s="82" t="s">
         <v>101</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3907,7 +3898,7 @@
       <c r="AF14" s="19">
         <v>100</v>
       </c>
-      <c r="AH14" s="77"/>
+      <c r="AH14" s="79"/>
       <c r="AI14" s="10" t="s">
         <v>28</v>
       </c>
@@ -3915,7 +3906,7 @@
       <c r="AK14" s="17">
         <v>50</v>
       </c>
-      <c r="AM14" s="77"/>
+      <c r="AM14" s="79"/>
       <c r="AN14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3928,28 +3919,28 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>S.C. Brasilandia City</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>53.53</v>
+        <v>66.83</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>MEM- TRICOLOR</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>34.75</v>
+        <v>50.05</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
       <c r="BA14" s="39"/>
       <c r="BB14" s="39"/>
-      <c r="BD14" s="77"/>
+      <c r="BD14" s="79"/>
       <c r="BE14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3962,7 +3953,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>Arloso FC</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -3970,7 +3961,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>RealXavier</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -3978,7 +3969,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>CHAPELETA10</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -3986,7 +3977,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>FisioT's</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -3994,7 +3985,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>MEM- TRICOLOR</v>
+        <v>Renalare</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -4002,7 +3993,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>CLAN MORT</v>
+        <v>alhfao</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4011,7 +4002,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="75"/>
+      <c r="AB15" s="80"/>
       <c r="AC15" s="11" t="s">
         <v>27</v>
       </c>
@@ -4026,7 +4017,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="75"/>
+      <c r="AH15" s="80"/>
       <c r="AI15" s="11" t="s">
         <v>40</v>
       </c>
@@ -4034,7 +4025,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="75"/>
+      <c r="AM15" s="80"/>
       <c r="AN15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4047,28 +4038,28 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v>Renato 007 Exp 2021</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>52.55</v>
+        <v>66.73</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>32.369999999999997</v>
+        <v>49.65</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="75"/>
+      <c r="BD15" s="80"/>
       <c r="BE15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4081,7 +4072,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>El Loko China</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -4089,7 +4080,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>S. E. CURUPIRA</v>
+        <v>Vocês tão Lascados</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -4097,7 +4088,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>R.N.S FC</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -4105,7 +4096,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>Hepta 17 FC</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -4113,7 +4104,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>SC Karate Kid</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -4121,7 +4112,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v>EC Samba Social</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4130,7 +4121,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="74" t="s">
+      <c r="AB16" s="82" t="s">
         <v>112</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -4147,7 +4138,7 @@
       <c r="AF16" s="19">
         <v>100</v>
       </c>
-      <c r="AH16" s="76">
+      <c r="AH16" s="78">
         <v>5</v>
       </c>
       <c r="AI16" s="9" t="s">
@@ -4157,7 +4148,7 @@
       <c r="AK16" s="19">
         <v>100</v>
       </c>
-      <c r="AM16" s="76">
+      <c r="AM16" s="78">
         <v>5</v>
       </c>
       <c r="AN16" s="9" t="s">
@@ -4172,28 +4163,28 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v>SCFVelasco2021</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>52.02</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>LiverpooI</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>32.15</v>
+        <v>48.05</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
       <c r="BA16" s="39"/>
       <c r="BB16" s="39"/>
-      <c r="BD16" s="76">
+      <c r="BD16" s="78">
         <v>5</v>
       </c>
       <c r="BE16" s="9" t="s">
@@ -4208,7 +4199,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>Fantasma Osasco fc</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -4216,7 +4207,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>Tornadooo F.C</v>
+        <v>Santa fé futebol e samba</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -4224,7 +4215,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -4232,7 +4223,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>O Cartola II</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -4240,7 +4231,7 @@
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
@@ -4248,7 +4239,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>Santa fé futebol e samba</v>
+        <v>Maste fla</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4257,7 +4248,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="75"/>
+      <c r="AB17" s="80"/>
       <c r="AC17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4272,7 +4263,7 @@
       <c r="AF17" s="18">
         <v>50</v>
       </c>
-      <c r="AH17" s="77"/>
+      <c r="AH17" s="79"/>
       <c r="AI17" s="10" t="s">
         <v>28</v>
       </c>
@@ -4280,7 +4271,7 @@
       <c r="AK17" s="17">
         <v>50</v>
       </c>
-      <c r="AM17" s="77"/>
+      <c r="AM17" s="79"/>
       <c r="AN17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4293,28 +4284,28 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>AVANTI AZZURRA</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>48.72</v>
+        <v>64.53</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>KVRA-Z/O</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>31.75</v>
+        <v>46.63</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
       <c r="BA17" s="39"/>
       <c r="BB17" s="39"/>
-      <c r="BD17" s="77"/>
+      <c r="BD17" s="79"/>
       <c r="BE17" s="10" t="s">
         <v>27</v>
       </c>
@@ -4327,7 +4318,7 @@
       </c>
       <c r="BJ17" s="55" t="str">
         <f>MataMataLiga!A13</f>
-        <v>Medão Fc</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="BK17" s="51"/>
       <c r="BL17" s="46" t="s">
@@ -4335,7 +4326,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>Artefutt</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -4343,7 +4334,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>C.A. ELSHOW</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -4351,7 +4342,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>F.C Trupingas</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -4359,7 +4350,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>kamicase2 fc</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -4367,7 +4358,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>KVRA-Z/O</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,7 +4367,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="74" t="s">
+      <c r="AB18" s="82" t="s">
         <v>123</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -4393,7 +4384,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="75"/>
+      <c r="AH18" s="80"/>
       <c r="AI18" s="11" t="s">
         <v>40</v>
       </c>
@@ -4401,7 +4392,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="75"/>
+      <c r="AM18" s="80"/>
       <c r="AN18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4414,28 +4405,28 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>DUFF F.D.</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>47.849999999999987</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>91</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>Tornad000</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>30.25</v>
+        <v>45.63</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="75"/>
+      <c r="BD18" s="80"/>
       <c r="BE18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4448,7 +4439,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>Team Portogalo FC</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4456,7 +4447,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v>showlimafc</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4464,7 +4455,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>SCCP Quarta força</v>
+        <v>HANDEVU FC</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4472,7 +4463,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4480,7 +4471,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4488,7 +4479,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Reinafcr</v>
+        <v>Arloso FC</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4497,7 +4488,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="75"/>
+      <c r="AB19" s="80"/>
       <c r="AC19" s="11" t="s">
         <v>27</v>
       </c>
@@ -4512,7 +4503,7 @@
       <c r="AF19" s="18">
         <v>50</v>
       </c>
-      <c r="AH19" s="76">
+      <c r="AH19" s="78">
         <v>6</v>
       </c>
       <c r="AI19" s="9" t="s">
@@ -4522,7 +4513,7 @@
       <c r="AK19" s="19">
         <v>100</v>
       </c>
-      <c r="AM19" s="76">
+      <c r="AM19" s="78">
         <v>6</v>
       </c>
       <c r="AN19" s="9" t="s">
@@ -4537,28 +4528,28 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>46.25</v>
+        <v>63.2</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>$uicide $quad F.C</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>30.15</v>
+        <v>44.8</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="39"/>
-      <c r="BD19" s="76">
+      <c r="BD19" s="78">
         <v>6</v>
       </c>
       <c r="BE19" s="9" t="s">
@@ -4573,7 +4564,7 @@
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>Cohab da madeira</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
@@ -4581,7 +4572,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>SCFVelasco2021</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4589,7 +4580,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>Rei dos mares F.C</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4597,7 +4588,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4605,7 +4596,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4613,16 +4604,16 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Mont City R.B.</v>
+        <v>Xo Corona</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="AH20" s="77"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="AH20" s="79"/>
       <c r="AI20" s="10" t="s">
         <v>28</v>
       </c>
@@ -4630,7 +4621,7 @@
       <c r="AK20" s="17">
         <v>50</v>
       </c>
-      <c r="AM20" s="77"/>
+      <c r="AM20" s="79"/>
       <c r="AN20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4643,28 +4634,28 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>L&amp;G Cabral</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>45.02</v>
+        <v>63.030000000000008</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>KAMIKA$E F.C</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>28.75</v>
+        <v>41.33</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="39"/>
-      <c r="BD20" s="77"/>
+      <c r="BD20" s="79"/>
       <c r="BE20" s="10" t="s">
         <v>27</v>
       </c>
@@ -4685,7 +4676,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>AVANTI AZZURRA</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4693,7 +4684,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>45 do 2!</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4701,7 +4692,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>Porco Verde WA</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4709,7 +4700,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>$ANTO$</v>
+        <v>Reinafcr</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4717,7 +4708,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>Mister Oliveira F.C</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4726,7 +4717,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="75"/>
+      <c r="AH21" s="80"/>
       <c r="AI21" s="11" t="s">
         <v>40</v>
       </c>
@@ -4734,7 +4725,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="75"/>
+      <c r="AM21" s="80"/>
       <c r="AN21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4747,28 +4738,28 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>45.02</v>
+        <v>63.03</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>108</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>Reinafcr</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW21" s="23">
         <f>LigaEliminatória!C45</f>
-        <v>26.73</v>
+        <v>39.350000000000009</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="75"/>
+      <c r="BD21" s="80"/>
       <c r="BE21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4794,7 +4785,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="AH22" s="76">
+      <c r="AH22" s="78">
         <v>7</v>
       </c>
       <c r="AI22" s="9" t="s">
@@ -4804,7 +4795,7 @@
       <c r="AK22" s="19">
         <v>100</v>
       </c>
-      <c r="AM22" s="76">
+      <c r="AM22" s="78">
         <v>7</v>
       </c>
       <c r="AN22" s="9" t="s">
@@ -4819,28 +4810,28 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>Rei dos mares F.C</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>44.53</v>
+        <v>63.03</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>114</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>CLECIO1976 F.C</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AW22" s="23">
         <f>LigaEliminatória!C46</f>
-        <v>21.32</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="39"/>
       <c r="BB22" s="39"/>
-      <c r="BD22" s="76">
+      <c r="BD22" s="78">
         <v>7</v>
       </c>
       <c r="BE22" s="9" t="s">
@@ -4868,7 +4859,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="AH23" s="77"/>
+      <c r="AH23" s="79"/>
       <c r="AI23" s="10" t="s">
         <v>28</v>
       </c>
@@ -4876,7 +4867,7 @@
       <c r="AK23" s="17">
         <v>50</v>
       </c>
-      <c r="AM23" s="77"/>
+      <c r="AM23" s="79"/>
       <c r="AN23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4889,28 +4880,28 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>S.E. FINISH</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>44.12</v>
+        <v>62.73</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="AV23" s="32" t="str">
+      <c r="AV23" s="59" t="str">
         <f>LigaEliminatória!B47</f>
         <v>Igor Fontes F.C.</v>
       </c>
-      <c r="AW23" s="23">
+      <c r="AW23" s="60">
         <f>LigaEliminatória!C47</f>
-        <v>20.73</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="AY23" s="39"/>
       <c r="AZ23" s="39"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="39"/>
-      <c r="BD23" s="77"/>
+      <c r="BD23" s="79"/>
       <c r="BE23" s="10" t="s">
         <v>27</v>
       </c>
@@ -4936,7 +4927,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="75"/>
+      <c r="AH24" s="80"/>
       <c r="AI24" s="11" t="s">
         <v>40</v>
       </c>
@@ -4944,7 +4935,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="75"/>
+      <c r="AM24" s="80"/>
       <c r="AN24" s="11" t="s">
         <v>38</v>
       </c>
@@ -4957,11 +4948,11 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>CHAPELETA10</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>44.05</v>
+        <v>61.750000000000007</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>125</v>
@@ -4978,7 +4969,7 @@
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="75"/>
+      <c r="BD24" s="80"/>
       <c r="BE24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5004,11 +4995,11 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>DiasBons EC</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>42.87</v>
+        <v>61.23</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>130</v>
@@ -5043,11 +5034,11 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>42.52</v>
+        <v>61.150000000000013</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>134</v>
@@ -5082,11 +5073,11 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>Shibo F.C.</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>41.92</v>
+        <v>61.030000000000022</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>34</v>
@@ -5121,11 +5112,11 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>41.65</v>
+        <v>59.320000000000007</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>46</v>
@@ -5276,39 +5267,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -5325,6 +5283,39 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5336,22 +5327,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="2" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="65" customWidth="1"/>
-    <col min="10" max="24" width="9.140625" style="65" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="2" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
+    <col min="10" max="25" width="9.140625" style="66" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5373,57 +5364,57 @@
       <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="20">
-        <v>654.3798828125</v>
-      </c>
-      <c r="E3" s="65">
+        <v>723.52978515625</v>
+      </c>
+      <c r="E3" s="66">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="21">
-        <v>654.3798828125</v>
+        <v>723.52978515625</v>
       </c>
       <c r="J3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="66">
         <v>1</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="66" t="s">
         <v>144</v>
       </c>
       <c r="M3" s="20">
@@ -5431,29 +5422,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="20">
-        <v>638.07958984375</v>
-      </c>
-      <c r="E4" s="65">
+        <v>707.609375</v>
+      </c>
+      <c r="E4" s="66">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="21">
-        <v>638.07958984375</v>
+        <v>707.609375</v>
       </c>
       <c r="J4" s="85"/>
-      <c r="K4" s="65">
+      <c r="K4" s="66">
         <v>2</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="66" t="s">
         <v>146</v>
       </c>
       <c r="M4" s="20">
@@ -5461,67 +5452,67 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>147</v>
       </c>
       <c r="C5" s="20">
-        <v>637.9794921875</v>
-      </c>
-      <c r="E5" s="65">
+        <v>700.78955078125</v>
+      </c>
+      <c r="E5" s="66">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="21">
-        <v>637.9794921875</v>
+        <v>700.78955078125</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="66">
         <v>1</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="66">
         <v>482.16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="20">
-        <v>630.7900390625</v>
+        <v>698.169677734375</v>
       </c>
       <c r="J6" s="85"/>
-      <c r="K6" s="65">
+      <c r="K6" s="66">
         <v>2</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="66">
         <v>465.02</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="20">
-        <v>628.320068359375</v>
+        <v>693.7099609375</v>
       </c>
       <c r="E7" s="85" t="s">
         <v>1</v>
@@ -5531,113 +5522,113 @@
       <c r="J7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="66">
         <v>1</v>
       </c>
-      <c r="L7" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="M7" s="65">
-        <v>143.99</v>
+      <c r="L7" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="66">
+        <v>220.39</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="66">
         <v>6</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="20">
-        <v>626.639892578125</v>
-      </c>
-      <c r="F8" s="65" t="s">
+        <v>688.370361328125</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="66" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="85"/>
-      <c r="K8" s="65">
+      <c r="K8" s="66">
         <v>2</v>
       </c>
-      <c r="L8" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="M8" s="65">
-        <v>139.35</v>
+      <c r="L8" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="66">
+        <v>218.67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="66" t="s">
         <v>155</v>
       </c>
       <c r="C9" s="20">
-        <v>623.39013671875</v>
-      </c>
-      <c r="E9" s="65">
+        <v>684.8701171875</v>
+      </c>
+      <c r="E9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="66">
         <v>8</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="66" t="s">
         <v>156</v>
       </c>
       <c r="C10" s="20">
-        <v>618.6806640625</v>
-      </c>
-      <c r="E10" s="65">
+        <v>678.719970703125</v>
+      </c>
+      <c r="E10" s="66">
         <v>2</v>
       </c>
       <c r="J10" s="85"/>
-      <c r="K10" s="65">
+      <c r="K10" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="20">
-        <v>614.179443359375</v>
-      </c>
-      <c r="E11" s="65">
+        <v>677.239990234375</v>
+      </c>
+      <c r="E11" s="66">
         <v>3</v>
       </c>
       <c r="J11" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="66" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="20">
-        <v>608.409912109375</v>
+        <v>674.91064453125</v>
       </c>
       <c r="J12" s="85"/>
-      <c r="K12" s="65">
+      <c r="K12" s="66">
         <v>2</v>
       </c>
     </row>
@@ -5650,74 +5641,74 @@
       <c r="J13" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="66" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="85"/>
-      <c r="K14" s="65">
+      <c r="K14" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="65">
+      <c r="E15" s="66">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G15" s="21">
-        <v>158.44</v>
+        <v>162.65</v>
       </c>
       <c r="J15" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="65">
+      <c r="E16" s="66">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G16" s="21">
-        <v>155.59</v>
+        <v>161.83000000000001</v>
       </c>
       <c r="J16" s="85"/>
-      <c r="K16" s="65">
+      <c r="K16" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="65">
+      <c r="E17" s="66">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G17" s="21">
-        <v>155.35</v>
+        <v>161.6</v>
       </c>
       <c r="J17" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J18" s="85"/>
-      <c r="K18" s="65">
+      <c r="K18" s="66">
         <v>2</v>
       </c>
     </row>
@@ -5730,18 +5721,18 @@
       <c r="H19" s="85"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="65">
+      <c r="E21" s="66">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -5755,11 +5746,11 @@
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="65">
+      <c r="E22" s="66">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" s="21">
         <v>107.5</v>
@@ -5769,11 +5760,11 @@
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="65">
+      <c r="E23" s="66">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="21">
         <v>107.39990234375</v>
@@ -5784,11 +5775,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5798,6 +5784,11 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5816,15 +5807,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="16" width="9.140625" style="65" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="65"/>
+    <col min="4" max="17" width="9.140625" style="66" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5832,505 +5823,505 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="21">
+        <v>89.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="66">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="21">
+        <v>82.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="66">
+        <v>3</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="21">
+        <v>80.750000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="21">
+        <v>74.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
+        <v>5</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="21">
+        <v>74.61999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="66">
+        <v>6</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="21">
+        <v>73.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="66">
+        <v>7</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="21">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
+        <v>8</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="21">
-        <v>81.319999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <v>2</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="21">
-        <v>80.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
-        <v>3</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="21">
-        <v>70.430000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
-        <v>4</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="21">
-        <v>64.63000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
-        <v>5</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="C10" s="21">
+        <v>70.930000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="66">
+        <v>9</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="21">
+        <v>69.830000000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="66">
+        <v>10</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="21">
+        <v>67.320000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="66">
+        <v>11</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="21">
+        <v>66.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="66">
+        <v>12</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="21">
+        <v>66.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="66">
+        <v>13</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="21">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="66">
+        <v>14</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="21">
+        <v>64.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="66">
+        <v>15</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="21">
         <v>64.150000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
-        <v>6</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="21">
-        <v>62.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
-        <v>7</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="21">
-        <v>60.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
-        <v>8</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="21">
-        <v>58.750000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
-        <v>9</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="21">
-        <v>57.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
-        <v>10</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="21">
-        <v>55.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
-        <v>11</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="21">
-        <v>53.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
-        <v>12</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="21">
-        <v>52.55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
-        <v>13</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="21">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>14</v>
-      </c>
-      <c r="B16" s="65" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="66">
+        <v>16</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="21">
-        <v>48.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
-        <v>15</v>
-      </c>
-      <c r="B17" s="65" t="s">
+      <c r="C18" s="21">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
+        <v>17</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="21">
-        <v>47.849999999999987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
-        <v>16</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="21">
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
-        <v>17</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>147</v>
-      </c>
       <c r="C19" s="21">
-        <v>45.02</v>
+        <v>63.030000000000008</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="65">
+      <c r="A20" s="66">
         <v>18</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="21">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="66">
+        <v>19</v>
+      </c>
+      <c r="B21" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="21">
-        <v>45.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
-        <v>19</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="C21" s="21">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="66">
+        <v>20</v>
+      </c>
+      <c r="B22" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="21">
-        <v>44.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="65">
-        <v>20</v>
-      </c>
-      <c r="B22" s="65" t="s">
+      <c r="C22" s="21">
+        <v>62.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="66">
+        <v>21</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="21">
+        <v>61.750000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="66">
+        <v>22</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="21">
-        <v>44.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
-        <v>21</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="C24" s="21">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
+        <v>23</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="21">
+        <v>61.150000000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="66">
+        <v>24</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="21">
+        <v>61.030000000000022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <v>25</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="21">
+        <v>59.320000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="66">
+        <v>26</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="21">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="66">
+        <v>27</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="21">
+        <v>57.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="66">
+        <v>28</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="21">
+        <v>56.830000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="66">
+        <v>29</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="21">
+        <v>56.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>30</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="21">
+        <v>55.850000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="66">
+        <v>31</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="21">
+        <v>55.350000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="66">
+        <v>32</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="21">
+        <v>52.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
+        <v>33</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="21">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="66">
+        <v>34</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="21">
+        <v>51.930000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
+        <v>35</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="21">
+        <v>50.429999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="66">
+        <v>36</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="21">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="66">
+        <v>37</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="21">
+        <v>49.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="66">
+        <v>38</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="21">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="66">
+        <v>39</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="21">
+        <v>46.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="66">
+        <v>40</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="21">
+        <v>45.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="66">
+        <v>41</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="21">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="66">
+        <v>42</v>
+      </c>
+      <c r="B44" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="21">
-        <v>44.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
-        <v>22</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="21">
-        <v>42.87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
-        <v>23</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="21">
-        <v>42.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
-        <v>24</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="21">
-        <v>41.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="65">
-        <v>25</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="21">
-        <v>41.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
-        <v>26</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="21">
-        <v>41.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
-        <v>27</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="21">
-        <v>40.520000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
-        <v>28</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="21">
-        <v>40.119999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
-        <v>29</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="21">
-        <v>39.520000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
-        <v>30</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="21">
-        <v>36.950000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
-        <v>31</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="21">
-        <v>36.630000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="65">
-        <v>32</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="21">
-        <v>35.97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
-        <v>33</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="21">
-        <v>35.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
-        <v>34</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="21">
-        <v>35.159999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
-        <v>35</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="21">
-        <v>35.020000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
-        <v>36</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="21">
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="65">
-        <v>37</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="21">
-        <v>32.369999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="65">
-        <v>38</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="21">
-        <v>32.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="65">
-        <v>39</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="21">
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="65">
-        <v>40</v>
-      </c>
-      <c r="B42" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="21">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
-        <v>41</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="21">
-        <v>30.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="65">
-        <v>42</v>
-      </c>
-      <c r="B44" s="65" t="s">
+      <c r="C44" s="21">
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="66">
+        <v>43</v>
+      </c>
+      <c r="B45" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="21">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
-        <v>43</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>24</v>
-      </c>
       <c r="C45" s="21">
-        <v>26.73</v>
+        <v>39.350000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
+      <c r="A46" s="66">
         <v>44</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="66" t="s">
         <v>196</v>
       </c>
       <c r="C46" s="21">
-        <v>21.32</v>
+        <v>36.549999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="66">
         <v>45</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="66" t="s">
         <v>197</v>
       </c>
       <c r="C47" s="21">
-        <v>20.73</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+      <c r="A48" s="66">
         <v>46</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="66" t="s">
         <v>198</v>
       </c>
       <c r="C48" s="21">
@@ -6338,10 +6329,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="65">
+      <c r="A49" s="66">
         <v>47</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="66" t="s">
         <v>199</v>
       </c>
       <c r="C49" s="21">
@@ -6349,10 +6340,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="65">
+      <c r="A50" s="66">
         <v>48</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="66" t="s">
         <v>200</v>
       </c>
       <c r="C50" s="21">
@@ -6360,10 +6351,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="65">
+      <c r="A51" s="66">
         <v>49</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="21">
@@ -6371,10 +6362,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="66">
         <v>50</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="66" t="s">
         <v>201</v>
       </c>
       <c r="C52" s="21">
@@ -6396,17 +6387,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -6416,27 +6407,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -6446,102 +6437,102 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -6551,72 +6542,72 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -6626,187 +6617,187 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -6816,77 +6807,77 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -6904,17 +6895,17 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>25759796</v>
+        <v>28375476</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -6923,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="M1">
-        <v>28375476</v>
+        <v>14033643</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6939,10 +6930,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>339114</v>
+        <v>874216</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6951,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="M5">
-        <v>14033643</v>
+        <v>5545590</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6965,64 +6956,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3355621</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9">
-        <v>874216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5545590</v>
-      </c>
-      <c r="B13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>202</v>
-      </c>
-      <c r="M13">
-        <v>28694260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="I15" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7030,16 +6965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="69" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
@@ -7054,18 +6989,18 @@
     <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
     <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
     <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" style="68" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="68"/>
+    <col min="28" max="32" width="9.140625" style="68" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86">
         <f>MataMataC02!A1</f>
-        <v>25759796</v>
+        <v>28375476</v>
       </c>
       <c r="B1" s="109" t="str">
         <f>MataMataC02!B1</f>
-        <v>Medão Fc</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
@@ -7075,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="113" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H1" s="114">
         <f>MataMataC02!H1</f>
@@ -7083,51 +7018,51 @@
       </c>
       <c r="I1" s="115" t="str">
         <f>MataMataC02!I1</f>
-        <v>The wailers. pro</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="J1" s="110"/>
       <c r="K1" s="110"/>
       <c r="L1" s="116"/>
       <c r="M1" s="86">
         <f>MataMataC02!M1</f>
-        <v>28375476</v>
+        <v>14033643</v>
       </c>
       <c r="O1" s="86">
         <f>MataMataC02!A33</f>
         <v>0</v>
       </c>
-      <c r="P1" s="88">
+      <c r="P1" s="100">
         <f>MataMataC02!B33</f>
         <v>0</v>
       </c>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="94">
+      <c r="S1" s="101"/>
+      <c r="T1" s="97">
         <f>MataMataC02!F33</f>
         <v>0</v>
       </c>
-      <c r="U1" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V1" s="98">
+      <c r="U1" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="105">
         <f>MataMataC02!H33</f>
         <v>0</v>
       </c>
-      <c r="W1" s="101">
+      <c r="W1" s="88">
         <f>MataMataC02!I33</f>
         <v>0</v>
       </c>
       <c r="X1" s="89"/>
       <c r="Y1" s="89"/>
-      <c r="Z1" s="102"/>
+      <c r="Z1" s="90"/>
       <c r="AA1" s="86">
         <f>MataMataC02!M33</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="117"/>
       <c r="C2" s="118"/>
       <c r="D2" s="118"/>
@@ -7139,25 +7074,25 @@
       <c r="J2" s="118"/>
       <c r="K2" s="118"/>
       <c r="L2" s="123"/>
-      <c r="M2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="87"/>
+      <c r="M2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="93"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="124" t="str">
         <f>MataMataC02!B3</f>
-        <v xml:space="preserve">Wellington </v>
+        <v>thiago leal de assis</v>
       </c>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
@@ -7167,29 +7102,29 @@
       <c r="H3" s="127"/>
       <c r="I3" s="128" t="str">
         <f>MataMataC02!I3</f>
-        <v>thiago leal de assis</v>
+        <v>Nilson Dias</v>
       </c>
       <c r="J3" s="125"/>
       <c r="K3" s="125"/>
       <c r="L3" s="129"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="104">
+      <c r="O3" s="67"/>
+      <c r="P3" s="108">
         <f>MataMataC02!B35</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="106">
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="94">
         <f>MataMataC02!I35</f>
         <v>0</v>
       </c>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="107"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="96"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="130"/>
@@ -7203,16 +7138,16 @@
       <c r="J4" s="130"/>
       <c r="K4" s="130"/>
       <c r="L4" s="130"/>
-      <c r="O4" s="66"/>
+      <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86">
         <f>MataMataC02!A5</f>
-        <v>339114</v>
+        <v>874216</v>
       </c>
       <c r="B5" s="109" t="str">
         <f>MataMataC02!B5</f>
-        <v>DUFF F.D.</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="C5" s="110"/>
       <c r="D5" s="110"/>
@@ -7222,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H5" s="114">
         <f>MataMataC02!H5</f>
@@ -7230,51 +7165,51 @@
       </c>
       <c r="I5" s="115" t="str">
         <f>MataMataC02!I5</f>
-        <v>DiasBons EC</v>
+        <v>FUT ART SP</v>
       </c>
       <c r="J5" s="110"/>
       <c r="K5" s="110"/>
       <c r="L5" s="116"/>
       <c r="M5" s="86">
         <f>MataMataC02!M5</f>
-        <v>14033643</v>
+        <v>5545590</v>
       </c>
       <c r="O5" s="86">
         <f>MataMataC02!A37</f>
         <v>0</v>
       </c>
-      <c r="P5" s="88">
+      <c r="P5" s="100">
         <f>MataMataC02!B37</f>
         <v>0</v>
       </c>
       <c r="Q5" s="89"/>
       <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="94">
+      <c r="S5" s="101"/>
+      <c r="T5" s="97">
         <f>MataMataC02!F37</f>
         <v>0</v>
       </c>
-      <c r="U5" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V5" s="98">
+      <c r="U5" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V5" s="105">
         <f>MataMataC02!H37</f>
         <v>0</v>
       </c>
-      <c r="W5" s="101">
+      <c r="W5" s="88">
         <f>MataMataC02!I37</f>
         <v>0</v>
       </c>
       <c r="X5" s="89"/>
       <c r="Y5" s="89"/>
-      <c r="Z5" s="102"/>
+      <c r="Z5" s="90"/>
       <c r="AA5" s="86">
         <f>MataMataC02!M37</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="117"/>
       <c r="C6" s="118"/>
       <c r="D6" s="118"/>
@@ -7286,25 +7221,25 @@
       <c r="J6" s="118"/>
       <c r="K6" s="118"/>
       <c r="L6" s="123"/>
-      <c r="M6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="87"/>
+      <c r="M6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="124" t="str">
         <f>MataMataC02!B7</f>
-        <v>Jé de Oliveira</v>
+        <v xml:space="preserve">Marcelo Henrique </v>
       </c>
       <c r="C7" s="125"/>
       <c r="D7" s="125"/>
@@ -7314,29 +7249,29 @@
       <c r="H7" s="127"/>
       <c r="I7" s="128" t="str">
         <f>MataMataC02!I7</f>
-        <v>Nilson Dias</v>
+        <v>Fabio Massini</v>
       </c>
       <c r="J7" s="125"/>
       <c r="K7" s="125"/>
       <c r="L7" s="129"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="104">
+      <c r="O7" s="67"/>
+      <c r="P7" s="108">
         <f>MataMataC02!B39</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="106">
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="94">
         <f>MataMataC02!I39</f>
         <v>0</v>
       </c>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="107"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="96"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="130"/>
@@ -7350,16 +7285,16 @@
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
       <c r="L8" s="130"/>
-      <c r="O8" s="66"/>
+      <c r="O8" s="67"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
         <f>MataMataC02!A9</f>
-        <v>3355621</v>
-      </c>
-      <c r="B9" s="109" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="109">
         <f>MataMataC02!B9</f>
-        <v>Maleví F.D.</v>
+        <v>0</v>
       </c>
       <c r="C9" s="110"/>
       <c r="D9" s="110"/>
@@ -7369,59 +7304,59 @@
         <v>0</v>
       </c>
       <c r="G9" s="113" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H9" s="114">
         <f>MataMataC02!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="115" t="str">
+      <c r="I9" s="115">
         <f>MataMataC02!I9</f>
-        <v>Real Litoral FC</v>
+        <v>0</v>
       </c>
       <c r="J9" s="110"/>
       <c r="K9" s="110"/>
       <c r="L9" s="116"/>
       <c r="M9" s="86">
         <f>MataMataC02!M9</f>
-        <v>874216</v>
+        <v>0</v>
       </c>
       <c r="O9" s="86">
         <f>MataMataC02!A41</f>
         <v>0</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="100">
         <f>MataMataC02!B41</f>
         <v>0</v>
       </c>
       <c r="Q9" s="89"/>
       <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="94">
+      <c r="S9" s="101"/>
+      <c r="T9" s="97">
         <f>MataMataC02!F41</f>
         <v>0</v>
       </c>
-      <c r="U9" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V9" s="98">
+      <c r="U9" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V9" s="105">
         <f>MataMataC02!H41</f>
         <v>0</v>
       </c>
-      <c r="W9" s="101">
+      <c r="W9" s="88">
         <f>MataMataC02!I41</f>
         <v>0</v>
       </c>
       <c r="X9" s="89"/>
       <c r="Y9" s="89"/>
-      <c r="Z9" s="102"/>
+      <c r="Z9" s="90"/>
       <c r="AA9" s="86">
         <f>MataMataC02!M41</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="117"/>
       <c r="C10" s="118"/>
       <c r="D10" s="118"/>
@@ -7433,25 +7368,25 @@
       <c r="J10" s="118"/>
       <c r="K10" s="118"/>
       <c r="L10" s="123"/>
-      <c r="M10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="87"/>
+      <c r="M10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="124" t="str">
+      <c r="B11" s="124">
         <f>MataMataC02!B11</f>
-        <v>Jefferson Pinheiro</v>
+        <v>0</v>
       </c>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -7459,31 +7394,31 @@
       <c r="F11" s="126"/>
       <c r="G11" s="121"/>
       <c r="H11" s="127"/>
-      <c r="I11" s="128" t="str">
+      <c r="I11" s="128">
         <f>MataMataC02!I11</f>
-        <v xml:space="preserve">Marcelo Henrique </v>
+        <v>0</v>
       </c>
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="129"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="104">
+      <c r="O11" s="67"/>
+      <c r="P11" s="108">
         <f>MataMataC02!B43</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="106">
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="94">
         <f>MataMataC02!I43</f>
         <v>0</v>
       </c>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="107"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="96"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="130"/>
@@ -7497,16 +7432,16 @@
       <c r="J12" s="130"/>
       <c r="K12" s="130"/>
       <c r="L12" s="130"/>
-      <c r="O12" s="66"/>
+      <c r="O12" s="67"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86">
         <f>MataMataC02!A13</f>
-        <v>5545590</v>
-      </c>
-      <c r="B13" s="109" t="str">
+        <v>0</v>
+      </c>
+      <c r="B13" s="109">
         <f>MataMataC02!B13</f>
-        <v>FUT ART SP</v>
+        <v>0</v>
       </c>
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
@@ -7516,59 +7451,59 @@
         <v>0</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H13" s="114">
         <f>MataMataC02!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="115" t="str">
+      <c r="I13" s="115">
         <f>MataMataC02!I13</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>0</v>
       </c>
       <c r="J13" s="110"/>
       <c r="K13" s="110"/>
       <c r="L13" s="116"/>
       <c r="M13" s="86">
         <f>MataMataC02!M13</f>
-        <v>28694260</v>
+        <v>0</v>
       </c>
       <c r="O13" s="86">
         <f>MataMataC02!A45</f>
         <v>0</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="100">
         <f>MataMataC02!B45</f>
         <v>0</v>
       </c>
       <c r="Q13" s="89"/>
       <c r="R13" s="89"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="94">
+      <c r="S13" s="101"/>
+      <c r="T13" s="97">
         <f>MataMataC02!F45</f>
         <v>0</v>
       </c>
-      <c r="U13" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V13" s="98">
+      <c r="U13" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V13" s="105">
         <f>MataMataC02!H45</f>
         <v>0</v>
       </c>
-      <c r="W13" s="101">
+      <c r="W13" s="88">
         <f>MataMataC02!I45</f>
         <v>0</v>
       </c>
       <c r="X13" s="89"/>
       <c r="Y13" s="89"/>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="90"/>
       <c r="AA13" s="86">
         <f>MataMataC02!M45</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="117"/>
       <c r="C14" s="118"/>
       <c r="D14" s="118"/>
@@ -7580,25 +7515,25 @@
       <c r="J14" s="118"/>
       <c r="K14" s="118"/>
       <c r="L14" s="123"/>
-      <c r="M14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="87"/>
+      <c r="M14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="93"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="124" t="str">
+      <c r="B15" s="124">
         <f>MataMataC02!B15</f>
-        <v>Fabio Massini</v>
+        <v>0</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -7606,76 +7541,65 @@
       <c r="F15" s="126"/>
       <c r="G15" s="121"/>
       <c r="H15" s="127"/>
-      <c r="I15" s="128" t="str">
+      <c r="I15" s="128">
         <f>MataMataC02!I15</f>
-        <v>T.w</v>
+        <v>0</v>
       </c>
       <c r="J15" s="125"/>
       <c r="K15" s="125"/>
       <c r="L15" s="129"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="104">
+      <c r="O15" s="67"/>
+      <c r="P15" s="108">
         <f>MataMataC02!B47</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="106">
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="94">
         <f>MataMataC02!I47</f>
         <v>0</v>
       </c>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="107"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="96"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="O16" s="66"/>
+      <c r="O16" s="67"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86">
         <f>MataMataC02!A17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="109">
+      <c r="B17" s="100">
         <f>MataMataC02!B17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112">
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="97">
         <f>MataMataC02!F17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="114">
+      <c r="G17" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="105">
         <f>MataMataC02!H17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="115">
+      <c r="I17" s="88">
         <f>MataMataC02!I17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="116"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="86">
         <f>MataMataC02!M17</f>
         <v>0</v>
@@ -7684,145 +7608,134 @@
         <f>MataMataC02!A49</f>
         <v>0</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="100">
         <f>MataMataC02!B49</f>
         <v>0</v>
       </c>
       <c r="Q17" s="89"/>
       <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="94">
+      <c r="S17" s="101"/>
+      <c r="T17" s="97">
         <f>MataMataC02!F49</f>
         <v>0</v>
       </c>
-      <c r="U17" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V17" s="98">
+      <c r="U17" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V17" s="105">
         <f>MataMataC02!H49</f>
         <v>0</v>
       </c>
-      <c r="W17" s="101">
+      <c r="W17" s="88">
         <f>MataMataC02!I49</f>
         <v>0</v>
       </c>
       <c r="X17" s="89"/>
       <c r="Y17" s="89"/>
-      <c r="Z17" s="102"/>
+      <c r="Z17" s="90"/>
       <c r="AA17" s="86">
         <f>MataMataC02!M49</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="87"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="93"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="124">
+      <c r="B19" s="108">
         <f>MataMataC02!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128">
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="94">
         <f>MataMataC02!I19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="129"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="104">
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="108">
         <f>MataMataC02!B51</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="106">
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="94">
         <f>MataMataC02!I51</f>
         <v>0</v>
       </c>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="107"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="96"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="O20" s="66"/>
+      <c r="O20" s="67"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86">
         <f>MataMataC02!A21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="100">
         <f>MataMataC02!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="97">
         <f>MataMataC02!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="114">
+      <c r="G21" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="105">
         <f>MataMataC02!H21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="88">
         <f>MataMataC02!I21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="116"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="86">
         <f>MataMataC02!M21</f>
         <v>0</v>
@@ -7831,145 +7744,134 @@
         <f>MataMataC02!A53</f>
         <v>0</v>
       </c>
-      <c r="P21" s="88">
+      <c r="P21" s="100">
         <f>MataMataC02!B53</f>
         <v>0</v>
       </c>
       <c r="Q21" s="89"/>
       <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="94">
+      <c r="S21" s="101"/>
+      <c r="T21" s="97">
         <f>MataMataC02!F53</f>
         <v>0</v>
       </c>
-      <c r="U21" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V21" s="98">
+      <c r="U21" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V21" s="105">
         <f>MataMataC02!H53</f>
         <v>0</v>
       </c>
-      <c r="W21" s="101">
+      <c r="W21" s="88">
         <f>MataMataC02!I53</f>
         <v>0</v>
       </c>
       <c r="X21" s="89"/>
       <c r="Y21" s="89"/>
-      <c r="Z21" s="102"/>
+      <c r="Z21" s="90"/>
       <c r="AA21" s="86">
         <f>MataMataC02!M53</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="87"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="124">
+      <c r="B23" s="108">
         <f>MataMataC02!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128">
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="94">
         <f>MataMataC02!I23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="129"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="104">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="108">
         <f>MataMataC02!B55</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="106">
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="94">
         <f>MataMataC02!I55</f>
         <v>0</v>
       </c>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="107"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="96"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="O24" s="66"/>
+      <c r="O24" s="67"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86">
         <f>MataMataC02!A25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="100">
         <f>MataMataC02!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112">
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="97">
         <f>MataMataC02!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="114">
+      <c r="G25" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="105">
         <f>MataMataC02!H25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="88">
         <f>MataMataC02!I25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="116"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="86">
         <f>MataMataC02!M25</f>
         <v>0</v>
@@ -7978,145 +7880,134 @@
         <f>MataMataC02!A57</f>
         <v>0</v>
       </c>
-      <c r="P25" s="88">
+      <c r="P25" s="100">
         <f>MataMataC02!B57</f>
         <v>0</v>
       </c>
       <c r="Q25" s="89"/>
       <c r="R25" s="89"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="94">
+      <c r="S25" s="101"/>
+      <c r="T25" s="97">
         <f>MataMataC02!F57</f>
         <v>0</v>
       </c>
-      <c r="U25" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V25" s="98">
+      <c r="U25" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V25" s="105">
         <f>MataMataC02!H57</f>
         <v>0</v>
       </c>
-      <c r="W25" s="101">
+      <c r="W25" s="88">
         <f>MataMataC02!I57</f>
         <v>0</v>
       </c>
       <c r="X25" s="89"/>
       <c r="Y25" s="89"/>
-      <c r="Z25" s="102"/>
+      <c r="Z25" s="90"/>
       <c r="AA25" s="86">
         <f>MataMataC02!M57</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="87"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="124">
+      <c r="B27" s="108">
         <f>MataMataC02!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128">
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="94">
         <f>MataMataC02!I27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="129"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="104">
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="108">
         <f>MataMataC02!B59</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="106">
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="94">
         <f>MataMataC02!I59</f>
         <v>0</v>
       </c>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="107"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="96"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="O28" s="66"/>
+      <c r="O28" s="67"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86">
         <f>MataMataC02!A29</f>
         <v>0</v>
       </c>
-      <c r="B29" s="109">
+      <c r="B29" s="100">
         <f>MataMataC02!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="97">
         <f>MataMataC02!F29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="H29" s="114">
+      <c r="G29" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="105">
         <f>MataMataC02!H29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="88">
         <f>MataMataC02!I29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="116"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="86">
         <f>MataMataC02!M29</f>
         <v>0</v>
@@ -8125,144 +8016,184 @@
         <f>MataMataC02!A61</f>
         <v>0</v>
       </c>
-      <c r="P29" s="88">
+      <c r="P29" s="100">
         <f>MataMataC02!B61</f>
         <v>0</v>
       </c>
       <c r="Q29" s="89"/>
       <c r="R29" s="89"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="94">
+      <c r="S29" s="101"/>
+      <c r="T29" s="97">
         <f>MataMataC02!F61</f>
         <v>0</v>
       </c>
-      <c r="U29" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="V29" s="98">
+      <c r="U29" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="V29" s="105">
         <f>MataMataC02!H61</f>
         <v>0</v>
       </c>
-      <c r="W29" s="101">
+      <c r="W29" s="88">
         <f>MataMataC02!I61</f>
         <v>0</v>
       </c>
       <c r="X29" s="89"/>
       <c r="Y29" s="89"/>
-      <c r="Z29" s="102"/>
+      <c r="Z29" s="90"/>
       <c r="AA29" s="86">
         <f>MataMataC02!M61</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="87"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="93"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="124">
+      <c r="B31" s="108">
         <f>MataMataC02!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128">
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="94">
         <f>MataMataC02!I31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="129"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="104">
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="96"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="108">
         <f>MataMataC02!B63</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="106">
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="94">
         <f>MataMataC02!I63</f>
         <v>0</v>
       </c>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="105"/>
-      <c r="Z31" s="107"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="96"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:L22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:E30"/>
@@ -8287,86 +8218,46 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:S2"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:Z2"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:S14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:S30"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2AEB3-C5B4-4644-86F4-A0314D879ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E39A00-FF0E-4962-9559-B1149062DD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="254">
   <si>
     <t>Turno</t>
   </si>
@@ -476,322 +476,325 @@
     <t>SC Karate Kid</t>
   </si>
   <si>
+    <t>Cata Cata 71</t>
+  </si>
+  <si>
+    <t>C.A. ALSHOW</t>
+  </si>
+  <si>
+    <t>Brasilândia MSFC</t>
+  </si>
+  <si>
+    <t>Meus Ovos</t>
+  </si>
+  <si>
     <t>Cohab da madeira</t>
   </si>
   <si>
-    <t>C.A. ALSHOW</t>
+    <t>LQueiroz Castelucas FC</t>
+  </si>
+  <si>
+    <t>SC BAYER DE MULEKES</t>
+  </si>
+  <si>
+    <t>CHAPELETA10</t>
+  </si>
+  <si>
+    <t>Real Litoral FC</t>
+  </si>
+  <si>
+    <t>Bávaros Bier</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>The wailers. pro</t>
+  </si>
+  <si>
+    <t>FisioT's</t>
+  </si>
+  <si>
+    <t>The wailers F.c Brasilanjah</t>
+  </si>
+  <si>
+    <t>Rei dos mares F.C</t>
+  </si>
+  <si>
+    <t>Palestra 1000 Grau fc</t>
+  </si>
+  <si>
+    <t>Porco Verde WA</t>
+  </si>
+  <si>
+    <t>LQueiroz FC</t>
+  </si>
+  <si>
+    <t>E.C SIEMACO SP</t>
+  </si>
+  <si>
+    <t>S.C. JUNIOR SIEMACO</t>
+  </si>
+  <si>
+    <t>Shibo F.C.</t>
+  </si>
+  <si>
+    <t>THG.VILA.IZABEL</t>
+  </si>
+  <si>
+    <t>Tornad000</t>
+  </si>
+  <si>
+    <t>S.E. FINISH</t>
+  </si>
+  <si>
+    <t>LiverpooI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holanda de Wakanda</t>
+  </si>
+  <si>
+    <t>SCFVelasco2021</t>
+  </si>
+  <si>
+    <t>Renato 007 Exp 2021</t>
+  </si>
+  <si>
+    <t>Verdão 1000 grau FC</t>
+  </si>
+  <si>
+    <t>SEP Campeoníssimo</t>
+  </si>
+  <si>
+    <t>Brahma 07 FC</t>
+  </si>
+  <si>
+    <t>Pagangrizo’s team</t>
+  </si>
+  <si>
+    <t>$uicide $quad F.C</t>
+  </si>
+  <si>
+    <t>REF $ELIMINATOR$</t>
+  </si>
+  <si>
+    <t>S.C. Brasilandia City</t>
+  </si>
+  <si>
+    <t>Fantasma Osasco fc</t>
+  </si>
+  <si>
+    <t>KAMIKA$E F.C</t>
+  </si>
+  <si>
+    <t>MALMO FUTEBOL F.</t>
+  </si>
+  <si>
+    <t>CLECIO1976 F.C</t>
+  </si>
+  <si>
+    <t>MCML Futebol Clube IBR</t>
+  </si>
+  <si>
+    <t>PS4 Cartola com água 2021</t>
+  </si>
+  <si>
+    <t>AVANTI AZZURRA</t>
+  </si>
+  <si>
+    <t>KVRA-Z/O</t>
   </si>
   <si>
     <t xml:space="preserve">Meus Ovos </t>
   </si>
   <si>
-    <t>Meus Ovos</t>
+    <t>DUFF F.D.</t>
+  </si>
+  <si>
+    <t>LamucciSPFC</t>
+  </si>
+  <si>
+    <t>Breeja F.C</t>
+  </si>
+  <si>
+    <t>METAMORPHO</t>
+  </si>
+  <si>
+    <t>Igor Fontes F.C.</t>
+  </si>
+  <si>
+    <t>São Paulo Edu Física</t>
+  </si>
+  <si>
+    <t>$ANTO$</t>
+  </si>
+  <si>
+    <t>TERUEG</t>
+  </si>
+  <si>
+    <t>R.N.S FC</t>
+  </si>
+  <si>
+    <t>alhfao</t>
+  </si>
+  <si>
+    <t>Artefutt</t>
+  </si>
+  <si>
+    <t>HANDEVU FC</t>
+  </si>
+  <si>
+    <t>APOCALIPSE1910</t>
+  </si>
+  <si>
+    <t>É o bonde COM freio 2021 !</t>
+  </si>
+  <si>
+    <t>Xo Corona</t>
+  </si>
+  <si>
+    <t>verdao29fc</t>
+  </si>
+  <si>
+    <t>THG VILA IZABEL FC</t>
+  </si>
+  <si>
+    <t>REF$CAMPEÃO$</t>
+  </si>
+  <si>
+    <t>Chelsea Ziiica FC</t>
+  </si>
+  <si>
+    <t>RICKNATOR SQUAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.C. Brasilandia City </t>
+  </si>
+  <si>
+    <t>Mister Oliveira F.C</t>
+  </si>
+  <si>
+    <t>Hepta 17 FC</t>
+  </si>
+  <si>
+    <t>Tornadooo F.C</t>
+  </si>
+  <si>
+    <t>ARENACORINTHIANSSS</t>
+  </si>
+  <si>
+    <t>Zildane F.C</t>
+  </si>
+  <si>
+    <t>SCCP Quarta força</t>
+  </si>
+  <si>
+    <t>O Cartola II</t>
+  </si>
+  <si>
+    <t>FUT ART SP</t>
+  </si>
+  <si>
+    <t>45 do 2!</t>
+  </si>
+  <si>
+    <t>Team Portogalo FC</t>
+  </si>
+  <si>
+    <t>showlimafc</t>
+  </si>
+  <si>
+    <t>F.C Trupingas</t>
+  </si>
+  <si>
+    <t>Forró Social Club</t>
+  </si>
+  <si>
+    <t>Esquaiella F.C</t>
   </si>
   <si>
     <t>Manollo F.C</t>
   </si>
   <si>
-    <t>The wailers F.c Brasilanjah</t>
-  </si>
-  <si>
-    <t>Real Litoral FC</t>
-  </si>
-  <si>
-    <t>S.C. Brasilandia City</t>
-  </si>
-  <si>
-    <t>LQueiroz Castelucas FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.C. Brasilandia City </t>
-  </si>
-  <si>
-    <t>Brasilândia MSFC</t>
-  </si>
-  <si>
-    <t>FisioT's</t>
-  </si>
-  <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
-    <t>The wailers. pro</t>
-  </si>
-  <si>
-    <t>Porco Verde WA</t>
-  </si>
-  <si>
-    <t>Artefutt</t>
-  </si>
-  <si>
-    <t>THG.VILA.IZABEL</t>
-  </si>
-  <si>
-    <t>METAMORPHO</t>
-  </si>
-  <si>
-    <t>Pagangrizo’s team</t>
-  </si>
-  <si>
-    <t>Fantasma Osasco fc</t>
-  </si>
-  <si>
-    <t>Breeja F.C</t>
-  </si>
-  <si>
-    <t>Renato 007 Exp 2021</t>
-  </si>
-  <si>
-    <t>LamucciSPFC</t>
-  </si>
-  <si>
-    <t>S.C. JUNIOR SIEMACO</t>
-  </si>
-  <si>
-    <t>S.E. FINISH</t>
-  </si>
-  <si>
-    <t>SEP Campeoníssimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holanda de Wakanda</t>
-  </si>
-  <si>
-    <t>Palestra 1000 Grau fc</t>
-  </si>
-  <si>
-    <t>Cata Cata 71</t>
-  </si>
-  <si>
-    <t>REF $ELIMINATOR$</t>
-  </si>
-  <si>
-    <t>Bávaros Bier</t>
-  </si>
-  <si>
-    <t>$uicide $quad F.C</t>
-  </si>
-  <si>
-    <t>KAMIKA$E F.C</t>
-  </si>
-  <si>
-    <t>Rei dos mares F.C</t>
-  </si>
-  <si>
-    <t>MALMO FUTEBOL F.</t>
-  </si>
-  <si>
-    <t>SCFVelasco2021</t>
-  </si>
-  <si>
-    <t>PS4 Cartola com água 2021</t>
-  </si>
-  <si>
-    <t>Shibo F.C.</t>
-  </si>
-  <si>
-    <t>CHAPELETA10</t>
-  </si>
-  <si>
-    <t>Verdão 1000 grau FC</t>
-  </si>
-  <si>
-    <t>AVANTI AZZURRA</t>
-  </si>
-  <si>
-    <t>CLECIO1976 F.C</t>
-  </si>
-  <si>
-    <t>DUFF F.D.</t>
-  </si>
-  <si>
-    <t>E.C SIEMACO SP</t>
-  </si>
-  <si>
-    <t>LiverpooI</t>
-  </si>
-  <si>
-    <t>MCML Futebol Clube IBR</t>
-  </si>
-  <si>
-    <t>Tornad000</t>
-  </si>
-  <si>
-    <t>Brahma 07 FC</t>
-  </si>
-  <si>
-    <t>KVRA-Z/O</t>
-  </si>
-  <si>
-    <t>LQueiroz FC</t>
-  </si>
-  <si>
-    <t>Igor Fontes F.C.</t>
-  </si>
-  <si>
-    <t>São Paulo Edu Física</t>
-  </si>
-  <si>
-    <t>$ANTO$</t>
-  </si>
-  <si>
-    <t>TERUEG</t>
-  </si>
-  <si>
-    <t>R.N.S FC</t>
-  </si>
-  <si>
-    <t>O Cartola II</t>
-  </si>
-  <si>
     <t>Bayer de Favela Guarulhos</t>
   </si>
   <si>
-    <t>Team Portogalo FC</t>
+    <t>kamicase2 fc</t>
+  </si>
+  <si>
+    <t>Los Angeles Stars FC</t>
+  </si>
+  <si>
+    <t>Kattegat Vila Belmiro</t>
+  </si>
+  <si>
+    <t>El Loko China</t>
+  </si>
+  <si>
+    <t>S. E. CURUPIRA</t>
+  </si>
+  <si>
+    <t>Medão Fc</t>
   </si>
   <si>
     <t>Hrvatska Soccer F.C</t>
   </si>
   <si>
-    <t>kamicase2 fc</t>
-  </si>
-  <si>
-    <t>Mister Oliveira F.C</t>
+    <t>CLAN MORT</t>
   </si>
   <si>
     <t>MITTO100NI</t>
   </si>
   <si>
-    <t>FUT ART SP</t>
-  </si>
-  <si>
-    <t>Zildane F.C</t>
-  </si>
-  <si>
-    <t>Forró Social Club</t>
+    <t>Rage Against Cloroquina</t>
+  </si>
+  <si>
+    <t>Maste fla</t>
+  </si>
+  <si>
+    <t>02 de outubro</t>
   </si>
   <si>
     <t>Vocês tão Lascados</t>
   </si>
   <si>
+    <t>Renalare</t>
+  </si>
+  <si>
+    <t>Arloso FC</t>
+  </si>
+  <si>
+    <t>EC Samba Social</t>
+  </si>
+  <si>
+    <t>Maleví F.D.</t>
+  </si>
+  <si>
     <t>Santa fé futebol e samba</t>
   </si>
   <si>
-    <t>Esquaiella F.C</t>
-  </si>
-  <si>
-    <t>EC Samba Social</t>
-  </si>
-  <si>
-    <t>verdao29fc</t>
-  </si>
-  <si>
-    <t>02 de outubro</t>
-  </si>
-  <si>
-    <t>Hepta 17 FC</t>
-  </si>
-  <si>
-    <t>APOCALIPSE1910</t>
-  </si>
-  <si>
-    <t>HANDEVU FC</t>
-  </si>
-  <si>
-    <t>É o bonde COM freio 2021 !</t>
-  </si>
-  <si>
-    <t>Tornadooo F.C</t>
-  </si>
-  <si>
-    <t>F.C Trupingas</t>
-  </si>
-  <si>
-    <t>S. E. CURUPIRA</t>
-  </si>
-  <si>
-    <t>showlimafc</t>
-  </si>
-  <si>
-    <t>SCCP Quarta força</t>
-  </si>
-  <si>
-    <t>THG VILA IZABEL FC</t>
-  </si>
-  <si>
-    <t>ARENACORINTHIANSSS</t>
-  </si>
-  <si>
-    <t>Maleví F.D.</t>
-  </si>
-  <si>
-    <t>45 do 2!</t>
-  </si>
-  <si>
-    <t>Medão Fc</t>
-  </si>
-  <si>
-    <t>RICKNATOR SQUAD</t>
-  </si>
-  <si>
-    <t>Renalare</t>
-  </si>
-  <si>
-    <t>SC BAYER DE MULEKES</t>
-  </si>
-  <si>
-    <t>REF$CAMPEÃO$</t>
-  </si>
-  <si>
-    <t>Kattegat Vila Belmiro</t>
-  </si>
-  <si>
-    <t>Rage Against Cloroquina</t>
-  </si>
-  <si>
-    <t>El Loko China</t>
-  </si>
-  <si>
-    <t>alhfao</t>
-  </si>
-  <si>
-    <t>Maste fla</t>
-  </si>
-  <si>
-    <t>Arloso FC</t>
-  </si>
-  <si>
-    <t>Xo Corona</t>
-  </si>
-  <si>
-    <t>Chelsea Ziiica FC</t>
-  </si>
-  <si>
-    <t>CLAN MORT</t>
-  </si>
-  <si>
     <t>Mont City R.B.</t>
   </si>
   <si>
-    <t>Los Angeles Stars FC</t>
-  </si>
-  <si>
     <t>thiago leal de assis</t>
   </si>
   <si>
+    <t>Fabio Massini</t>
+  </si>
+  <si>
     <t>Nilson Dias</t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo Henrique </t>
   </si>
   <si>
-    <t>Fabio Massini</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>The Wailers F.c Brasilandiaaaa</t>
+    <t>The wailers. Pro</t>
+  </si>
+  <si>
+    <t>Reu dos mares F.C</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,43 +1644,68 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2005,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3:AW28"/>
+    <sheetView showGridLines="0" topLeftCell="AM4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -2081,8 +2109,8 @@
     <col min="78" max="78" width="2.7109375" style="63" customWidth="1"/>
     <col min="79" max="79" width="7.7109375" style="63" customWidth="1"/>
     <col min="80" max="80" width="28.5703125" style="63" customWidth="1"/>
-    <col min="81" max="92" width="9.140625" style="63" customWidth="1"/>
-    <col min="93" max="16384" width="9.140625" style="63"/>
+    <col min="81" max="94" width="9.140625" style="63" customWidth="1"/>
+    <col min="95" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:80" s="65" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2323,7 +2351,7 @@
       </c>
       <c r="D4" s="49">
         <f>LigaPrincipal!G3</f>
-        <v>723.52978515625</v>
+        <v>908.06982421875</v>
       </c>
       <c r="E4" s="16">
         <v>150</v>
@@ -2347,11 +2375,11 @@
       </c>
       <c r="M4" s="38" t="str">
         <f>LigaPrincipal!F15</f>
-        <v>The wailers. pro</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="N4" s="22">
         <f>LigaPrincipal!G15</f>
-        <v>162.65</v>
+        <v>176.42</v>
       </c>
       <c r="O4" s="16">
         <v>150</v>
@@ -2383,7 +2411,7 @@
       </c>
       <c r="Y4" s="22">
         <f>LigaPrincipal!C3</f>
-        <v>723.52978515625</v>
+        <v>908.06982421875</v>
       </c>
       <c r="Z4" s="19">
         <v>1600</v>
@@ -2434,22 +2462,22 @@
       </c>
       <c r="AS4" s="33" t="str">
         <f>LigaEliminatória!B3</f>
-        <v>THG.VILA.IZABEL</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="AT4" s="22">
         <f>LigaEliminatória!C3</f>
-        <v>89.53</v>
+        <v>92.55</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AV4" s="33" t="str">
         <f>LigaEliminatória!B28</f>
-        <v>PS4 Cartola com água 2021</v>
+        <v>REF $ELIMINATOR$</v>
       </c>
       <c r="AW4" s="22">
         <f>LigaEliminatória!C28</f>
-        <v>58.55</v>
+        <v>61.849999999999987</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>21</v>
@@ -2505,7 +2533,7 @@
       </c>
       <c r="D5" s="49">
         <f>LigaPrincipal!G4</f>
-        <v>707.609375</v>
+        <v>888.24951171875</v>
       </c>
       <c r="E5" s="17">
         <v>100</v>
@@ -2529,11 +2557,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f>LigaPrincipal!F16</f>
-        <v>Real Litoral FC</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="N5" s="23">
         <f>LigaPrincipal!G16</f>
-        <v>161.83000000000001</v>
+        <v>171.74</v>
       </c>
       <c r="O5" s="17">
         <v>100</v>
@@ -2543,15 +2571,15 @@
       </c>
       <c r="R5" s="37" t="str">
         <f>LigaPrincipal!F22</f>
-        <v>Porco Verde WA</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="S5" s="23">
         <f>LigaPrincipal!G22</f>
-        <v>107.5</v>
+        <v>119.9501953125</v>
       </c>
       <c r="T5" s="37">
         <f>LigaPrincipal!H22</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U5" s="17">
         <v>100</v>
@@ -2565,7 +2593,7 @@
       </c>
       <c r="Y5" s="23">
         <f>LigaPrincipal!C4</f>
-        <v>707.609375</v>
+        <v>888.24951171875</v>
       </c>
       <c r="Z5" s="17">
         <v>800</v>
@@ -2610,22 +2638,22 @@
       </c>
       <c r="AS5" s="32" t="str">
         <f>LigaEliminatória!B4</f>
-        <v>METAMORPHO</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AT5" s="23">
         <f>LigaEliminatória!C4</f>
-        <v>82.85</v>
+        <v>92.030000000000015</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="AV5" s="32" t="str">
         <f>LigaEliminatória!B29</f>
-        <v>Shibo F.C.</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="AW5" s="23">
         <f>LigaEliminatória!C29</f>
-        <v>57.23</v>
+        <v>60.11</v>
       </c>
       <c r="AY5" s="10" t="s">
         <v>27</v>
@@ -2648,7 +2676,7 @@
       </c>
       <c r="BJ5" s="54" t="str">
         <f>MataMataLiga!A1</f>
-        <v>O Cartola II</v>
+        <v>The wailers F.c Brasilanjah</v>
       </c>
       <c r="BK5" s="51"/>
       <c r="BL5" s="45" t="s">
@@ -2656,7 +2684,7 @@
       </c>
       <c r="BM5" s="54" t="str">
         <f>MataMataLiga!A17</f>
-        <v>Mister Oliveira F.C</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="BN5" s="51"/>
       <c r="BO5" s="45" t="s">
@@ -2664,7 +2692,7 @@
       </c>
       <c r="BP5" s="54" t="str">
         <f>MataMataLiga!A33</f>
-        <v>EC Samba Social</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="BQ5" s="51"/>
       <c r="BR5" s="45" t="s">
@@ -2672,7 +2700,7 @@
       </c>
       <c r="BS5" s="54" t="str">
         <f>MataMataLiga!A49</f>
-        <v>Rei dos mares F.C</v>
+        <v>SCCP Quarta força</v>
       </c>
       <c r="BT5" s="51"/>
       <c r="BU5" s="45" t="s">
@@ -2680,7 +2708,7 @@
       </c>
       <c r="BV5" s="54" t="str">
         <f>MataMataLiga!A65</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="BW5" s="51"/>
       <c r="BX5" s="45" t="s">
@@ -2688,14 +2716,14 @@
       </c>
       <c r="BY5" s="54" t="str">
         <f>MataMataLiga!A81</f>
-        <v>FisioT's</v>
+        <v>CLECIO1976 F.C</v>
       </c>
       <c r="CA5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CB5" s="54" t="str">
         <f>MataMataLiga!A97</f>
-        <v>Igor Fontes F.C.</v>
+        <v>Maleví F.D.</v>
       </c>
     </row>
     <row r="6" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2704,11 +2732,11 @@
       </c>
       <c r="C6" s="36" t="str">
         <f>LigaPrincipal!F5</f>
-        <v>Cohab da madeira</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="D6" s="24">
         <f>LigaPrincipal!G5</f>
-        <v>700.78955078125</v>
+        <v>886.8603515625</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -2736,7 +2764,7 @@
       </c>
       <c r="N6" s="24">
         <f>LigaPrincipal!G17</f>
-        <v>161.6</v>
+        <v>168.75</v>
       </c>
       <c r="O6" s="18">
         <v>50</v>
@@ -2746,15 +2774,15 @@
       </c>
       <c r="R6" s="36" t="str">
         <f>LigaPrincipal!F23</f>
-        <v>Artefutt</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="S6" s="24">
         <f>LigaPrincipal!G23</f>
-        <v>107.39990234375</v>
+        <v>111.66015625</v>
       </c>
       <c r="T6" s="36">
         <f>LigaPrincipal!H23</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U6" s="18">
         <v>50</v>
@@ -2764,11 +2792,11 @@
       </c>
       <c r="X6" s="37" t="str">
         <f>LigaPrincipal!B5</f>
-        <v>Cohab da madeira</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="Y6" s="23">
         <f>LigaPrincipal!C5</f>
-        <v>700.78955078125</v>
+        <v>886.8603515625</v>
       </c>
       <c r="Z6" s="17">
         <v>600</v>
@@ -2815,22 +2843,22 @@
       </c>
       <c r="AS6" s="32" t="str">
         <f>LigaEliminatória!B5</f>
-        <v>Pagangrizo’s team</v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="AT6" s="23">
         <f>LigaEliminatória!C5</f>
-        <v>80.750000000000014</v>
+        <v>86.910000000000011</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AV6" s="32" t="str">
         <f>LigaEliminatória!B30</f>
-        <v>CHAPELETA10</v>
+        <v>S.C. Brasilandia City</v>
       </c>
       <c r="AW6" s="23">
         <f>LigaEliminatória!C30</f>
-        <v>56.830000000000013</v>
+        <v>60.05</v>
       </c>
       <c r="AY6" s="10" t="s">
         <v>38</v>
@@ -2853,7 +2881,7 @@
       </c>
       <c r="BJ6" s="55" t="str">
         <f>MataMataLiga!A2</f>
-        <v>Pagangrizo’s team</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="BK6" s="51"/>
       <c r="BL6" s="46" t="s">
@@ -2861,7 +2889,7 @@
       </c>
       <c r="BM6" s="55" t="str">
         <f>MataMataLiga!A18</f>
-        <v>São Paulo Edu Física</v>
+        <v>HANDEVU FC</v>
       </c>
       <c r="BN6" s="51"/>
       <c r="BO6" s="46" t="s">
@@ -2869,7 +2897,7 @@
       </c>
       <c r="BP6" s="55" t="str">
         <f>MataMataLiga!A34</f>
-        <v>Manollo F.C</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="BQ6" s="51"/>
       <c r="BR6" s="46" t="s">
@@ -2877,7 +2905,7 @@
       </c>
       <c r="BS6" s="55" t="str">
         <f>MataMataLiga!A50</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="BT6" s="51"/>
       <c r="BU6" s="46" t="s">
@@ -2885,7 +2913,7 @@
       </c>
       <c r="BV6" s="55" t="str">
         <f>MataMataLiga!A66</f>
-        <v>AVANTI AZZURRA</v>
+        <v>R.N.S FC</v>
       </c>
       <c r="BW6" s="51"/>
       <c r="BX6" s="46" t="s">
@@ -2893,14 +2921,14 @@
       </c>
       <c r="BY6" s="55" t="str">
         <f>MataMataLiga!A82</f>
-        <v>REF$CAMPEÃO$</v>
+        <v>CLAN MORT</v>
       </c>
       <c r="CA6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="CB6" s="55" t="str">
         <f>MataMataLiga!A98</f>
-        <v>CLAN MORT</v>
+        <v>Santa fé futebol e samba</v>
       </c>
     </row>
     <row r="7" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2909,11 +2937,11 @@
       </c>
       <c r="X7" s="37" t="str">
         <f>LigaPrincipal!B6</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="Y7" s="23">
         <f>LigaPrincipal!C6</f>
-        <v>698.169677734375</v>
+        <v>875.639892578125</v>
       </c>
       <c r="Z7" s="17">
         <v>500</v>
@@ -2939,8 +2967,10 @@
       <c r="AI7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="19">
+      <c r="AJ7" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK7" s="25">
         <v>100</v>
       </c>
       <c r="AM7" s="78">
@@ -2949,8 +2979,10 @@
       <c r="AN7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="19">
+      <c r="AO7" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP7" s="25">
         <v>150</v>
       </c>
       <c r="AR7" s="10" t="s">
@@ -2958,22 +2990,22 @@
       </c>
       <c r="AS7" s="32" t="str">
         <f>LigaEliminatória!B6</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="AT7" s="23">
         <f>LigaEliminatória!C6</f>
-        <v>74.83</v>
+        <v>83.31</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AV7" s="32" t="str">
         <f>LigaEliminatória!B31</f>
-        <v>SC Karate Kid</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="AW7" s="23">
         <f>LigaEliminatória!C31</f>
-        <v>56.23</v>
+        <v>59.54999999999999</v>
       </c>
       <c r="AY7" s="10" t="s">
         <v>50</v>
@@ -2998,7 +3030,7 @@
       </c>
       <c r="BJ7" s="55" t="str">
         <f>MataMataLiga!A3</f>
-        <v>METAMORPHO</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="BK7" s="51"/>
       <c r="BL7" s="46" t="s">
@@ -3006,7 +3038,7 @@
       </c>
       <c r="BM7" s="55" t="str">
         <f>MataMataLiga!A19</f>
-        <v>R.N.S FC</v>
+        <v>APOCALIPSE1910</v>
       </c>
       <c r="BN7" s="51"/>
       <c r="BO7" s="46" t="s">
@@ -3014,7 +3046,7 @@
       </c>
       <c r="BP7" s="55" t="str">
         <f>MataMataLiga!A35</f>
-        <v>Cata Cata 71</v>
+        <v>Chelsea Ziiica FC</v>
       </c>
       <c r="BQ7" s="51"/>
       <c r="BR7" s="46" t="s">
@@ -3022,7 +3054,7 @@
       </c>
       <c r="BS7" s="55" t="str">
         <f>MataMataLiga!A51</f>
-        <v>Tornadooo F.C</v>
+        <v>O Cartola II</v>
       </c>
       <c r="BT7" s="51"/>
       <c r="BU7" s="46" t="s">
@@ -3030,7 +3062,7 @@
       </c>
       <c r="BV7" s="55" t="str">
         <f>MataMataLiga!A67</f>
-        <v>ARENACORINTHIANSSS</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="BW7" s="51"/>
       <c r="BX7" s="46" t="s">
@@ -3038,7 +3070,7 @@
       </c>
       <c r="BY7" s="55" t="str">
         <f>MataMataLiga!A83</f>
-        <v>LiverpooI</v>
+        <v>MITTO100NI</v>
       </c>
       <c r="CA7" s="46" t="s">
         <v>57</v>
@@ -3059,11 +3091,11 @@
       </c>
       <c r="X8" s="37" t="str">
         <f>LigaPrincipal!B7</f>
-        <v>Manollo F.C</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="Y8" s="23">
         <f>LigaPrincipal!C7</f>
-        <v>693.7099609375</v>
+        <v>868.359375</v>
       </c>
       <c r="Z8" s="17">
         <v>400</v>
@@ -3076,11 +3108,11 @@
       </c>
       <c r="AD8" s="38" t="str">
         <f>LigaPrincipal!L7</f>
-        <v>The Wailers F.c Brasilandiaaaa</v>
+        <v>Cata Cata 71</v>
       </c>
       <c r="AE8" s="22">
         <f>LigaPrincipal!M7</f>
-        <v>220.39</v>
+        <v>414.77</v>
       </c>
       <c r="AF8" s="19">
         <v>100</v>
@@ -3089,16 +3121,20 @@
       <c r="AI8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="17">
+      <c r="AJ8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK8" s="61">
         <v>50</v>
       </c>
       <c r="AM8" s="79"/>
       <c r="AN8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="17">
+      <c r="AO8" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP8" s="61">
         <v>100</v>
       </c>
       <c r="AR8" s="10" t="s">
@@ -3106,22 +3142,22 @@
       </c>
       <c r="AS8" s="32" t="str">
         <f>LigaEliminatória!B7</f>
-        <v>Breeja F.C</v>
+        <v>LQueiroz FC</v>
       </c>
       <c r="AT8" s="23">
         <f>LigaEliminatória!C7</f>
-        <v>74.61999999999999</v>
+        <v>81.049999999999983</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AV8" s="32" t="str">
         <f>LigaEliminatória!B32</f>
-        <v>Verdão 1000 grau FC</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="AW8" s="23">
         <f>LigaEliminatória!C32</f>
-        <v>55.850000000000009</v>
+        <v>59.45</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>58</v>
@@ -3144,7 +3180,7 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f>MataMataLiga!A4</f>
-        <v>The wailers. pro</v>
+        <v>alhfao</v>
       </c>
       <c r="BK8" s="51"/>
       <c r="BL8" s="46" t="s">
@@ -3152,7 +3188,7 @@
       </c>
       <c r="BM8" s="55" t="str">
         <f>MataMataLiga!A20</f>
-        <v>MITTO100NI</v>
+        <v>É o bonde COM freio 2021 !</v>
       </c>
       <c r="BN8" s="51"/>
       <c r="BO8" s="46" t="s">
@@ -3160,7 +3196,7 @@
       </c>
       <c r="BP8" s="55" t="str">
         <f>MataMataLiga!A36</f>
-        <v>Bávaros Bier</v>
+        <v>$ANTO$</v>
       </c>
       <c r="BQ8" s="51"/>
       <c r="BR8" s="46" t="s">
@@ -3168,7 +3204,7 @@
       </c>
       <c r="BS8" s="55" t="str">
         <f>MataMataLiga!A52</f>
-        <v>Artefutt</v>
+        <v>FUT ART SP</v>
       </c>
       <c r="BT8" s="51"/>
       <c r="BU8" s="46" t="s">
@@ -3176,7 +3212,7 @@
       </c>
       <c r="BV8" s="55" t="str">
         <f>MataMataLiga!A68</f>
-        <v>Maleví F.D.</v>
+        <v>E.C.O 82</v>
       </c>
       <c r="BW8" s="51"/>
       <c r="BX8" s="46" t="s">
@@ -3184,14 +3220,14 @@
       </c>
       <c r="BY8" s="55" t="str">
         <f>MataMataLiga!A84</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v>Rage Against Cloroquina</v>
       </c>
       <c r="CA8" s="47" t="s">
         <v>66</v>
       </c>
       <c r="CB8" s="56" t="str">
         <f>MataMataLiga!A100</f>
-        <v>Los Angeles Stars FC</v>
+        <v>Igor Fontes F.C.</v>
       </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3205,11 +3241,11 @@
       </c>
       <c r="X9" s="37" t="str">
         <f>LigaPrincipal!B8</f>
-        <v>Real Litoral FC</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="Y9" s="23">
         <f>LigaPrincipal!C8</f>
-        <v>688.370361328125</v>
+        <v>863.47021484375</v>
       </c>
       <c r="Z9" s="17">
         <v>350</v>
@@ -3220,11 +3256,11 @@
       </c>
       <c r="AD9" s="36" t="str">
         <f>LigaPrincipal!L8</f>
-        <v>Real Litoral FC</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="AE9" s="24">
         <f>LigaPrincipal!M8</f>
-        <v>218.67</v>
+        <v>390</v>
       </c>
       <c r="AF9" s="18">
         <v>50</v>
@@ -3233,16 +3269,20 @@
       <c r="AI9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="18">
+      <c r="AJ9" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK9" s="26">
         <v>30</v>
       </c>
       <c r="AM9" s="80"/>
       <c r="AN9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="18">
+      <c r="AO9" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP9" s="26">
         <v>50</v>
       </c>
       <c r="AR9" s="10" t="s">
@@ -3250,22 +3290,22 @@
       </c>
       <c r="AS9" s="32" t="str">
         <f>LigaEliminatória!B8</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="AT9" s="23">
         <f>LigaEliminatória!C8</f>
-        <v>73.22</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="AV9" s="32" t="str">
         <f>LigaEliminatória!B33</f>
-        <v>AVANTI AZZURRA</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="AW9" s="23">
         <f>LigaEliminatória!C33</f>
-        <v>55.350000000000009</v>
+        <v>57.15</v>
       </c>
       <c r="AY9" s="39"/>
       <c r="AZ9" s="39"/>
@@ -3284,7 +3324,7 @@
       </c>
       <c r="BJ9" s="55" t="str">
         <f>MataMataLiga!A5</f>
-        <v>Bayer de Favela Guarulhos</v>
+        <v>C.A. ELSHOW</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="46" t="s">
@@ -3292,7 +3332,7 @@
       </c>
       <c r="BM9" s="55" t="str">
         <f>MataMataLiga!A21</f>
-        <v>FUT ART SP</v>
+        <v>Xo Corona</v>
       </c>
       <c r="BN9" s="51"/>
       <c r="BO9" s="46" t="s">
@@ -3300,7 +3340,7 @@
       </c>
       <c r="BP9" s="55" t="str">
         <f>MataMataLiga!A37</f>
-        <v>TERUEG</v>
+        <v>RICKNATOR SQUAD</v>
       </c>
       <c r="BQ9" s="51"/>
       <c r="BR9" s="46" t="s">
@@ -3308,7 +3348,7 @@
       </c>
       <c r="BS9" s="55" t="str">
         <f>MataMataLiga!A53</f>
-        <v>SCFVelasco2021</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="BT9" s="51"/>
       <c r="BU9" s="46" t="s">
@@ -3316,7 +3356,7 @@
       </c>
       <c r="BV9" s="55" t="str">
         <f>MataMataLiga!A69</f>
-        <v>45 do 2!</v>
+        <v>Manollo F.C</v>
       </c>
       <c r="BW9" s="51"/>
       <c r="BX9" s="46" t="s">
@@ -3324,7 +3364,7 @@
       </c>
       <c r="BY9" s="55" t="str">
         <f>MataMataLiga!A85</f>
-        <v>Kattegat Vila Belmiro</v>
+        <v>AVANTI AZZURRA</v>
       </c>
     </row>
     <row r="10" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3338,11 +3378,11 @@
       </c>
       <c r="X10" s="37" t="str">
         <f>LigaPrincipal!B9</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="Y10" s="23">
         <f>LigaPrincipal!C9</f>
-        <v>684.8701171875</v>
+        <v>859.33984375</v>
       </c>
       <c r="Z10" s="17">
         <v>300</v>
@@ -3389,22 +3429,22 @@
       </c>
       <c r="AS10" s="32" t="str">
         <f>LigaEliminatória!B9</f>
-        <v>LamucciSPFC</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="AT10" s="23">
         <f>LigaEliminatória!C9</f>
-        <v>71.959999999999994</v>
+        <v>79.55</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AV10" s="32" t="str">
         <f>LigaEliminatória!B34</f>
-        <v>DiasBons EC</v>
+        <v>KAMIKA$E F.C</v>
       </c>
       <c r="AW10" s="23">
         <f>LigaEliminatória!C34</f>
-        <v>52.53</v>
+        <v>56.05</v>
       </c>
       <c r="AY10" s="39"/>
       <c r="AZ10" s="39"/>
@@ -3425,7 +3465,7 @@
       </c>
       <c r="BJ10" s="55" t="str">
         <f>MataMataLiga!A6</f>
-        <v>Team Portogalo FC</v>
+        <v>SC BAYER DE MULEKES</v>
       </c>
       <c r="BK10" s="51"/>
       <c r="BL10" s="46" t="s">
@@ -3433,7 +3473,7 @@
       </c>
       <c r="BM10" s="55" t="str">
         <f>MataMataLiga!A22</f>
-        <v>S.E. FINISH</v>
+        <v>São Paulo Edu Física</v>
       </c>
       <c r="BN10" s="51"/>
       <c r="BO10" s="46" t="s">
@@ -3441,7 +3481,7 @@
       </c>
       <c r="BP10" s="55" t="str">
         <f>MataMataLiga!A38</f>
-        <v>verdao29fc</v>
+        <v>DiasBons EC</v>
       </c>
       <c r="BQ10" s="51"/>
       <c r="BR10" s="46" t="s">
@@ -3449,7 +3489,7 @@
       </c>
       <c r="BS10" s="55" t="str">
         <f>MataMataLiga!A54</f>
-        <v>F.C Trupingas</v>
+        <v>45 do 2!</v>
       </c>
       <c r="BT10" s="51"/>
       <c r="BU10" s="46" t="s">
@@ -3457,7 +3497,7 @@
       </c>
       <c r="BV10" s="55" t="str">
         <f>MataMataLiga!A70</f>
-        <v>Medão Fc</v>
+        <v>Bayer de Favela Guarulhos</v>
       </c>
       <c r="BW10" s="51"/>
       <c r="BX10" s="46" t="s">
@@ -3465,7 +3505,7 @@
       </c>
       <c r="BY10" s="55" t="str">
         <f>MataMataLiga!A86</f>
-        <v>Rage Against Cloroquina</v>
+        <v>Maste fla</v>
       </c>
     </row>
     <row r="11" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3479,11 +3519,11 @@
       </c>
       <c r="X11" s="37" t="str">
         <f>LigaPrincipal!B10</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="Y11" s="23">
         <f>LigaPrincipal!C10</f>
-        <v>678.719970703125</v>
+        <v>851.520263671875</v>
       </c>
       <c r="Z11" s="17">
         <v>250</v>
@@ -3524,22 +3564,22 @@
       </c>
       <c r="AS11" s="32" t="str">
         <f>LigaEliminatória!B10</f>
-        <v>Brasilândia MSFC</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="AT11" s="23">
         <f>LigaEliminatória!C10</f>
-        <v>70.930000000000007</v>
+        <v>78.509999999999991</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AV11" s="32" t="str">
         <f>LigaEliminatória!B35</f>
-        <v>Porco Verde WA</v>
+        <v>MALMO FUTEBOL F.</v>
       </c>
       <c r="AW11" s="23">
         <f>LigaEliminatória!C35</f>
-        <v>51.95</v>
+        <v>54.35</v>
       </c>
       <c r="AY11" s="39"/>
       <c r="AZ11" s="39"/>
@@ -3558,7 +3598,7 @@
       </c>
       <c r="BJ11" s="55" t="str">
         <f>MataMataLiga!A7</f>
-        <v>Fantasma Osasco fc</v>
+        <v>Rei dos mares F.C</v>
       </c>
       <c r="BK11" s="51"/>
       <c r="BL11" s="46" t="s">
@@ -3566,7 +3606,7 @@
       </c>
       <c r="BM11" s="55" t="str">
         <f>MataMataLiga!A23</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="46" t="s">
@@ -3574,7 +3614,7 @@
       </c>
       <c r="BP11" s="55" t="str">
         <f>MataMataLiga!A39</f>
-        <v>02 de outubro</v>
+        <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
       <c r="BQ11" s="51"/>
       <c r="BR11" s="46" t="s">
@@ -3582,7 +3622,7 @@
       </c>
       <c r="BS11" s="55" t="str">
         <f>MataMataLiga!A55</f>
-        <v>S. E. CURUPIRA</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="BT11" s="51"/>
       <c r="BU11" s="46" t="s">
@@ -3590,7 +3630,7 @@
       </c>
       <c r="BV11" s="55" t="str">
         <f>MataMataLiga!A71</f>
-        <v>RICKNATOR SQUAD</v>
+        <v>Cohab da madeira</v>
       </c>
       <c r="BW11" s="51"/>
       <c r="BX11" s="46" t="s">
@@ -3598,7 +3638,7 @@
       </c>
       <c r="BY11" s="55" t="str">
         <f>MataMataLiga!A87</f>
-        <v>Brahma 07 FC</v>
+        <v>KVRA-Z/O</v>
       </c>
     </row>
     <row r="12" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3612,11 +3652,11 @@
       </c>
       <c r="X12" s="37" t="str">
         <f>LigaPrincipal!B11</f>
-        <v>Brasilândia MSFC</v>
+        <v>Real Litoral FC</v>
       </c>
       <c r="Y12" s="23">
         <f>LigaPrincipal!C11</f>
-        <v>677.239990234375</v>
+        <v>851.140380859375</v>
       </c>
       <c r="Z12" s="17">
         <v>200</v>
@@ -3659,11 +3699,11 @@
       </c>
       <c r="AS12" s="32" t="str">
         <f>LigaEliminatória!B11</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>THG.VILA.IZABEL</v>
       </c>
       <c r="AT12" s="23">
         <f>LigaEliminatória!C11</f>
-        <v>69.830000000000013</v>
+        <v>76.08</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>45</v>
@@ -3674,7 +3714,7 @@
       </c>
       <c r="AW12" s="23">
         <f>LigaEliminatória!C36</f>
-        <v>51.930000000000007</v>
+        <v>54.08</v>
       </c>
       <c r="AY12" s="39"/>
       <c r="AZ12" s="39"/>
@@ -3693,7 +3733,7 @@
       </c>
       <c r="BJ12" s="55" t="str">
         <f>MataMataLiga!A8</f>
-        <v>Breeja F.C</v>
+        <v>LQueiroz Castelucas FC</v>
       </c>
       <c r="BK12" s="51"/>
       <c r="BL12" s="46" t="s">
@@ -3701,7 +3741,7 @@
       </c>
       <c r="BM12" s="55" t="str">
         <f>MataMataLiga!A24</f>
-        <v>Zildane F.C</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="BN12" s="51"/>
       <c r="BO12" s="46" t="s">
@@ -3709,7 +3749,7 @@
       </c>
       <c r="BP12" s="55" t="str">
         <f>MataMataLiga!A40</f>
-        <v>Hepta 17 FC</v>
+        <v>Mister Oliveira F.C</v>
       </c>
       <c r="BQ12" s="51"/>
       <c r="BR12" s="46" t="s">
@@ -3717,7 +3757,7 @@
       </c>
       <c r="BS12" s="55" t="str">
         <f>MataMataLiga!A56</f>
-        <v>showlimafc</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="BT12" s="51"/>
       <c r="BU12" s="46" t="s">
@@ -3725,7 +3765,7 @@
       </c>
       <c r="BV12" s="55" t="str">
         <f>MataMataLiga!A72</f>
-        <v>DiasBons EC</v>
+        <v>kamicase2 fc</v>
       </c>
       <c r="BW12" s="51"/>
       <c r="BX12" s="46" t="s">
@@ -3733,7 +3773,7 @@
       </c>
       <c r="BY12" s="55" t="str">
         <f>MataMataLiga!A88</f>
-        <v>DUFF F.D.</v>
+        <v>02 de outubro</v>
       </c>
     </row>
     <row r="13" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3747,11 +3787,11 @@
       </c>
       <c r="X13" s="36" t="str">
         <f>LigaPrincipal!B12</f>
-        <v>FisioT's</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="Y13" s="24">
         <f>LigaPrincipal!C12</f>
-        <v>674.91064453125</v>
+        <v>850.860107421875</v>
       </c>
       <c r="Z13" s="18">
         <v>150</v>
@@ -3796,22 +3836,22 @@
       </c>
       <c r="AS13" s="32" t="str">
         <f>LigaEliminatória!B12</f>
-        <v>S.E. FINISH</v>
+        <v>Tornad000</v>
       </c>
       <c r="AT13" s="23">
         <f>LigaEliminatória!C12</f>
-        <v>67.320000000000007</v>
+        <v>76.05</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AV13" s="32" t="str">
         <f>LigaEliminatória!B37</f>
-        <v>DUFF F.D.</v>
+        <v>MCML Futebol Clube IBR</v>
       </c>
       <c r="AW13" s="23">
         <f>LigaEliminatória!C37</f>
-        <v>50.429999999999993</v>
+        <v>53.35</v>
       </c>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39"/>
@@ -3832,7 +3872,7 @@
       </c>
       <c r="BJ13" s="55" t="str">
         <f>MataMataLiga!A9</f>
-        <v>Real Litoral FC</v>
+        <v>E.C SIEMACO SP</v>
       </c>
       <c r="BK13" s="51"/>
       <c r="BL13" s="46" t="s">
@@ -3840,7 +3880,7 @@
       </c>
       <c r="BM13" s="55" t="str">
         <f>MataMataLiga!A25</f>
-        <v>Forró Social Club</v>
+        <v>verdao29fc</v>
       </c>
       <c r="BN13" s="51"/>
       <c r="BO13" s="46" t="s">
@@ -3848,7 +3888,7 @@
       </c>
       <c r="BP13" s="55" t="str">
         <f>MataMataLiga!A41</f>
-        <v>L&amp;G Cabral</v>
+        <v>Fantasma Osasco fc</v>
       </c>
       <c r="BQ13" s="51"/>
       <c r="BR13" s="46" t="s">
@@ -3856,7 +3896,7 @@
       </c>
       <c r="BS13" s="55" t="str">
         <f>MataMataLiga!A57</f>
-        <v>The wailers F.c Brasilanjah</v>
+        <v>Team Portogalo FC</v>
       </c>
       <c r="BT13" s="51"/>
       <c r="BU13" s="46" t="s">
@@ -3864,7 +3904,7 @@
       </c>
       <c r="BV13" s="55" t="str">
         <f>MataMataLiga!A73</f>
-        <v>CLECIO1976 F.C</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="BW13" s="51"/>
       <c r="BX13" s="46" t="s">
@@ -3872,7 +3912,7 @@
       </c>
       <c r="BY13" s="55" t="str">
         <f>MataMataLiga!A89</f>
-        <v>El Loko China</v>
+        <v>RealXavier</v>
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3919,22 +3959,22 @@
       </c>
       <c r="AS14" s="32" t="str">
         <f>LigaEliminatória!B13</f>
-        <v>SEP Campeoníssimo</v>
+        <v>Brasilândia MSFC</v>
       </c>
       <c r="AT14" s="23">
         <f>LigaEliminatória!C13</f>
-        <v>66.83</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f>LigaEliminatória!B38</f>
-        <v>E.C SIEMACO SP</v>
+        <v>PS4 Cartola com água 2021</v>
       </c>
       <c r="AW14" s="23">
         <f>LigaEliminatória!C38</f>
-        <v>50.05</v>
+        <v>53.050000000000011</v>
       </c>
       <c r="AY14" s="39"/>
       <c r="AZ14" s="39"/>
@@ -3953,7 +3993,7 @@
       </c>
       <c r="BJ14" s="55" t="str">
         <f>MataMataLiga!A10</f>
-        <v>Hrvatska Soccer F.C</v>
+        <v>S.C. JUNIOR SIEMACO</v>
       </c>
       <c r="BK14" s="51"/>
       <c r="BL14" s="46" t="s">
@@ -3961,7 +4001,7 @@
       </c>
       <c r="BM14" s="55" t="str">
         <f>MataMataLiga!A26</f>
-        <v>RealXavier</v>
+        <v>The wailers. pro</v>
       </c>
       <c r="BN14" s="51"/>
       <c r="BO14" s="46" t="s">
@@ -3969,7 +4009,7 @@
       </c>
       <c r="BP14" s="55" t="str">
         <f>MataMataLiga!A42</f>
-        <v>$uicide $quad F.C</v>
+        <v>Hepta 17 FC</v>
       </c>
       <c r="BQ14" s="51"/>
       <c r="BR14" s="46" t="s">
@@ -3977,7 +4017,7 @@
       </c>
       <c r="BS14" s="55" t="str">
         <f>MataMataLiga!A58</f>
-        <v>SCCP Quarta força</v>
+        <v>showlimafc</v>
       </c>
       <c r="BT14" s="51"/>
       <c r="BU14" s="46" t="s">
@@ -3985,7 +4025,7 @@
       </c>
       <c r="BV14" s="55" t="str">
         <f>MataMataLiga!A74</f>
-        <v>Renalare</v>
+        <v>Los Angeles Stars FC</v>
       </c>
       <c r="BW14" s="51"/>
       <c r="BX14" s="46" t="s">
@@ -3993,7 +4033,7 @@
       </c>
       <c r="BY14" s="55" t="str">
         <f>MataMataLiga!A90</f>
-        <v>alhfao</v>
+        <v>Vocês tão Lascados</v>
       </c>
     </row>
     <row r="15" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,22 +4078,22 @@
       </c>
       <c r="AS15" s="32" t="str">
         <f>LigaEliminatória!B14</f>
-        <v xml:space="preserve"> Holanda de Wakanda</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="AT15" s="23">
         <f>LigaEliminatória!C14</f>
-        <v>66.73</v>
+        <v>75.179999999999993</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f>LigaEliminatória!B39</f>
-        <v>Reinafcr</v>
+        <v>AVANTI AZZURRA</v>
       </c>
       <c r="AW15" s="23">
         <f>LigaEliminatória!C39</f>
-        <v>49.65</v>
+        <v>52.350000000000009</v>
       </c>
       <c r="AY15" s="39"/>
       <c r="AZ15" s="39"/>
@@ -4072,7 +4112,7 @@
       </c>
       <c r="BJ15" s="55" t="str">
         <f>MataMataLiga!A11</f>
-        <v>Renato 007 Exp 2021</v>
+        <v>Shibo F.C.</v>
       </c>
       <c r="BK15" s="51"/>
       <c r="BL15" s="46" t="s">
@@ -4080,7 +4120,7 @@
       </c>
       <c r="BM15" s="55" t="str">
         <f>MataMataLiga!A27</f>
-        <v>Vocês tão Lascados</v>
+        <v>THG VILA IZABEL FC</v>
       </c>
       <c r="BN15" s="51"/>
       <c r="BO15" s="46" t="s">
@@ -4088,7 +4128,7 @@
       </c>
       <c r="BP15" s="55" t="str">
         <f>MataMataLiga!A43</f>
-        <v>APOCALIPSE1910</v>
+        <v>ROLETA RU$$A F.C</v>
       </c>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="46" t="s">
@@ -4096,7 +4136,7 @@
       </c>
       <c r="BS15" s="55" t="str">
         <f>MataMataLiga!A59</f>
-        <v>CHAPELETA10</v>
+        <v>F.C Trupingas</v>
       </c>
       <c r="BT15" s="51"/>
       <c r="BU15" s="46" t="s">
@@ -4104,7 +4144,7 @@
       </c>
       <c r="BV15" s="55" t="str">
         <f>MataMataLiga!A75</f>
-        <v>Porco Verde WA</v>
+        <v>Kattegat Vila Belmiro</v>
       </c>
       <c r="BW15" s="51"/>
       <c r="BX15" s="46" t="s">
@@ -4112,7 +4152,7 @@
       </c>
       <c r="BY15" s="55" t="str">
         <f>MataMataLiga!A91</f>
-        <v xml:space="preserve">S.C. Brasilandia City </v>
+        <v>Reinafcr</v>
       </c>
     </row>
     <row r="16" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4163,22 +4203,22 @@
       </c>
       <c r="AS16" s="32" t="str">
         <f>LigaEliminatória!B15</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>LiverpooI</v>
       </c>
       <c r="AT16" s="23">
         <f>LigaEliminatória!C15</f>
-        <v>64.930000000000007</v>
+        <v>73.45</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f>LigaEliminatória!B40</f>
-        <v>LiverpooI</v>
+        <v>KVRA-Z/O</v>
       </c>
       <c r="AW16" s="23">
         <f>LigaEliminatória!C40</f>
-        <v>48.05</v>
+        <v>49.65</v>
       </c>
       <c r="AY16" s="39"/>
       <c r="AZ16" s="39"/>
@@ -4199,7 +4239,7 @@
       </c>
       <c r="BJ16" s="55" t="str">
         <f>MataMataLiga!A12</f>
-        <v>LamucciSPFC</v>
+        <v>Artefutt</v>
       </c>
       <c r="BK16" s="51"/>
       <c r="BL16" s="46" t="s">
@@ -4207,7 +4247,7 @@
       </c>
       <c r="BM16" s="55" t="str">
         <f>MataMataLiga!A28</f>
-        <v>Santa fé futebol e samba</v>
+        <v>REF$CAMPEÃO$</v>
       </c>
       <c r="BN16" s="51"/>
       <c r="BO16" s="46" t="s">
@@ -4215,7 +4255,7 @@
       </c>
       <c r="BP16" s="55" t="str">
         <f>MataMataLiga!A44</f>
-        <v>C.A. ELSHOW</v>
+        <v>Tornadooo F.C</v>
       </c>
       <c r="BQ16" s="51"/>
       <c r="BR16" s="46" t="s">
@@ -4223,7 +4263,7 @@
       </c>
       <c r="BS16" s="55" t="str">
         <f>MataMataLiga!A60</f>
-        <v>Shibo F.C.</v>
+        <v>Forró Social Club</v>
       </c>
       <c r="BT16" s="51"/>
       <c r="BU16" s="46" t="s">
@@ -4231,7 +4271,7 @@
       </c>
       <c r="BV16" s="55" t="str">
         <f>MataMataLiga!A76</f>
-        <v>$ANTO$</v>
+        <v>El Loko China</v>
       </c>
       <c r="BW16" s="51"/>
       <c r="BX16" s="46" t="s">
@@ -4239,7 +4279,7 @@
       </c>
       <c r="BY16" s="55" t="str">
         <f>MataMataLiga!A92</f>
-        <v>Maste fla</v>
+        <v>Renalare</v>
       </c>
     </row>
     <row r="17" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4284,22 +4324,22 @@
       </c>
       <c r="AS17" s="32" t="str">
         <f>LigaEliminatória!B16</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
       <c r="AT17" s="23">
         <f>LigaEliminatória!C16</f>
-        <v>64.53</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="AU17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f>LigaEliminatória!B41</f>
-        <v>MCML Futebol Clube IBR</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="AW17" s="23">
         <f>LigaEliminatória!C41</f>
-        <v>46.63</v>
+        <v>49.150000000000013</v>
       </c>
       <c r="AY17" s="39"/>
       <c r="AZ17" s="39"/>
@@ -4326,7 +4366,7 @@
       </c>
       <c r="BM17" s="55" t="str">
         <f>MataMataLiga!A29</f>
-        <v>Esquaiella F.C</v>
+        <v>FisioT's</v>
       </c>
       <c r="BN17" s="51"/>
       <c r="BO17" s="46" t="s">
@@ -4334,7 +4374,7 @@
       </c>
       <c r="BP17" s="55" t="str">
         <f>MataMataLiga!A45</f>
-        <v>MEM- TRICOLOR</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="BQ17" s="51"/>
       <c r="BR17" s="46" t="s">
@@ -4342,7 +4382,7 @@
       </c>
       <c r="BS17" s="55" t="str">
         <f>MataMataLiga!A61</f>
-        <v>SC Karate Kid</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="BT17" s="51"/>
       <c r="BU17" s="46" t="s">
@@ -4350,7 +4390,7 @@
       </c>
       <c r="BV17" s="55" t="str">
         <f>MataMataLiga!A77</f>
-        <v>E.C SIEMACO SP</v>
+        <v>S. E. CURUPIRA</v>
       </c>
       <c r="BW17" s="51"/>
       <c r="BX17" s="46" t="s">
@@ -4358,7 +4398,7 @@
       </c>
       <c r="BY17" s="55" t="str">
         <f>MataMataLiga!A93</f>
-        <v>KVRA-Z/O</v>
+        <v>Breeja F.C</v>
       </c>
     </row>
     <row r="18" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4405,22 +4445,22 @@
       </c>
       <c r="AS18" s="32" t="str">
         <f>LigaEliminatória!B17</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>SCFVelasco2021</v>
       </c>
       <c r="AT18" s="23">
         <f>LigaEliminatória!C17</f>
-        <v>64.150000000000006</v>
+        <v>71.649999999999991</v>
       </c>
       <c r="AU18" s="10" t="s">
         <v>91</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f>LigaEliminatória!B42</f>
-        <v>Tornad000</v>
+        <v>DUFF F.D.</v>
       </c>
       <c r="AW18" s="23">
         <f>LigaEliminatória!C42</f>
-        <v>45.63</v>
+        <v>49.01</v>
       </c>
       <c r="AY18" s="39"/>
       <c r="AZ18" s="39"/>
@@ -4439,7 +4479,7 @@
       </c>
       <c r="BJ18" s="55" t="str">
         <f>MataMataLiga!A14</f>
-        <v>kamicase2 fc</v>
+        <v>S.E. FINISH</v>
       </c>
       <c r="BK18" s="51"/>
       <c r="BL18" s="46" t="s">
@@ -4447,7 +4487,7 @@
       </c>
       <c r="BM18" s="55" t="str">
         <f>MataMataLiga!A30</f>
-        <v xml:space="preserve">Meus Ovos </v>
+        <v>Porco Verde WA</v>
       </c>
       <c r="BN18" s="51"/>
       <c r="BO18" s="46" t="s">
@@ -4455,7 +4495,7 @@
       </c>
       <c r="BP18" s="55" t="str">
         <f>MataMataLiga!A46</f>
-        <v>HANDEVU FC</v>
+        <v>ARENACORINTHIANSSS</v>
       </c>
       <c r="BQ18" s="51"/>
       <c r="BR18" s="46" t="s">
@@ -4463,7 +4503,7 @@
       </c>
       <c r="BS18" s="55" t="str">
         <f>MataMataLiga!A62</f>
-        <v>E.C.O 82</v>
+        <v xml:space="preserve">Meus Ovos </v>
       </c>
       <c r="BT18" s="51"/>
       <c r="BU18" s="46" t="s">
@@ -4471,7 +4511,7 @@
       </c>
       <c r="BV18" s="55" t="str">
         <f>MataMataLiga!A78</f>
-        <v>SC BAYER DE MULEKES</v>
+        <v>Medão Fc</v>
       </c>
       <c r="BW18" s="51"/>
       <c r="BX18" s="46" t="s">
@@ -4479,7 +4519,7 @@
       </c>
       <c r="BY18" s="55" t="str">
         <f>MataMataLiga!A94</f>
-        <v>Arloso FC</v>
+        <v>TERUEG</v>
       </c>
     </row>
     <row r="19" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4528,22 +4568,22 @@
       </c>
       <c r="AS19" s="32" t="str">
         <f>LigaEliminatória!B18</f>
-        <v>Cata Cata 71</v>
+        <v>CHAPELETA10</v>
       </c>
       <c r="AT19" s="23">
         <f>LigaEliminatória!C18</f>
-        <v>63.2</v>
+        <v>70.75</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f>LigaEliminatória!B43</f>
-        <v>Brahma 07 FC</v>
+        <v>LamucciSPFC</v>
       </c>
       <c r="AW19" s="23">
         <f>LigaEliminatória!C43</f>
-        <v>44.8</v>
+        <v>48.250000000000007</v>
       </c>
       <c r="AY19" s="39"/>
       <c r="AZ19" s="39"/>
@@ -4564,7 +4604,7 @@
       </c>
       <c r="BJ19" s="55" t="str">
         <f>MataMataLiga!A15</f>
-        <v>S.C. JUNIOR SIEMACO</v>
+        <v>Palestra 1000 Grau fc</v>
       </c>
       <c r="BK19" s="51"/>
       <c r="BL19" s="46" t="s">
@@ -4572,7 +4612,7 @@
       </c>
       <c r="BM19" s="55" t="str">
         <f>MataMataLiga!A31</f>
-        <v>Palestra 1000 Grau fc</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="BN19" s="51"/>
       <c r="BO19" s="46" t="s">
@@ -4580,7 +4620,7 @@
       </c>
       <c r="BP19" s="55" t="str">
         <f>MataMataLiga!A47</f>
-        <v>É o bonde COM freio 2021 !</v>
+        <v>Zildane F.C</v>
       </c>
       <c r="BQ19" s="51"/>
       <c r="BR19" s="46" t="s">
@@ -4588,7 +4628,7 @@
       </c>
       <c r="BS19" s="55" t="str">
         <f>MataMataLiga!A63</f>
-        <v>Cohab da madeira</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="BT19" s="51"/>
       <c r="BU19" s="46" t="s">
@@ -4596,7 +4636,7 @@
       </c>
       <c r="BV19" s="55" t="str">
         <f>MataMataLiga!A79</f>
-        <v>LQueiroz Castelucas FC</v>
+        <v>Hrvatska Soccer F.C</v>
       </c>
       <c r="BW19" s="51"/>
       <c r="BX19" s="46" t="s">
@@ -4604,7 +4644,7 @@
       </c>
       <c r="BY19" s="55" t="str">
         <f>MataMataLiga!A95</f>
-        <v>Xo Corona</v>
+        <v>Arloso FC</v>
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4634,22 +4674,22 @@
       </c>
       <c r="AS20" s="32" t="str">
         <f>LigaEliminatória!B19</f>
-        <v>REF $ELIMINATOR$</v>
+        <v>Renato 007 Exp 2021</v>
       </c>
       <c r="AT20" s="23">
         <f>LigaEliminatória!C19</f>
-        <v>63.030000000000008</v>
+        <v>70.710000000000008</v>
       </c>
       <c r="AU20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f>LigaEliminatória!B44</f>
-        <v>S.C. Brasilandia City</v>
+        <v>Reinafcr</v>
       </c>
       <c r="AW20" s="23">
         <f>LigaEliminatória!C44</f>
-        <v>41.33</v>
+        <v>45.950000000000017</v>
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="39"/>
@@ -4668,7 +4708,7 @@
       </c>
       <c r="BJ20" s="56" t="str">
         <f>MataMataLiga!A16</f>
-        <v>SEP Campeoníssimo</v>
+        <v>LiverpooI</v>
       </c>
       <c r="BK20" s="51"/>
       <c r="BL20" s="47" t="s">
@@ -4676,7 +4716,7 @@
       </c>
       <c r="BM20" s="56" t="str">
         <f>MataMataLiga!A32</f>
-        <v>ROLETA RU$$A F.C</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="BN20" s="51"/>
       <c r="BO20" s="47" t="s">
@@ -4684,7 +4724,7 @@
       </c>
       <c r="BP20" s="56" t="str">
         <f>MataMataLiga!A48</f>
-        <v>KAMIKA$E F.C</v>
+        <v>L&amp;G Cabral</v>
       </c>
       <c r="BQ20" s="51"/>
       <c r="BR20" s="47" t="s">
@@ -4692,7 +4732,7 @@
       </c>
       <c r="BS20" s="56" t="str">
         <f>MataMataLiga!A64</f>
-        <v>THG VILA IZABEL FC</v>
+        <v>Esquaiella F.C</v>
       </c>
       <c r="BT20" s="51"/>
       <c r="BU20" s="47" t="s">
@@ -4700,7 +4740,7 @@
       </c>
       <c r="BV20" s="56" t="str">
         <f>MataMataLiga!A80</f>
-        <v>Reinafcr</v>
+        <v>METAMORPHO</v>
       </c>
       <c r="BW20" s="51"/>
       <c r="BX20" s="47" t="s">
@@ -4708,7 +4748,7 @@
       </c>
       <c r="BY20" s="56" t="str">
         <f>MataMataLiga!A96</f>
-        <v>Chelsea Ziiica FC</v>
+        <v>EC Samba Social</v>
       </c>
     </row>
     <row r="21" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4738,22 +4778,22 @@
       </c>
       <c r="AS21" s="32" t="str">
         <f>LigaEliminatória!B20</f>
-        <v>L&amp;G Cabral</v>
+        <v>MEM- TRICOLOR</v>
       </c>
       <c r="AT21" s="23">
         <f>LigaEliminatória!C20</f>
-        <v>63.03</v>
+        <v>67.95</v>
       </c>
       <c r="AU21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AV21" s="32" t="str">
+      <c r="AV21" s="59" t="str">
         <f>LigaEliminatória!B45</f>
-        <v>KVRA-Z/O</v>
-      </c>
-      <c r="AW21" s="23">
+        <v>Breeja F.C</v>
+      </c>
+      <c r="AW21" s="60">
         <f>LigaEliminatória!C45</f>
-        <v>39.350000000000009</v>
+        <v>43.25</v>
       </c>
       <c r="AY21" s="39"/>
       <c r="AZ21" s="39"/>
@@ -4810,22 +4850,22 @@
       </c>
       <c r="AS22" s="32" t="str">
         <f>LigaEliminatória!B21</f>
-        <v>Bávaros Bier</v>
+        <v>Verdão 1000 grau FC</v>
       </c>
       <c r="AT22" s="23">
         <f>LigaEliminatória!C21</f>
-        <v>63.03</v>
+        <v>66.95</v>
       </c>
       <c r="AU22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AV22" s="32" t="str">
+      <c r="AV22" s="59" t="str">
         <f>LigaEliminatória!B46</f>
-        <v>LQueiroz FC</v>
-      </c>
-      <c r="AW22" s="23">
+        <v>METAMORPHO</v>
+      </c>
+      <c r="AW22" s="60">
         <f>LigaEliminatória!C46</f>
-        <v>36.549999999999997</v>
+        <v>28.38</v>
       </c>
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
@@ -4880,11 +4920,11 @@
       </c>
       <c r="AS23" s="32" t="str">
         <f>LigaEliminatória!B22</f>
-        <v>$uicide $quad F.C</v>
+        <v>SEP Campeoníssimo</v>
       </c>
       <c r="AT23" s="23">
         <f>LigaEliminatória!C22</f>
-        <v>62.73</v>
+        <v>66.72999999999999</v>
       </c>
       <c r="AU23" s="10" t="s">
         <v>119</v>
@@ -4948,11 +4988,11 @@
       </c>
       <c r="AS24" s="32" t="str">
         <f>LigaEliminatória!B23</f>
-        <v>MEM- TRICOLOR</v>
+        <v>SC Karate Kid</v>
       </c>
       <c r="AT24" s="23">
         <f>LigaEliminatória!C23</f>
-        <v>61.750000000000007</v>
+        <v>65.850000000000009</v>
       </c>
       <c r="AU24" s="10" t="s">
         <v>125</v>
@@ -4995,11 +5035,11 @@
       </c>
       <c r="AS25" s="32" t="str">
         <f>LigaEliminatória!B24</f>
-        <v>KAMIKA$E F.C</v>
+        <v>Brahma 07 FC</v>
       </c>
       <c r="AT25" s="23">
         <f>LigaEliminatória!C24</f>
-        <v>61.23</v>
+        <v>65.550000000000011</v>
       </c>
       <c r="AU25" s="10" t="s">
         <v>130</v>
@@ -5034,11 +5074,11 @@
       </c>
       <c r="AS26" s="32" t="str">
         <f>LigaEliminatória!B25</f>
-        <v>Rei dos mares F.C</v>
+        <v>Pagangrizo’s team</v>
       </c>
       <c r="AT26" s="23">
         <f>LigaEliminatória!C25</f>
-        <v>61.150000000000013</v>
+        <v>64.55</v>
       </c>
       <c r="AU26" s="10" t="s">
         <v>134</v>
@@ -5073,11 +5113,11 @@
       </c>
       <c r="AS27" s="32" t="str">
         <f>LigaEliminatória!B26</f>
-        <v>MALMO FUTEBOL F.</v>
+        <v>Bávaros Bier</v>
       </c>
       <c r="AT27" s="23">
         <f>LigaEliminatória!C26</f>
-        <v>61.030000000000022</v>
+        <v>64.25</v>
       </c>
       <c r="AU27" s="10" t="s">
         <v>34</v>
@@ -5112,11 +5152,11 @@
       </c>
       <c r="AS28" s="34" t="str">
         <f>LigaEliminatória!B27</f>
-        <v>SCFVelasco2021</v>
+        <v>$uicide $quad F.C</v>
       </c>
       <c r="AT28" s="24">
         <f>LigaEliminatória!C27</f>
-        <v>59.320000000000007</v>
+        <v>63.45</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>46</v>
@@ -5327,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,8 +5381,8 @@
     <col min="6" max="6" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="66" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="66" customWidth="1"/>
-    <col min="10" max="25" width="9.140625" style="66" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="66"/>
+    <col min="10" max="27" width="9.140625" style="66" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5397,7 +5437,7 @@
         <v>143</v>
       </c>
       <c r="C3" s="20">
-        <v>723.52978515625</v>
+        <v>908.06982421875</v>
       </c>
       <c r="E3" s="66">
         <v>1</v>
@@ -5406,7 +5446,7 @@
         <v>143</v>
       </c>
       <c r="G3" s="21">
-        <v>723.52978515625</v>
+        <v>908.06982421875</v>
       </c>
       <c r="J3" s="85" t="s">
         <v>22</v>
@@ -5429,7 +5469,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="20">
-        <v>707.609375</v>
+        <v>888.24951171875</v>
       </c>
       <c r="E4" s="66">
         <v>2</v>
@@ -5438,7 +5478,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="21">
-        <v>707.609375</v>
+        <v>888.24951171875</v>
       </c>
       <c r="J4" s="85"/>
       <c r="K4" s="66">
@@ -5459,7 +5499,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="20">
-        <v>700.78955078125</v>
+        <v>886.8603515625</v>
       </c>
       <c r="E5" s="66">
         <v>3</v>
@@ -5468,7 +5508,7 @@
         <v>147</v>
       </c>
       <c r="G5" s="21">
-        <v>700.78955078125</v>
+        <v>886.8603515625</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>39</v>
@@ -5491,7 +5531,7 @@
         <v>149</v>
       </c>
       <c r="C6" s="20">
-        <v>698.169677734375</v>
+        <v>875.639892578125</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="66">
@@ -5512,7 +5552,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="20">
-        <v>693.7099609375</v>
+        <v>868.359375</v>
       </c>
       <c r="E7" s="85" t="s">
         <v>1</v>
@@ -5526,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="66" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="M7" s="66">
-        <v>220.39</v>
+        <v>414.77</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5537,10 +5577,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="20">
-        <v>688.370361328125</v>
+        <v>863.47021484375</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>140</v>
@@ -5556,7 +5596,7 @@
         <v>153</v>
       </c>
       <c r="M8" s="66">
-        <v>218.67</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5564,10 +5604,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="20">
-        <v>684.8701171875</v>
+        <v>859.33984375</v>
       </c>
       <c r="E9" s="66">
         <v>1</v>
@@ -5584,10 +5624,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="20">
-        <v>678.719970703125</v>
+        <v>851.520263671875</v>
       </c>
       <c r="E10" s="66">
         <v>2</v>
@@ -5602,10 +5642,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="20">
-        <v>677.239990234375</v>
+        <v>851.140380859375</v>
       </c>
       <c r="E11" s="66">
         <v>3</v>
@@ -5622,10 +5662,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="20">
-        <v>674.91064453125</v>
+        <v>850.860107421875</v>
       </c>
       <c r="J12" s="85"/>
       <c r="K12" s="66">
@@ -5634,7 +5674,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
@@ -5662,10 +5702,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G15" s="21">
-        <v>162.65</v>
+        <v>176.42</v>
       </c>
       <c r="J15" s="85" t="s">
         <v>112</v>
@@ -5679,10 +5719,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G16" s="21">
-        <v>161.83000000000001</v>
+        <v>171.74</v>
       </c>
       <c r="J16" s="85"/>
       <c r="K16" s="66">
@@ -5694,10 +5734,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="21">
-        <v>161.6</v>
+        <v>168.75</v>
       </c>
       <c r="J17" s="85" t="s">
         <v>123</v>
@@ -5750,13 +5790,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" s="21">
-        <v>107.5</v>
+        <v>119.9501953125</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
@@ -5764,13 +5804,13 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="21">
-        <v>107.39990234375</v>
+        <v>111.66015625</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5810,8 +5850,8 @@
     <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20" customWidth="1"/>
-    <col min="4" max="17" width="9.140625" style="66" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="66"/>
+    <col min="4" max="19" width="9.140625" style="66" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5827,10 +5867,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="21">
-        <v>89.53</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5838,10 +5878,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C4" s="21">
-        <v>82.85</v>
+        <v>92.030000000000015</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5849,10 +5889,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="21">
-        <v>80.750000000000014</v>
+        <v>86.910000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,10 +5900,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C6" s="21">
-        <v>74.83</v>
+        <v>83.31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,10 +5911,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="21">
-        <v>74.61999999999999</v>
+        <v>81.049999999999983</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="21">
-        <v>73.22</v>
+        <v>79.650000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,10 +5933,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="21">
-        <v>71.959999999999994</v>
+        <v>79.55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,10 +5944,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C10" s="21">
-        <v>70.930000000000007</v>
+        <v>78.509999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5915,10 +5955,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="21">
-        <v>69.830000000000013</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,10 +5966,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="21">
-        <v>67.320000000000007</v>
+        <v>76.05</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,10 +5977,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C13" s="21">
-        <v>66.83</v>
+        <v>75.650000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5948,10 +5988,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="21">
-        <v>66.73</v>
+        <v>75.179999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,10 +5999,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C15" s="21">
-        <v>64.930000000000007</v>
+        <v>73.45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,10 +6010,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="C16" s="21">
-        <v>64.53</v>
+        <v>73.050000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5981,10 +6021,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="21">
-        <v>64.150000000000006</v>
+        <v>71.649999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,10 +6032,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C18" s="21">
-        <v>63.2</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6003,10 +6043,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="21">
-        <v>63.030000000000008</v>
+        <v>70.710000000000008</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6014,10 +6054,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="C20" s="21">
-        <v>63.03</v>
+        <v>67.95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,10 +6065,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="21">
-        <v>63.03</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6036,10 +6076,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="21">
-        <v>62.73</v>
+        <v>66.72999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,10 +6087,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="C23" s="21">
-        <v>61.750000000000007</v>
+        <v>65.850000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,10 +6098,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="21">
-        <v>61.23</v>
+        <v>65.550000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,10 +6109,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C25" s="21">
-        <v>61.150000000000013</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6080,10 +6120,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C26" s="21">
-        <v>61.030000000000022</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,10 +6131,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C27" s="21">
-        <v>59.320000000000007</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,10 +6142,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C28" s="21">
-        <v>58.55</v>
+        <v>61.849999999999987</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6113,10 +6153,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C29" s="21">
-        <v>57.23</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6124,10 +6164,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C30" s="21">
-        <v>56.830000000000013</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6135,10 +6175,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C31" s="21">
-        <v>56.23</v>
+        <v>59.54999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6146,10 +6186,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="C32" s="21">
-        <v>55.850000000000009</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6157,10 +6197,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C33" s="21">
-        <v>55.350000000000009</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6168,10 +6208,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="C34" s="21">
-        <v>52.53</v>
+        <v>56.05</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,10 +6219,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C35" s="21">
-        <v>51.95</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6190,10 +6230,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="21">
-        <v>51.930000000000007</v>
+        <v>54.08</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,10 +6241,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C37" s="21">
-        <v>50.429999999999993</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6212,10 +6252,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" s="21">
-        <v>50.05</v>
+        <v>53.050000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,10 +6263,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="C39" s="21">
-        <v>49.65</v>
+        <v>52.350000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6234,10 +6274,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" s="21">
-        <v>48.05</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,10 +6285,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" s="21">
-        <v>46.63</v>
+        <v>49.150000000000013</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6256,10 +6296,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="21">
-        <v>45.63</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6267,10 +6307,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="21">
-        <v>44.8</v>
+        <v>48.250000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6278,10 +6318,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C44" s="21">
-        <v>41.33</v>
+        <v>45.950000000000017</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6289,10 +6329,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C45" s="21">
-        <v>39.350000000000009</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6300,10 +6340,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C46" s="21">
-        <v>36.549999999999997</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6311,7 +6351,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" s="21">
         <v>33.130000000000003</v>
@@ -6322,7 +6362,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="21">
         <v>17.649999999999999</v>
@@ -6333,7 +6373,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" s="21">
         <v>10.54</v>
@@ -6344,7 +6384,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C50" s="21">
         <v>30.75</v>
@@ -6366,7 +6406,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="21">
         <v>32.82</v>
@@ -6387,407 +6427,407 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -6797,62 +6837,62 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -6867,22 +6907,22 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6895,7 +6935,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6905,19 +6945,19 @@
         <v>28375476</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>69.75</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="M1">
-        <v>14033643</v>
+        <v>5545590</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6930,22 +6970,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>14033643</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60.11</v>
+      </c>
+      <c r="H5">
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5">
         <v>874216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M5">
-        <v>5545590</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6989,8 +7029,8 @@
     <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
     <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
     <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
-    <col min="28" max="32" width="9.140625" style="68" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="68"/>
+    <col min="28" max="34" width="9.140625" style="68" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6998,34 +7038,34 @@
         <f>MataMataC02!A1</f>
         <v>28375476</v>
       </c>
-      <c r="B1" s="109" t="str">
+      <c r="B1" s="128" t="str">
         <f>MataMataC02!B1</f>
         <v>The wailers. pro</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131">
         <f>MataMataC02!F1</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="113" t="s">
+        <v>69.75</v>
+      </c>
+      <c r="G1" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="114">
+      <c r="H1" s="109">
         <f>MataMataC02!H1</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="115" t="str">
+        <v>54.55</v>
+      </c>
+      <c r="I1" s="110" t="str">
         <f>MataMataC02!I1</f>
-        <v>DiasBons EC</v>
-      </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="116"/>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
       <c r="M1" s="86">
         <f>MataMataC02!M1</f>
-        <v>14033643</v>
+        <v>5545590</v>
       </c>
       <c r="O1" s="86">
         <f>MataMataC02!A33</f>
@@ -7063,17 +7103,17 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="123"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="93"/>
       <c r="O2" s="93"/>
       <c r="P2" s="102"/>
@@ -7090,23 +7130,23 @@
       <c r="AA2" s="93"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="124" t="str">
+      <c r="B3" s="136" t="str">
         <f>MataMataC02!B3</f>
         <v>thiago leal de assis</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128" t="str">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="str">
         <f>MataMataC02!I3</f>
-        <v>Nilson Dias</v>
-      </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="129"/>
+        <v>Fabio Massini</v>
+      </c>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
       <c r="O3" s="67"/>
       <c r="P3" s="108">
         <f>MataMataC02!B35</f>
@@ -7127,52 +7167,41 @@
       <c r="Z3" s="96"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
       <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86">
         <f>MataMataC02!A5</f>
-        <v>874216</v>
-      </c>
-      <c r="B5" s="109" t="str">
+        <v>14033643</v>
+      </c>
+      <c r="B5" s="120" t="str">
         <f>MataMataC02!B5</f>
+        <v>DiasBons EC</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122">
+        <f>MataMataC02!F5</f>
+        <v>60.11</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="139">
+        <f>MataMataC02!H5</f>
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" s="140" t="str">
+        <f>MataMataC02!I5</f>
         <v>Real Litoral FC</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112">
-        <f>MataMataC02!F5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="114">
-        <f>MataMataC02!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="115" t="str">
-        <f>MataMataC02!I5</f>
-        <v>FUT ART SP</v>
-      </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="116"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="141"/>
       <c r="M5" s="86">
         <f>MataMataC02!M5</f>
-        <v>5545590</v>
+        <v>874216</v>
       </c>
       <c r="O5" s="86">
         <f>MataMataC02!A37</f>
@@ -7210,17 +7239,17 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="143"/>
       <c r="M6" s="93"/>
       <c r="O6" s="93"/>
       <c r="P6" s="102"/>
@@ -7237,23 +7266,23 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="124" t="str">
+      <c r="B7" s="126" t="str">
         <f>MataMataC02!B7</f>
+        <v>Nilson Dias</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145" t="str">
+        <f>MataMataC02!I7</f>
         <v xml:space="preserve">Marcelo Henrique </v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128" t="str">
-        <f>MataMataC02!I7</f>
-        <v>Fabio Massini</v>
-      </c>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="129"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="146"/>
       <c r="O7" s="67"/>
       <c r="P7" s="108">
         <f>MataMataC02!B39</f>
@@ -7274,17 +7303,6 @@
       <c r="Z7" s="96"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
       <c r="O8" s="67"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7292,31 +7310,31 @@
         <f>MataMataC02!A9</f>
         <v>0</v>
       </c>
-      <c r="B9" s="109">
+      <c r="B9" s="100">
         <f>MataMataC02!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="97">
         <f>MataMataC02!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="105">
         <f>MataMataC02!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="88">
         <f>MataMataC02!I9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="116"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="86">
         <f>MataMataC02!M9</f>
         <v>0</v>
@@ -7357,17 +7375,17 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="123"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="93"/>
       <c r="O10" s="93"/>
       <c r="P10" s="102"/>
@@ -7384,23 +7402,23 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="124">
+      <c r="B11" s="108">
         <f>MataMataC02!B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="94">
         <f>MataMataC02!I11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="129"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
       <c r="O11" s="67"/>
       <c r="P11" s="108">
         <f>MataMataC02!B43</f>
@@ -7421,17 +7439,6 @@
       <c r="Z11" s="96"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
       <c r="O12" s="67"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7439,31 +7446,31 @@
         <f>MataMataC02!A13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="100">
         <f>MataMataC02!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="97">
         <f>MataMataC02!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="105">
         <f>MataMataC02!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="88">
         <f>MataMataC02!I13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="116"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="86">
         <f>MataMataC02!M13</f>
         <v>0</v>
@@ -7504,17 +7511,17 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="123"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="93"/>
       <c r="O14" s="93"/>
       <c r="P14" s="102"/>
@@ -7531,23 +7538,23 @@
       <c r="AA14" s="93"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="124">
+      <c r="B15" s="108">
         <f>MataMataC02!B15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="94">
         <f>MataMataC02!I15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="129"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
       <c r="O15" s="67"/>
       <c r="P15" s="108">
         <f>MataMataC02!B47</f>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E39A00-FF0E-4962-9559-B1149062DD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AE78C-D42B-48A9-842F-BBA513D22CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
     <sheet name="LigaPrincipal" sheetId="2" r:id="rId2"/>
     <sheet name="LigaEliminatória" sheetId="3" r:id="rId3"/>
     <sheet name="MataMataLiga" sheetId="4" r:id="rId4"/>
-    <sheet name="MataMataC02" sheetId="5" r:id="rId5"/>
-    <sheet name="MMC02-1fase" sheetId="6" r:id="rId6"/>
+    <sheet name="MataMataA" sheetId="7" r:id="rId5"/>
+    <sheet name="MataMataB" sheetId="8" r:id="rId6"/>
+    <sheet name="MataMataC" sheetId="5" r:id="rId7"/>
+    <sheet name="MMA" sheetId="9" r:id="rId8"/>
+    <sheet name="MMB" sheetId="10" r:id="rId9"/>
+    <sheet name="MMC" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="254">
   <si>
     <t>Turno</t>
   </si>
@@ -971,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1358,11 +1362,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="0"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,16 +1604,37 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,56 +1645,26 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,71 +1673,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2114,96 +2192,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:80" s="65" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="L2" s="72" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="L2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="Q2" s="72" t="s">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="Q2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="W2" s="81" t="s">
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="W2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AB2" s="72" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AB2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AH2" s="72" t="s">
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AH2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AM2" s="72" t="s">
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AM2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AR2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AY2" s="72" t="s">
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AY2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BD2" s="72" t="s">
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BD2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
+      <c r="BP2" s="75"/>
       <c r="BQ2" s="64"/>
       <c r="BR2" s="64"/>
       <c r="BS2" s="64"/>
       <c r="BT2" s="50"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
+      <c r="BU2" s="74"/>
+      <c r="BV2" s="75"/>
+      <c r="BW2" s="75"/>
+      <c r="BX2" s="75"/>
+      <c r="BY2" s="75"/>
+      <c r="BZ2" s="75"/>
+      <c r="CA2" s="75"/>
+      <c r="CB2" s="75"/>
     </row>
     <row r="3" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -2314,32 +2392,32 @@
       <c r="BG3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="74" t="s">
+      <c r="BI3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="71"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="82"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="76" t="s">
+      <c r="BO3" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="71"/>
-      <c r="BU3" s="77" t="s">
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BS3" s="82"/>
+      <c r="BU3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="75"/>
-      <c r="BY3" s="71"/>
-      <c r="CA3" s="70" t="s">
+      <c r="BV3" s="84"/>
+      <c r="BW3" s="84"/>
+      <c r="BX3" s="84"/>
+      <c r="BY3" s="82"/>
+      <c r="CA3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="CB3" s="71"/>
+      <c r="CB3" s="82"/>
     </row>
     <row r="4" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2416,7 +2494,7 @@
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="82" t="s">
+      <c r="AB4" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2598,7 +2676,7 @@
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="80"/>
+      <c r="AB5" s="77"/>
       <c r="AC5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2879,7 @@
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="82" t="s">
+      <c r="AB6" s="76" t="s">
         <v>39</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -2818,7 +2896,7 @@
       <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="80"/>
+      <c r="AH6" s="77"/>
       <c r="AI6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2828,7 +2906,7 @@
       <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="80"/>
+      <c r="AM6" s="77"/>
       <c r="AN6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2868,7 +2946,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="80"/>
+      <c r="BD6" s="77"/>
       <c r="BE6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2946,7 +3024,7 @@
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="80"/>
+      <c r="AB7" s="77"/>
       <c r="AC7" s="11" t="s">
         <v>27</v>
       </c>
@@ -3081,10 +3159,10 @@
       </c>
     </row>
     <row r="8" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>58</v>
@@ -3100,7 +3178,7 @@
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="82" t="s">
+      <c r="AB8" s="76" t="s">
         <v>59</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -3250,7 +3328,7 @@
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="80"/>
+      <c r="AB9" s="77"/>
       <c r="AC9" s="11" t="s">
         <v>27</v>
       </c>
@@ -3265,7 +3343,7 @@
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="80"/>
+      <c r="AH9" s="77"/>
       <c r="AI9" s="11" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3353,7 @@
       <c r="AK9" s="26">
         <v>30</v>
       </c>
-      <c r="AM9" s="80"/>
+      <c r="AM9" s="77"/>
       <c r="AN9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3311,7 +3389,7 @@
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="80"/>
+      <c r="BD9" s="77"/>
       <c r="BE9" s="11" t="s">
         <v>38</v>
       </c>
@@ -3387,7 +3465,7 @@
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="82" t="s">
+      <c r="AB10" s="76" t="s">
         <v>75</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -3528,7 +3606,7 @@
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="80"/>
+      <c r="AB11" s="77"/>
       <c r="AC11" s="11" t="s">
         <v>27</v>
       </c>
@@ -3661,7 +3739,7 @@
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="82" t="s">
+      <c r="AB12" s="76" t="s">
         <v>89</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3678,7 +3756,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="80"/>
+      <c r="AH12" s="77"/>
       <c r="AI12" s="11" t="s">
         <v>40</v>
       </c>
@@ -3686,7 +3764,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="80"/>
+      <c r="AM12" s="77"/>
       <c r="AN12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3798,7 @@
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="80"/>
+      <c r="BD12" s="77"/>
       <c r="BE12" s="11" t="s">
         <v>38</v>
       </c>
@@ -3796,7 +3874,7 @@
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="80"/>
+      <c r="AB13" s="77"/>
       <c r="AC13" s="11" t="s">
         <v>27</v>
       </c>
@@ -3916,12 +3994,12 @@
       </c>
     </row>
     <row r="14" spans="2:80" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="82" t="s">
+      <c r="AB14" s="76" t="s">
         <v>101</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -4042,7 +4120,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="80"/>
+      <c r="AB15" s="77"/>
       <c r="AC15" s="11" t="s">
         <v>27</v>
       </c>
@@ -4057,7 +4135,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="80"/>
+      <c r="AH15" s="77"/>
       <c r="AI15" s="11" t="s">
         <v>40</v>
       </c>
@@ -4065,7 +4143,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="80"/>
+      <c r="AM15" s="77"/>
       <c r="AN15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4099,7 +4177,7 @@
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="80"/>
+      <c r="BD15" s="77"/>
       <c r="BE15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4161,7 +4239,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="82" t="s">
+      <c r="AB16" s="76" t="s">
         <v>112</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -4288,7 +4366,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="80"/>
+      <c r="AB17" s="77"/>
       <c r="AC17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4407,7 +4485,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="82" t="s">
+      <c r="AB18" s="76" t="s">
         <v>123</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -4424,7 +4502,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="80"/>
+      <c r="AH18" s="77"/>
       <c r="AI18" s="11" t="s">
         <v>40</v>
       </c>
@@ -4432,7 +4510,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="80"/>
+      <c r="AM18" s="77"/>
       <c r="AN18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4466,7 +4544,7 @@
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="80"/>
+      <c r="BD18" s="77"/>
       <c r="BE18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4528,7 +4606,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="80"/>
+      <c r="AB19" s="77"/>
       <c r="AC19" s="11" t="s">
         <v>27</v>
       </c>
@@ -4648,11 +4726,11 @@
       </c>
     </row>
     <row r="20" spans="2:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="AH20" s="79"/>
       <c r="AI20" s="10" t="s">
         <v>28</v>
@@ -4757,7 +4835,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="80"/>
+      <c r="AH21" s="77"/>
       <c r="AI21" s="11" t="s">
         <v>40</v>
       </c>
@@ -4765,7 +4843,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="80"/>
+      <c r="AM21" s="77"/>
       <c r="AN21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4799,7 +4877,7 @@
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="80"/>
+      <c r="BD21" s="77"/>
       <c r="BE21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4967,7 +5045,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="80"/>
+      <c r="AH24" s="77"/>
       <c r="AI24" s="11" t="s">
         <v>40</v>
       </c>
@@ -4975,7 +5053,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="80"/>
+      <c r="AM24" s="77"/>
       <c r="AN24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5009,7 +5087,7 @@
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="80"/>
+      <c r="BD24" s="77"/>
       <c r="BE24" s="11" t="s">
         <v>38</v>
       </c>
@@ -5307,6 +5385,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
@@ -5323,39 +5434,1274 @@
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29:AA30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="69" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="68" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="68" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="68" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="69" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="68" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
+    <col min="28" max="34" width="9.140625" style="68" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88">
+        <f>MataMataC!A1</f>
+        <v>28375476</v>
+      </c>
+      <c r="B1" s="118" t="str">
+        <f>MataMataC!B1</f>
+        <v>The wailers. pro</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="133">
+        <f>MataMataC!F1</f>
+        <v>69.75</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="115">
+        <f>MataMataC!H1</f>
+        <v>54.55</v>
+      </c>
+      <c r="I1" s="126" t="str">
+        <f>MataMataC!I1</f>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="88">
+        <f>MataMataC!M1</f>
+        <v>5545590</v>
+      </c>
+      <c r="O1" s="88">
+        <f>MataMataC!A33</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="90">
+        <f>MataMataC!B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="96">
+        <f>MataMataC!F33</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="100">
+        <f>MataMataC!H33</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="103">
+        <f>MataMataC!I33</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="88">
+        <f>MataMataC!M33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="125"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="124" t="str">
+        <f>MataMataC!B3</f>
+        <v>thiago leal de assis</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="131" t="str">
+        <f>MataMataC!I3</f>
+        <v>Fabio Massini</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="132"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="106">
+        <f>MataMataC!B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="108">
+        <f>MataMataC!I35</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="109"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O4" s="67"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88">
+        <f>MataMataC!A5</f>
+        <v>14033643</v>
+      </c>
+      <c r="B5" s="136" t="str">
+        <f>MataMataC!B5</f>
+        <v>DiasBons EC</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="140">
+        <f>MataMataC!F5</f>
+        <v>60.11</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="143">
+        <f>MataMataC!H5</f>
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" s="146" t="str">
+        <f>MataMataC!I5</f>
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="88">
+        <f>MataMataC!M5</f>
+        <v>874216</v>
+      </c>
+      <c r="O5" s="88">
+        <f>MataMataC!A37</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="90">
+        <f>MataMataC!B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="96">
+        <f>MataMataC!F37</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V5" s="100">
+        <f>MataMataC!H37</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="103">
+        <f>MataMataC!I37</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="88">
+        <f>MataMataC!M37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="89"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="110" t="str">
+        <f>MataMataC!B7</f>
+        <v>Nilson Dias</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="112" t="str">
+        <f>MataMataC!I7</f>
+        <v xml:space="preserve">Marcelo Henrique </v>
+      </c>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="106">
+        <f>MataMataC!B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="108">
+        <f>MataMataC!I39</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="109"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O8" s="67"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88">
+        <f>MataMataC!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="90">
+        <f>MataMataC!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="96">
+        <f>MataMataC!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="100">
+        <f>MataMataC!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="103">
+        <f>MataMataC!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="88">
+        <f>MataMataC!M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="88">
+        <f>MataMataC!A41</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="90">
+        <f>MataMataC!B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="96">
+        <f>MataMataC!F41</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V9" s="100">
+        <f>MataMataC!H41</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="103">
+        <f>MataMataC!I41</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="88">
+        <f>MataMataC!M41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="89"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="106">
+        <f>MataMataC!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="108">
+        <f>MataMataC!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="109"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="106">
+        <f>MataMataC!B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="108">
+        <f>MataMataC!I43</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="109"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O12" s="67"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="88">
+        <f>MataMataC!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="90">
+        <f>MataMataC!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="96">
+        <f>MataMataC!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="100">
+        <f>MataMataC!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="103">
+        <f>MataMataC!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="88">
+        <f>MataMataC!M13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="88">
+        <f>MataMataC!A45</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="90">
+        <f>MataMataC!B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="96">
+        <f>MataMataC!F45</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V13" s="100">
+        <f>MataMataC!H45</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="103">
+        <f>MataMataC!I45</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="88">
+        <f>MataMataC!M45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="89"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="106">
+        <f>MataMataC!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="108">
+        <f>MataMataC!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="109"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="106">
+        <f>MataMataC!B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="108">
+        <f>MataMataC!I47</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="109"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="67"/>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88">
+        <f>MataMataC!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="90">
+        <f>MataMataC!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="96">
+        <f>MataMataC!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="100">
+        <f>MataMataC!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="103">
+        <f>MataMataC!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="88">
+        <f>MataMataC!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="88">
+        <f>MataMataC!A49</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="90">
+        <f>MataMataC!B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="96">
+        <f>MataMataC!F49</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V17" s="100">
+        <f>MataMataC!H49</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="103">
+        <f>MataMataC!I49</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="88">
+        <f>MataMataC!M49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="125"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="89"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="106">
+        <f>MataMataC!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="108">
+        <f>MataMataC!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="109"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="106">
+        <f>MataMataC!B51</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="108">
+        <f>MataMataC!I51</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="109"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="67"/>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
+        <f>MataMataC!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="90">
+        <f>MataMataC!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="96">
+        <f>MataMataC!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="100">
+        <f>MataMataC!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="103">
+        <f>MataMataC!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="88">
+        <f>MataMataC!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="88">
+        <f>MataMataC!A53</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="90">
+        <f>MataMataC!B53</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="96">
+        <f>MataMataC!F53</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V21" s="100">
+        <f>MataMataC!H53</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="103">
+        <f>MataMataC!I53</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="88">
+        <f>MataMataC!M53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="125"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="89"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="106">
+        <f>MataMataC!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="108">
+        <f>MataMataC!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="109"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="106">
+        <f>MataMataC!B55</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="108">
+        <f>MataMataC!I55</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="109"/>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="67"/>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88">
+        <f>MataMataC!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="90">
+        <f>MataMataC!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="96">
+        <f>MataMataC!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="100">
+        <f>MataMataC!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="103">
+        <f>MataMataC!I25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="88">
+        <f>MataMataC!M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="88">
+        <f>MataMataC!A57</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="90">
+        <f>MataMataC!B57</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="96">
+        <f>MataMataC!F57</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V25" s="100">
+        <f>MataMataC!H57</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="103">
+        <f>MataMataC!I57</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="88">
+        <f>MataMataC!M57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="125"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="89"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="106">
+        <f>MataMataC!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="108">
+        <f>MataMataC!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="109"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="106">
+        <f>MataMataC!B59</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="108">
+        <f>MataMataC!I59</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="109"/>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="67"/>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88">
+        <f>MataMataC!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="90">
+        <f>MataMataC!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="96">
+        <f>MataMataC!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="100">
+        <f>MataMataC!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="103">
+        <f>MataMataC!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="88">
+        <f>MataMataC!M29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="88">
+        <f>MataMataC!A61</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="90">
+        <f>MataMataC!B61</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="96">
+        <f>MataMataC!F61</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V29" s="100">
+        <f>MataMataC!H61</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="103">
+        <f>MataMataC!I61</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="88">
+        <f>MataMataC!M61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="125"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="89"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="106">
+        <f>MataMataC!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="108">
+        <f>MataMataC!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="109"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="106">
+        <f>MataMataC!B63</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="108">
+        <f>MataMataC!I63</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="109"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:Z30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5386,22 +6732,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="E1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="J1" s="85" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="E1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="J1" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
@@ -5448,7 +6794,7 @@
       <c r="G3" s="21">
         <v>908.06982421875</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="66">
@@ -5480,7 +6826,7 @@
       <c r="G4" s="21">
         <v>888.24951171875</v>
       </c>
-      <c r="J4" s="85"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="66">
         <v>2</v>
       </c>
@@ -5510,7 +6856,7 @@
       <c r="G5" s="21">
         <v>886.8603515625</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="87" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="66">
@@ -5533,7 +6879,7 @@
       <c r="C6" s="20">
         <v>875.639892578125</v>
       </c>
-      <c r="J6" s="85"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="66">
         <v>2</v>
       </c>
@@ -5554,12 +6900,12 @@
       <c r="C7" s="20">
         <v>868.359375</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="J7" s="85" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="J7" s="87" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="66">
@@ -5588,7 +6934,7 @@
       <c r="G8" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="85"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="66">
         <v>2</v>
       </c>
@@ -5612,7 +6958,7 @@
       <c r="E9" s="66">
         <v>1</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="87" t="s">
         <v>75</v>
       </c>
       <c r="K9" s="66">
@@ -5632,7 +6978,7 @@
       <c r="E10" s="66">
         <v>2</v>
       </c>
-      <c r="J10" s="85"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="66">
         <v>2</v>
       </c>
@@ -5650,7 +6996,7 @@
       <c r="E11" s="66">
         <v>3</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="87" t="s">
         <v>89</v>
       </c>
       <c r="K11" s="66">
@@ -5667,18 +7013,18 @@
       <c r="C12" s="20">
         <v>850.860107421875</v>
       </c>
-      <c r="J12" s="85"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="J13" s="85" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="J13" s="87" t="s">
         <v>101</v>
       </c>
       <c r="K13" s="66">
@@ -5692,7 +7038,7 @@
       <c r="G14" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="85"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="66">
         <v>2</v>
       </c>
@@ -5707,7 +7053,7 @@
       <c r="G15" s="21">
         <v>176.42</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="87" t="s">
         <v>112</v>
       </c>
       <c r="K15" s="66">
@@ -5724,7 +7070,7 @@
       <c r="G16" s="21">
         <v>171.74</v>
       </c>
-      <c r="J16" s="85"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="66">
         <v>2</v>
       </c>
@@ -5739,7 +7085,7 @@
       <c r="G17" s="21">
         <v>168.75</v>
       </c>
-      <c r="J17" s="85" t="s">
+      <c r="J17" s="87" t="s">
         <v>123</v>
       </c>
       <c r="K17" s="66">
@@ -5747,18 +7093,18 @@
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="85"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F20" s="66" t="s">
@@ -5815,6 +7161,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J1:M1"/>
@@ -5824,11 +7175,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -6421,7 +7767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6931,7 +8277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F527D303-952D-450E-9C35-C381611DF5B1}">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7005,1266 +8351,2682 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EFCE50-81A6-44D4-A040-69D322170884}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>28375476</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1">
+        <v>69.75</v>
+      </c>
+      <c r="H1">
+        <v>54.55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1">
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14033643</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60.11</v>
+      </c>
+      <c r="H5">
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5">
+        <v>874216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>28375476</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1">
+        <v>69.75</v>
+      </c>
+      <c r="H1">
+        <v>54.55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1">
+        <v>5545590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14033643</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60.11</v>
+      </c>
+      <c r="H5">
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5">
+        <v>874216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7EE9FA-A5E4-4574-AF9F-9BA99C23D712}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:L7"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="70" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="71" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="71" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="69" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="68" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="68" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="68" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="68" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="71" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="71" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="71" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="69" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="71" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" style="68" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" style="68" customWidth="1"/>
-    <col min="28" max="34" width="9.140625" style="68" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="68"/>
+    <col min="23" max="26" width="9.140625" style="71" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="71" customWidth="1"/>
+    <col min="28" max="34" width="9.140625" style="71" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86">
-        <f>MataMataC02!A1</f>
+      <c r="A1" s="88">
+        <f>MataMataA!A1</f>
         <v>28375476</v>
       </c>
-      <c r="B1" s="128" t="str">
-        <f>MataMataC02!B1</f>
+      <c r="B1" s="118" t="str">
+        <f>MataMataA!B1</f>
         <v>The wailers. pro</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131">
-        <f>MataMataC02!F1</f>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="133">
+        <f>MataMataA!F1</f>
         <v>69.75</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="109">
-        <f>MataMataC02!H1</f>
+      <c r="H1" s="115">
+        <f>MataMataA!H1</f>
         <v>54.55</v>
       </c>
-      <c r="I1" s="110" t="str">
-        <f>MataMataC02!I1</f>
+      <c r="I1" s="126" t="str">
+        <f>MataMataA!I1</f>
         <v>FUT ART SP</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="86">
-        <f>MataMataC02!M1</f>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="88">
+        <f>MataMataA!M1</f>
         <v>5545590</v>
       </c>
-      <c r="O1" s="86">
-        <f>MataMataC02!A33</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="100">
-        <f>MataMataC02!B33</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="97">
-        <f>MataMataC02!F33</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="104" t="s">
+      <c r="O1" s="88">
+        <f>MataMataA!A33</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="152">
+        <f>MataMataA!B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="149">
+        <f>MataMataA!F33</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V1" s="105">
-        <f>MataMataC02!H33</f>
-        <v>0</v>
-      </c>
-      <c r="W1" s="88">
-        <f>MataMataC02!I33</f>
-        <v>0</v>
-      </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="86">
-        <f>MataMataC02!M33</f>
+      <c r="V1" s="100">
+        <f>MataMataA!H33</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="103">
+        <f>MataMataA!I33</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="88">
+        <f>MataMataA!M33</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="93"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="89"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="str">
-        <f>MataMataC02!B3</f>
+      <c r="B3" s="124" t="str">
+        <f>MataMataA!B3</f>
         <v>thiago leal de assis</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="117" t="str">
-        <f>MataMataC02!I3</f>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="131" t="str">
+        <f>MataMataA!I3</f>
         <v>Fabio Massini</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="108">
-        <f>MataMataC02!B35</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="94">
-        <f>MataMataC02!I35</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="96"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="132"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="106">
+        <f>MataMataA!B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="108">
+        <f>MataMataA!I35</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="109"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O4" s="67"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86">
-        <f>MataMataC02!A5</f>
+      <c r="A5" s="88">
+        <f>MataMataA!A5</f>
         <v>14033643</v>
       </c>
-      <c r="B5" s="120" t="str">
-        <f>MataMataC02!B5</f>
+      <c r="B5" s="118" t="str">
+        <f>MataMataA!B5</f>
         <v>DiasBons EC</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122">
-        <f>MataMataC02!F5</f>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="133">
+        <f>MataMataA!F5</f>
         <v>60.11</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="139">
-        <f>MataMataC02!H5</f>
+      <c r="H5" s="115">
+        <f>MataMataA!H5</f>
         <v>91.780000000000015</v>
       </c>
-      <c r="I5" s="140" t="str">
-        <f>MataMataC02!I5</f>
+      <c r="I5" s="126" t="str">
+        <f>MataMataA!I5</f>
         <v>Real Litoral FC</v>
       </c>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="86">
-        <f>MataMataC02!M5</f>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="88">
+        <f>MataMataA!M5</f>
         <v>874216</v>
       </c>
-      <c r="O5" s="86">
-        <f>MataMataC02!A37</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="100">
-        <f>MataMataC02!B37</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="97">
-        <f>MataMataC02!F37</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="104" t="s">
+      <c r="O5" s="88">
+        <f>MataMataA!A37</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="152">
+        <f>MataMataA!B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="149">
+        <f>MataMataA!F37</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V5" s="105">
-        <f>MataMataC02!H37</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="88">
-        <f>MataMataC02!I37</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="86">
-        <f>MataMataC02!M37</f>
+      <c r="V5" s="100">
+        <f>MataMataA!H37</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="103">
+        <f>MataMataA!I37</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="88">
+        <f>MataMataA!M37</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="93"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="89"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="126" t="str">
-        <f>MataMataC02!B7</f>
+      <c r="B7" s="124" t="str">
+        <f>MataMataA!B7</f>
         <v>Nilson Dias</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145" t="str">
-        <f>MataMataC02!I7</f>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="131" t="str">
+        <f>MataMataA!I7</f>
         <v xml:space="preserve">Marcelo Henrique </v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="146"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="108">
-        <f>MataMataC02!B39</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="94">
-        <f>MataMataC02!I39</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="96"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="132"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="106">
+        <f>MataMataA!B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="108">
+        <f>MataMataA!I39</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O8" s="67"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86">
-        <f>MataMataC02!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="100">
-        <f>MataMataC02!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="97">
-        <f>MataMataC02!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="104" t="s">
+      <c r="A9" s="88">
+        <f>MataMataA!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="118">
+        <f>MataMataA!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="133">
+        <f>MataMataA!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="105">
-        <f>MataMataC02!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="88">
-        <f>MataMataC02!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="86">
-        <f>MataMataC02!M9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="86">
-        <f>MataMataC02!A41</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="100">
-        <f>MataMataC02!B41</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="97">
-        <f>MataMataC02!F41</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="104" t="s">
+      <c r="H9" s="115">
+        <f>MataMataA!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="126">
+        <f>MataMataA!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="88">
+        <f>MataMataA!M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="88">
+        <f>MataMataA!A41</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="152">
+        <f>MataMataA!B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="149">
+        <f>MataMataA!F41</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V9" s="105">
-        <f>MataMataC02!H41</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="88">
-        <f>MataMataC02!I41</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="86">
-        <f>MataMataC02!M41</f>
+      <c r="V9" s="100">
+        <f>MataMataA!H41</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="103">
+        <f>MataMataA!I41</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="88">
+        <f>MataMataA!M41</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="93"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="89"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="108">
-        <f>MataMataC02!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="94">
-        <f>MataMataC02!I11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="108">
-        <f>MataMataC02!B43</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="94">
-        <f>MataMataC02!I43</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="96"/>
+      <c r="B11" s="124">
+        <f>MataMataA!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="131">
+        <f>MataMataA!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="132"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="106">
+        <f>MataMataA!B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="108">
+        <f>MataMataA!I43</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O12" s="67"/>
+      <c r="O12" s="70"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86">
-        <f>MataMataC02!A13</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="100">
-        <f>MataMataC02!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="97">
-        <f>MataMataC02!F13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="104" t="s">
+      <c r="A13" s="88">
+        <f>MataMataA!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="118">
+        <f>MataMataA!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="133">
+        <f>MataMataA!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="105">
-        <f>MataMataC02!H13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="88">
-        <f>MataMataC02!I13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="86">
-        <f>MataMataC02!M13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="86">
-        <f>MataMataC02!A45</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="100">
-        <f>MataMataC02!B45</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="97">
-        <f>MataMataC02!F45</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="104" t="s">
+      <c r="H13" s="115">
+        <f>MataMataA!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="126">
+        <f>MataMataA!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="88">
+        <f>MataMataA!M13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="88">
+        <f>MataMataA!A45</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="152">
+        <f>MataMataA!B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="149">
+        <f>MataMataA!F45</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V13" s="105">
-        <f>MataMataC02!H45</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="88">
-        <f>MataMataC02!I45</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="86">
-        <f>MataMataC02!M45</f>
+      <c r="V13" s="100">
+        <f>MataMataA!H45</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="103">
+        <f>MataMataA!I45</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="88">
+        <f>MataMataA!M45</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="89"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="108">
-        <f>MataMataC02!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="94">
-        <f>MataMataC02!I15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="108">
-        <f>MataMataC02!B47</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="94">
-        <f>MataMataC02!I47</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="96"/>
+      <c r="B15" s="124">
+        <f>MataMataA!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="131">
+        <f>MataMataA!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="132"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="106">
+        <f>MataMataA!B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="108">
+        <f>MataMataA!I47</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="109"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O16" s="67"/>
+      <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86">
-        <f>MataMataC02!A17</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="100">
-        <f>MataMataC02!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="97">
-        <f>MataMataC02!F17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="104" t="s">
+      <c r="A17" s="88">
+        <f>MataMataA!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="118">
+        <f>MataMataA!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="133">
+        <f>MataMataA!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="105">
-        <f>MataMataC02!H17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="88">
-        <f>MataMataC02!I17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="86">
-        <f>MataMataC02!M17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="86">
-        <f>MataMataC02!A49</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="100">
-        <f>MataMataC02!B49</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="97">
-        <f>MataMataC02!F49</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="104" t="s">
+      <c r="H17" s="115">
+        <f>MataMataA!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="126">
+        <f>MataMataA!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="88">
+        <f>MataMataA!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="88">
+        <f>MataMataA!A49</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="152">
+        <f>MataMataA!B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="149">
+        <f>MataMataA!F49</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V17" s="105">
-        <f>MataMataC02!H49</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="88">
-        <f>MataMataC02!I49</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="86">
-        <f>MataMataC02!M49</f>
+      <c r="V17" s="100">
+        <f>MataMataA!H49</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="103">
+        <f>MataMataA!I49</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="88">
+        <f>MataMataA!M49</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="93"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="89"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="108">
-        <f>MataMataC02!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="94">
-        <f>MataMataC02!I19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="108">
-        <f>MataMataC02!B51</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="94">
-        <f>MataMataC02!I51</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="96"/>
+      <c r="B19" s="124">
+        <f>MataMataA!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="131">
+        <f>MataMataA!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="132"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="106">
+        <f>MataMataA!B51</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="108">
+        <f>MataMataA!I51</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="109"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O20" s="67"/>
+      <c r="O20" s="70"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86">
-        <f>MataMataC02!A21</f>
-        <v>0</v>
-      </c>
-      <c r="B21" s="100">
-        <f>MataMataC02!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="97">
-        <f>MataMataC02!F21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="104" t="s">
+      <c r="A21" s="88">
+        <f>MataMataA!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="118">
+        <f>MataMataA!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="133">
+        <f>MataMataA!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="105">
-        <f>MataMataC02!H21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="88">
-        <f>MataMataC02!I21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="86">
-        <f>MataMataC02!M21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="86">
-        <f>MataMataC02!A53</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="100">
-        <f>MataMataC02!B53</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="97">
-        <f>MataMataC02!F53</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="104" t="s">
+      <c r="H21" s="115">
+        <f>MataMataA!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="126">
+        <f>MataMataA!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="88">
+        <f>MataMataA!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="88">
+        <f>MataMataA!A53</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="152">
+        <f>MataMataA!B53</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="149">
+        <f>MataMataA!F53</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V21" s="105">
-        <f>MataMataC02!H53</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="88">
-        <f>MataMataC02!I53</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="86">
-        <f>MataMataC02!M53</f>
+      <c r="V21" s="100">
+        <f>MataMataA!H53</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="103">
+        <f>MataMataA!I53</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="88">
+        <f>MataMataA!M53</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="93"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="108">
-        <f>MataMataC02!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="94">
-        <f>MataMataC02!I23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="108">
-        <f>MataMataC02!B55</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="94">
-        <f>MataMataC02!I55</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="96"/>
+      <c r="B23" s="124">
+        <f>MataMataA!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="131">
+        <f>MataMataA!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="132"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="106">
+        <f>MataMataA!B55</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="108">
+        <f>MataMataA!I55</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O24" s="67"/>
+      <c r="O24" s="70"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86">
-        <f>MataMataC02!A25</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="100">
-        <f>MataMataC02!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="97">
-        <f>MataMataC02!F25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="104" t="s">
+      <c r="A25" s="88">
+        <f>MataMataA!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="118">
+        <f>MataMataA!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="133">
+        <f>MataMataA!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="105">
-        <f>MataMataC02!H25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="88">
-        <f>MataMataC02!I25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="86">
-        <f>MataMataC02!M25</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="86">
-        <f>MataMataC02!A57</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="100">
-        <f>MataMataC02!B57</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="97">
-        <f>MataMataC02!F57</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="104" t="s">
+      <c r="H25" s="115">
+        <f>MataMataA!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="126">
+        <f>MataMataA!I25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="88">
+        <f>MataMataA!M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="88">
+        <f>MataMataA!A57</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="152">
+        <f>MataMataA!B57</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="149">
+        <f>MataMataA!F57</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V25" s="105">
-        <f>MataMataC02!H57</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="88">
-        <f>MataMataC02!I57</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="86">
-        <f>MataMataC02!M57</f>
+      <c r="V25" s="100">
+        <f>MataMataA!H57</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="103">
+        <f>MataMataA!I57</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="88">
+        <f>MataMataA!M57</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="93"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="108">
-        <f>MataMataC02!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="94">
-        <f>MataMataC02!I27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="108">
-        <f>MataMataC02!B59</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="94">
-        <f>MataMataC02!I59</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="96"/>
+      <c r="B27" s="124">
+        <f>MataMataA!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="131">
+        <f>MataMataA!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="132"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="106">
+        <f>MataMataA!B59</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="108">
+        <f>MataMataA!I59</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="109"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O28" s="67"/>
+      <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86">
-        <f>MataMataC02!A29</f>
-        <v>0</v>
-      </c>
-      <c r="B29" s="100">
-        <f>MataMataC02!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="97">
-        <f>MataMataC02!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="104" t="s">
+      <c r="A29" s="88">
+        <f>MataMataA!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="118">
+        <f>MataMataA!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="133">
+        <f>MataMataA!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="105">
-        <f>MataMataC02!H29</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="88">
-        <f>MataMataC02!I29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="86">
-        <f>MataMataC02!M29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="86">
-        <f>MataMataC02!A61</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="100">
-        <f>MataMataC02!B61</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="97">
-        <f>MataMataC02!F61</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="104" t="s">
+      <c r="H29" s="115">
+        <f>MataMataA!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="126">
+        <f>MataMataA!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="88">
+        <f>MataMataA!M29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="88">
+        <f>MataMataA!A61</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="152">
+        <f>MataMataA!B61</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="149">
+        <f>MataMataA!F61</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="V29" s="105">
-        <f>MataMataC02!H61</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="88">
-        <f>MataMataC02!I61</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="86">
-        <f>MataMataC02!M61</f>
+      <c r="V29" s="100">
+        <f>MataMataA!H61</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="103">
+        <f>MataMataA!I61</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="88">
+        <f>MataMataA!M61</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="93"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="89"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="108">
-        <f>MataMataC02!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="94">
-        <f>MataMataC02!I31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="108">
-        <f>MataMataC02!B63</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="94">
-        <f>MataMataC02!I63</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="96"/>
+      <c r="B31" s="124">
+        <f>MataMataA!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="131">
+        <f>MataMataA!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="132"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="106">
+        <f>MataMataA!B63</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="108">
+        <f>MataMataA!I63</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="109"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="W29:Z30"/>
     <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="P31:S31"/>
     <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="M29:M30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P29:S30"/>
     <mergeCell ref="T29:T31"/>
     <mergeCell ref="U29:U31"/>
     <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:Z30"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:S14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:S2"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:Z2"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:E30"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="I29:L30"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:E26"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="I21:L22"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:L18"/>
-    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:L14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:L10"/>
-    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:L6"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:L2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C709C84B-973D-42F1-9434-BE1993F40DE5}">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29:V31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="70" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="69" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="71" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="71" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="71" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="69" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="71" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="69" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="71" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="71" customWidth="1"/>
+    <col min="28" max="34" width="9.140625" style="71" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88">
+        <f>MataMataB!A1</f>
+        <v>28375476</v>
+      </c>
+      <c r="B1" s="118" t="str">
+        <f>MataMataB!B1</f>
+        <v>The wailers. Pro</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="133">
+        <f>MataMataB!F1</f>
+        <v>69.75</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="115">
+        <f>MataMataB!H1</f>
+        <v>54.55</v>
+      </c>
+      <c r="I1" s="126" t="str">
+        <f>MataMataB!I1</f>
+        <v>FUT ART SP</v>
+      </c>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="88">
+        <f>MataMataB!M1</f>
+        <v>5545590</v>
+      </c>
+      <c r="O1" s="88">
+        <f>MataMataB!A33</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="90">
+        <f>MataMataB!B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="96">
+        <f>MataMataB!F33</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="100">
+        <f>MataMataB!H33</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="103">
+        <f>MataMataB!I33</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="88">
+        <f>MataMataB!M33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="125"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="124" t="str">
+        <f>MataMataB!B3</f>
+        <v>thiago leal de assis</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="131" t="str">
+        <f>MataMataB!I3</f>
+        <v>Fabio Massini</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="132"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="106">
+        <f>MataMataB!B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="108">
+        <f>MataMataB!I35</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="109"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O4" s="70"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88">
+        <f>MataMataB!A5</f>
+        <v>14033643</v>
+      </c>
+      <c r="B5" s="118" t="str">
+        <f>MataMataB!B5</f>
+        <v>DiasBons EC</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="133">
+        <f>MataMataB!F5</f>
+        <v>60.11</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="115">
+        <f>MataMataB!H5</f>
+        <v>91.780000000000015</v>
+      </c>
+      <c r="I5" s="126" t="str">
+        <f>MataMataB!I5</f>
+        <v>Real Litoral FC</v>
+      </c>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="88">
+        <f>MataMataB!M5</f>
+        <v>874216</v>
+      </c>
+      <c r="O5" s="88">
+        <f>MataMataB!A37</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="90">
+        <f>MataMataB!B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="96">
+        <f>MataMataB!F37</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V5" s="100">
+        <f>MataMataB!H37</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="103">
+        <f>MataMataB!I37</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="88">
+        <f>MataMataB!M37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="89"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="124" t="str">
+        <f>MataMataB!B7</f>
+        <v>Nilson Dias</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="131" t="str">
+        <f>MataMataB!I7</f>
+        <v xml:space="preserve">Marcelo Henrique </v>
+      </c>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="132"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="106">
+        <f>MataMataB!B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="108">
+        <f>MataMataB!I39</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="109"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O8" s="70"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88">
+        <f>MataMataB!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="118">
+        <f>MataMataB!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="133">
+        <f>MataMataB!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="115">
+        <f>MataMataB!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="126">
+        <f>MataMataB!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="88">
+        <f>MataMataB!M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="88">
+        <f>MataMataB!A41</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="90">
+        <f>MataMataB!B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="96">
+        <f>MataMataB!F41</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V9" s="100">
+        <f>MataMataB!H41</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="103">
+        <f>MataMataB!I41</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="88">
+        <f>MataMataB!M41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="89"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="124">
+        <f>MataMataB!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="131">
+        <f>MataMataB!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="132"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="106">
+        <f>MataMataB!B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="108">
+        <f>MataMataB!I43</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="109"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O12" s="70"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="88">
+        <f>MataMataB!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="118">
+        <f>MataMataB!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="133">
+        <f>MataMataB!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="115">
+        <f>MataMataB!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="126">
+        <f>MataMataB!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="88">
+        <f>MataMataB!M13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="88">
+        <f>MataMataB!A45</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="90">
+        <f>MataMataB!B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="96">
+        <f>MataMataB!F45</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V13" s="100">
+        <f>MataMataB!H45</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="103">
+        <f>MataMataB!I45</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="88">
+        <f>MataMataB!M45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="89"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="124">
+        <f>MataMataB!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="131">
+        <f>MataMataB!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="132"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="106">
+        <f>MataMataB!B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="108">
+        <f>MataMataB!I47</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="109"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="70"/>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88">
+        <f>MataMataB!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="118">
+        <f>MataMataB!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="133">
+        <f>MataMataB!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="115">
+        <f>MataMataB!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="126">
+        <f>MataMataB!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="88">
+        <f>MataMataB!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="88">
+        <f>MataMataB!A49</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="90">
+        <f>MataMataB!B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="96">
+        <f>MataMataB!F49</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V17" s="100">
+        <f>MataMataB!H49</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="103">
+        <f>MataMataB!I49</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="88">
+        <f>MataMataB!M49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="125"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="89"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="124">
+        <f>MataMataB!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="131">
+        <f>MataMataB!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="132"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="106">
+        <f>MataMataB!B51</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="108">
+        <f>MataMataB!I51</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="109"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="70"/>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
+        <f>MataMataB!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="118">
+        <f>MataMataB!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="133">
+        <f>MataMataB!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="115">
+        <f>MataMataB!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="126">
+        <f>MataMataB!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="88">
+        <f>MataMataB!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="88">
+        <f>MataMataB!A53</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="90">
+        <f>MataMataB!B53</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="96">
+        <f>MataMataB!F53</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V21" s="100">
+        <f>MataMataB!H53</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="103">
+        <f>MataMataB!I53</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="88">
+        <f>MataMataB!M53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="125"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="89"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="124">
+        <f>MataMataB!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="131">
+        <f>MataMataB!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="132"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="106">
+        <f>MataMataB!B55</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="108">
+        <f>MataMataB!I55</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="109"/>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="70"/>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88">
+        <f>MataMataB!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="118">
+        <f>MataMataB!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="133">
+        <f>MataMataB!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="115">
+        <f>MataMataB!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="126">
+        <f>MataMataB!I25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="88">
+        <f>MataMataB!M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="88">
+        <f>MataMataB!A57</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="90">
+        <f>MataMataB!B57</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="96">
+        <f>MataMataB!F57</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V25" s="100">
+        <f>MataMataB!H57</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="103">
+        <f>MataMataB!I57</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="88">
+        <f>MataMataB!M57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="125"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="89"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="124">
+        <f>MataMataB!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="131">
+        <f>MataMataB!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="132"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="106">
+        <f>MataMataB!B59</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="108">
+        <f>MataMataB!I59</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="109"/>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="70"/>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88">
+        <f>MataMataB!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="118">
+        <f>MataMataB!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="133">
+        <f>MataMataB!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="115">
+        <f>MataMataB!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="126">
+        <f>MataMataB!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="88">
+        <f>MataMataB!M29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="88">
+        <f>MataMataB!A61</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="90">
+        <f>MataMataB!B61</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="96">
+        <f>MataMataB!F61</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="V29" s="100">
+        <f>MataMataB!H61</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="103">
+        <f>MataMataB!I61</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="88">
+        <f>MataMataB!M61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="125"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="89"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="124">
+        <f>MataMataB!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="131">
+        <f>MataMataB!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="132"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="106">
+        <f>MataMataB!B63</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="108">
+        <f>MataMataB!I63</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="109"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="W1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ligaroletarussa2021.xlsx
+++ b/ligaroletarussa2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode-Projetos\automacao_ligaroletarussa2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristiano\Documents\LigaRoletaRussa2021\automacao_ligaroletarussa2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE5805-D183-4A08-96DE-744B739414B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78877F1F-F3E6-4847-A790-D886BA81BD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="598" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informativo" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,19 @@
     <sheet name="MMDuplas" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="392">
   <si>
     <t>Turno</t>
   </si>
@@ -1205,6 +1213,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Shock Team</t>
   </si>
 </sst>
 </file>
@@ -2129,16 +2140,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,37 +2179,42 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2192,61 +2227,37 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,7 +2698,7 @@
       <c r="S2" s="77"/>
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="77"/>
@@ -2870,32 +2881,32 @@
       <c r="BG3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BI3" s="78" t="s">
+      <c r="BI3" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="75"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="86"/>
       <c r="BN3" s="48"/>
-      <c r="BO3" s="80" t="s">
+      <c r="BO3" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="75"/>
-      <c r="BU3" s="81" t="s">
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="86"/>
+      <c r="BU3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="75"/>
-      <c r="CA3" s="74" t="s">
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
+      <c r="BX3" s="88"/>
+      <c r="BY3" s="86"/>
+      <c r="CA3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="CB3" s="75"/>
+      <c r="CB3" s="86"/>
       <c r="CD3" s="1"/>
       <c r="CE3" s="12" t="s">
         <v>12</v>
@@ -2986,7 +2997,7 @@
       <c r="Z4" s="19">
         <v>1600</v>
       </c>
-      <c r="AB4" s="86" t="s">
+      <c r="AB4" s="80" t="s">
         <v>23</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -3190,7 +3201,7 @@
       <c r="Z5" s="17">
         <v>800</v>
       </c>
-      <c r="AB5" s="84"/>
+      <c r="AB5" s="81"/>
       <c r="AC5" s="11" t="s">
         <v>28</v>
       </c>
@@ -3415,7 +3426,7 @@
       <c r="Z6" s="17">
         <v>600</v>
       </c>
-      <c r="AB6" s="86" t="s">
+      <c r="AB6" s="80" t="s">
         <v>40</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -3432,7 +3443,7 @@
       <c r="AF6" s="25">
         <v>100</v>
       </c>
-      <c r="AH6" s="84"/>
+      <c r="AH6" s="81"/>
       <c r="AI6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3442,7 +3453,7 @@
       <c r="AK6" s="26">
         <v>30</v>
       </c>
-      <c r="AM6" s="84"/>
+      <c r="AM6" s="81"/>
       <c r="AN6" s="11" t="s">
         <v>39</v>
       </c>
@@ -3482,7 +3493,7 @@
       <c r="BB6" s="30">
         <v>300</v>
       </c>
-      <c r="BD6" s="84"/>
+      <c r="BD6" s="81"/>
       <c r="BE6" s="11" t="s">
         <v>39</v>
       </c>
@@ -3582,7 +3593,7 @@
       <c r="Z7" s="17">
         <v>500</v>
       </c>
-      <c r="AB7" s="84"/>
+      <c r="AB7" s="81"/>
       <c r="AC7" s="11" t="s">
         <v>28</v>
       </c>
@@ -3739,10 +3750,10 @@
       </c>
     </row>
     <row r="8" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="13"/>
       <c r="W8" s="10" t="s">
         <v>61</v>
@@ -3758,7 +3769,7 @@
       <c r="Z8" s="17">
         <v>400</v>
       </c>
-      <c r="AB8" s="86" t="s">
+      <c r="AB8" s="80" t="s">
         <v>62</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -3930,7 +3941,7 @@
       <c r="Z9" s="17">
         <v>350</v>
       </c>
-      <c r="AB9" s="84"/>
+      <c r="AB9" s="81"/>
       <c r="AC9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3945,7 +3956,7 @@
       <c r="AF9" s="18">
         <v>50</v>
       </c>
-      <c r="AH9" s="84"/>
+      <c r="AH9" s="81"/>
       <c r="AI9" s="11" t="s">
         <v>41</v>
       </c>
@@ -3955,7 +3966,7 @@
       <c r="AK9" s="26">
         <v>30</v>
       </c>
-      <c r="AM9" s="84"/>
+      <c r="AM9" s="81"/>
       <c r="AN9" s="11" t="s">
         <v>39</v>
       </c>
@@ -3991,7 +4002,7 @@
       <c r="AZ9" s="39"/>
       <c r="BA9" s="39"/>
       <c r="BB9" s="39"/>
-      <c r="BD9" s="84"/>
+      <c r="BD9" s="81"/>
       <c r="BE9" s="11" t="s">
         <v>39</v>
       </c>
@@ -4089,7 +4100,7 @@
       <c r="Z10" s="17">
         <v>300</v>
       </c>
-      <c r="AB10" s="86" t="s">
+      <c r="AB10" s="80" t="s">
         <v>81</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -4252,7 +4263,7 @@
       <c r="Z11" s="17">
         <v>250</v>
       </c>
-      <c r="AB11" s="84"/>
+      <c r="AB11" s="81"/>
       <c r="AC11" s="11" t="s">
         <v>28</v>
       </c>
@@ -4407,7 +4418,7 @@
       <c r="Z12" s="17">
         <v>200</v>
       </c>
-      <c r="AB12" s="86" t="s">
+      <c r="AB12" s="80" t="s">
         <v>95</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -4424,7 +4435,7 @@
       <c r="AF12" s="19">
         <v>100</v>
       </c>
-      <c r="AH12" s="84"/>
+      <c r="AH12" s="81"/>
       <c r="AI12" s="11" t="s">
         <v>41</v>
       </c>
@@ -4432,7 +4443,7 @@
       <c r="AK12" s="18">
         <v>30</v>
       </c>
-      <c r="AM12" s="84"/>
+      <c r="AM12" s="81"/>
       <c r="AN12" s="11" t="s">
         <v>39</v>
       </c>
@@ -4466,7 +4477,7 @@
       <c r="AZ12" s="39"/>
       <c r="BA12" s="39"/>
       <c r="BB12" s="39"/>
-      <c r="BD12" s="84"/>
+      <c r="BD12" s="81"/>
       <c r="BE12" s="11" t="s">
         <v>39</v>
       </c>
@@ -4564,7 +4575,7 @@
       <c r="Z13" s="18">
         <v>150</v>
       </c>
-      <c r="AB13" s="84"/>
+      <c r="AB13" s="81"/>
       <c r="AC13" s="11" t="s">
         <v>28</v>
       </c>
@@ -4706,12 +4717,12 @@
       </c>
     </row>
     <row r="14" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="13"/>
-      <c r="AB14" s="86" t="s">
+      <c r="AB14" s="80" t="s">
         <v>107</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -4854,7 +4865,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="AB15" s="84"/>
+      <c r="AB15" s="81"/>
       <c r="AC15" s="11" t="s">
         <v>28</v>
       </c>
@@ -4869,7 +4880,7 @@
       <c r="AF15" s="18">
         <v>50</v>
       </c>
-      <c r="AH15" s="84"/>
+      <c r="AH15" s="81"/>
       <c r="AI15" s="11" t="s">
         <v>41</v>
       </c>
@@ -4877,7 +4888,7 @@
       <c r="AK15" s="18">
         <v>30</v>
       </c>
-      <c r="AM15" s="84"/>
+      <c r="AM15" s="81"/>
       <c r="AN15" s="11" t="s">
         <v>39</v>
       </c>
@@ -4911,7 +4922,7 @@
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BD15" s="84"/>
+      <c r="BD15" s="81"/>
       <c r="BE15" s="11" t="s">
         <v>39</v>
       </c>
@@ -4995,7 +5006,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="AB16" s="86" t="s">
+      <c r="AB16" s="80" t="s">
         <v>118</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -5144,7 +5155,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="AB17" s="84"/>
+      <c r="AB17" s="81"/>
       <c r="AC17" s="11" t="s">
         <v>28</v>
       </c>
@@ -5285,7 +5296,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="AB18" s="86" t="s">
+      <c r="AB18" s="80" t="s">
         <v>129</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -5302,7 +5313,7 @@
       <c r="AF18" s="19">
         <v>100</v>
       </c>
-      <c r="AH18" s="84"/>
+      <c r="AH18" s="81"/>
       <c r="AI18" s="11" t="s">
         <v>41</v>
       </c>
@@ -5310,7 +5321,7 @@
       <c r="AK18" s="18">
         <v>30</v>
       </c>
-      <c r="AM18" s="84"/>
+      <c r="AM18" s="81"/>
       <c r="AN18" s="11" t="s">
         <v>39</v>
       </c>
@@ -5344,7 +5355,7 @@
       <c r="AZ18" s="39"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="39"/>
-      <c r="BD18" s="84"/>
+      <c r="BD18" s="81"/>
       <c r="BE18" s="11" t="s">
         <v>39</v>
       </c>
@@ -5428,7 +5439,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="AB19" s="84"/>
+      <c r="AB19" s="81"/>
       <c r="AC19" s="11" t="s">
         <v>28</v>
       </c>
@@ -5570,11 +5581,11 @@
       </c>
     </row>
     <row r="20" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="AH20" s="83"/>
       <c r="AI20" s="10" t="s">
         <v>29</v>
@@ -5701,7 +5712,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="AH21" s="84"/>
+      <c r="AH21" s="81"/>
       <c r="AI21" s="11" t="s">
         <v>41</v>
       </c>
@@ -5709,7 +5720,7 @@
       <c r="AK21" s="18">
         <v>30</v>
       </c>
-      <c r="AM21" s="84"/>
+      <c r="AM21" s="81"/>
       <c r="AN21" s="11" t="s">
         <v>39</v>
       </c>
@@ -5743,7 +5754,7 @@
       <c r="AZ21" s="39"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="39"/>
-      <c r="BD21" s="84"/>
+      <c r="BD21" s="81"/>
       <c r="BE21" s="11" t="s">
         <v>39</v>
       </c>
@@ -5977,7 +5988,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="AH24" s="84"/>
+      <c r="AH24" s="81"/>
       <c r="AI24" s="11" t="s">
         <v>41</v>
       </c>
@@ -5985,7 +5996,7 @@
       <c r="AK24" s="18">
         <v>30</v>
       </c>
-      <c r="AM24" s="84"/>
+      <c r="AM24" s="81"/>
       <c r="AN24" s="11" t="s">
         <v>39</v>
       </c>
@@ -6019,7 +6030,7 @@
       <c r="AZ24" s="39"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="39"/>
-      <c r="BD24" s="84"/>
+      <c r="BD24" s="81"/>
       <c r="BE24" s="11" t="s">
         <v>39</v>
       </c>
@@ -6427,6 +6438,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BO3:BS3"/>
+    <mergeCell ref="BU3:BY3"/>
+    <mergeCell ref="BD19:BD21"/>
+    <mergeCell ref="BD22:BD24"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="BD13:BD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BD7:BD9"/>
+    <mergeCell ref="BD10:BD12"/>
     <mergeCell ref="CD2:CI2"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:E14"/>
@@ -6443,40 +6488,6 @@
     <mergeCell ref="AM7:AM9"/>
     <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="BD7:BD9"/>
-    <mergeCell ref="BD10:BD12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BD19:BD21"/>
-    <mergeCell ref="BD22:BD24"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AM19:AM21"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="BD13:BD15"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BO3:BS3"/>
-    <mergeCell ref="BU3:BY3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6513,1093 +6524,1213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95">
+      <c r="A1" s="92">
         <f>MataMataA!A1</f>
         <v>2413548</v>
       </c>
-      <c r="B1" s="103" t="str">
+      <c r="B1" s="94" t="str">
         <f>MataMataA!B1</f>
         <v>HANDEVU FC</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="107">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="100">
         <f>MataMataA!F1</f>
         <v>0</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="111">
+      <c r="H1" s="105">
         <f>MataMataA!H1</f>
         <v>0</v>
       </c>
-      <c r="I1" s="90" t="str">
+      <c r="I1" s="108" t="str">
         <f>MataMataA!I1</f>
         <v>S.E. FINISH</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="95">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="92">
         <f>MataMataA!M1</f>
         <v>1368559</v>
       </c>
-      <c r="O1" s="95">
+      <c r="O1" s="92">
         <f>MataMataA!A33</f>
         <v>2264750</v>
       </c>
-      <c r="P1" s="103" t="str">
+      <c r="P1" s="94" t="str">
         <f>MataMataA!B33</f>
         <v>Porco Verde WA</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="107">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="100">
         <f>MataMataA!F33</f>
         <v>0</v>
       </c>
-      <c r="U1" s="110" t="s">
+      <c r="U1" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V1" s="111">
+      <c r="V1" s="105">
         <f>MataMataA!H33</f>
         <v>0</v>
       </c>
-      <c r="W1" s="90" t="str">
+      <c r="W1" s="108" t="str">
         <f>MataMataA!I33</f>
         <v>Shibo F.C.</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="95">
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="92">
         <f>MataMataA!M33</f>
         <v>13975930</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="96"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="104"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="111" t="str">
         <f>MataMataA!B3</f>
         <v>JOÃO MARCELO</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="99" t="str">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="113" t="str">
         <f>MataMataA!I3</f>
         <v>Guilherme Antiquera</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="100"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="114"/>
       <c r="O3" s="72"/>
-      <c r="P3" s="101" t="str">
+      <c r="P3" s="115" t="str">
         <f>MataMataA!B35</f>
         <v>William</v>
       </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="99" t="str">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="113" t="str">
         <f>MataMataA!I35</f>
         <v>Cirone</v>
       </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="100"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="114"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
+      <c r="A5" s="92">
         <f>MataMataA!A5</f>
         <v>28694260</v>
       </c>
-      <c r="B5" s="103" t="str">
+      <c r="B5" s="94" t="str">
         <f>MataMataA!B5</f>
         <v>The wailers F.c Brasilanjah</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="107">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="100">
         <f>MataMataA!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="105">
         <f>MataMataA!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="90" t="str">
+      <c r="I5" s="108" t="str">
         <f>MataMataA!I5</f>
         <v>SC BAYER DE MULEKES</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="95">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="92">
         <f>MataMataA!M5</f>
         <v>19877292</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="92">
         <f>MataMataA!A37</f>
         <v>22580</v>
       </c>
-      <c r="P5" s="103" t="str">
+      <c r="P5" s="94" t="str">
         <f>MataMataA!B37</f>
         <v>LiverpooI</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="107">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="100">
         <f>MataMataA!F37</f>
         <v>0</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="U5" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V5" s="111">
+      <c r="V5" s="105">
         <f>MataMataA!H37</f>
         <v>0</v>
       </c>
-      <c r="W5" s="90" t="str">
+      <c r="W5" s="108" t="str">
         <f>MataMataA!I37</f>
         <v>S.C. JUNIOR SIEMACO</v>
       </c>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="95">
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="92">
         <f>MataMataA!M37</f>
         <v>17893361</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="114"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="96"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="104"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97" t="str">
+      <c r="B7" s="111" t="str">
         <f>MataMataA!B7</f>
         <v>T.w</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="99" t="str">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="113" t="str">
         <f>MataMataA!I7</f>
         <v>FJR</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="100"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="114"/>
       <c r="O7" s="72"/>
-      <c r="P7" s="101" t="str">
+      <c r="P7" s="115" t="str">
         <f>MataMataA!B39</f>
         <v>Braine Jr.</v>
       </c>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="99" t="str">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="113" t="str">
         <f>MataMataA!I39</f>
         <v>JUNIOR SIND</v>
       </c>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="100"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="114"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95">
+      <c r="A9" s="92">
         <f>MataMataA!A9</f>
         <v>1678382</v>
       </c>
-      <c r="B9" s="103" t="str">
+      <c r="B9" s="94" t="str">
         <f>MataMataA!B9</f>
         <v>verdao29fc</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="107">
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="100">
         <f>MataMataA!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="105">
         <f>MataMataA!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="90" t="str">
+      <c r="I9" s="108" t="str">
         <f>MataMataA!I9</f>
         <v>LQueiroz Castelucas FC</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="95">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="92">
         <f>MataMataA!M9</f>
         <v>109055</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O9" s="92">
         <f>MataMataA!A41</f>
         <v>15980668</v>
       </c>
-      <c r="P9" s="103" t="str">
+      <c r="P9" s="94" t="str">
         <f>MataMataA!B41</f>
         <v xml:space="preserve"> Holanda de Wakanda</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="107">
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="100">
         <f>MataMataA!F41</f>
         <v>0</v>
       </c>
-      <c r="U9" s="110" t="s">
+      <c r="U9" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V9" s="111">
+      <c r="V9" s="105">
         <f>MataMataA!H41</f>
         <v>0</v>
       </c>
-      <c r="W9" s="90" t="str">
+      <c r="W9" s="108" t="str">
         <f>MataMataA!I41</f>
         <v>São Paulo Edu Física</v>
       </c>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="95">
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="92">
         <f>MataMataA!M41</f>
         <v>123627</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="96"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="104"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="97" t="str">
+      <c r="B11" s="111" t="str">
         <f>MataMataA!B11</f>
         <v>iago F</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="99" t="str">
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="113" t="str">
         <f>MataMataA!I11</f>
         <v>Luide Queiroz</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="100"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="114"/>
       <c r="O11" s="72"/>
-      <c r="P11" s="101" t="str">
+      <c r="P11" s="115" t="str">
         <f>MataMataA!B43</f>
         <v>Zégolas Snyder</v>
       </c>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="99" t="str">
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="113" t="str">
         <f>MataMataA!I43</f>
         <v>Daniel Aquino</v>
       </c>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="100"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="114"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="A13" s="92">
         <f>MataMataA!A13</f>
         <v>14792674</v>
       </c>
-      <c r="B13" s="103" t="str">
+      <c r="B13" s="94" t="str">
         <f>MataMataA!B13</f>
         <v>Artefutt</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="107">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="100">
         <f>MataMataA!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="105">
         <f>MataMataA!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="90" t="str">
+      <c r="I13" s="108" t="str">
         <f>MataMataA!I13</f>
         <v>Palestra 1000 Grau fc</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="95">
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="92">
         <f>MataMataA!M13</f>
         <v>22924436</v>
       </c>
-      <c r="O13" s="95">
+      <c r="O13" s="92">
         <f>MataMataA!A45</f>
         <v>18251359</v>
       </c>
-      <c r="P13" s="103" t="str">
+      <c r="P13" s="94" t="str">
         <f>MataMataA!B45</f>
         <v>THG VILA IZABEL FC</v>
       </c>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="107">
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="100">
         <f>MataMataA!F45</f>
         <v>0</v>
       </c>
-      <c r="U13" s="110" t="s">
+      <c r="U13" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V13" s="111">
+      <c r="V13" s="105">
         <f>MataMataA!H45</f>
         <v>0</v>
       </c>
-      <c r="W13" s="90" t="str">
+      <c r="W13" s="108" t="str">
         <f>MataMataA!I45</f>
         <v>Pagangrizo’s team</v>
       </c>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="95">
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="92">
         <f>MataMataA!M45</f>
         <v>1356438</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="96"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="104"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="97" t="str">
+      <c r="B15" s="111" t="str">
         <f>MataMataA!B15</f>
         <v>Rodolfo Oliveira</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="99" t="str">
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="113" t="str">
         <f>MataMataA!I15</f>
         <v>Thomaz</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="100"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="114"/>
       <c r="O15" s="72"/>
-      <c r="P15" s="101" t="str">
+      <c r="P15" s="115" t="str">
         <f>MataMataA!B47</f>
         <v>Thiago</v>
       </c>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="99" t="str">
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="113" t="str">
         <f>MataMataA!I47</f>
         <v xml:space="preserve">Pedro Pagangrizo </v>
       </c>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="100"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="114"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O16" s="72"/>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95">
+      <c r="A17" s="92">
         <f>MataMataA!A17</f>
         <v>5392593</v>
       </c>
-      <c r="B17" s="103" t="str">
+      <c r="B17" s="94" t="str">
         <f>MataMataA!B17</f>
         <v>CHAPELETA10</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="107">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="100">
         <f>MataMataA!F17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="105">
         <f>MataMataA!H17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="90" t="str">
+      <c r="I17" s="108" t="str">
         <f>MataMataA!I17</f>
         <v>Real Litoral FC</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="95">
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="92">
         <f>MataMataA!M17</f>
         <v>874216</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O17" s="92">
         <f>MataMataA!A49</f>
         <v>25481169</v>
       </c>
-      <c r="P17" s="103" t="str">
+      <c r="P17" s="94" t="str">
         <f>MataMataA!B49</f>
         <v>Cata Cata 71</v>
       </c>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="107">
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="100">
         <f>MataMataA!F49</f>
         <v>0</v>
       </c>
-      <c r="U17" s="110" t="s">
+      <c r="U17" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V17" s="111">
+      <c r="V17" s="105">
         <f>MataMataA!H49</f>
         <v>0</v>
       </c>
-      <c r="W17" s="90" t="str">
+      <c r="W17" s="108" t="str">
         <f>MataMataA!I49</f>
         <v>É o bonde COM freio 2021 !</v>
       </c>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="95">
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="92">
         <f>MataMataA!M49</f>
         <v>13992033</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="96"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="104"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="97" t="str">
+      <c r="B19" s="111" t="str">
         <f>MataMataA!B19</f>
         <v>Jean Machado</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="99" t="str">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="113" t="str">
         <f>MataMataA!I19</f>
         <v xml:space="preserve">Marcelo Henrique </v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="100"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="114"/>
       <c r="O19" s="72"/>
-      <c r="P19" s="101" t="str">
+      <c r="P19" s="115" t="str">
         <f>MataMataA!B51</f>
         <v>Ronaldo</v>
       </c>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="99" t="str">
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="113" t="str">
         <f>MataMataA!I51</f>
         <v>ROGÉRIO BULHÕES</v>
       </c>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="100"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="114"/>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O20" s="72"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="95">
+      <c r="A21" s="92">
         <f>MataMataA!A21</f>
         <v>5291491</v>
       </c>
-      <c r="B21" s="103" t="str">
+      <c r="B21" s="94" t="str">
         <f>MataMataA!B21</f>
         <v>Rei dos mares F.C</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="107">
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="100">
         <f>MataMataA!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="105">
         <f>MataMataA!H21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="90" t="str">
+      <c r="I21" s="108" t="str">
         <f>MataMataA!I21</f>
         <v>alhfao</v>
       </c>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="95">
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="92">
         <f>MataMataA!M21</f>
         <v>13994692</v>
       </c>
-      <c r="O21" s="95">
+      <c r="O21" s="92">
         <f>MataMataA!A53</f>
         <v>28375476</v>
       </c>
-      <c r="P21" s="103" t="str">
+      <c r="P21" s="94" t="str">
         <f>MataMataA!B53</f>
         <v>The Wailers F.c brasilandiaaaa</v>
       </c>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="107">
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="100">
         <f>MataMataA!F53</f>
         <v>0</v>
       </c>
-      <c r="U21" s="110" t="s">
+      <c r="U21" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V21" s="111">
+      <c r="V21" s="105">
         <f>MataMataA!H53</f>
         <v>0</v>
       </c>
-      <c r="W21" s="90" t="str">
+      <c r="W21" s="108" t="str">
         <f>MataMataA!I53</f>
         <v>REF$CAMPEÃO$</v>
       </c>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="95">
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="92">
         <f>MataMataA!M53</f>
         <v>897722</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="96"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="104"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="97" t="str">
+      <c r="B23" s="111" t="str">
         <f>MataMataA!B23</f>
         <v>Felipe Fick</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="99" t="str">
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="113" t="str">
         <f>MataMataA!I23</f>
         <v>alf</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="100"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="114"/>
       <c r="O23" s="72"/>
-      <c r="P23" s="101" t="str">
+      <c r="P23" s="115" t="str">
         <f>MataMataA!B55</f>
         <v>thiago leal de assis</v>
       </c>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="99" t="str">
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="113" t="str">
         <f>MataMataA!I55</f>
         <v>KAUE</v>
       </c>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="100"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="114"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O24" s="72"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="95">
+      <c r="A25" s="92">
         <f>MataMataA!A25</f>
         <v>215331</v>
       </c>
-      <c r="B25" s="103" t="str">
+      <c r="B25" s="94" t="str">
         <f>MataMataA!B25</f>
         <v>Renato 007 Exp 2021</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="107">
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="100">
         <f>MataMataA!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="110" t="s">
+      <c r="G25" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="105">
         <f>MataMataA!H25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="90" t="str">
+      <c r="I25" s="108" t="str">
         <f>MataMataA!I25</f>
         <v>Brasilândia MSFC</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="95">
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="92">
         <f>MataMataA!M25</f>
         <v>9701803</v>
       </c>
-      <c r="O25" s="95">
+      <c r="O25" s="92">
         <f>MataMataA!A57</f>
         <v>370001</v>
       </c>
-      <c r="P25" s="103" t="str">
+      <c r="P25" s="94" t="str">
         <f>MataMataA!B57</f>
         <v>E.C SIEMACO SP</v>
       </c>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="107">
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="100">
         <f>MataMataA!F57</f>
         <v>0</v>
       </c>
-      <c r="U25" s="110" t="s">
+      <c r="U25" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V25" s="111">
+      <c r="V25" s="105">
         <f>MataMataA!H57</f>
         <v>0</v>
       </c>
-      <c r="W25" s="90" t="str">
+      <c r="W25" s="108" t="str">
         <f>MataMataA!I57</f>
         <v>FisioT's</v>
       </c>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="95">
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="92">
         <f>MataMataA!M57</f>
         <v>8523190</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="96"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="104"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="97" t="str">
+      <c r="B27" s="111" t="str">
         <f>MataMataA!B27</f>
         <v>Renato</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="99" t="str">
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="113" t="str">
         <f>MataMataA!I27</f>
         <v>Marlon Augusto</v>
       </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="100"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="114"/>
       <c r="O27" s="72"/>
-      <c r="P27" s="101" t="str">
+      <c r="P27" s="115" t="str">
         <f>MataMataA!B59</f>
         <v>Fabio Cruz</v>
       </c>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="99" t="str">
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="113" t="str">
         <f>MataMataA!I59</f>
         <v xml:space="preserve">Diego Oliveira </v>
       </c>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="100"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="114"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O28" s="72"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95">
+      <c r="A29" s="92">
         <f>MataMataA!A29</f>
         <v>15000</v>
       </c>
-      <c r="B29" s="103" t="str">
+      <c r="B29" s="94" t="str">
         <f>MataMataA!B29</f>
         <v>Brahma 07 FC</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="107">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="100">
         <f>MataMataA!F29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="110" t="s">
+      <c r="G29" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H29" s="111">
+      <c r="H29" s="105">
         <f>MataMataA!H29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="90" t="str">
+      <c r="I29" s="108" t="str">
         <f>MataMataA!I29</f>
         <v>C.A. ELSHOW</v>
       </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="95">
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="92">
         <f>MataMataA!M29</f>
         <v>9391995</v>
       </c>
-      <c r="O29" s="95">
+      <c r="O29" s="92">
         <f>MataMataA!A61</f>
         <v>4510701</v>
       </c>
-      <c r="P29" s="103" t="str">
+      <c r="P29" s="94" t="str">
         <f>MataMataA!B61</f>
         <v>Xo Corona</v>
       </c>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="107">
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="100">
         <f>MataMataA!F61</f>
         <v>0</v>
       </c>
-      <c r="U29" s="110" t="s">
+      <c r="U29" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V29" s="111">
+      <c r="V29" s="105">
         <f>MataMataA!H61</f>
         <v>0</v>
       </c>
-      <c r="W29" s="90" t="str">
+      <c r="W29" s="108" t="str">
         <f>MataMataA!I61</f>
         <v>APOCALIPSE1910</v>
       </c>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="95">
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="92">
         <f>MataMataA!M61</f>
         <v>18930761</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="114"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="96"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="104"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="97" t="str">
+      <c r="B31" s="111" t="str">
         <f>MataMataA!B31</f>
         <v>Edgard_7</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="99" t="str">
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="113" t="str">
         <f>MataMataA!I31</f>
         <v>Elson Henrique</v>
       </c>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="100"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="114"/>
       <c r="O31" s="72"/>
-      <c r="P31" s="101" t="str">
+      <c r="P31" s="115" t="str">
         <f>MataMataA!B63</f>
         <v>Aramaki</v>
       </c>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="99" t="str">
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="113" t="str">
         <f>MataMataA!I63</f>
         <v>Alex</v>
       </c>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="100"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="114"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="W29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:S26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:L26"/>
+    <mergeCell ref="W21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:S14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="W9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="F5:F7"/>
@@ -7624,126 +7755,6 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:L2"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="W9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:S14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:L22"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:L18"/>
-    <mergeCell ref="W21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:L30"/>
-    <mergeCell ref="W25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:S26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:L26"/>
-    <mergeCell ref="W29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:S30"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7780,1093 +7791,1213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95">
+      <c r="A1" s="92">
         <f>MataMataB!A1</f>
         <v>8775722</v>
       </c>
-      <c r="B1" s="103" t="str">
+      <c r="B1" s="94" t="str">
         <f>MataMataB!B1</f>
         <v>Verdão 1000 grau FC</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="107">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="100">
         <f>MataMataB!F1</f>
         <v>0</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="111">
+      <c r="H1" s="105">
         <f>MataMataB!H1</f>
         <v>0</v>
       </c>
-      <c r="I1" s="90" t="str">
+      <c r="I1" s="108" t="str">
         <f>MataMataB!I1</f>
         <v>$uicide $quad F.C</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="95">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="92">
         <f>MataMataB!M1</f>
         <v>28208002</v>
       </c>
-      <c r="O1" s="95">
+      <c r="O1" s="92">
         <f>MataMataB!A33</f>
         <v>17340276</v>
       </c>
-      <c r="P1" s="103" t="str">
+      <c r="P1" s="94" t="str">
         <f>MataMataB!B33</f>
         <v xml:space="preserve">S.C. Brasilandia City </v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="107">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="100">
         <f>MataMataB!F33</f>
         <v>0</v>
       </c>
-      <c r="U1" s="110" t="s">
+      <c r="U1" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V1" s="111">
+      <c r="V1" s="105">
         <f>MataMataB!H33</f>
         <v>0</v>
       </c>
-      <c r="W1" s="90" t="str">
+      <c r="W1" s="108" t="str">
         <f>MataMataB!I33</f>
         <v>Zildane F.C</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="95">
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="92">
         <f>MataMataB!M33</f>
         <v>1179844</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="96"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="104"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="111" t="str">
         <f>MataMataB!B3</f>
         <v>Thomaz</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="99" t="str">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="113" t="str">
         <f>MataMataB!I3</f>
         <v>Slade Wilson</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="100"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="114"/>
       <c r="O3" s="72"/>
-      <c r="P3" s="97" t="str">
+      <c r="P3" s="111" t="str">
         <f>MataMataB!B35</f>
         <v>Jhonattan Willians</v>
       </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="99" t="str">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="113" t="str">
         <f>MataMataB!I35</f>
         <v>Franklin</v>
       </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="100"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="114"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
+      <c r="A5" s="92">
         <f>MataMataB!A5</f>
         <v>1305492</v>
       </c>
-      <c r="B5" s="103" t="str">
+      <c r="B5" s="94" t="str">
         <f>MataMataB!B5</f>
         <v>Forró Social Club</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="107">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="100">
         <f>MataMataB!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="105">
         <f>MataMataB!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="90" t="str">
+      <c r="I5" s="108" t="str">
         <f>MataMataB!I5</f>
         <v>Tornadooo F.C</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="95">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="92">
         <f>MataMataB!M5</f>
         <v>5446995</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="92">
         <f>MataMataB!A37</f>
         <v>8186715</v>
       </c>
-      <c r="P5" s="103" t="str">
+      <c r="P5" s="94" t="str">
         <f>MataMataB!B37</f>
         <v>showlimafc</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="107">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="100">
         <f>MataMataB!F37</f>
         <v>0</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="U5" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="V5" s="111">
+      <c r="V5" s="105">
         <f>MataMataB!H37</f>
         <v>0</v>
       </c>
-      <c r="W5" s="90" t="str">
+      <c r="W5" s="108" t="str">
         <f>MataMataB!I37</f>
         <v>Bávaros Bier</v>
       </c>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="95">
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="92">
         <f>MataMataB!M37</f>
         <v>18058017</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="114"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="96"/>
-      <c r="O6" s=